--- a/spreadsheet/macrofree/sap_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ja.xlsx
@@ -1668,12 +1668,12 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/well-architected/sap/design-areas/security</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
@@ -1718,12 +1718,12 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
@@ -1768,7 +1768,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1814,12 +1814,12 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
         </is>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J24" s="22" t="n"/>
@@ -1865,7 +1865,7 @@
       <c r="H25" s="15" t="n"/>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
@@ -1910,12 +1910,12 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
@@ -1961,7 +1961,7 @@
       <c r="H27" s="15" t="n"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
@@ -2051,7 +2051,7 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
@@ -2096,7 +2096,7 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
@@ -2141,7 +2141,7 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
@@ -2232,7 +2232,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2278,7 +2278,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2370,12 +2370,12 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
@@ -2403,13 +2403,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>緊密に結合されたアプリケーションを同じSAPサブスクリプションに統合して、ルーティングと管理の複雑さを回避</t>
+          <t>密結合アプリケーションを同じSAPサブスクリプションに統合して、ルーティングと管理の複雑さを回避</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2420,12 +2420,12 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
@@ -2459,7 +2459,7 @@
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2470,12 +2470,12 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J38" s="22" t="n"/>
@@ -2503,13 +2503,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプションのプロビジョニングの一環としてクォータを増やします (サブスクリプション内で使用可能な VM コアの合計など)。</t>
+          <t>サブスクリプションのプロビジョニングの一環としてクォータを増やす (サブスクリプション内で使用可能な VM コアの合計など)</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2520,12 +2520,12 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
@@ -2553,13 +2553,13 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>必要なサービスと機能が、選択した展開リージョン内で利用可能であることを確認します。ANF、ゾーンなど</t>
+          <t>クォータ API は、Azure サービスのクォータを表示および管理するために使用できる REST API です。必要に応じて使用を検討してください。</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2570,19 +2570,15 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2603,13 +2599,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Azure リソース タグを活用して、コストの分類とリソースのグループ化 (請求先、部門 (または部署)、環境 (運用、ステージ、開発)、層 (Web 層、アプリケーション層)、アプリケーション所有者、プロジェクト名)</t>
+          <t>可用性ゾーンにデプロイする場合は、クォータが承認された後に VM のゾーン デプロイが使用可能であることを確認します。サブスクリプション、VM シリーズ、必要な CPU の数、可用性ゾーンを含むサポート リクエストを送信します。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2620,7 +2616,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2628,7 +2624,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2649,13 +2645,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>必要なサービスと機能が、選択した展開リージョン内で利用可能であることを確認します。ANF、ゾーンなど</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2666,15 +2662,19 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I42" s="15" t="n"/>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
+        </is>
+      </c>
+      <c r="I42" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+        </is>
+      </c>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>7d474317-6c8b-4cbf-95bb-e609d8a03e97</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Azure リソース タグを活用して、コストの分類とリソースのグループ化 (請求先、部門 (または部署)、環境 (運用、ステージ、開発)、層 (Web 層、アプリケーション層)、アプリケーション所有者、プロジェクト名)</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2712,15 +2712,19 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>778424d6-1678-45d6-ba96-c96ad88518f4</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>

--- a/spreadsheet/macrofree/sap_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ja.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>ASCS とデータベース クラスターを単一/同じ VM に結合しない</t>
+          <t>ASCS とデータベース クラスターを 1 つまたは同じ VM に結合しないでください</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>フローティング IP がロードバランサーで有効になっていることを確認します</t>
+          <t>ロードバランサーでフローティング IP が有効になっていることを確認します</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>同じ可用性セット内に異なるロールのサーバーを混在させないでください。中央サービス VM、データベース VM、アプリケーション VM を独自の可用性セットに保持する</t>
+          <t>同じ可用性セット内に異なるロールのサーバーを混在させないでください。セントラル サービス VM、データベース VM、アプリケーション VM を独自の可用性セットに保持する</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>SAP SID ごとに 1 つの近接通信配置グループを使用します。グループが可用性ゾーンまたは Azure リージョンにまたがっていない</t>
+          <t>SAP SID ごとに 1 つの近接配置グループを使用します。グループは、Availability Zones や Azure リージョンにまたがっていません</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Azure では現在、同じ Linux Pacemaker クラスターでの ASCS と db HA の組み合わせはサポートされていません。それらを個々のクラスターに分割します。ただし、最大 5 つの複数のセントラル サービス クラスターを組み合わせて VM のペアにすることができます。</t>
+          <t>現在、Azure では、同じ Linux Pacemaker クラスターでの ASCS と db HA の組み合わせはサポートされていません。それらを個々のクラスターに分離します。ただし、最大 5 つの複数のセントラル サービス クラスターを 1 つの VM のペアに結合できます。</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>ASCS クラスターと DB クラスターの前に標準ロード バランサー SKU を使用する</t>
+          <t>ASCS クラスターと DB クラスターの前で Standard Load Balancer SKU を使用するUse a Standard Load Balancer SKU in front of ASCS and DB clusters</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>HA ペアの両方の VM を可用性セットにデプロイするか、可用性ゾーンのサイズが同じでストレージ構成が同じである必要があります</t>
+          <t>HA ペアの両方の VM を可用性セットにデプロイするか、アベイラビリティーゾーンを同じサイズにして同じストレージ構成にする必要があります</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>ネイティブデータベースレプリケーションテクノロジーを使用して、HAペアでデータベースを同期する必要があります。</t>
+          <t>ネイティブのデータベースレプリケーションテクノロジーを使用して、HAペアでデータベースを同期する必要があります。</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>運用データベースのポイントインタイムリカバリを、RTOを満たす任意の時点で時間枠内で実行します。ポイントインタイムリカバリには、通常、DBMSレイヤーまたはSAPを介してデータを削除するオペレーターエラーが含まれます</t>
+          <t>運用データベースのポイントインタイム リカバリを、RTOを満たす任意の時点および時間枠で実行します。ポイント・イン・タイム・リカバリには、通常、DBMSレイヤー上またはSAPを介してデータを削除するオペレーター・エラーが含まれます</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>プライマリ仮想ネットワーク (VNet) の CIDR は、DR サイトの Vnet の CIDR と競合したり、重複したりしないようにする必要があります</t>
+          <t>プライマリ仮想ネットワーク (VNet) の CIDR は、DR サイトの VNet の CIDR と競合したり重複したりしないでください</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Site Recovery を使用して、アプリケーション サーバーを DR サイトにレプリケートします。Site Recovery は、中央サービス クラスター VM を DR サイトにレプリケートする場合にも役立ちます。DR を呼び出すときは、DR サイトで Linux Pacemaker クラスターを再構成する必要があります (たとえば、VIP または SBD の交換、corosync.conf の実行など)。</t>
+          <t>Site Recovery を使用して、アプリケーション サーバーを DR サイトにレプリケートします。Site Recovery は、セントラル サービス クラスター VM を DR サイトにレプリケートする場合にも役立ちます。DR を呼び出すときは、DR サイトで Linux Pacemaker クラスターを再構成する必要があります (たとえば、VIP または SBD の置き換え、corosync.conf の実行など)。</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>ネイティブ データベース レプリケーションを使用して、Azure Site Recovery ではなく、DR サイトにデータを同期する必要があります</t>
+          <t>ネイティブ データベース レプリケーションは、Azure Site Recovery ではなく、DR サイトにデータを同期するために使用する必要があります</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに対して RBAC モデルを適用する</t>
+          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>クラウド コネクタを介して SAP クラウド アプリケーションからオンプレミスの SAP (IaaS を含む) に ID を転送するための原則の伝達を適用する</t>
+          <t>クラウド コネクタを介して SAP クラウド アプリケーションからオンプレミス (IaaS を含む) に ID を転送するための原則の伝達を適用する</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>SAML を使用して、SAP Analytics Cloud、SAP Cloud Platform、Business by Design、SAP Qualtrics、SAP C4C with Azure AD などの SAP SaaS アプリケーションへの SSO を実装します。</t>
+          <t>SAML を使用して Azure AD で SAP Analytics Cloud、SAP Cloud Platform、Business by Design、SAP Qualtrics、SAP C4C などの SAP SaaS アプリケーションに SSO を実装します。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>SAML を使用して、SAP Fiori や SAP Web GUI などの SAP NetWeaver ベースの Web アプリケーションへの SSO を実装します。</t>
+          <t>SAML を使用して、SAP Fiori や SAP Web GUI などの SAP NetWeaver ベースの Web アプリケーションに SSO を実装します。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>SAML を使用して、SAP Fiori や SAP Web GUI などの SAP NetWeaver ベースの Web アプリケーションへの SSO を実装します。</t>
+          <t>SAML を使用して、SAP Fiori や SAP Web GUI などの SAP NetWeaver ベースの Web アプリケーションに SSO を実装します。</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI への SSO は、SAP NetWeaver SSO またはパートナーソリューションを使用して実装できます。</t>
+          <t>SAP NetWeaver SSO またはパートナーソリューションを使用して、SAP GUI への SSO を実装できます。</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI および Web ブラウザー・アクセス用の SSO の場合、構成と保守が容易であるため、SNC – Kerberos/SPNEGO (単純で保護された GSSAPI ネゴシエーション・メカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュア ログイン サーバーを検討してください。</t>
+          <t>SAP GUI および Web ブラウザー アクセスの SSO については、構成とメンテナンスが容易なため、SNC – Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーション メカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI および Web ブラウザー・アクセス用の SSO の場合、構成と保守が容易であるため、SNC – Kerberos/SPNEGO (単純で保護された GSSAPI ネゴシエーション・メカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュア ログイン サーバーを検討してください。</t>
+          <t>SAP GUI および Web ブラウザー アクセスの SSO については、構成とメンテナンスが容易なため、SNC – Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーション メカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>SAP HANA への SSO の実装</t>
+          <t>SAP HANAへのSSOの実装</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Azure AD を RISE でホストされている SAP システムの ID プロバイダーと考えてください。詳細については、「サービスと Azure AD の統合」を参照してください。</t>
+          <t>Azure AD は、RISE でホストされている SAP システムの ID プロバイダーであると考えてください。詳細については、「サービスと Azure AD の統合」を参照してください。</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>SAP にアクセスするアプリケーションの場合は、プリンシパル伝搬を使用して SSO を確立することができます。</t>
+          <t>SAP にアクセスするアプリケーションでは、プリンシパル伝搬を使用して SSO を確立することができます。</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>SAP ID 認証サービス (IAS) を必要とする SAP BTP サービスまたは SaaS ソリューションを使用している場合は、SAP Cloud ID 認証サービスと Azure AD の間に SSO を実装して、これらの SAP サービスにアクセスすることを検討してください。この統合により、SAP IAS はプロキシ ID プロバイダーとして機能し、認証要求を中央ユーザー ストアおよび ID プロバイダーとして Azure AD に転送できます。</t>
+          <t>SAP Identity Authentication Service (IAS) を必要とする SAP BTP サービスまたは SaaS ソリューションを使用している場合は、SAP Cloud Identity Authentication Services と Azure AD の間に SSO を実装して、それらの SAP サービスにアクセスすることを検討してください。この統合により、SAP IAS はプロキシ ID プロバイダーとして機能し、認証要求を中央ユーザー ストアおよび ID プロバイダーとして Azure AD に転送できます。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>SAP SuccessFactors を使用している場合は、Azure AD の自動ユーザー プロビジョニングの使用を検討してください。この統合により、SAP サクセスファクターに新しい従業員を追加するときに、Azure AD でその従業員のユーザー アカウントを自動的に作成できます。 必要に応じて、Microsoft 365 または Azure AD でサポートされている他の SaaS アプリケーションでユーザー アカウントを作成できます。 SAP サクセスファクターへの電子メールアドレスの書き戻しを使用します。</t>
+          <t>SAP SuccessFactors を使用している場合は、Azure AD の自動ユーザー プロビジョニングの使用を検討してください。この統合により、SAP SuccessFactors に新しい従業員を追加するときに、Azure AD でユーザー アカウントを自動的に作成できます。 必要に応じて、Microsoft 365 または Azure AD でサポートされているその他の SaaS アプリケーションでユーザー アカウントを作成できます。 SAP SuccessFactors へのメール アドレスの書き戻しを使用します。</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>密結合アプリケーションを同じSAPサブスクリプションに統合して、ルーティングと管理の複雑さを回避</t>
+          <t>緊密に結合されたアプリケーションを同じSAPサブスクリプションに統合し、ルーティングと管理の複雑さを回避</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプションをスケール ユニットとして活用し、リソースをスケーリングする場合は、環境ごとにサブスクリプションをデプロイすることを検討してください。サンドボックス、非製品、製品</t>
+          <t>サブスクリプションをスケール ユニットとして活用し、リソースをスケーリングし、環境ごとにサブスクリプションをデプロイすることを検討してください。サンドボックス、非製品、製品</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプションのプロビジョニングの一環としてクォータを増やす (サブスクリプション内で使用可能な VM コアの合計など)</t>
+          <t>サブスクリプションのプロビジョニングの一環としてクォータの増加を確認する (例: サブスクリプション内で使用可能な VM コアの合計)</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>可用性ゾーンにデプロイする場合は、クォータが承認された後に VM のゾーン デプロイが使用可能であることを確認します。サブスクリプション、VM シリーズ、必要な CPU の数、可用性ゾーンを含むサポート リクエストを送信します。</t>
+          <t>可用性ゾーンにデプロイする場合は、クォータが承認されたら、VM のゾーン デプロイが使用可能であることを確認します。必要なサブスクリプション、VM シリーズ、CPU の数、可用性ゾーンを含むサポート リクエストを送信します。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>必要なサービスと機能が、選択した展開リージョン内で利用可能であることを確認します。ANF、ゾーンなど</t>
+          <t>必要なサービスと機能が、選択したデプロイ リージョン内で利用可能であることを確認します。ANF、ゾーンなど</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Azure リソース タグを活用して、コストの分類とリソースのグループ化 (請求先、部門 (または部署)、環境 (運用、ステージ、開発)、層 (Web 層、アプリケーション層)、アプリケーション所有者、プロジェクト名)</t>
+          <t>コストの分類とリソースのグループ化 (BillTo、部門 (または部署)、環境 (運用、ステージング、開発)、層 (Web 層、アプリケーション層)、アプリケーション所有者、プロジェクト名) に Azure リソース タグを活用します</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2740,18 +2740,18 @@
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>SAP Solution Manager と Azure Monitor for SAP Solutions を使用して、SAP HANA、高可用性 SUSE クラスター、および SQL システムを監視する</t>
+          <t>Azure Backup サービスを使用して HANA データベースを保護するのに役立ちます。</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2760,13 +2760,21 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="n"/>
-      <c r="I44" s="15" t="n"/>
+      <c r="H44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2782,12 +2790,12 @@
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>SAP チェック用の VM 拡張機能を実行します。SAP 用 VM 拡張機能は、仮想マシンの割り当て済みマネージド ID を使用して、VM の監視および構成データにアクセスします。</t>
+          <t>HANA、Oracle、または DB2 データベース用に Azure NetApp Files をデプロイする場合は、Azure アプリケーション整合性スナップショット ツール (AzAcSnap) を使用して、アプリケーション整合性スナップショットを作成します。AzAcSnap は Oracle データベースもサポートしています。個々の VM ではなく、中央の VM で AzAcSnap を使用することを検討してください。</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2804,19 +2812,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2832,18 +2835,18 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートには Azure Policy を使用します。Azure Policy には、組織全体の設定を適用して、一貫したポリシーの遵守と迅速な違反検出を保証する機能が用意されています。</t>
+          <t>オペレーティングシステムと SAP システムの間でタイムゾーンが一致していることを確認します。</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2854,19 +2857,15 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2882,12 +2881,12 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Azure バックアップ サービスで HANA データベースを保護します。HANA データベースに Azure NetApp Files (ANF) をデプロイする場合は、Azure アプリケーション整合性スナップショット ツール (AzAcSnap) を使用してアプリケーション整合性スナップショットを取得します</t>
+          <t>異なるアプリケーション サービスを同じクラスターにグループ化しないでください。たとえば、DRBDとセントラルサービスクラスタを同じクラスタに組み合わせないでください。ただし、同じ Pacemaker クラスターを使用して、約 5 つの異なるセントラル サービス (マルチ SID クラスター) を管理できます。</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2904,19 +2903,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2932,18 +2931,18 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>プロビジョニングされた Azure インフラストラクチャで SAP HANA の品質チェックを実行して、プロビジョニングされた VM が SAP HANA on Azure のベスト プラクティスに準拠していることを確認します。</t>
+          <t>スヌーズ モデルで開発/テスト システムを実行して、Azure の実行コストを節約および最適化することを検討してください。</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2954,19 +2953,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2982,12 +2976,12 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク監視接続モニターを使用して、SAP データベースとアプリケーション サーバーの待機時間のメトリックを監視したり、Azure Monitor でネットワーク待機時間の測定値を収集して表示したりします。</t>
+          <t>お客様の SAP 資産を管理することでお客様と提携する場合は、Azure Lighthouse をご検討ください。Azure Lighthouse を使用すると、マネージド サービス プロバイダーは Azure ネイティブ ID サービスを使用して、顧客の環境に対する認証を行うことができます。顧客はいつでもアクセスを取り消し、サービスプロバイダーの行動を監査できるため、制御を顧客の手に委ねることができます。</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3004,19 +2998,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3032,12 +3021,12 @@
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>SAP ランドスケープ管理 (LaMa) を使用して、SAP ベーシス業務を最適化および管理します。Azure 用 SAP LaMa コネクタを使用して、SAP システムの再配置、コピー、複製、および更新を行います。</t>
+          <t>Azure Update Manager を使用して、1 つまたは複数の VM で利用可能な更新プログラムの状態を確認し、定期的な修正プログラムの適用をスケジュールすることを検討します。</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3054,19 +3043,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3082,18 +3071,18 @@
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Azure サブスクリプションごとに、ゾーンのデプロイ前に Azure 可用性ゾーンの待機時間テストを実行して、SAP on Azure デプロイ用の待機時間の短いゾーンを選択します。</t>
+          <t>SAP Landscape Management (LaMa) を使用して SAP Basis の運用を最適化および管理します。Azure 用の SAP LaMa コネクタを使用して、SAP システムの再配置、コピー、複製、更新を行います。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3104,15 +3093,19 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3133,7 +3126,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Sentinel を使用して SAP の脅威保護を実装します。</t>
+          <t>Azure Monitor for SAP solutions を使用して、Azure 上の SAP ワークロード (SAP HANA、高可用性 SUSE クラスター、SQL システム) を監視します。Azure Monitor for SAP solutions を SAP Solution Manager で補完することを検討してください。</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3150,15 +3143,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3179,13 +3176,13 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>ポリシーを使用して更新管理の構成を適用すると、すべての VM がパッチ管理レジメンに含まれ、アプリケーション チームが VM のパッチ展開を管理できるようになり、中央 IT にすべての VM の可視性と適用機能が提供されます</t>
+          <t>SAP の VM 拡張機能チェックを実行します。VM Extension for SAP では、仮想マシン (VM) の割り当てられたマネージド ID を使用して、VM の監視および構成データにアクセスします。このチェックにより、SAP アプリケーションのすべてのパフォーマンス メトリックが、基になる Azure Extension for SAP からのものであることが確認されます。</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3196,14 +3193,19 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3224,7 +3226,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>VM の実行中の SAP ワークロードに対して VM インサイトを有効にします。</t>
+          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3241,15 +3243,19 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
-        </is>
-      </c>
-      <c r="I54" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>c486ba28-0dc0-4591-af65-de8e1309cccd</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3270,7 +3276,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Azure のタグ付けを利用して、リソースを論理的にグループ化して追跡し、デプロイを自動化し、最も重要なこととして、発生したコストを可視化できます。</t>
+          <t>Azure Network Watcher の接続モニターを使用して、SAP データベースとアプリケーション サーバーの待機時間メトリックを監視します。または、Azure Monitor を使用してネットワーク待機時間の測定値を収集して表示します。</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3287,14 +3293,19 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3315,13 +3326,13 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Azure Site Recovery の監視を使用して、SAP アプリケーション サーバーのディザスター リカバリー サービスの正常性を維持します。</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3332,14 +3343,19 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>4919cb1b-3d13-425a-b124-ba34df685edd</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3350,17 +3366,17 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>HTTP/S アプリを安全に配信するには、アプリケーション ゲートウェイ v2 を使用し、WAF 保護とポリシーが有効になっていることを確認します。</t>
+          <t>プロビジョニングされた Azure インフラストラクチャで SAP HANA の品質チェックを実行して、プロビジョニングされた VM が SAP HANA on Azure のベスト プラクティスに準拠していることを確認します。</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3377,19 +3393,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3400,23 +3411,23 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>ローカルおよびグローバル VNet ピアリングは接続を提供し、複数の Azure リージョンにまたがる SAP デプロイのランディング ゾーン間の接続を確保するための推奨されるアプローチです</t>
+          <t>Azure サブスクリプションごとに、ゾーン デプロイの前に Azure 可用性ゾーンで待機時間テストを実行して、SAP on Azure のデプロイ用に待機時間の短いゾーンを選択します。</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3427,19 +3438,19 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3450,17 +3461,17 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>SAP ワークロードを実行している VM へのパブリック IP 割り当ては推奨されません。</t>
+          <t>回復性レポートを実行して、プロビジョニングされた Azure インフラストラクチャ (コンピューティング、データベース、ネットワーク、ストレージ、Site Recovery) 全体の構成が、Cloud Adaption Framework for Azure によって定義された構成に準拠していることを確認します。</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3477,19 +3488,19 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3500,17 +3511,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>ASR を構成するときに DR 側で IP アドレスを予約することを検討してください</t>
+          <t>SAP 用 Microsoft Sentinel ソリューションを使用して脅威保護を実装します。このソリューションを使用して、SAPシステムを監視し、ビジネスロジック層とアプリケーション層全体で高度な脅威を検出します。</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3527,19 +3538,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3550,17 +3561,17 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないようにします。</t>
+          <t>Azure のタグ付けを利用して、リソースを論理的にグループ化して追跡し、デプロイを自動化し、最も重要なこととして、発生したコストを可視化できます。</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3577,19 +3588,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3600,23 +3611,23 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>高速ネットワークが、適用可能なすべての VM に対して有効になっていることを確認します。</t>
+          <t>待機時間の影響を受けやすいアプリケーションには、VM 間の待機時間の監視を使用します。</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3627,19 +3638,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3650,17 +3656,17 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、非 HTTP/S 受信接続、および東部/西部トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
+          <t>Azure Site Recovery の監視を使用して、SAP アプリケーション サーバーのディザスター リカバリー サービスの正常性を維持します。</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3677,19 +3683,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3700,17 +3706,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、SAP Web ディスパッチャーまたは NetScaler などのサードパーティ サービスをアプリケーション ゲートウェイと組み合わせて使用し、SAP Web アプリのリバース プロキシの制限を克服します。</t>
+          <t>すべてのデータベース・ファイル・システムおよび実行可能プログラムをウイルス対策スキャンから除外します。これらを含めると、パフォーマンスの問題が発生する可能性があります。除外リストの規範的な詳細については、データベースベンダーに確認してください。たとえば、&lt;sid&gt;ウイルス対策スキャンから/oracle//sapdataを除外することをお薦めします。</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3727,19 +3733,15 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3750,23 +3752,23 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door ポリシーと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
+          <t>移行後に、HANA以外のデータベースの完全なデータベース統計を収集することを検討してください。たとえば、SAP ノート 1020260 - Oracle 統計の配信を実装します。</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3777,19 +3779,15 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3800,17 +3798,17 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Front Door からのトラフィックのみを受信するように Azure Application Gateway をロックダウンします。</t>
+          <t>SAP on Azure を使用するすべての Oracle デプロイには、Oracle Automatic Storage Management (ASM) の使用を検討してください。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3827,19 +3825,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3850,17 +3848,17 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Web アプリケーション ファイアウォールを使用して、インターネットに公開されているトラフィックをスキャンします。別のオプションとして、ロード バランサー、または Application Gateway やサード パーティのソリューションなどのファイアウォール機能が組み込まれているリソースで使用することもできます。</t>
+          <t>Oracle を実行している SAP on Azure の場合、SQL スクリプトのコレクションは、パフォーマンスの問題の診断に役立ちます。 自動ワークロード・リポジトリ(AWR)レポートには、Oracleシステムの問題を診断するための貴重な情報が含まれています。AWRレポートは、複数のセッションで実行し、ピーク時間を選択して、分析を広範囲にカバーすることをお薦めします。</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3877,19 +3875,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3900,17 +3898,17 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Azure ロード バランサーの内部デプロイが、DBMS レイヤーの HA 構成にダイレクト サーバー リターン (DSR) を使用するように設定されていることを確認します</t>
+          <t>HTTP/S アプリを安全に配信するには、Application Gateway v2 を使用し、WAF の保護とポリシーが有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3925,13 +3923,21 @@
         </is>
       </c>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="n"/>
-      <c r="I68" s="15" t="n"/>
+      <c r="H68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+        </is>
+      </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3942,17 +3948,17 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>DNSの</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>SAP のデプロイに Azure NetApp Files を使用する場合は、Azure NetAppFiles の Vnet に存在できるデリゲート サブネットが 1 つだけであることを確認します</t>
+          <t>Azure への移行中に仮想マシンの DNS または仮想名が変更されない場合、バックグラウンド DNS と仮想名によって SAP ランドスケープ内の多くのシステム インターフェイスが接続され、お客様は、開発者が時間の経過と共に定義するインターフェイスに気付くことがあります。移行後に仮想名または DNS 名が変更されると、さまざまなシステム間で接続の問題が発生するため、このような問題を防ぐために DNS エイリアスを保持することをお勧めします。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3969,19 +3975,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3992,17 +3998,17 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>DNSの</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用して、アプリ サブネット、DB サブネット、Web サブネットなどの SAP アプリケーション レイヤー内のトラフィックをマイクロセグメント化します。</t>
+          <t>異なる DNS ゾーンを使用して、各環境 (サンドボックス、開発、運用前、運用) を互いに区別します。例外は、独自の VNet を使用する SAP デプロイの場合です。ここでは、プライベート DNS ゾーンは必要ない場合があります。</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4019,19 +4025,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4042,17 +4048,17 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーションと SAP データベース サーバー間の NVA のデプロイはサポートされていません</t>
+          <t>ローカルおよびグローバル VNet ピアリングは接続を提供し、複数の Azure リージョンにまたがる SAP デプロイのランディング ゾーン間の接続を確保するための推奨されるアプローチです</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4069,19 +4075,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4092,23 +4098,23 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>ピアリングされていない異なる Azure VNet への SAP アプリケーション レイヤーと SAP DBMS の配置はサポートされていません</t>
+          <t>SAP アプリケーションと SAP データベース サーバーの間に NVA をデプロイすることはサポートされていません</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4117,13 +4123,21 @@
         </is>
       </c>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="n"/>
-      <c r="I72" s="15" t="n"/>
+      <c r="H72" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/2731110</t>
+        </is>
+      </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4134,17 +4148,17 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーションで最適なネットワーク待機時間を実現するには、Azure 近接通信配置グループの使用を検討してください。</t>
+          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4159,13 +4173,21 @@
         </is>
       </c>
       <c r="G73" s="21" t="n"/>
-      <c r="H73" s="15" t="n"/>
-      <c r="I73" s="15" t="n"/>
+      <c r="H73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4176,23 +4198,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、ネットワーク関連の偶発的な変更を回避します</t>
+          <t>パートナーの NVA が使用されている場合にのみ、リージョン間でネットワーク仮想アプライアンス (NVA) をデプロイすることを検討してください。ネイティブ NVA が存在する場合、リージョン間または VNet 間の NVA は必要ありません。パートナーのネットワーク テクノロジと NVA をデプロイする場合は、ベンダーのガイダンスに従って、Azure ネットワークと競合する構成を確認します。</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4203,15 +4225,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4222,17 +4248,17 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>DMZ と NVA を他の SAP 資産から分離し、Azure プライベート リンクを構成し、SAP on Azure リソースを安全に管理および制御します</t>
+          <t>Virtual WAN は、仮想 WAN ベースのトポロジのスポーク VNet 間の接続を管理し (ユーザー定義ルーティング (UDR) または NVA を設定する必要はありません)、同じ仮想ハブ内の VNet 間トラフィックの最大ネットワーク スループットは 50 ギガビット/秒です。必要に応じて、SAP ランディング ゾーンは VNet ピアリングを使用して他のランディング ゾーンに接続し、この帯域幅の制限を克服できます。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4249,15 +4275,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4268,23 +4298,23 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>SAP データベース サーバーの暗号化には、SAP HANA ネイティブ暗号化テクノロジを使用します。Azure SQL Database を使用している場合は、DBMS プロバイダーによって提供される透過的なデータ暗号化 (TDE) を使用して、データとログ ファイルをセキュリティで保護し、バックアップも暗号化されていることを確認します。</t>
+          <t>SAP ワークロードを実行している VM へのパブリック I.P 割り当てはお勧めしません。</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4295,15 +4325,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I76" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I76" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4314,23 +4348,23 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Azure ストレージの暗号化は既定で有効になっています</t>
+          <t>ASR の設定時に DR 側で I.P アドレスを予約することを検討してください</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4341,15 +4375,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I77" s="15" t="n"/>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I77" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4360,23 +4398,23 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4387,15 +4425,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I78" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I78" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4406,17 +4448,17 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Azure では 1 つの VNet に複数の委任されたサブネットを作成できますが、Azure NetApp Files の VNet に存在できる委任されたサブネットは 1 つだけです。Azure NetApp Files に複数の委任されたサブネットを使用すると、新しいボリュームを作成しようとしても失敗します。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4433,15 +4475,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I79" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+        </is>
+      </c>
+      <c r="I79" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+        </is>
+      </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4452,23 +4498,23 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Azure キー コンテナーを使用してシークレットと資格情報を格納する</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4479,15 +4525,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I80" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+        </is>
+      </c>
+      <c r="I80" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4498,17 +4548,17 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>承認されていない変更から保護するために、デプロイが成功した後に Azure リソースをロックすることをお勧めします</t>
+          <t>SAP Web Apps のリバース プロキシの制限を克服するために、必要に応じて、SAP Web ディスパッチャーまたは NetScaler などのサードパーティ サービスを Application Gateway と組み合わせて使用します。</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4523,17 +4573,13 @@
         </is>
       </c>
       <c r="G81" s="21" t="n"/>
-      <c r="H81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
-        </is>
-      </c>
+      <c r="H81" s="15" t="n"/>
       <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4544,17 +4590,17 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4571,15 +4617,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4590,17 +4640,17 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>既存の要件に基づいて、規制とコンプライアンスの制御 (内部/外部) - 必要な Azure ポリシーと Azure RBAC ロールを決定します</t>
+          <t>Azure Front Door と Application Gateway を使用して HTTP/S アプリケーションを保護する場合は、Azure Front Door の Web アプリケーション ファイアウォール ポリシーを活用します。Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4617,15 +4667,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4636,17 +4690,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud Standard for SAP を有効にする場合は、エンドポイント保護をインストールするポリシーから SAP データベース サーバーを除外してください。</t>
+          <t>Web アプリケーション ファイアウォールを使用して、インターネットに公開されているトラフィックをスキャンします。もう 1 つのオプションは、ロード バランサー、または Application Gateway やサードパーティ ソリューションなどのファイアウォール機能が組み込まれているリソースと共に使用することです。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4663,15 +4717,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I84" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I84" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4682,17 +4740,17 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>SAP 管理者のカスタム ロールをジャストインタイム アクセスで委任します。</t>
+          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4709,15 +4767,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I85" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+        </is>
+      </c>
+      <c r="I85" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+        </is>
+      </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4728,17 +4790,17 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>サードパーティのセキュリティ製品を DIAG (SAP GUI)、RFC、および HTTPS 用の SPNEGO 用のセキュアネットワーク通信 (SNC) と統合することにより、転送中のデータを暗号化します。</t>
+          <t>データ漏えいを防ぐには、Azure Private Link を使用して、Azure Blob Storage、Azure Files、Azure Data Lake Storage Gen2、Azure Data Factory などのサービスとしてのプラットフォーム リソースに安全にアクセスします。Azure プライベート エンドポイントは、VNet と Azure Storage、Azure Backup などのサービス間のトラフィックをセキュリティで保護するのにも役立ちます。VNet とプライベート エンドポイント対応サービス間のトラフィックは、Microsoft グローバル ネットワークを経由するため、パブリック インターネットへの公開が防止されます。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4755,15 +4817,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4774,23 +4840,23 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Azure Active Directory (Azure AD) with SAML 2.0 は、SAP NetWeaver、SAP HANA、SAP Cloud Platform などのさまざまな SAP アプリケーションやプラットフォームに SSO を提供することもできます</t>
+          <t>SAP アプリケーションと DBMS レイヤーで使用される VM で Azure 高速ネットワークが有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4801,15 +4867,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4820,17 +4890,17 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>SAP データベースへの攻撃につながる可能性のある脆弱性を根絶するために、オペレーティング システムを強化してください。</t>
+          <t>Azure Load Balancer の内部デプロイが Direct Server Return (DSR) を使用するように設定されていることを確認します。この設定により、DBMS レイヤーの高可用性構成に内部ロード バランサー構成が使用されている場合の待機時間が短縮されます。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4847,15 +4917,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I88" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+        </is>
+      </c>
+      <c r="I88" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4866,17 +4940,17 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>アプリケーション セキュリティ グループ (ASG) と NSG 規則を使用して、SAP アプリケーション層と DBMS 層の間にネットワーク セキュリティのアクセス制御リストを定義できます。ASG は、仮想マシンをグループ化してセキュリティの管理に役立てます。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4893,15 +4967,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -4912,23 +4990,23 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションごとに、環境ごとに、リージョンごとに Azure Key Vault を使用します。</t>
+          <t>ピアリングされていない異なる Azure VNet への SAP アプリケーション レイヤーと SAP DBMS の配置はサポートされていません。</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4939,15 +5017,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -4958,17 +5040,17 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>SAP アプリケーションで最適なネットワーク待機時間を実現するには、Azure 近接通信配置グループの使用を検討してください。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -4985,15 +5067,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5004,23 +5090,23 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Oracle のディスク構成、SQL、HANA</t>
+          <t>オンプレミスと Azure の間で分割された SAP アプリケーション サーバー レイヤーと DBMS レイヤーを実行することは、まったくサポートされていません。どちらのレイヤーも、オンプレミスまたは Azure に完全に存在する必要があります。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5029,13 +5115,21 @@
         </is>
       </c>
       <c r="G92" s="21" t="n"/>
-      <c r="H92" s="15" t="n"/>
-      <c r="I92" s="15" t="n"/>
+      <c r="H92" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5044,389 +5138,1064 @@
       <c r="P92" s="25" t="n"/>
     </row>
     <row r="93" ht="16.5" customHeight="1">
-      <c r="A93" s="21" t="n"/>
-      <c r="B93" s="21" t="n"/>
-      <c r="C93" s="21" t="n"/>
+      <c r="A93" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B93" s="21" t="inlineStr">
+        <is>
+          <t>セグメンテーション</t>
+        </is>
+      </c>
+      <c r="C93" s="21" t="inlineStr">
+        <is>
+          <t>SAP システムのデータベース管理システム (DBMS) とアプリケーション レイヤーを異なる VNet でホストし、それらを VNet ピアリングに接続することは、レイヤー間の過剰なネットワーク トラフィックによって生成される可能性があるため、お勧めしません。Azure 仮想ネットワーク内のサブネットを使用して、SAP アプリケーション レイヤーと DBMS レイヤーを分離することをお勧めします。</t>
+        </is>
+      </c>
       <c r="D93" s="21" t="n"/>
-      <c r="E93" s="21" t="n"/>
+      <c r="E93" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G93" s="21" t="n"/>
-      <c r="H93" s="15" t="n"/>
-      <c r="I93" s="15" t="n"/>
+      <c r="H93" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I93" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
-      <c r="L93" s="25" t="n"/>
+      <c r="L93" s="25" t="inlineStr">
+        <is>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+        </is>
+      </c>
       <c r="M93" s="25" t="n"/>
       <c r="N93" s="25" t="n"/>
       <c r="O93" s="25" t="n"/>
       <c r="P93" s="25" t="n"/>
     </row>
     <row r="94" ht="16.5" customHeight="1">
-      <c r="A94" s="21" t="n"/>
-      <c r="B94" s="21" t="n"/>
-      <c r="C94" s="21" t="n"/>
+      <c r="A94" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B94" s="21" t="inlineStr">
+        <is>
+          <t>セグメンテーション</t>
+        </is>
+      </c>
+      <c r="C94" s="21" t="inlineStr">
+        <is>
+          <t>SAP アプリケーションと DBMS レイヤーで使用される VM で Azure 高速ネットワークが有効になっていることを確認します。</t>
+        </is>
+      </c>
       <c r="D94" s="21" t="n"/>
-      <c r="E94" s="21" t="n"/>
+      <c r="E94" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G94" s="21" t="n"/>
-      <c r="H94" s="15" t="n"/>
-      <c r="I94" s="15" t="n"/>
+      <c r="H94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
-      <c r="L94" s="25" t="n"/>
+      <c r="L94" s="25" t="inlineStr">
+        <is>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+        </is>
+      </c>
       <c r="M94" s="25" t="n"/>
       <c r="N94" s="25" t="n"/>
       <c r="O94" s="25" t="n"/>
       <c r="P94" s="25" t="n"/>
     </row>
     <row r="95" ht="16.5" customHeight="1">
-      <c r="A95" s="21" t="n"/>
-      <c r="B95" s="21" t="n"/>
-      <c r="C95" s="21" t="n"/>
+      <c r="A95" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B95" s="21" t="inlineStr">
+        <is>
+          <t>セグメンテーション</t>
+        </is>
+      </c>
+      <c r="C95" s="21" t="inlineStr">
+        <is>
+          <t>Linux ゲスト・オペレーティング・システムで Load Balancer を使用する場合は、Linux ネットワーク・パラメーター net.ipv4.tcp_timestamps が 0 に設定されていることを確認します。</t>
+        </is>
+      </c>
       <c r="D95" s="21" t="n"/>
-      <c r="E95" s="21" t="n"/>
+      <c r="E95" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G95" s="21" t="n"/>
-      <c r="H95" s="15" t="n"/>
-      <c r="I95" s="15" t="n"/>
+      <c r="H95" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+        </is>
+      </c>
+      <c r="I95" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
-      <c r="L95" s="25" t="n"/>
+      <c r="L95" s="25" t="inlineStr">
+        <is>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+        </is>
+      </c>
       <c r="M95" s="25" t="n"/>
       <c r="N95" s="25" t="n"/>
       <c r="O95" s="25" t="n"/>
       <c r="P95" s="25" t="n"/>
     </row>
     <row r="96" ht="16.5" customHeight="1">
-      <c r="A96" s="21" t="n"/>
-      <c r="B96" s="21" t="n"/>
-      <c r="C96" s="21" t="n"/>
+      <c r="A96" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B96" s="21" t="inlineStr">
+        <is>
+          <t>セグメンテーション</t>
+        </is>
+      </c>
+      <c r="C96" s="21" t="inlineStr">
+        <is>
+          <t>SAP RISE/ECS デプロイの場合、仮想ピアリングは、お客様の既存の Azure 環境との接続を確立するための推奨される方法です。SAP vnet と顧客 VNet の両方がネットワーク セキュリティ グループ (NSG) で保護され、vnet ピアリングを介した SAP ポートとデータベース ポートでの通信が可能になります</t>
+        </is>
+      </c>
       <c r="D96" s="21" t="n"/>
-      <c r="E96" s="21" t="n"/>
+      <c r="E96" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G96" s="21" t="n"/>
-      <c r="H96" s="15" t="n"/>
+      <c r="H96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
       <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
-      <c r="L96" s="25" t="n"/>
+      <c r="L96" s="25" t="inlineStr">
+        <is>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+        </is>
+      </c>
       <c r="M96" s="25" t="n"/>
       <c r="N96" s="25" t="n"/>
       <c r="O96" s="25" t="n"/>
       <c r="P96" s="25" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="21" t="n"/>
-      <c r="B97" s="21" t="n"/>
-      <c r="C97" s="21" t="n"/>
+      <c r="A97" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B97" s="21" t="inlineStr">
+        <is>
+          <t>統治</t>
+        </is>
+      </c>
+      <c r="C97" s="21" t="inlineStr">
+        <is>
+          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します</t>
+        </is>
+      </c>
       <c r="D97" s="21" t="n"/>
-      <c r="E97" s="21" t="n"/>
+      <c r="E97" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G97" s="21" t="n"/>
-      <c r="H97" s="15" t="n"/>
+      <c r="H97" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
-      <c r="L97" s="25" t="n"/>
+      <c r="L97" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M97" s="25" t="n"/>
       <c r="N97" s="25" t="n"/>
       <c r="O97" s="25" t="n"/>
       <c r="P97" s="25" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="21" t="n"/>
-      <c r="B98" s="21" t="n"/>
-      <c r="C98" s="21" t="n"/>
+      <c r="A98" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B98" s="21" t="inlineStr">
+        <is>
+          <t>統治</t>
+        </is>
+      </c>
+      <c r="C98" s="21" t="inlineStr">
+        <is>
+          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
+        </is>
+      </c>
       <c r="D98" s="21" t="n"/>
-      <c r="E98" s="21" t="n"/>
+      <c r="E98" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G98" s="21" t="n"/>
-      <c r="H98" s="15" t="n"/>
+      <c r="H98" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
-      <c r="L98" s="25" t="n"/>
+      <c r="L98" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M98" s="25" t="n"/>
       <c r="N98" s="25" t="n"/>
       <c r="O98" s="25" t="n"/>
       <c r="P98" s="25" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="21" t="n"/>
-      <c r="B99" s="21" t="n"/>
-      <c r="C99" s="21" t="n"/>
+      <c r="A99" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B99" s="21" t="inlineStr">
+        <is>
+          <t>統治</t>
+        </is>
+      </c>
+      <c r="C99" s="21" t="inlineStr">
+        <is>
+          <t>SAP データベース サーバーの暗号化には、SAP HANA ネイティブ暗号化テクノロジを使用します。Azure SQL Database を使用している場合は、DBMS プロバイダーが提供する Transparent Data Encryption (TDE) を使用して、データとログ ファイルをセキュリティで保護し、バックアップも暗号化されるようにします。</t>
+        </is>
+      </c>
       <c r="D99" s="21" t="n"/>
-      <c r="E99" s="21" t="n"/>
+      <c r="E99" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G99" s="21" t="n"/>
-      <c r="H99" s="15" t="n"/>
+      <c r="H99" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
-      <c r="L99" s="25" t="n"/>
+      <c r="L99" s="25" t="inlineStr">
+        <is>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+        </is>
+      </c>
       <c r="M99" s="25" t="n"/>
       <c r="N99" s="25" t="n"/>
       <c r="O99" s="25" t="n"/>
       <c r="P99" s="25" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="21" t="n"/>
-      <c r="B100" s="21" t="n"/>
-      <c r="C100" s="21" t="n"/>
+      <c r="A100" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B100" s="21" t="inlineStr">
+        <is>
+          <t>統治</t>
+        </is>
+      </c>
+      <c r="C100" s="21" t="inlineStr">
+        <is>
+          <t>Azure Storage の暗号化は既定で有効になっています</t>
+        </is>
+      </c>
       <c r="D100" s="21" t="n"/>
-      <c r="E100" s="21" t="n"/>
+      <c r="E100" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G100" s="21" t="n"/>
-      <c r="H100" s="15" t="n"/>
+      <c r="H100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
-      <c r="L100" s="25" t="n"/>
+      <c r="L100" s="25" t="inlineStr">
+        <is>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+        </is>
+      </c>
       <c r="M100" s="25" t="n"/>
       <c r="N100" s="25" t="n"/>
       <c r="O100" s="25" t="n"/>
       <c r="P100" s="25" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="21" t="n"/>
-      <c r="B101" s="21" t="n"/>
-      <c r="C101" s="21" t="n"/>
+      <c r="A101" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B101" s="21" t="inlineStr">
+        <is>
+          <t>統治</t>
+        </is>
+      </c>
+      <c r="C101" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D101" s="21" t="n"/>
-      <c r="E101" s="21" t="n"/>
+      <c r="E101" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G101" s="21" t="n"/>
-      <c r="H101" s="15" t="n"/>
+      <c r="H101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I101" s="15" t="n"/>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
-      <c r="L101" s="25" t="n"/>
+      <c r="L101" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M101" s="25" t="n"/>
       <c r="N101" s="25" t="n"/>
       <c r="O101" s="25" t="n"/>
       <c r="P101" s="25" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
-      <c r="A102" s="21" t="n"/>
-      <c r="B102" s="21" t="n"/>
-      <c r="C102" s="21" t="n"/>
+      <c r="A102" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B102" s="21" t="inlineStr">
+        <is>
+          <t>統治</t>
+        </is>
+      </c>
+      <c r="C102" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D102" s="21" t="n"/>
-      <c r="E102" s="21" t="n"/>
+      <c r="E102" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G102" s="21" t="n"/>
-      <c r="H102" s="15" t="n"/>
+      <c r="H102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
-      <c r="L102" s="25" t="n"/>
+      <c r="L102" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M102" s="25" t="n"/>
       <c r="N102" s="25" t="n"/>
       <c r="O102" s="25" t="n"/>
       <c r="P102" s="25" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
-      <c r="A103" s="21" t="n"/>
-      <c r="B103" s="21" t="n"/>
-      <c r="C103" s="21" t="n"/>
+      <c r="A103" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B103" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C103" s="21" t="inlineStr">
+        <is>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+        </is>
+      </c>
       <c r="D103" s="21" t="n"/>
-      <c r="E103" s="21" t="n"/>
+      <c r="E103" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G103" s="21" t="n"/>
-      <c r="H103" s="15" t="n"/>
+      <c r="H103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+        </is>
+      </c>
       <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
-      <c r="L103" s="25" t="n"/>
+      <c r="L103" s="25" t="inlineStr">
+        <is>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+        </is>
+      </c>
       <c r="M103" s="25" t="n"/>
       <c r="N103" s="25" t="n"/>
       <c r="O103" s="25" t="n"/>
       <c r="P103" s="25" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
-      <c r="A104" s="21" t="n"/>
-      <c r="B104" s="21" t="n"/>
-      <c r="C104" s="21" t="n"/>
+      <c r="A104" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B104" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C104" s="21" t="inlineStr">
+        <is>
+          <t>デプロイが成功したら Azure リソースをロックして、承認されていない変更から保護することをお勧めします</t>
+        </is>
+      </c>
       <c r="D104" s="21" t="n"/>
-      <c r="E104" s="21" t="n"/>
+      <c r="E104" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G104" s="21" t="n"/>
-      <c r="H104" s="15" t="n"/>
+      <c r="H104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+        </is>
+      </c>
       <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
-      <c r="L104" s="25" t="n"/>
+      <c r="L104" s="25" t="inlineStr">
+        <is>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+        </is>
+      </c>
       <c r="M104" s="25" t="n"/>
       <c r="N104" s="25" t="n"/>
       <c r="O104" s="25" t="n"/>
       <c r="P104" s="25" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1">
-      <c r="A105" s="21" t="n"/>
-      <c r="B105" s="21" t="n"/>
-      <c r="C105" s="21" t="n"/>
+      <c r="A105" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B105" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C105" s="21" t="inlineStr">
+        <is>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+        </is>
+      </c>
       <c r="D105" s="21" t="n"/>
-      <c r="E105" s="21" t="n"/>
+      <c r="E105" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G105" s="21" t="n"/>
-      <c r="H105" s="15" t="n"/>
+      <c r="H105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
-      <c r="L105" s="25" t="n"/>
+      <c r="L105" s="25" t="inlineStr">
+        <is>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+        </is>
+      </c>
       <c r="M105" s="25" t="n"/>
       <c r="N105" s="25" t="n"/>
       <c r="O105" s="25" t="n"/>
       <c r="P105" s="25" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="21" t="n"/>
-      <c r="B106" s="21" t="n"/>
-      <c r="C106" s="21" t="n"/>
+      <c r="A106" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B106" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C106" s="21" t="inlineStr">
+        <is>
+          <t>既存の要件、規制、コンプライアンス制御 (内部/外部) に基づいて、必要な Azure ポリシーと Azure RBAC ロールを決定します</t>
+        </is>
+      </c>
       <c r="D106" s="21" t="n"/>
-      <c r="E106" s="21" t="n"/>
+      <c r="E106" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G106" s="21" t="n"/>
-      <c r="H106" s="15" t="n"/>
+      <c r="H106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
-      <c r="L106" s="25" t="n"/>
+      <c r="L106" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M106" s="25" t="n"/>
       <c r="N106" s="25" t="n"/>
       <c r="O106" s="25" t="n"/>
       <c r="P106" s="25" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="21" t="n"/>
-      <c r="B107" s="21" t="n"/>
-      <c r="C107" s="21" t="n"/>
+      <c r="A107" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B107" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C107" s="21" t="inlineStr">
+        <is>
+          <t>Microsoft Defender for Cloud Standard for SAP を有効にする場合は、エンドポイント保護をインストールするポリシーから SAP データベース サーバーを除外してください。</t>
+        </is>
+      </c>
       <c r="D107" s="21" t="n"/>
-      <c r="E107" s="21" t="n"/>
+      <c r="E107" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G107" s="21" t="n"/>
-      <c r="H107" s="15" t="n"/>
+      <c r="H107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
-      <c r="L107" s="25" t="n"/>
+      <c r="L107" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M107" s="25" t="n"/>
       <c r="N107" s="25" t="n"/>
       <c r="O107" s="25" t="n"/>
       <c r="P107" s="25" t="n"/>
     </row>
     <row r="108" ht="16.5" customHeight="1">
-      <c r="A108" s="21" t="n"/>
-      <c r="B108" s="21" t="n"/>
-      <c r="C108" s="21" t="n"/>
+      <c r="A108" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B108" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C108" s="21" t="inlineStr">
+        <is>
+          <t>ジャストインタイムアクセス権を持つ SAP 管理者カスタム ロールを委任します。</t>
+        </is>
+      </c>
       <c r="D108" s="21" t="n"/>
-      <c r="E108" s="21" t="n"/>
+      <c r="E108" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G108" s="21" t="n"/>
-      <c r="H108" s="15" t="n"/>
+      <c r="H108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
-      <c r="L108" s="25" t="n"/>
+      <c r="L108" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M108" s="25" t="n"/>
       <c r="N108" s="25" t="n"/>
       <c r="O108" s="25" t="n"/>
       <c r="P108" s="25" t="n"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
-      <c r="A109" s="21" t="n"/>
-      <c r="B109" s="21" t="n"/>
-      <c r="C109" s="21" t="n"/>
+      <c r="A109" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B109" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C109" s="21" t="inlineStr">
+        <is>
+          <t>サードパーティのセキュリティ製品を DIAG (SAP GUI)、RFC、および HTTPS の SPNEGO のセキュアネットワーク通信 (SNC) と統合することにより、転送中のデータを暗号化します。</t>
+        </is>
+      </c>
       <c r="D109" s="21" t="n"/>
-      <c r="E109" s="21" t="n"/>
+      <c r="E109" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G109" s="21" t="n"/>
-      <c r="H109" s="15" t="n"/>
+      <c r="H109" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
-      <c r="L109" s="25" t="n"/>
+      <c r="L109" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M109" s="25" t="n"/>
       <c r="N109" s="25" t="n"/>
       <c r="O109" s="25" t="n"/>
       <c r="P109" s="25" t="n"/>
     </row>
     <row r="110" ht="16.5" customHeight="1">
-      <c r="A110" s="21" t="n"/>
-      <c r="B110" s="21" t="n"/>
-      <c r="C110" s="21" t="n"/>
+      <c r="A110" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B110" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C110" s="21" t="inlineStr">
+        <is>
+          <t>SAML 2.0 を使用した Azure Active Directory (Azure AD) では、SAP NetWeaver、SAP HANA、SAP Cloud Platform など、さまざまな SAP アプリケーションやプラットフォームに SSO を提供することもできます</t>
+        </is>
+      </c>
       <c r="D110" s="21" t="n"/>
-      <c r="E110" s="21" t="n"/>
+      <c r="E110" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G110" s="21" t="n"/>
-      <c r="H110" s="15" t="n"/>
+      <c r="H110" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
-      <c r="L110" s="25" t="n"/>
+      <c r="L110" s="25" t="inlineStr">
+        <is>
+          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+        </is>
+      </c>
       <c r="M110" s="25" t="n"/>
       <c r="N110" s="25" t="n"/>
       <c r="O110" s="25" t="n"/>
       <c r="P110" s="25" t="n"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
-      <c r="A111" s="21" t="n"/>
-      <c r="B111" s="21" t="n"/>
-      <c r="C111" s="21" t="n"/>
+      <c r="A111" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B111" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C111" s="21" t="inlineStr">
+        <is>
+          <t>SAP データベースへの攻撃につながる可能性のある脆弱性を根絶するために、オペレーティング システムを強化してください。</t>
+        </is>
+      </c>
       <c r="D111" s="21" t="n"/>
-      <c r="E111" s="21" t="n"/>
+      <c r="E111" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G111" s="21" t="n"/>
-      <c r="H111" s="15" t="n"/>
+      <c r="H111" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
-      <c r="L111" s="25" t="n"/>
+      <c r="L111" s="25" t="inlineStr">
+        <is>
+          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+        </is>
+      </c>
       <c r="M111" s="25" t="n"/>
       <c r="N111" s="25" t="n"/>
       <c r="O111" s="25" t="n"/>
       <c r="P111" s="25" t="n"/>
     </row>
     <row r="112" ht="16.5" customHeight="1">
-      <c r="A112" s="21" t="n"/>
-      <c r="B112" s="21" t="n"/>
-      <c r="C112" s="21" t="n"/>
+      <c r="A112" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B112" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C112" s="21" t="inlineStr">
+        <is>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+        </is>
+      </c>
       <c r="D112" s="21" t="n"/>
-      <c r="E112" s="21" t="n"/>
+      <c r="E112" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G112" s="21" t="n"/>
-      <c r="H112" s="15" t="n"/>
+      <c r="H112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I112" s="15" t="n"/>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
-      <c r="L112" s="25" t="n"/>
+      <c r="L112" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M112" s="25" t="n"/>
       <c r="N112" s="25" t="n"/>
       <c r="O112" s="25" t="n"/>
       <c r="P112" s="25" t="n"/>
     </row>
     <row r="113" ht="16.5" customHeight="1">
-      <c r="A113" s="21" t="n"/>
-      <c r="B113" s="21" t="n"/>
-      <c r="C113" s="21" t="n"/>
+      <c r="A113" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B113" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C113" s="21" t="inlineStr">
+        <is>
+          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
+        </is>
+      </c>
       <c r="D113" s="21" t="n"/>
-      <c r="E113" s="21" t="n"/>
+      <c r="E113" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G113" s="21" t="n"/>
-      <c r="H113" s="15" t="n"/>
+      <c r="H113" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I113" s="15" t="n"/>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
-      <c r="L113" s="25" t="n"/>
+      <c r="L113" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M113" s="25" t="n"/>
       <c r="N113" s="25" t="n"/>
       <c r="O113" s="25" t="n"/>
       <c r="P113" s="25" t="n"/>
     </row>
     <row r="114" ht="16.5" customHeight="1">
-      <c r="A114" s="21" t="n"/>
-      <c r="B114" s="21" t="n"/>
-      <c r="C114" s="21" t="n"/>
+      <c r="A114" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B114" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C114" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D114" s="21" t="n"/>
-      <c r="E114" s="21" t="n"/>
+      <c r="E114" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G114" s="21" t="n"/>
-      <c r="H114" s="15" t="n"/>
+      <c r="H114" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I114" s="15" t="n"/>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
-      <c r="L114" s="25" t="n"/>
+      <c r="L114" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M114" s="25" t="n"/>
       <c r="N114" s="25" t="n"/>
       <c r="O114" s="25" t="n"/>
       <c r="P114" s="25" t="n"/>
     </row>
     <row r="115" ht="16.5" customHeight="1">
-      <c r="A115" s="21" t="n"/>
-      <c r="B115" s="21" t="n"/>
-      <c r="C115" s="21" t="n"/>
+      <c r="A115" s="21" t="inlineStr">
+        <is>
+          <t>貯蔵</t>
+        </is>
+      </c>
+      <c r="B115" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
+      <c r="C115" s="21" t="inlineStr">
+        <is>
+          <t>Oracle、SQL、HANAのディスク構成</t>
+        </is>
+      </c>
       <c r="D115" s="21" t="n"/>
-      <c r="E115" s="21" t="n"/>
+      <c r="E115" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="n"/>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
-      <c r="L115" s="25" t="n"/>
+      <c r="L115" s="25" t="inlineStr">
+        <is>
+          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+        </is>
+      </c>
       <c r="M115" s="25" t="n"/>
       <c r="N115" s="25" t="n"/>
       <c r="O115" s="25" t="n"/>
@@ -8367,7 +9136,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F93" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F116" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -8490,7 +9259,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">

--- a/spreadsheet/macrofree/sap_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ja.xlsx
@@ -4558,7 +4558,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>SAP Web Apps のリバース プロキシの制限を克服するために、必要に応じて、SAP Web ディスパッチャーまたは NetScaler などのサードパーティ サービスを Application Gateway と組み合わせて使用します。</t>
+          <t>Application Gateway、SAP Web Dispatcher、およびその他のサードパーティ サービスの比較に示すように、Application Gateway が SAP Web アプリのリバース プロキシとして機能する場合、Application Gateway と Web Application Firewall には制限があります。</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4573,13 +4573,21 @@
         </is>
       </c>
       <c r="G81" s="21" t="n"/>
-      <c r="H81" s="15" t="n"/>
-      <c r="I81" s="15" t="n"/>
+      <c r="H81" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>

--- a/spreadsheet/macrofree/sap_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ja.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>ASCS とデータベース クラスターを 1 つまたは同じ VM に結合しないでください</t>
+          <t>現在、Azure では、同じ Linux Pacemaker クラスターでの ASCS と db HA の組み合わせはサポートされていません。それらを個々のクラスターに分離します。ただし、最大 5 つの複数のセントラル サービス クラスターを 1 つの VM のペアに結合できます。</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,7 +1086,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1094,7 +1094,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>aff6691b-4935-4ada-9222-3ece81b12318</t>
+          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>ロードバランサーでフローティング IP が有効になっていることを確認します</t>
+          <t>ASCS クラスターと DB クラスターの前で Standard Load Balancer SKU を使用するUse a Standard Load Balancer SKU in front of ASCS and DB clusters</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1132,7 +1132,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1140,7 +1140,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
+          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>同じ可用性セット内に異なるロールのサーバーを混在させないでください。セントラル サービス VM、データベース VM、アプリケーション VM を独自の可用性セットに保持する</t>
+          <t>HA ペアの両方の VM を可用性セットにデプロイするか、アベイラビリティーゾーンを同じサイズにして同じストレージ構成にする必要があります</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1178,7 +1178,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1186,7 +1186,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
+          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>SAP SID ごとに 1 つの近接配置グループを使用します。グループは、Availability Zones や Azure リージョンにまたがっていません</t>
+          <t>ネイティブのデータベースレプリケーションテクノロジーを使用して、HAペアでデータベースを同期する必要があります。</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1224,7 +1224,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1232,7 +1232,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
+          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>現在、Azure では、同じ Linux Pacemaker クラスターでの ASCS と db HA の組み合わせはサポートされていません。それらを個々のクラスターに分離します。ただし、最大 5 つの複数のセントラル サービス クラスターを 1 つの VM のペアに結合できます。</t>
+          <t>運用データベースのポイントインタイム リカバリを、RTOを満たす任意の時点および時間枠で実行します。ポイント・イン・タイム・リカバリには、通常、DBMSレイヤー上またはSAPを介してデータを削除するオペレーター・エラーが含まれます</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1270,7 +1270,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1278,7 +1278,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
+          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>ASCS クラスターと DB クラスターの前で Standard Load Balancer SKU を使用するUse a Standard Load Balancer SKU in front of ASCS and DB clusters</t>
+          <t>プライマリ仮想ネットワーク (VNet) の CIDR は、DR サイトの VNet の CIDR と競合したり重複したりしないでください</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1314,17 +1314,13 @@
         </is>
       </c>
       <c r="G13" s="21" t="n"/>
-      <c r="H13" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
+      <c r="H13" s="15" t="n"/>
       <c r="I13" s="15" t="n"/>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
+          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1345,7 +1341,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>HA ペアの両方の VM を可用性セットにデプロイするか、アベイラビリティーゾーンを同じサイズにして同じストレージ構成にする必要があります</t>
+          <t>Site Recovery を使用して、アプリケーション サーバーを DR サイトにレプリケートします。Site Recovery は、セントラル サービス クラスター VM を DR サイトにレプリケートする場合にも役立ちます。DR を呼び出すときは、DR サイトで Linux Pacemaker クラスターを再構成する必要があります (たとえば、VIP または SBD の置き換え、corosync.conf の実行など)。</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1360,17 +1356,13 @@
         </is>
       </c>
       <c r="G14" s="21" t="n"/>
-      <c r="H14" s="15" t="inlineStr">
-        <is>
-          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
-        </is>
-      </c>
+      <c r="H14" s="15" t="n"/>
       <c r="I14" s="15" t="n"/>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
+          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1391,7 +1383,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>ネイティブのデータベースレプリケーションテクノロジーを使用して、HAペアでデータベースを同期する必要があります。</t>
+          <t>ネイティブ データベース レプリケーションは、Azure Site Recovery ではなく、DR サイトにデータを同期するために使用する必要があります</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1406,17 +1398,13 @@
         </is>
       </c>
       <c r="G15" s="21" t="n"/>
-      <c r="H15" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
+      <c r="H15" s="15" t="n"/>
       <c r="I15" s="15" t="n"/>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
+          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1432,18 +1420,18 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>運用データベースのポイントインタイム リカバリを、RTOを満たす任意の時点および時間枠で実行します。ポイント・イン・タイム・リカバリには、通常、DBMSレイヤー上またはSAPを介してデータを削除するオペレーター・エラーが含まれます</t>
+          <t>単一障害点に対する SAP ソフトウェアの可用性を検討します。これには、SAP NetWeaver や SAP S/4HANA アーキテクチャ、SAP ABAP、ASCS + SCS で使用される DBMS などのアプリケーション内の単一障害点が含まれます。また、SAP Web ディスパッチャなどの他のツールも必要です。</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1454,15 +1442,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
-      <c r="I16" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+        </is>
+      </c>
+      <c r="I16" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/2-explore-high-availability-disaster-recovery-support-azure-for-sap-workloads?source=recommendations</t>
+        </is>
+      </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
+          <t>8300cb30-766b-4084-b126-0dd8fb1269a1</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1478,18 +1470,18 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>プライマリ仮想ネットワーク (VNet) の CIDR は、DR サイトの VNet の CIDR と競合したり重複したりしないでください</t>
+          <t>SAP および SAP データベースの場合は、自動フェールオーバー クラスターの実装を検討してください。Windows では、Windows Server フェールオーバー クラスタリングがフェールオーバーをサポートします。Linux では、Linux Pacemaker や、SIOS Protection Suite や Veritas InfoScale などのサードパーティツールがフェイルオーバーをサポートしています。</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1498,13 +1490,21 @@
         </is>
       </c>
       <c r="G17" s="21" t="n"/>
-      <c r="H17" s="15" t="n"/>
-      <c r="I17" s="15" t="n"/>
+      <c r="H17" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-supported-configurations</t>
+        </is>
+      </c>
+      <c r="I17" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
+          <t>56402f11-ccbe-42c3-a2f6-c6f6f38ab579</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1520,18 +1520,18 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Site Recovery を使用して、アプリケーション サーバーを DR サイトにレプリケートします。Site Recovery は、セントラル サービス クラスター VM を DR サイトにレプリケートする場合にも役立ちます。DR を呼び出すときは、DR サイトで Linux Pacemaker クラスターを再構成する必要があります (たとえば、VIP または SBD の置き換え、corosync.conf の実行など)。</t>
+          <t>Azure では、プライマリ VM とセカンダリ VM が DBMS データのストレージを共有するアーキテクチャはサポートされていません。DBMSレイヤーの場合、一般的なアーキテクチャパターンは、プライマリおよびセカンダリVMが使用するストレージスタックとは異なるストレージスタックを使用して、データベースを同時にレプリケートすることです。</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1540,13 +1540,21 @@
         </is>
       </c>
       <c r="G18" s="21" t="n"/>
-      <c r="H18" s="15" t="n"/>
-      <c r="I18" s="15" t="n"/>
+      <c r="H18" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/disaster-recovery-sap-guide?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I18" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/?source=recommendationshttps%3A%2F%2Flearn.microsoft.com%2Fja-jp%2Ftraining%2Fpaths%2Fensure-business-continuity-implement-disaster-recovery%2F%3Fsource%3Drecommendations</t>
+        </is>
+      </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
+          <t>afae6bec-2671-49ae-bc69-140b8ec8d320</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1562,18 +1570,18 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>ネイティブ データベース レプリケーションは、Azure Site Recovery ではなく、DR サイトにデータを同期するために使用する必要があります</t>
+          <t>DBMS データとトランザクション/REDO ログ ファイルは、Azure でサポートされているブロック ストレージまたは Azure NetApp Files に格納されます。Azure Files または Azure Premium Files は、SAP ワークロードでの DBMS データや再実行ログ ファイルのストレージとしてはサポートされていません。</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1582,13 +1590,21 @@
         </is>
       </c>
       <c r="G19" s="21" t="n"/>
-      <c r="H19" s="15" t="n"/>
-      <c r="I19" s="15" t="n"/>
+      <c r="H19" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/dbms-guide-general</t>
+        </is>
+      </c>
+      <c r="I19" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-databases/2-explore-database-support-azure-for-sap-workloads</t>
+        </is>
+      </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
+          <t>ac614e95-6767-4bc3-b8a4-9953533da6ba</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1599,23 +1615,23 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>正しい VM SKU とゾーンのクォータ要求を行う</t>
+          <t>Windows の Azure 共有ディスクは、ASCS + SCS コンポーネントと特定の高可用性シナリオに使用できます。フェールオーバー クラスターは、SAP アプリケーション層コンポーネントと DBMS 層に対して個別に設定します。現在、Azure では、SAP アプリケーション レイヤー コンポーネントと DBMS レイヤーを 1 つのフェールオーバー クラスターに結合する高可用性アーキテクチャはサポートされていません。</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1624,13 +1640,21 @@
         </is>
       </c>
       <c r="G20" s="21" t="n"/>
-      <c r="H20" s="15" t="n"/>
-      <c r="I20" s="15" t="n"/>
+      <c r="H20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-guide-wsfc-shared-disk</t>
+        </is>
+      </c>
+      <c r="I20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>1f737179-8e7f-4e1a-a30c-e5a649a3092b</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1641,17 +1665,17 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
+          <t>SAP アプリケーション レイヤー コンポーネント (ASCS) と DBMS レイヤーのほとんどのフェールオーバー クラスターでは、フェールオーバー クラスターの仮想 IP アドレスが必要です。 Azure Load Balancer は、他のすべてのケースで仮想 IP アドレスを処理する必要があります。設計原則の 1 つは、クラスター構成ごとに 1 つのロード バランサーを使用することです。ロード バランサーの Standard バージョン (Standard Load Balancer SKU) を使用することをお勧めします。</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1668,19 +1692,19 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-standard-load-balancer-outbound-connections</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1691,23 +1715,23 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>クラウド コネクタを介して SAP クラウド アプリケーションからオンプレミス (IaaS を含む) に ID を転送するための原則の伝達を適用する</t>
+          <t>ロードバランサーでフローティング IP が有効になっていることを確認します</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1718,19 +1742,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-ha-ports-overview?source=recommendations</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1741,23 +1765,23 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>SAML を使用して Azure AD で SAP Analytics Cloud、SAP Cloud Platform、Business by Design、SAP Qualtrics、SAP C4C などの SAP SaaS アプリケーションに SSO を実装します。</t>
+          <t>高可用性インフラストラクチャをデプロイする前に、選択したリージョンに応じて、Azure 可用性セットと可用性ゾーンのどちらを使用してデプロイするかを決定します。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1768,15 +1792,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I23" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+        </is>
+      </c>
+      <c r="I23" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>c47cc4f3-f105-452c-845e-9b307b3856c1</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1787,23 +1815,23 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>SAML を使用して、SAP Fiori や SAP Web GUI などの SAP NetWeaver ベースの Web アプリケーションに SSO を実装します。</t>
+          <t>SAP コンポーネント (セントラル サービス、アプリケーション サーバー、データベース) のアプリケーションのインフラストラクチャ SLA を満たす場合は、すべてのコンポーネントに対して同じ高可用性オプション (VM、可用性セット、可用性ゾーン) を選択する必要があります。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1814,19 +1842,15 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
-        </is>
-      </c>
+          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>844f69c3-07e5-4ec1-bff7-4be27bcf5fea</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1837,23 +1861,23 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>SAML を使用して、SAP Fiori や SAP Web GUI などの SAP NetWeaver ベースの Web アプリケーションに SSO を実装します。</t>
+          <t>同じ可用性セット内に異なるロールのサーバーを混在させないでください。セントラル サービス VM、データベース VM、アプリケーション VM を独自の可用性セットに保持する</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1862,17 +1886,21 @@
         </is>
       </c>
       <c r="G25" s="21" t="n"/>
-      <c r="H25" s="15" t="n"/>
+      <c r="H25" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+        </is>
+      </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1883,17 +1911,17 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>SAP NetWeaver SSO またはパートナーソリューションを使用して、SAP GUI への SSO を実装できます。</t>
+          <t>近接通信配置グループを使用しない限り、Azure 可用性ゾーン内に Azure 可用性セットをデプロイすることはできません。</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1910,19 +1938,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>f2201000-d045-40a6-a79a-d7cdc01b4d86</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1933,23 +1961,23 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI および Web ブラウザー アクセスの SSO については、構成とメンテナンスが容易なため、SNC – Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーション メカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
+          <t>可用性セットを作成するときは、使用可能な障害ドメインと更新ドメインの最大数を使用します。たとえば、1 つの可用性セットに 2 つ以上の VM をデプロイする場合は、Azure の計画メンテナンスに加えて、潜在的な物理ハードウェア障害、ネットワークの停止、または停電の影響を制限するために、最大数の障害ドメイン (3 つ) と十分な更新ドメインを使用します。障害ドメインの既定の数は 2 であり、後でオンラインで変更することはできません。</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1958,17 +1986,21 @@
         </is>
       </c>
       <c r="G27" s="21" t="n"/>
-      <c r="H27" s="15" t="n"/>
+      <c r="H27" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>9674e7c7-7796-4181-8920-09f4429543ba</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1979,23 +2011,23 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI および Web ブラウザー アクセスの SSO については、構成とメンテナンスが容易なため、SNC – Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーション メカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
+          <t>可用性セットのデプロイで Azure 近接通信配置グループを使用する場合は、3 つの SAP コンポーネント (セントラル サービス、アプリケーション サーバー、データベース) をすべて同じ近接通信配置グループに含める必要があります。</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2006,14 +2038,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>ae4ecb95-b70f-428f-8b9a-4c5b7e3478a2</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2024,23 +2056,23 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>OAuth for SAP NetWeaver を使用して SSO を実装し、サードパーティまたはカスタムアプリケーションが SAP NetWeaver OData サービスにアクセスできるようにします。</t>
+          <t>SAP SID ごとに 1 つの近接配置グループを使用します。グループは、Availability Zones や Azure リージョンにまたがっていません</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2051,14 +2083,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2069,17 +2101,17 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>SAP HANAへのSSOの実装</t>
+          <t>正しい VM SKU とゾーンのクォータ要求を行う</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2094,16 +2126,12 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
-        </is>
-      </c>
+      <c r="H30" s="15" t="n"/>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2124,13 +2152,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Azure AD は、RISE でホストされている SAP システムの ID プロバイダーであると考えてください。詳細については、「サービスと Azure AD の統合」を参照してください。</t>
+          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2141,14 +2169,19 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2169,7 +2202,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>SAP にアクセスするアプリケーションでは、プリンシパル伝搬を使用して SSO を確立することができます。</t>
+          <t>クラウド コネクタを介して SAP クラウド アプリケーションからオンプレミス (IaaS を含む) に ID を転送するための原則の伝達を適用する</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2186,15 +2219,19 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
-        </is>
-      </c>
-      <c r="I32" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+        </is>
+      </c>
+      <c r="I32" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+        </is>
+      </c>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2215,7 +2252,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>SAP Identity Authentication Service (IAS) を必要とする SAP BTP サービスまたは SaaS ソリューションを使用している場合は、SAP Cloud Identity Authentication Services と Azure AD の間に SSO を実装して、それらの SAP サービスにアクセスすることを検討してください。この統合により、SAP IAS はプロキシ ID プロバイダーとして機能し、認証要求を中央ユーザー ストアおよび ID プロバイダーとして Azure AD に転送できます。</t>
+          <t>SAML を使用して Azure AD で SAP Analytics Cloud、SAP Cloud Platform、Business by Design、SAP Qualtrics、SAP C4C などの SAP SaaS アプリケーションに SSO を実装します。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2232,7 +2269,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2240,7 +2277,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2261,7 +2298,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>SAP BTP への SSO の実装</t>
+          <t>SAML を使用して、SAP Fiori や SAP Web GUI などの SAP NetWeaver ベースの Web アプリケーションに SSO を実装します。</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2278,15 +2315,19 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
-        </is>
-      </c>
-      <c r="I34" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I34" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2307,7 +2348,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>SAP SuccessFactors を使用している場合は、Azure AD の自動ユーザー プロビジョニングの使用を検討してください。この統合により、SAP SuccessFactors に新しい従業員を追加するときに、Azure AD でユーザー アカウントを自動的に作成できます。 必要に応じて、Microsoft 365 または Azure AD でサポートされているその他の SaaS アプリケーションでユーザー アカウントを作成できます。 SAP SuccessFactors へのメール アドレスの書き戻しを使用します。</t>
+          <t>SAML を使用して、SAP Fiori や SAP Web GUI などの SAP NetWeaver ベースの Web アプリケーションに SSO を実装します。</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2322,17 +2363,17 @@
         </is>
       </c>
       <c r="G35" s="21" t="n"/>
-      <c r="H35" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
-        </is>
-      </c>
-      <c r="I35" s="15" t="n"/>
+      <c r="H35" s="15" t="n"/>
+      <c r="I35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+        </is>
+      </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2343,17 +2384,17 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>既存の管理グループ ポリシーを SAP サブスクリプションに適用する</t>
+          <t>SAP NetWeaver SSO またはパートナーソリューションを使用して、SAP GUI への SSO を実装できます。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2370,19 +2411,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2393,23 +2434,23 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>緊密に結合されたアプリケーションを同じSAPサブスクリプションに統合し、ルーティングと管理の複雑さを回避</t>
+          <t>SAP GUI および Web ブラウザー アクセスの SSO については、構成とメンテナンスが容易なため、SNC – Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーション メカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2418,21 +2459,17 @@
         </is>
       </c>
       <c r="G37" s="21" t="n"/>
-      <c r="H37" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
+      <c r="H37" s="15" t="n"/>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2443,23 +2480,23 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプションをスケール ユニットとして活用し、リソースをスケーリングし、環境ごとにサブスクリプションをデプロイすることを検討してください。サンドボックス、非製品、製品</t>
+          <t>SAP GUI および Web ブラウザー アクセスの SSO については、構成とメンテナンスが容易なため、SNC – Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーション メカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2470,19 +2507,15 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2493,23 +2526,23 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプションのプロビジョニングの一環としてクォータの増加を確認する (例: サブスクリプション内で使用可能な VM コアの合計)</t>
+          <t>OAuth for SAP NetWeaver を使用して SSO を実装し、サードパーティまたはカスタムアプリケーションが SAP NetWeaver OData サービスにアクセスできるようにします。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2520,19 +2553,15 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
-        </is>
-      </c>
-      <c r="I39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2543,23 +2572,23 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>クォータ API は、Azure サービスのクォータを表示および管理するために使用できる REST API です。必要に応じて使用を検討してください。</t>
+          <t>SAP HANAへのSSOの実装</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2570,7 +2599,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2578,7 +2607,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2589,23 +2618,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>可用性ゾーンにデプロイする場合は、クォータが承認されたら、VM のゾーン デプロイが使用可能であることを確認します。必要なサブスクリプション、VM シリーズ、CPU の数、可用性ゾーンを含むサポート リクエストを送信します。</t>
+          <t>Azure AD は、RISE でホストされている SAP システムの ID プロバイダーであると考えてください。詳細については、「サービスと Azure AD の統合」を参照してください。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2616,7 +2645,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2624,7 +2653,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2635,23 +2664,23 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>必要なサービスと機能が、選択したデプロイ リージョン内で利用可能であることを確認します。ANF、ゾーンなど</t>
+          <t>SAP にアクセスするアプリケーションでは、プリンシパル伝搬を使用して SSO を確立することができます。</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2662,19 +2691,15 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I42" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+        </is>
+      </c>
+      <c r="I42" s="15" t="n"/>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2685,17 +2710,17 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>コストの分類とリソースのグループ化 (BillTo、部門 (または部署)、環境 (運用、ステージング、開発)、層 (Web 層、アプリケーション層)、アプリケーション所有者、プロジェクト名) に Azure リソース タグを活用します</t>
+          <t>SAP Identity Authentication Service (IAS) を必要とする SAP BTP サービスまたは SaaS ソリューションを使用している場合は、SAP Cloud Identity Authentication Services と Azure AD の間に SSO を実装して、それらの SAP サービスにアクセスすることを検討してください。この統合により、SAP IAS はプロキシ ID プロバイダーとして機能し、認証要求を中央ユーザー ストアおよび ID プロバイダーとして Azure AD に転送できます。</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2712,19 +2737,15 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2735,23 +2756,23 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>BCDR (英語)</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup サービスを使用して HANA データベースを保護するのに役立ちます。</t>
+          <t>SAP BTP への SSO の実装</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2762,19 +2783,15 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2785,17 +2802,17 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>BCDR (英語)</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>HANA、Oracle、または DB2 データベース用に Azure NetApp Files をデプロイする場合は、Azure アプリケーション整合性スナップショット ツール (AzAcSnap) を使用して、アプリケーション整合性スナップショットを作成します。AzAcSnap は Oracle データベースもサポートしています。個々の VM ではなく、中央の VM で AzAcSnap を使用することを検討してください。</t>
+          <t>SAP SuccessFactors を使用している場合は、Azure AD の自動ユーザー プロビジョニングの使用を検討してください。この統合により、SAP SuccessFactors に新しい従業員を追加するときに、Azure AD でユーザー アカウントを自動的に作成できます。 必要に応じて、Microsoft 365 または Azure AD でサポートされているその他の SaaS アプリケーションでユーザー アカウントを作成できます。 SAP SuccessFactors へのメール アドレスの書き戻しを使用します。</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2812,14 +2829,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2830,23 +2847,23 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>オペレーティングシステムと SAP システムの間でタイムゾーンが一致していることを確認します。</t>
+          <t>既存の管理グループ ポリシーを SAP サブスクリプションに適用する</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2857,15 +2874,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+        </is>
+      </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2876,23 +2897,23 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>異なるアプリケーション サービスを同じクラスターにグループ化しないでください。たとえば、DRBDとセントラルサービスクラスタを同じクラスタに組み合わせないでください。ただし、同じ Pacemaker クラスターを使用して、約 5 つの異なるセントラル サービス (マルチ SID クラスター) を管理できます。</t>
+          <t>緊密に結合されたアプリケーションを同じSAPサブスクリプションに統合し、ルーティングと管理の複雑さを回避</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2903,19 +2924,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2926,23 +2947,23 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>スヌーズ モデルで開発/テスト システムを実行して、Azure の実行コストを節約および最適化することを検討してください。</t>
+          <t>サブスクリプションをスケール ユニットとして活用し、リソースをスケーリングし、環境ごとにサブスクリプションをデプロイすることを検討してください。サンドボックス、非製品、製品</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2953,14 +2974,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2971,23 +2997,23 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>お客様の SAP 資産を管理することでお客様と提携する場合は、Azure Lighthouse をご検討ください。Azure Lighthouse を使用すると、マネージド サービス プロバイダーは Azure ネイティブ ID サービスを使用して、顧客の環境に対する認証を行うことができます。顧客はいつでもアクセスを取り消し、サービスプロバイダーの行動を監査できるため、制御を顧客の手に委ねることができます。</t>
+          <t>サブスクリプションのプロビジョニングの一環としてクォータを確実に増やす (例: サブスクリプション内で使用可能な VM コアの合計数)</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2998,14 +3024,19 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3016,23 +3047,23 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Azure Update Manager を使用して、1 つまたは複数の VM で利用可能な更新プログラムの状態を確認し、定期的な修正プログラムの適用をスケジュールすることを検討します。</t>
+          <t>クォータ API は、Azure サービスのクォータを表示および管理するために使用できる REST API です。必要に応じて使用を検討してください。</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3043,19 +3074,15 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+        </is>
+      </c>
+      <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3066,23 +3093,23 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>SAP Landscape Management (LaMa) を使用して SAP Basis の運用を最適化および管理します。Azure 用の SAP LaMa コネクタを使用して、SAP システムの再配置、コピー、複製、更新を行います。</t>
+          <t>可用性ゾーンにデプロイする場合は、クォータが承認されたら、VM のゾーン デプロイが使用可能であることを確認します。必要なサブスクリプション、VM シリーズ、CPU の数、可用性ゾーンを含むサポート リクエストを送信します。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3093,19 +3120,15 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3116,23 +3139,23 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor for SAP solutions を使用して、Azure 上の SAP ワークロード (SAP HANA、高可用性 SUSE クラスター、SQL システム) を監視します。Azure Monitor for SAP solutions を SAP Solution Manager で補完することを検討してください。</t>
+          <t>必要なサービスと機能が、選択した展開リージョン内で利用可能であることを確認します。ANF、ゾーンなど</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3143,19 +3166,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3166,23 +3189,23 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>SAP の VM 拡張機能チェックを実行します。VM Extension for SAP では、仮想マシン (VM) の割り当てられたマネージド ID を使用して、VM の監視および構成データにアクセスします。このチェックにより、SAP アプリケーションのすべてのパフォーマンス メトリックが、基になる Azure Extension for SAP からのものであることが確認されます。</t>
+          <t>コストの分類とリソースのグループ化 (BillTo、部門 (または部署)、環境 (運用、ステージ、開発)、層 (Web 層、アプリケーション層)、アプリケーション所有者、プロジェクト名) に Azure リソース タグを活用します</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3193,19 +3216,19 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3221,18 +3244,18 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
+          <t>Azure Backup サービスを使用して HANA データベースを保護するのに役立ちます。</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3243,19 +3266,19 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3271,12 +3294,12 @@
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Azure Network Watcher の接続モニターを使用して、SAP データベースとアプリケーション サーバーの待機時間メトリックを監視します。または、Azure Monitor を使用してネットワーク待機時間の測定値を収集して表示します。</t>
+          <t>HANA、Oracle、または DB2 データベースに Azure NetApp Files をデプロイする場合は、Azure アプリケーション整合性スナップショット ツール (AzAcSnap) を使用して、アプリケーション整合性スナップショットを作成します。AzAcSnap は Oracle データベースもサポートしています。個々の VM ではなく、中央の VM で AzAcSnap を使用することを検討してください。</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3293,19 +3316,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3321,12 +3339,12 @@
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery の監視を使用して、SAP アプリケーション サーバーのディザスター リカバリー サービスの正常性を維持します。</t>
+          <t>オペレーティングシステムと SAP システムの間でタイムゾーンが一致していることを確認します。</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3343,19 +3361,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3371,12 +3384,12 @@
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>プロビジョニングされた Azure インフラストラクチャで SAP HANA の品質チェックを実行して、プロビジョニングされた VM が SAP HANA on Azure のベスト プラクティスに準拠していることを確認します。</t>
+          <t>異なるアプリケーション サービスを同じクラスターにグループ化しないでください。たとえば、DRBDとセントラルサービスクラスタを同じクラスタに組み合わせないでください。ただし、同じ Pacemaker クラスターを使用して、約 5 つの異なるセントラル サービス (マルチ SID クラスター) を管理できます。</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3393,14 +3406,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3416,18 +3434,18 @@
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Azure サブスクリプションごとに、ゾーン デプロイの前に Azure 可用性ゾーンで待機時間テストを実行して、SAP on Azure のデプロイ用に待機時間の短いゾーンを選択します。</t>
+          <t>スヌーズ モデルで開発/テスト システムを実行して、Azure の実行コストを節約および最適化することを検討してください。</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3438,19 +3456,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3466,12 +3479,12 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>回復性レポートを実行して、プロビジョニングされた Azure インフラストラクチャ (コンピューティング、データベース、ネットワーク、ストレージ、Site Recovery) 全体の構成が、Cloud Adaption Framework for Azure によって定義された構成に準拠していることを確認します。</t>
+          <t>お客様の SAP 資産を管理することでお客様と提携する場合は、Azure Lighthouse をご検討ください。Azure Lighthouse を使用すると、マネージド サービス プロバイダーは Azure ネイティブ ID サービスを使用して、顧客の環境に対する認証を行うことができます。顧客はいつでもアクセスを取り消し、サービスプロバイダーの行動を監査できるため、制御を顧客の手に委ねることができます。</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3488,19 +3501,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3516,12 +3524,12 @@
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>SAP 用 Microsoft Sentinel ソリューションを使用して脅威保護を実装します。このソリューションを使用して、SAPシステムを監視し、ビジネスロジック層とアプリケーション層全体で高度な脅威を検出します。</t>
+          <t>Azure Update Manager を使用して、1 つまたは複数の VM で利用可能な更新プログラムの状態を確認し、定期的な修正プログラムの適用をスケジュールすることを検討します。</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3538,19 +3546,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3566,18 +3574,18 @@
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Azure のタグ付けを利用して、リソースを論理的にグループ化して追跡し、デプロイを自動化し、最も重要なこととして、発生したコストを可視化できます。</t>
+          <t>SAP Landscape Management (LaMa) を使用して SAP Basis の運用を最適化および管理します。Azure 用の SAP LaMa コネクタを使用して、SAP システムの再配置、コピー、複製、更新を行います。</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3588,19 +3596,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3616,18 +3624,18 @@
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>待機時間の影響を受けやすいアプリケーションには、VM 間の待機時間の監視を使用します。</t>
+          <t>Azure Monitor for SAP solutions を使用して、Azure 上の SAP ワークロード (SAP HANA、高可用性 SUSE クラスター、SQL システム) を監視します。Azure Monitor for SAP solutions を SAP Solution Manager で補完することを検討してください。</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3638,14 +3646,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3661,18 +3674,18 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery の監視を使用して、SAP アプリケーション サーバーのディザスター リカバリー サービスの正常性を維持します。</t>
+          <t>SAP の VM 拡張機能チェックを実行します。VM Extension for SAP では、仮想マシン (VM) の割り当てられたマネージド ID を使用して、VM の監視および構成データにアクセスします。このチェックにより、SAP アプリケーションのすべてのパフォーマンス メトリックが、基になる Azure Extension for SAP からのものであることが確認されます。</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3683,19 +3696,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3711,12 +3724,12 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>すべてのデータベース・ファイル・システムおよび実行可能プログラムをウイルス対策スキャンから除外します。これらを含めると、パフォーマンスの問題が発生する可能性があります。除外リストの規範的な詳細については、データベースベンダーに確認してください。たとえば、&lt;sid&gt;ウイルス対策スキャンから/oracle//sapdataを除外することをお薦めします。</t>
+          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3733,15 +3746,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3757,18 +3774,18 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>移行後に、HANA以外のデータベースの完全なデータベース統計を収集することを検討してください。たとえば、SAP ノート 1020260 - Oracle 統計の配信を実装します。</t>
+          <t>Azure Network Watcher の接続モニターを使用して、SAP データベースとアプリケーション サーバーの待機時間メトリックを監視します。または、Azure Monitor を使用してネットワーク待機時間の測定値を収集して表示します。</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3779,15 +3796,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3803,18 +3824,18 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>SAP on Azure を使用するすべての Oracle デプロイには、Oracle Automatic Storage Management (ASM) の使用を検討してください。</t>
+          <t>Azure Site Recovery の監視を使用して、SAP アプリケーション サーバーのディザスター リカバリー サービスの正常性を維持します。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3825,19 +3846,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3853,12 +3874,12 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Oracle を実行している SAP on Azure の場合、SQL スクリプトのコレクションは、パフォーマンスの問題の診断に役立ちます。 自動ワークロード・リポジトリ(AWR)レポートには、Oracleシステムの問題を診断するための貴重な情報が含まれています。AWRレポートは、複数のセッションで実行し、ピーク時間を選択して、分析を広範囲にカバーすることをお薦めします。</t>
+          <t>プロビジョニングされた Azure インフラストラクチャで SAP HANA の品質チェックを実行して、プロビジョニングされた VM が SAP HANA on Azure のベスト プラクティスに準拠していることを確認します。</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3875,19 +3896,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3898,23 +3915,23 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>HTTP/S アプリを安全に配信するには、Application Gateway v2 を使用し、WAF の保護とポリシーが有効になっていることを確認します。</t>
+          <t>Azure サブスクリプションごとに、ゾーン デプロイの前に Azure 可用性ゾーンで待機時間テストを実行して、SAP on Azure のデプロイ用に待機時間の短いゾーンを選択します。</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3925,19 +3942,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3948,17 +3965,17 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>DNSの</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Azure への移行中に仮想マシンの DNS または仮想名が変更されない場合、バックグラウンド DNS と仮想名によって SAP ランドスケープ内の多くのシステム インターフェイスが接続され、お客様は、開発者が時間の経過と共に定義するインターフェイスに気付くことがあります。移行後に仮想名または DNS 名が変更されると、さまざまなシステム間で接続の問題が発生するため、このような問題を防ぐために DNS エイリアスを保持することをお勧めします。</t>
+          <t>回復性レポートを実行して、プロビジョニングされた Azure インフラストラクチャ (コンピューティング、データベース、ネットワーク、ストレージ、Site Recovery) 全体の構成が、Cloud Adaption Framework for Azure によって定義された構成に準拠していることを確認します。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3975,19 +3992,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3998,17 +4015,17 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>DNSの</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>異なる DNS ゾーンを使用して、各環境 (サンドボックス、開発、運用前、運用) を互いに区別します。例外は、独自の VNet を使用する SAP デプロイの場合です。ここでは、プライベート DNS ゾーンは必要ない場合があります。</t>
+          <t>SAP 用 Microsoft Sentinel ソリューションを使用して脅威保護を実装します。このソリューションを使用して、SAPシステムを監視し、ビジネスロジック層とアプリケーション層全体で高度な脅威を検出します。</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4025,19 +4042,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4048,17 +4065,17 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>ローカルおよびグローバル VNet ピアリングは接続を提供し、複数の Azure リージョンにまたがる SAP デプロイのランディング ゾーン間の接続を確保するための推奨されるアプローチです</t>
+          <t>Azure のタグ付けを利用して、リソースを論理的にグループ化して追跡し、デプロイを自動化し、最も重要なこととして、発生したコストを可視化できます。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4075,19 +4092,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4098,23 +4115,23 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーションと SAP データベース サーバーの間に NVA をデプロイすることはサポートされていません</t>
+          <t>待機時間の影響を受けやすいアプリケーションには、VM 間の待機時間の監視を使用します。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4125,19 +4142,15 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
-        </is>
-      </c>
-      <c r="I72" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/2731110</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4148,17 +4161,17 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
+          <t>Azure Site Recovery の監視を使用して、SAP アプリケーション サーバーのディザスター リカバリー サービスの正常性を維持します。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4175,19 +4188,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
         </is>
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4198,17 +4211,17 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>パートナーの NVA が使用されている場合にのみ、リージョン間でネットワーク仮想アプライアンス (NVA) をデプロイすることを検討してください。ネイティブ NVA が存在する場合、リージョン間または VNet 間の NVA は必要ありません。パートナーのネットワーク テクノロジと NVA をデプロイする場合は、ベンダーのガイダンスに従って、Azure ネットワークと競合する構成を確認します。</t>
+          <t>すべてのデータベース・ファイル・システムおよび実行可能プログラムをウイルス対策スキャンから除外します。これらを含めると、パフォーマンスの問題が発生する可能性があります。除外リストの規範的な詳細については、データベースベンダーに確認してください。たとえば、&lt;sid&gt;ウイルス対策スキャンから/oracle//sapdataを除外することをお薦めします。</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4225,19 +4238,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4248,23 +4257,23 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN は、仮想 WAN ベースのトポロジのスポーク VNet 間の接続を管理し (ユーザー定義ルーティング (UDR) または NVA を設定する必要はありません)、同じ仮想ハブ内の VNet 間トラフィックの最大ネットワーク スループットは 50 ギガビット/秒です。必要に応じて、SAP ランディング ゾーンは VNet ピアリングを使用して他のランディング ゾーンに接続し、この帯域幅の制限を克服できます。</t>
+          <t>移行後に、HANA以外のデータベースの完全なデータベース統計を収集することを検討してください。たとえば、SAP ノート 1020260 - Oracle 統計の配信を実装します。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4275,19 +4284,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4298,23 +4303,23 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>SAP ワークロードを実行している VM へのパブリック I.P 割り当てはお勧めしません。</t>
+          <t>SAP on Azure を使用するすべての Oracle デプロイには、Oracle Automatic Storage Management (ASM) の使用を検討してください。</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4325,19 +4330,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4348,23 +4353,23 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>ASR の設定時に DR 側で I.P アドレスを予約することを検討してください</t>
+          <t>Oracle を実行している SAP on Azure の場合、SQL スクリプトのコレクションは、パフォーマンスの問題の診断に役立ちます。 自動ワークロード・リポジトリ(AWR)レポートには、Oracleシステムの問題を診断するための貴重な情報が含まれています。AWRレポートは、複数のセッションで実行し、ピーク時間を選択して、分析を広範囲にカバーすることをお薦めします。</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4375,19 +4380,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4403,18 +4408,18 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>HTTP/S アプリを安全に配信するには、Application Gateway v2 を使用し、WAF の保護とポリシーが有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4425,19 +4430,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4453,12 +4458,12 @@
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>DNSの</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Azure では 1 つの VNet に複数の委任されたサブネットを作成できますが、Azure NetApp Files の VNet に存在できる委任されたサブネットは 1 つだけです。Azure NetApp Files に複数の委任されたサブネットを使用すると、新しいボリュームを作成しようとしても失敗します。</t>
+          <t>Azure への移行中に仮想マシンの DNS または仮想名が変更されない場合、バックグラウンド DNS と仮想名によって SAP ランドスケープ内の多くのシステム インターフェイスが接続され、お客様は、開発者が時間の経過と共に定義するインターフェイスに気付くことがあります。移行後に仮想名または DNS 名が変更されると、さまざまなシステム間で接続の問題が発生するため、このような問題を防ぐために DNS エイリアスを保持することをお勧めします。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4475,19 +4480,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4503,12 +4508,12 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>DNSの</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
+          <t>異なる DNS ゾーンを使用して、各環境 (サンドボックス、開発、運用前、運用) を互いに区別します。例外は、独自の VNet を使用する SAP デプロイの場合です。ここでは、プライベート DNS ゾーンは必要ない場合があります。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4525,19 +4530,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4553,12 +4558,12 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway、SAP Web Dispatcher、およびその他のサードパーティ サービスの比較に示すように、Application Gateway が SAP Web アプリのリバース プロキシとして機能する場合、Application Gateway と Web Application Firewall には制限があります。</t>
+          <t>ローカルとグローバルの VNet ピアリングは接続を提供し、複数の Azure リージョンにまたがる SAP デプロイのランディング ゾーン間の接続を確保するための推奨されるアプローチです</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4575,19 +4580,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I81" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4603,18 +4608,18 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
+          <t>SAP アプリケーションと SAP データベース サーバー間の NVA のデプロイはサポートされていません</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4625,19 +4630,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4653,12 +4658,12 @@
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と Application Gateway を使用して HTTP/S アプリケーションを保護する場合は、Azure Front Door の Web アプリケーション ファイアウォール ポリシーを活用します。Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
+          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4675,19 +4680,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4703,12 +4708,12 @@
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Web アプリケーション ファイアウォールを使用して、インターネットに公開されているトラフィックをスキャンします。もう 1 つのオプションは、ロード バランサー、または Application Gateway やサードパーティ ソリューションなどのファイアウォール機能が組み込まれているリソースと共に使用することです。</t>
+          <t>パートナーの NVA が使用されている場合にのみ、リージョン間でネットワーク仮想アプライアンス (NVA) をデプロイすることを検討してください。ネイティブ NVA が存在する場合、リージョン間または VNet 間の NVA は必要ありません。パートナーのネットワーク テクノロジと NVA をデプロイする場合は、ベンダーのガイダンスに従って、Azure ネットワークと競合する構成を確認します。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4725,19 +4730,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4753,12 +4758,12 @@
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
+          <t>Virtual WAN は、仮想 WAN ベースのトポロジのスポーク VNet 間の接続を管理し (ユーザー定義ルーティング (UDR) または NVA を設定する必要はありません)、同じ仮想ハブ内の VNet 間トラフィックの最大ネットワーク スループットは 50 ギガビット/秒です。必要に応じて、SAP ランディング ゾーンは VNet ピアリングを使用して他のランディング ゾーンに接続し、この帯域幅の制限を克服できます。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4775,19 +4780,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4803,18 +4808,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>データ漏えいを防ぐには、Azure Private Link を使用して、Azure Blob Storage、Azure Files、Azure Data Lake Storage Gen2、Azure Data Factory などのサービスとしてのプラットフォーム リソースに安全にアクセスします。Azure プライベート エンドポイントは、VNet と Azure Storage、Azure Backup などのサービス間のトラフィックをセキュリティで保護するのにも役立ちます。VNet とプライベート エンドポイント対応サービス間のトラフィックは、Microsoft グローバル ネットワークを経由するため、パブリック インターネットへの公開が防止されます。</t>
+          <t>SAP ワークロードを実行している VM へのパブリック I.P 割り当てはお勧めしません。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4825,19 +4830,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4853,12 +4858,12 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーションと DBMS レイヤーで使用される VM で Azure 高速ネットワークが有効になっていることを確認します。</t>
+          <t>ASR の設定時に DR 側で I.P アドレスを予約することを検討してください</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4875,19 +4880,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4903,18 +4908,18 @@
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer の内部デプロイが Direct Server Return (DSR) を使用するように設定されていることを確認します。この設定により、DBMS レイヤーの高可用性構成に内部ロード バランサー構成が使用されている場合の待機時間が短縮されます。</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4925,19 +4930,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4953,12 +4958,12 @@
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション セキュリティ グループ (ASG) と NSG 規則を使用して、SAP アプリケーション層と DBMS 層の間にネットワーク セキュリティのアクセス制御リストを定義できます。ASG は、仮想マシンをグループ化してセキュリティの管理に役立てます。</t>
+          <t>Azure では 1 つの VNet に複数の委任されたサブネットを作成できますが、Azure NetApp Files の VNet に存在できる委任されたサブネットは 1 つだけです。Azure NetApp Files に複数の委任されたサブネットを使用すると、新しいボリュームを作成しようとしても失敗します。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4975,19 +4980,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5003,18 +5008,18 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>ピアリングされていない異なる Azure VNet への SAP アプリケーション レイヤーと SAP DBMS の配置はサポートされていません。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5025,19 +5030,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5053,12 +5058,12 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーションで最適なネットワーク待機時間を実現するには、Azure 近接通信配置グループの使用を検討してください。</t>
+          <t>Application Gateway、SAP Web Dispatcher、およびその他のサードパーティ サービスの比較に示すように、Application Gateway が SAP Web アプリのリバース プロキシとして機能する場合、Application Gateway と Web Application Firewall には制限があります。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5075,19 +5080,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5103,18 +5108,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスと Azure の間で分割された SAP アプリケーション サーバー レイヤーと DBMS レイヤーを実行することは、まったくサポートされていません。どちらのレイヤーも、オンプレミスまたは Azure に完全に存在する必要があります。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5125,19 +5130,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5153,18 +5158,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>SAP システムのデータベース管理システム (DBMS) とアプリケーション レイヤーを異なる VNet でホストし、それらを VNet ピアリングに接続することは、レイヤー間の過剰なネットワーク トラフィックによって生成される可能性があるため、お勧めしません。Azure 仮想ネットワーク内のサブネットを使用して、SAP アプリケーション レイヤーと DBMS レイヤーを分離することをお勧めします。</t>
+          <t>Azure Front Door と Application Gateway を使用して HTTP/S アプリケーションを保護する場合は、Azure Front Door の Web アプリケーション ファイアウォール ポリシーを利用します。Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5175,19 +5180,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5203,18 +5208,18 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーションと DBMS レイヤーで使用される VM で Azure 高速ネットワークが有効になっていることを確認します。</t>
+          <t>Web アプリケーション ファイアウォールを使用して、インターネットに公開されているトラフィックをスキャンします。別のオプションとして、ロード バランサーや、Application Gateway やサードパーティ ソリューションなどのファイアウォール機能が組み込まれているリソースと共に使用することもできます。</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5225,19 +5230,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5253,18 +5258,18 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Linux ゲスト・オペレーティング・システムで Load Balancer を使用する場合は、Linux ネットワーク・パラメーター net.ipv4.tcp_timestamps が 0 に設定されていることを確認します。</t>
+          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5275,19 +5280,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5303,12 +5308,12 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>SAP RISE/ECS デプロイの場合、仮想ピアリングは、お客様の既存の Azure 環境との接続を確立するための推奨される方法です。SAP vnet と顧客 VNet の両方がネットワーク セキュリティ グループ (NSG) で保護され、vnet ピアリングを介した SAP ポートとデータベース ポートでの通信が可能になります</t>
+          <t>データ漏えいを防ぐには、Azure Private Link を使用して、Azure Blob Storage、Azure Files、Azure Data Lake Storage Gen2、Azure Data Factory などのサービスとしてのプラットフォーム リソースに安全にアクセスします。Azure プライベート エンドポイントは、VNet と Azure Storage、Azure Backup などのサービス間のトラフィックをセキュリティで保護するのにも役立ちます。VNet とプライベート エンドポイント対応サービス間のトラフィックは、Microsoft グローバル ネットワークを経由するため、パブリック インターネットへの公開は防止されます。</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5325,15 +5330,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
-        </is>
-      </c>
-      <c r="I96" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5344,17 +5353,17 @@
     <row r="97" ht="16.5" customHeight="1">
       <c r="A97" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します</t>
+          <t>SAP アプリケーションと DBMS レイヤーで使用される VM で Azure 高速ネットワークが有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5371,15 +5380,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5390,17 +5403,17 @@
     <row r="98" ht="16.5" customHeight="1">
       <c r="A98" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
+          <t>Azure Load Balancer の内部デプロイが Direct Server Return (DSR) を使用するように設定されていることを確認します。この設定により、DBMS レイヤーの高可用性構成に内部ロード バランサー構成が使用されている場合の待機時間が短縮されます。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5417,15 +5430,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I98" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+        </is>
+      </c>
+      <c r="I98" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5436,17 +5453,17 @@
     <row r="99" ht="16.5" customHeight="1">
       <c r="A99" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>SAP データベース サーバーの暗号化には、SAP HANA ネイティブ暗号化テクノロジを使用します。Azure SQL Database を使用している場合は、DBMS プロバイダーが提供する Transparent Data Encryption (TDE) を使用して、データとログ ファイルをセキュリティで保護し、バックアップも暗号化されるようにします。</t>
+          <t>アプリケーション セキュリティ グループ (ASG) と NSG 規則を使用して、SAP アプリケーション層と DBMS 層の間にネットワーク セキュリティのアクセス制御リストを定義できます。ASG は、仮想マシンをグループ化してセキュリティの管理に役立てます。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5463,15 +5480,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5482,23 +5503,23 @@
     <row r="100" ht="16.5" customHeight="1">
       <c r="A100" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage の暗号化は既定で有効になっています</t>
+          <t>ピアリングされていない異なる Azure VNet への SAP アプリケーション レイヤーと SAP DBMS の配置はサポートされていません。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5509,15 +5530,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5528,17 +5553,17 @@
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>SAP アプリケーションで最適なネットワーク待機時間を実現するには、Azure 近接通信配置グループの使用を検討してください。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5555,15 +5580,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I101" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+        </is>
+      </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5574,23 +5603,23 @@
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>オンプレミスと Azure の間で分割された SAP アプリケーション サーバー レイヤーと DBMS レイヤーを実行することは、まったくサポートされていません。どちらのレイヤーも、オンプレミスまたは Azure に完全に存在する必要があります。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5601,15 +5630,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5620,17 +5653,17 @@
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>SAP システムのデータベース管理システム (DBMS) レイヤーとアプリケーション レイヤーを異なる VNet でホストし、それらを VNet ピアリングに接続することは、レイヤー間の過剰なネットワーク トラフィックによって生成される可能性があるため、お勧めしません。Azure 仮想ネットワーク内のサブネットを使用して、SAP アプリケーション レイヤーと DBMS レイヤーを分離することをお勧めします。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5647,15 +5680,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5666,23 +5703,23 @@
     <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>デプロイが成功したら Azure リソースをロックして、承認されていない変更から保護することをお勧めします</t>
+          <t>SAP アプリケーションと DBMS レイヤーで使用される VM で Azure 高速ネットワークが有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5693,15 +5730,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5712,23 +5753,23 @@
     <row r="105" ht="16.5" customHeight="1">
       <c r="A105" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+          <t>Linux ゲスト・オペレーティング・システムで Load Balancer を使用する場合は、Linux ネットワーク・パラメーター net.ipv4.tcp_timestamps が 0 に設定されていることを確認します。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5739,15 +5780,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5758,17 +5803,17 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>既存の要件、規制、コンプライアンス制御 (内部/外部) に基づいて、必要な Azure ポリシーと Azure RBAC ロールを決定します</t>
+          <t>SAP RISE/ECS デプロイの場合、仮想ピアリングは、お客様の既存の Azure 環境との接続を確立するための推奨される方法です。SAP vnet と顧客 VNet の両方がネットワーク セキュリティ グループ (NSG) で保護され、vnet ピアリングを介した SAP ポートとデータベース ポートでの通信が可能になります</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5785,7 +5830,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
         </is>
       </c>
       <c r="I106" s="15" t="n"/>
@@ -5793,7 +5838,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5809,12 +5854,12 @@
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud Standard for SAP を有効にする場合は、エンドポイント保護をインストールするポリシーから SAP データベース サーバーを除外してください。</t>
+          <t>Azure、オンプレミス、またはその他のクラウド環境で Windows VM と Linux VM を実行している場合は、Azure Automation の更新管理センターを使用して、セキュリティ パッチを含むオペレーティング システムの更新プログラムを管理できます。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5831,15 +5876,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I107" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5855,12 +5904,12 @@
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>ジャストインタイムアクセス権を持つ SAP 管理者カスタム ロールを委任します。</t>
+          <t>SAP は、SAP システムを保護するために即時のアクションを必要とする非常に重要なセキュリティ パッチまたはホット フィックスをリリースしているため、SAP セキュリティ OSS ノートを定期的に確認してください。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5877,15 +5926,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5901,18 +5954,18 @@
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>サードパーティのセキュリティ製品を DIAG (SAP GUI)、RFC、および HTTPS の SPNEGO のセキュアネットワーク通信 (SNC) と統合することにより、転送中のデータを暗号化します。</t>
+          <t>SQL Server 上の SAP システムではアカウントを使用しないため、SQL Server 上の SAP システム管理者アカウントを無効にすることができます。元のシステム管理者アカウントを無効にする前に、システム管理者権限を持つ別のユーザーがサーバーにアクセスできることを確認してください。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5923,7 +5976,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -5931,7 +5984,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5947,18 +6000,18 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>SAML 2.0 を使用した Azure Active Directory (Azure AD) では、SAP NetWeaver、SAP HANA、SAP Cloud Platform など、さまざまな SAP アプリケーションやプラットフォームに SSO を提供することもできます</t>
+          <t>xp_cmdshellを無効にします。SQL Server 機能xp_cmdshell、SQL Server 内部オペレーティング システムのコマンド シェルを有効にします。これは、セキュリティ監査における潜在的なリスクです。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5969,15 +6022,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/3019299/E</t>
+        </is>
+      </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -5998,13 +6055,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>SAP データベースへの攻撃につながる可能性のある脆弱性を根絶するために、オペレーティング システムを強化してください。</t>
+          <t>Azrue での SAP HANA データベース サーバーの暗号化では、SAP HANA ネイティブ暗号化テクノロジが使用されます。さらに、Azure で SQL Server を使用している場合は、Transparent Data Encryption (TDE) を使用してデータとログ ファイルを保護し、バックアップも暗号化されるようにします。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6015,14 +6072,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6043,7 +6105,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>Azure Storage の暗号化は、すべての Azure Resource Manager とクラシック ストレージ アカウントに対して有効になっており、無効にすることはできません。データは既定で暗号化されるため、Azure Storage 暗号化を使用するためにコードやアプリケーションを変更する必要はありません。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6060,15 +6122,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6089,13 +6155,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6106,15 +6172,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I113" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+        </is>
+      </c>
+      <c r="I113" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6135,7 +6205,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>デプロイが成功したら、Azure リソースを LOCK して、承認されていない変更から保護することをお勧めします。また、カスタマイズされた Azure ポリシー (Custome ロール) を使用して、サブスクリプションごとに LOCK の制約とルールを適用することもできます。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6152,15 +6222,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6171,17 +6245,17 @@
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="21" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Oracle、SQL、HANAのディスク構成</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6196,12 +6270,21 @@
         </is>
       </c>
       <c r="G115" s="21" t="n"/>
-      <c r="H115" s="15" t="n"/>
+      <c r="H115" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6210,262 +6293,787 @@
       <c r="P115" s="25" t="n"/>
     </row>
     <row r="116" ht="16.5" customHeight="1">
-      <c r="A116" s="21" t="n"/>
-      <c r="B116" s="21" t="n"/>
-      <c r="C116" s="21" t="n"/>
+      <c r="A116" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B116" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C116" s="21" t="inlineStr">
+        <is>
+          <t>既存の要件、規制、コンプライアンス制御 (内部/外部) に基づいて、必要な Azure ポリシーと Azure RBAC ロールを決定します</t>
+        </is>
+      </c>
       <c r="D116" s="21" t="n"/>
-      <c r="E116" s="21" t="n"/>
+      <c r="E116" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G116" s="21" t="n"/>
-      <c r="H116" s="15" t="n"/>
+      <c r="H116" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
-      <c r="L116" s="25" t="n"/>
+      <c r="L116" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M116" s="25" t="n"/>
       <c r="N116" s="25" t="n"/>
       <c r="O116" s="25" t="n"/>
       <c r="P116" s="25" t="n"/>
     </row>
     <row r="117" ht="16.5" customHeight="1">
-      <c r="A117" s="21" t="n"/>
-      <c r="B117" s="21" t="n"/>
-      <c r="C117" s="21" t="n"/>
+      <c r="A117" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B117" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C117" s="21" t="inlineStr">
+        <is>
+          <t>SAP 環境でMicrosoft Defender for Endpointを有効にする場合は、すべてのサーバーを対象とするのではなく、DBMS サーバー上のデータとログ ファイルを除外することをお勧めします。ターゲット ファイルを除外する場合は、DBMS ベンダーの推奨事項に従ってください。</t>
+        </is>
+      </c>
       <c r="D117" s="21" t="n"/>
-      <c r="E117" s="21" t="n"/>
+      <c r="E117" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G117" s="21" t="n"/>
-      <c r="H117" s="15" t="n"/>
+      <c r="H117" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
-      <c r="L117" s="25" t="n"/>
+      <c r="L117" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M117" s="25" t="n"/>
       <c r="N117" s="25" t="n"/>
       <c r="O117" s="25" t="n"/>
       <c r="P117" s="25" t="n"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
-      <c r="A118" s="21" t="n"/>
-      <c r="B118" s="21" t="n"/>
-      <c r="C118" s="21" t="n"/>
+      <c r="A118" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B118" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C118" s="21" t="inlineStr">
+        <is>
+          <t>Microsoft Defender for Cloud の Just-In-Time アクセス権を持つ SAP 管理者カスタム ロールを委任します。</t>
+        </is>
+      </c>
       <c r="D118" s="21" t="n"/>
-      <c r="E118" s="21" t="n"/>
+      <c r="E118" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G118" s="21" t="n"/>
-      <c r="H118" s="15" t="n"/>
-      <c r="I118" s="15" t="n"/>
+      <c r="H118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
-      <c r="L118" s="25" t="n"/>
+      <c r="L118" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M118" s="25" t="n"/>
       <c r="N118" s="25" t="n"/>
       <c r="O118" s="25" t="n"/>
       <c r="P118" s="25" t="n"/>
     </row>
     <row r="119" ht="16.5" customHeight="1">
-      <c r="A119" s="21" t="n"/>
-      <c r="B119" s="21" t="n"/>
-      <c r="C119" s="21" t="n"/>
+      <c r="A119" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B119" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C119" s="21" t="inlineStr">
+        <is>
+          <t>サードパーティのセキュリティ製品を DIAG (SAP GUI)、RFC、および SPNEGO for HTTPS のセキュアネットワーク通信 (SNC) と統合することにより、転送中のデータを暗号化します。</t>
+        </is>
+      </c>
       <c r="D119" s="21" t="n"/>
-      <c r="E119" s="21" t="n"/>
+      <c r="E119" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G119" s="21" t="n"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
-      <c r="L119" s="25" t="n"/>
+      <c r="L119" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M119" s="25" t="n"/>
       <c r="N119" s="25" t="n"/>
       <c r="O119" s="25" t="n"/>
       <c r="P119" s="25" t="n"/>
     </row>
     <row r="120" ht="16.5" customHeight="1">
-      <c r="A120" s="21" t="n"/>
-      <c r="B120" s="21" t="n"/>
-      <c r="C120" s="21" t="n"/>
+      <c r="A120" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B120" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C120" s="21" t="inlineStr">
+        <is>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+        </is>
+      </c>
       <c r="D120" s="21" t="n"/>
-      <c r="E120" s="21" t="n"/>
+      <c r="E120" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G120" s="21" t="n"/>
-      <c r="H120" s="15" t="n"/>
-      <c r="I120" s="15" t="n"/>
+      <c r="H120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
-      <c r="L120" s="25" t="n"/>
+      <c r="L120" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M120" s="25" t="n"/>
       <c r="N120" s="25" t="n"/>
       <c r="O120" s="25" t="n"/>
       <c r="P120" s="25" t="n"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
-      <c r="A121" s="21" t="n"/>
-      <c r="B121" s="21" t="n"/>
-      <c r="C121" s="21" t="n"/>
+      <c r="A121" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B121" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C121" s="21" t="inlineStr">
+        <is>
+          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
+        </is>
+      </c>
       <c r="D121" s="21" t="n"/>
-      <c r="E121" s="21" t="n"/>
+      <c r="E121" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G121" s="21" t="n"/>
-      <c r="H121" s="15" t="n"/>
-      <c r="I121" s="15" t="n"/>
+      <c r="H121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
-      <c r="L121" s="25" t="n"/>
+      <c r="L121" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M121" s="25" t="n"/>
       <c r="N121" s="25" t="n"/>
       <c r="O121" s="25" t="n"/>
       <c r="P121" s="25" t="n"/>
     </row>
     <row r="122" ht="16.5" customHeight="1">
-      <c r="A122" s="21" t="n"/>
-      <c r="B122" s="21" t="n"/>
-      <c r="C122" s="21" t="n"/>
+      <c r="A122" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B122" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C122" s="21" t="inlineStr">
+        <is>
+          <t>HANA 以外の Windows オペレーティング システムと Windows 以外のオペレーティング システムのディスク暗号化キーとシークレットを制御および管理するには、Azure Key Vault を使用します。SAP HANA は Azure Key Vault ではサポートされていないため、SAP ABAP キーや SSH キーなどの代替方法を使用する必要があります。</t>
+        </is>
+      </c>
       <c r="D122" s="21" t="n"/>
-      <c r="E122" s="21" t="n"/>
+      <c r="E122" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="n"/>
-      <c r="I122" s="15" t="n"/>
+      <c r="H122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
-      <c r="L122" s="25" t="n"/>
+      <c r="L122" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M122" s="25" t="n"/>
       <c r="N122" s="25" t="n"/>
       <c r="O122" s="25" t="n"/>
       <c r="P122" s="25" t="n"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
-      <c r="A123" s="21" t="n"/>
-      <c r="B123" s="21" t="n"/>
-      <c r="C123" s="21" t="n"/>
+      <c r="A123" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B123" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C123" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D123" s="21" t="n"/>
-      <c r="E123" s="21" t="n"/>
+      <c r="E123" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G123" s="21" t="n"/>
-      <c r="H123" s="15" t="n"/>
+      <c r="H123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
-      <c r="L123" s="25" t="n"/>
+      <c r="L123" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M123" s="25" t="n"/>
       <c r="N123" s="25" t="n"/>
       <c r="O123" s="25" t="n"/>
       <c r="P123" s="25" t="n"/>
     </row>
     <row r="124" ht="16.5" customHeight="1">
-      <c r="A124" s="21" t="n"/>
-      <c r="B124" s="21" t="n"/>
-      <c r="C124" s="21" t="n"/>
+      <c r="A124" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B124" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C124" s="21" t="inlineStr">
+        <is>
+          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します</t>
+        </is>
+      </c>
       <c r="D124" s="21" t="n"/>
-      <c r="E124" s="21" t="n"/>
+      <c r="E124" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G124" s="21" t="n"/>
-      <c r="H124" s="15" t="n"/>
-      <c r="I124" s="15" t="n"/>
+      <c r="H124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
-      <c r="L124" s="25" t="n"/>
+      <c r="L124" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M124" s="25" t="n"/>
       <c r="N124" s="25" t="n"/>
       <c r="O124" s="25" t="n"/>
       <c r="P124" s="25" t="n"/>
     </row>
     <row r="125" ht="16.5" customHeight="1">
-      <c r="A125" s="21" t="n"/>
-      <c r="B125" s="21" t="n"/>
-      <c r="C125" s="21" t="n"/>
+      <c r="A125" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B125" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C125" s="21" t="inlineStr">
+        <is>
+          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
+        </is>
+      </c>
       <c r="D125" s="21" t="n"/>
-      <c r="E125" s="21" t="n"/>
+      <c r="E125" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="n"/>
-      <c r="I125" s="15" t="n"/>
+      <c r="H125" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
-      <c r="L125" s="25" t="n"/>
+      <c r="L125" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M125" s="25" t="n"/>
       <c r="N125" s="25" t="n"/>
       <c r="O125" s="25" t="n"/>
       <c r="P125" s="25" t="n"/>
     </row>
     <row r="126" ht="16.5" customHeight="1">
-      <c r="A126" s="21" t="n"/>
-      <c r="B126" s="21" t="n"/>
-      <c r="C126" s="21" t="n"/>
+      <c r="A126" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B126" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C126" s="21" t="inlineStr">
+        <is>
+          <t>Azure で Microsoft マルウェア対策ソフトウェアを使用して、悪意のあるファイル、アドウェア、その他の脅威から仮想マシンを保護することを検討してください。</t>
+        </is>
+      </c>
       <c r="D126" s="21" t="n"/>
-      <c r="E126" s="21" t="n"/>
+      <c r="E126" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G126" s="21" t="n"/>
-      <c r="H126" s="15" t="n"/>
+      <c r="H126" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
-      <c r="L126" s="25" t="n"/>
+      <c r="L126" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M126" s="25" t="n"/>
       <c r="N126" s="25" t="n"/>
       <c r="O126" s="25" t="n"/>
       <c r="P126" s="25" t="n"/>
     </row>
     <row r="127" ht="16.5" customHeight="1">
-      <c r="A127" s="21" t="n"/>
-      <c r="B127" s="21" t="n"/>
-      <c r="C127" s="21" t="n"/>
+      <c r="A127" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B127" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C127" s="21" t="inlineStr">
+        <is>
+          <t>さらに強力な保護を行うには、Microsoft Defender for Endpointの使用を検討してください。</t>
+        </is>
+      </c>
       <c r="D127" s="21" t="n"/>
-      <c r="E127" s="21" t="n"/>
+      <c r="E127" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="n"/>
+      <c r="H127" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
-      <c r="L127" s="25" t="n"/>
+      <c r="L127" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M127" s="25" t="n"/>
       <c r="N127" s="25" t="n"/>
       <c r="O127" s="25" t="n"/>
       <c r="P127" s="25" t="n"/>
     </row>
     <row r="128" ht="16.5" customHeight="1">
-      <c r="A128" s="21" t="n"/>
-      <c r="B128" s="21" t="n"/>
-      <c r="C128" s="21" t="n"/>
+      <c r="A128" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B128" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C128" s="21" t="inlineStr">
+        <is>
+          <t>仮想ネットワーク ピアリングによってスポーク ネットワークに接続されているハブ仮想ネットワークを介してすべてのトラフィックを渡すことで、SAP アプリケーションとデータベース サーバーをインターネットまたはオンプレミス ネットワークから分離します。ピアリングされた仮想ネットワークにより、SAP on Azure ソリューションがパブリック インターネットから分離されることが保証されます。</t>
+        </is>
+      </c>
       <c r="D128" s="21" t="n"/>
-      <c r="E128" s="21" t="n"/>
+      <c r="E128" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="n"/>
+      <c r="H128" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
-      <c r="L128" s="25" t="n"/>
+      <c r="L128" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M128" s="25" t="n"/>
       <c r="N128" s="25" t="n"/>
       <c r="O128" s="25" t="n"/>
       <c r="P128" s="25" t="n"/>
     </row>
     <row r="129" ht="16.5" customHeight="1">
-      <c r="A129" s="21" t="n"/>
-      <c r="B129" s="21" t="n"/>
-      <c r="C129" s="21" t="n"/>
+      <c r="A129" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B129" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C129" s="21" t="inlineStr">
+        <is>
+          <t>SAP Fiori などのインターネットに接続するアプリケーションの場合は、セキュリティレベルを維持しながら、アプリケーション要件ごとに負荷を分散してください。レイヤー 7 セキュリティについては、Azure Marketplace で入手できるサードパーティの Web アプリケーション ファイアウォール (WAF) を使用できます。</t>
+        </is>
+      </c>
       <c r="D129" s="21" t="n"/>
-      <c r="E129" s="21" t="n"/>
+      <c r="E129" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="15" t="n"/>
+      <c r="H129" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
-      <c r="L129" s="25" t="n"/>
+      <c r="L129" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M129" s="25" t="n"/>
       <c r="N129" s="25" t="n"/>
       <c r="O129" s="25" t="n"/>
       <c r="P129" s="25" t="n"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
-      <c r="A130" s="21" t="n"/>
-      <c r="B130" s="21" t="n"/>
-      <c r="C130" s="21" t="n"/>
+      <c r="A130" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B130" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C130" s="21" t="inlineStr">
+        <is>
+          <t>Azure Monitor for SAP solutions でセキュリティで保護された通信を有効にするには、ルート証明書またはサーバー証明書のいずれかを使用することを選択できます。ルート証明書を使用することを強くお勧めします。</t>
+        </is>
+      </c>
       <c r="D130" s="21" t="n"/>
-      <c r="E130" s="21" t="n"/>
+      <c r="E130" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="n"/>
+      <c r="H130" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
-      <c r="L130" s="25" t="n"/>
+      <c r="L130" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M130" s="25" t="n"/>
       <c r="N130" s="25" t="n"/>
       <c r="O130" s="25" t="n"/>
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="n"/>
-      <c r="B131" s="21" t="n"/>
-      <c r="C131" s="21" t="n"/>
+      <c r="A131" s="21" t="inlineStr">
+        <is>
+          <t>貯蔵</t>
+        </is>
+      </c>
+      <c r="B131" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
+      <c r="C131" s="21" t="inlineStr">
+        <is>
+          <t>Oracle、SQL、HANAのディスク構成</t>
+        </is>
+      </c>
       <c r="D131" s="21" t="n"/>
-      <c r="E131" s="21" t="n"/>
+      <c r="E131" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="n"/>
+      <c r="L131" s="25" t="inlineStr">
+        <is>
+          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+        </is>
+      </c>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
@@ -9144,7 +9752,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F116" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F132" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ja.xlsx
@@ -5713,7 +5713,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーションと DBMS レイヤーで使用される VM で Azure 高速ネットワークが有効になっていることを確認します。</t>
+          <t>Linux ゲスト・オペレーティング・システムで Load Balancer を使用する場合は、Linux ネットワーク・パラメーター net.ipv4.tcp_timestamps が 0 に設定されていることを確認します。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5730,19 +5730,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5763,13 +5763,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Linux ゲスト・オペレーティング・システムで Load Balancer を使用する場合は、Linux ネットワーク・パラメーター net.ipv4.tcp_timestamps が 0 に設定されていることを確認します。</t>
+          <t>SAP RISE/ECS デプロイの場合、仮想ピアリングは、お客様の既存の Azure 環境との接続を確立するための推奨される方法です。SAP vnet と顧客 VNet の両方がネットワーク セキュリティ グループ (NSG) で保護され、vnet ピアリングを介した SAP ポートとデータベース ポートでの通信が可能になります</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5780,19 +5780,15 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5803,17 +5799,17 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>SAP RISE/ECS デプロイの場合、仮想ピアリングは、お客様の既存の Azure 環境との接続を確立するための推奨される方法です。SAP vnet と顧客 VNet の両方がネットワーク セキュリティ グループ (NSG) で保護され、vnet ピアリングを介した SAP ポートとデータベース ポートでの通信が可能になります</t>
+          <t>Azure、オンプレミス、またはその他のクラウド環境で Windows VM と Linux VM を実行している場合は、Azure Automation の更新管理センターを使用して、セキュリティ パッチを含むオペレーティング システムの更新プログラムを管理できます。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5830,15 +5826,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Azure、オンプレミス、またはその他のクラウド環境で Windows VM と Linux VM を実行している場合は、Azure Automation の更新管理センターを使用して、セキュリティ パッチを含むオペレーティング システムの更新プログラムを管理できます。</t>
+          <t>SAP は、SAP システムを保護するために即時のアクションを必要とする非常に重要なセキュリティ パッチまたはホット フィックスをリリースしているため、SAP セキュリティ OSS ノートを定期的に確認してください。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5881,14 +5881,14 @@
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5909,13 +5909,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>SAP は、SAP システムを保護するために即時のアクションを必要とする非常に重要なセキュリティ パッチまたはホット フィックスをリリースしているため、SAP セキュリティ OSS ノートを定期的に確認してください。</t>
+          <t>SQL Server 上の SAP システムではアカウントを使用しないため、SQL Server 上の SAP システム管理者アカウントを無効にすることができます。元のシステム管理者アカウントを無効にする前に、システム管理者権限を持つ別のユーザーがサーバーにアクセスできることを確認してください。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5926,19 +5926,15 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5959,13 +5955,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>SQL Server 上の SAP システムではアカウントを使用しないため、SQL Server 上の SAP システム管理者アカウントを無効にすることができます。元のシステム管理者アカウントを無効にする前に、システム管理者権限を持つ別のユーザーがサーバーにアクセスできることを確認してください。</t>
+          <t>xp_cmdshellを無効にします。SQL Server 機能xp_cmdshell、SQL Server 内部オペレーティング システムのコマンド シェルを有効にします。これは、セキュリティ監査における潜在的なリスクです。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5979,12 +5975,16 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
-      <c r="I109" s="15" t="n"/>
+      <c r="I109" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/3019299/E</t>
+        </is>
+      </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6000,12 +6000,12 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>xp_cmdshellを無効にします。SQL Server 機能xp_cmdshell、SQL Server 内部オペレーティング システムのコマンド シェルを有効にします。これは、セキュリティ監査における潜在的なリスクです。</t>
+          <t>Azrue での SAP HANA データベース サーバーの暗号化では、SAP HANA ネイティブ暗号化テクノロジが使用されます。さらに、Azure で SQL Server を使用している場合は、Transparent Data Encryption (TDE) を使用してデータとログ ファイルを保護し、バックアップも暗号化されるようにします。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6022,19 +6022,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="inlineStr">
+        <is>
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6055,13 +6055,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Azrue での SAP HANA データベース サーバーの暗号化では、SAP HANA ネイティブ暗号化テクノロジが使用されます。さらに、Azure で SQL Server を使用している場合は、Transparent Data Encryption (TDE) を使用してデータとログ ファイルを保護し、バックアップも暗号化されるようにします。</t>
+          <t>Azure Storage の暗号化は、すべての Azure Resource Manager とクラシック ストレージ アカウントに対して有効になっており、無効にすることはできません。データは既定で暗号化されるため、Azure Storage 暗号化を使用するためにコードやアプリケーションを変更する必要はありません。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6072,19 +6072,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6105,13 +6105,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage の暗号化は、すべての Azure Resource Manager とクラシック ストレージ アカウントに対して有効になっており、無効にすることはできません。データは既定で暗号化されるため、Azure Storage 暗号化を使用するためにコードやアプリケーションを変更する必要はありません。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6122,19 +6122,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6155,13 +6155,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>デプロイが成功したら、Azure リソースを LOCK して、承認されていない変更から保護することをお勧めします。また、カスタマイズされた Azure ポリシー (Custome ロール) を使用して、サブスクリプションごとに LOCK の制約とルールを適用することもできます。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6172,19 +6172,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>デプロイが成功したら、Azure リソースを LOCK して、承認されていない変更から保護することをお勧めします。また、カスタマイズされた Azure ポリシー (Custome ロール) を使用して、サブスクリプションごとに LOCK の制約とルールを適用することもできます。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6222,19 +6222,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6255,13 +6255,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+          <t>既存の要件、規制、コンプライアンス制御 (内部/外部) に基づいて、必要な Azure ポリシーと Azure RBAC ロールを決定します</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6272,19 +6272,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6305,7 +6305,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>既存の要件、規制、コンプライアンス制御 (内部/外部) に基づいて、必要な Azure ポリシーと Azure RBAC ロールを決定します</t>
+          <t>SAP 環境でMicrosoft Defender for Endpointを有効にする場合は、すべてのサーバーを対象とするのではなく、DBMS サーバー上のデータとログ ファイルを除外することをお勧めします。ターゲット ファイルを除外する場合は、DBMS ベンダーの推奨事項に従ってください。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6322,19 +6322,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>SAP 環境でMicrosoft Defender for Endpointを有効にする場合は、すべてのサーバーを対象とするのではなく、DBMS サーバー上のデータとログ ファイルを除外することをお勧めします。ターゲット ファイルを除外する場合は、DBMS ベンダーの推奨事項に従ってください。</t>
+          <t>Microsoft Defender for Cloud の Just-In-Time アクセス権を持つ SAP 管理者カスタム ロールを委任します。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6372,19 +6372,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6405,13 +6405,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud の Just-In-Time アクセス権を持つ SAP 管理者カスタム ロールを委任します。</t>
+          <t>サードパーティのセキュリティ製品を DIAG (SAP GUI)、RFC、および SPNEGO for HTTPS のセキュアネットワーク通信 (SNC) と統合することにより、転送中のデータを暗号化します。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6422,19 +6422,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6455,13 +6455,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>サードパーティのセキュリティ製品を DIAG (SAP GUI)、RFC、および SPNEGO for HTTPS のセキュアネットワーク通信 (SNC) と統合することにより、転送中のデータを暗号化します。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6472,19 +6472,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6505,13 +6505,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6522,7 +6522,7 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
@@ -6534,7 +6534,7 @@
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
+          <t>HANA 以外の Windows オペレーティング システムと Windows 以外のオペレーティング システムのディスク暗号化キーとシークレットを制御および管理するには、Azure Key Vault を使用します。SAP HANA は Azure Key Vault ではサポートされていないため、SAP ABAP キーや SSH キーなどの代替方法を使用する必要があります。</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6572,19 +6572,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6605,13 +6605,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>HANA 以外の Windows オペレーティング システムと Windows 以外のオペレーティング システムのディスク暗号化キーとシークレットを制御および管理するには、Azure Key Vault を使用します。SAP HANA は Azure Key Vault ではサポートされていないため、SAP ABAP キーや SSH キーなどの代替方法を使用する必要があります。</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6622,19 +6622,15 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6650,18 +6646,18 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6672,15 +6668,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します</t>
+          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6718,19 +6718,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6751,13 +6751,13 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
+          <t>Azure で Microsoft マルウェア対策ソフトウェアを使用して、悪意のあるファイル、アドウェア、その他の脅威から仮想マシンを保護することを検討してください。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6768,19 +6768,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Azure で Microsoft マルウェア対策ソフトウェアを使用して、悪意のあるファイル、アドウェア、その他の脅威から仮想マシンを保護することを検討してください。</t>
+          <t>さらに強力な保護を行うには、Microsoft Defender for Endpointの使用を検討してください。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6818,19 +6818,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6851,13 +6851,13 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>さらに強力な保護を行うには、Microsoft Defender for Endpointの使用を検討してください。</t>
+          <t>仮想ネットワーク ピアリングによってスポーク ネットワークに接続されているハブ仮想ネットワークを介してすべてのトラフィックを渡すことで、SAP アプリケーションとデータベース サーバーをインターネットまたはオンプレミス ネットワークから分離します。ピアリングされた仮想ネットワークにより、SAP on Azure ソリューションがパブリック インターネットから分離されることが保証されます。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6868,19 +6868,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6901,13 +6901,13 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワーク ピアリングによってスポーク ネットワークに接続されているハブ仮想ネットワークを介してすべてのトラフィックを渡すことで、SAP アプリケーションとデータベース サーバーをインターネットまたはオンプレミス ネットワークから分離します。ピアリングされた仮想ネットワークにより、SAP on Azure ソリューションがパブリック インターネットから分離されることが保証されます。</t>
+          <t>SAP Fiori などのインターネットに接続するアプリケーションの場合は、セキュリティレベルを維持しながら、アプリケーション要件ごとに負荷を分散してください。レイヤー 7 セキュリティについては、Azure Marketplace で入手できるサードパーティの Web アプリケーション ファイアウォール (WAF) を使用できます。</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6918,19 +6918,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6951,13 +6951,13 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>SAP Fiori などのインターネットに接続するアプリケーションの場合は、セキュリティレベルを維持しながら、アプリケーション要件ごとに負荷を分散してください。レイヤー 7 セキュリティについては、Azure Marketplace で入手できるサードパーティの Web アプリケーション ファイアウォール (WAF) を使用できます。</t>
+          <t>Azure Monitor for SAP solutions でセキュリティで保護された通信を有効にするには、ルート証明書またはサーバー証明書のいずれかを使用することを選択できます。ルート証明書を使用することを強くお勧めします。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6968,19 +6968,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6991,17 +6991,17 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor for SAP solutions でセキュリティで保護された通信を有効にするには、ルート証明書またはサーバー証明書のいずれかを使用することを選択できます。ルート証明書を使用することを強くお勧めします。</t>
+          <t>Oracle、SQL、HANAのディスク構成</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -7016,21 +7016,12 @@
         </is>
       </c>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H130" s="15" t="n"/>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7039,41 +7030,16 @@
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="inlineStr">
-        <is>
-          <t>貯蔵</t>
-        </is>
-      </c>
-      <c r="B131" s="21" t="inlineStr">
-        <is>
-          <t>&amp;nbsp</t>
-        </is>
-      </c>
-      <c r="C131" s="21" t="inlineStr">
-        <is>
-          <t>Oracle、SQL、HANAのディスク構成</t>
-        </is>
-      </c>
+      <c r="A131" s="21" t="n"/>
+      <c r="B131" s="21" t="n"/>
+      <c r="C131" s="21" t="n"/>
       <c r="D131" s="21" t="n"/>
-      <c r="E131" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E131" s="21" t="n"/>
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="inlineStr">
-        <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
-        </is>
-      </c>
+      <c r="L131" s="25" t="n"/>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
@@ -9752,7 +9718,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F132" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F131" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ja.xlsx
@@ -1059,17 +1059,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>オートメーション</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>ACSSの</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>現在、Azure では、同じ Linux Pacemaker クラスターでの ASCS と db HA の組み合わせはサポートされていません。それらを個々のクラスターに分離します。ただし、最大 5 つの複数のセントラル サービス クラスターを 1 つの VM のペアに結合できます。</t>
+          <t>Azure Center for SAP solutions (ACSS) は、SAP を Azure 上のトップレベルのワークロードにする Azure オファリングです。ACSS は、SAP システムを Azure 上の統合ワークロードとして作成および実行し、イノベーションのためのよりシームレスな基盤を提供するエンドツーエンドのソリューションです。新規と既存の Azure ベースの SAP システムの両方の管理機能を利用できます。</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,15 +1086,19 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I8" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/center-sap-solutions/overview</t>
+        </is>
+      </c>
+      <c r="I8" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-center-sap-solutions/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J8" s="22" t="n"/>
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
+          <t>4620dc87-e948-4ce8-8426-f3e6e5d7bd85</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1105,17 +1109,17 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>オートメーション</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>SDAFの</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>ASCS クラスターと DB クラスターの前で Standard Load Balancer SKU を使用するUse a Standard Load Balancer SKU in front of ASCS and DB clusters</t>
+          <t>Azure では、Linux と Windows での SAP デプロイの自動化がサポートされています。SAP Deployment Automation Framework は、SAP 環境をデプロイ、インストール、および保守できるオープンソースのオーケストレーション ツールです。</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1132,15 +1136,19 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
-      <c r="I9" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-platform-automation-and-devops</t>
+        </is>
+      </c>
+      <c r="I9" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/sap-automation</t>
+        </is>
+      </c>
       <c r="J9" s="22" t="n"/>
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
+          <t>5d75e99d-624d-4afe-91d9-e17adc580790</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1156,12 +1164,12 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>バックアップと復元</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>HA ペアの両方の VM を可用性セットにデプロイするか、アベイラビリティーゾーンを同じサイズにして同じストレージ構成にする必要があります</t>
+          <t>運用データベースのポイントインタイム リカバリを、RTOを満たす任意の時点および時間枠で実行します。ポイント・イン・タイム・リカバリには、通常、DBMSレイヤー上またはSAPを介してデータを削除するオペレーター・エラーが含まれます</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1178,7 +1186,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/data-platform</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1186,7 +1194,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
+          <t>d17f6f39-a377-48a2-931f-5ead3ebe33a8</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1202,12 +1210,12 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>災害復旧</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>ネイティブのデータベースレプリケーションテクノロジーを使用して、HAペアでデータベースを同期する必要があります。</t>
+          <t>バックアップと復旧の時間をテストして、災害発生後にすべてのシステムを同時に復元するための RTO 要件を満たしていることを確認します。</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1222,17 +1230,13 @@
         </is>
       </c>
       <c r="G11" s="21" t="n"/>
-      <c r="H11" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
+      <c r="H11" s="15" t="n"/>
       <c r="I11" s="15" t="n"/>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
+          <t>c4b8e117-930b-4dbd-ae50-7bc5faf6f91a</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1248,18 +1252,18 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>災害復旧</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>運用データベースのポイントインタイム リカバリを、RTOを満たす任意の時点および時間枠で実行します。ポイント・イン・タイム・リカバリには、通常、DBMSレイヤー上またはSAPを介してデータを削除するオペレーター・エラーが含まれます</t>
+          <t>ペアのリージョン間で Standard Storage をレプリケートすることはできますが、Standard Storage を使用してデータベースや仮想ハード ディスクを格納することはできません。バックアップは、使用するペアのリージョン間でのみレプリケートできます。その他のすべてのデータについては、SQL Server Always On や SAP HANA システム レプリケーションなどのネイティブ DBMS 機能を使用してレプリケーションを実行します。SAP アプリケーション層には、Site Recovery、rsync または robocopy、およびその他のサードパーティ ソフトウェアを組み合わせて使用します。</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1270,15 +1274,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
-      <c r="I12" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
+          <t>b651423c-8552-42db-a545-5cb50c05527a</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1294,12 +1302,12 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>災害復旧</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>プライマリ仮想ネットワーク (VNet) の CIDR は、DR サイトの VNet の CIDR と競合したり重複したりしないでください</t>
+          <t>Azure Availability Zones を使用して高可用性を実現する場合は、SAP アプリケーション サーバーとデータベース サーバー間の待機時間を考慮する必要があります。待機時間が長いゾーンでは、SAP アプリケーション サーバーとデータベース サーバーが常に同じゾーンで実行されていることを確認するための運用手順を実施する必要があります。</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1314,13 +1322,21 @@
         </is>
       </c>
       <c r="G13" s="21" t="n"/>
-      <c r="H13" s="15" t="n"/>
-      <c r="I13" s="15" t="n"/>
+      <c r="H13" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
+        </is>
+      </c>
+      <c r="I13" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
+          <t>aa208dca-784f-46c6-9014-cc919c542dc9</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1336,18 +1352,18 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>災害復旧</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Site Recovery を使用して、アプリケーション サーバーを DR サイトにレプリケートします。Site Recovery は、セントラル サービス クラスター VM を DR サイトにレプリケートする場合にも役立ちます。DR を呼び出すときは、DR サイトで Linux Pacemaker クラスターを再構成する必要があります (たとえば、VIP または SBD の置き換え、corosync.conf の実行など)。</t>
+          <t>オンプレミスからプライマリおよびセカンダリの Azure ディザスター リカバリー リージョンへの ExpressRoute 接続を設定します。また、ExpressRoute を使用する代わりに、オンプレミスからプライマリおよびセカンダリの Azure ディザスター リカバリー リージョンへの VPN 接続を設定することも検討してください。</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1356,13 +1372,21 @@
         </is>
       </c>
       <c r="G14" s="21" t="n"/>
-      <c r="H14" s="15" t="n"/>
-      <c r="I14" s="15" t="n"/>
+      <c r="H14" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+        </is>
+      </c>
+      <c r="I14" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/expressroute/use-s2s-vpn-as-backup-for-expressroute-privatepeering</t>
+        </is>
+      </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
+          <t>ba07c007-1f90-43e9-aa4f-601346b80352</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1378,18 +1402,18 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>災害復旧</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>ネイティブ データベース レプリケーションは、Azure Site Recovery ではなく、DR サイトにデータを同期するために使用する必要があります</t>
+          <t>証明書、シークレット、キーなどのキー コンテナーの内容をリージョン間でレプリケートして、DR リージョン内のデータの暗号化を解除できるようにします。</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1398,13 +1422,17 @@
         </is>
       </c>
       <c r="G15" s="21" t="n"/>
-      <c r="H15" s="15" t="n"/>
+      <c r="H15" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/disaster-recovery-guidance</t>
+        </is>
+      </c>
       <c r="I15" s="15" t="n"/>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
+          <t>d2b30195-b11d-4a8f-a672-28b2b4169a7c</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1420,18 +1448,18 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>災害復旧</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>単一障害点に対する SAP ソフトウェアの可用性を検討します。これには、SAP NetWeaver や SAP S/4HANA アーキテクチャ、SAP ABAP、ASCS + SCS で使用される DBMS などのアプリケーション内の単一障害点が含まれます。また、SAP Web ディスパッチャなどの他のツールも必要です。</t>
+          <t>プライマリ仮想ネットワークとディザスター リカバリー仮想ネットワークをピアリングします。たとえば、HANA システム レプリケーションの場合、SAP HANA DB 仮想ネットワークは、ディザスター リカバリー サイトの SAP HANA DB 仮想ネットワークにピアリングする必要があります。</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1442,19 +1470,15 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
-        </is>
-      </c>
-      <c r="I16" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/2-explore-high-availability-disaster-recovery-support-azure-for-sap-workloads?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-s4hana</t>
+        </is>
+      </c>
+      <c r="I16" s="15" t="n"/>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>8300cb30-766b-4084-b126-0dd8fb1269a1</t>
+          <t>05f1101d-250f-40e7-b2a1-b674ab50edbd</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1470,18 +1494,18 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>災害復旧</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>SAP および SAP データベースの場合は、自動フェールオーバー クラスターの実装を検討してください。Windows では、Windows Server フェールオーバー クラスタリングがフェールオーバーをサポートします。Linux では、Linux Pacemaker や、SIOS Protection Suite や Veritas InfoScale などのサードパーティツールがフェイルオーバーをサポートしています。</t>
+          <t>SAP デプロイに Azure NetApp Files ストレージを使用する場合は、少なくとも、Premium レベルの 2 つのリージョンに 2 つの Azure NetApp Files アカウントを作成します。</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1492,19 +1516,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-supported-configurations</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-service-levels</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/choose-service-level-azure-netapp-files-hpc-applications/2-identify-decision-criteria</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>56402f11-ccbe-42c3-a2f6-c6f6f38ab579</t>
+          <t>d3351bf7-628a-46de-917d-dfc11d3b6b40</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1520,12 +1544,12 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>災害復旧</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Azure では、プライマリ VM とセカンダリ VM が DBMS データのストレージを共有するアーキテクチャはサポートされていません。DBMSレイヤーの場合、一般的なアーキテクチャパターンは、プライマリおよびセカンダリVMが使用するストレージスタックとは異なるストレージスタックを使用して、データベースを同時にレプリケートすることです。</t>
+          <t>ネイティブのデータベースレプリケーションテクノロジーを使用して、HAペアでデータベースを同期する必要があります。</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1547,14 +1571,14 @@
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/?source=recommendationshttps%3A%2F%2Flearn.microsoft.com%2Fja-jp%2Ftraining%2Fpaths%2Fensure-business-continuity-implement-disaster-recovery%2F%3Fsource%3Drecommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-disaster-recovery-for-sap-workloads-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>afae6bec-2671-49ae-bc69-140b8ec8d320</t>
+          <t>726a1d3e-5508-4a06-9d54-93f4b50040c1</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1570,12 +1594,12 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>災害復旧</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>DBMS データとトランザクション/REDO ログ ファイルは、Azure でサポートされているブロック ストレージまたは Azure NetApp Files に格納されます。Azure Files または Azure Premium Files は、SAP ワークロードでの DBMS データや再実行ログ ファイルのストレージとしてはサポートされていません。</t>
+          <t>プライマリ仮想ネットワーク (VNet) の CIDR は、DR サイトの VNet の CIDR と競合したり重複したりしないようにする必要があります</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1592,19 +1616,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/dbms-guide-general</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/virtual-network/virtual-networks-faq</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-databases/2-explore-database-support-azure-for-sap-workloads</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>ac614e95-6767-4bc3-b8a4-9953533da6ba</t>
+          <t>6561f847-3db5-4ff8-9200-5ad3c3b436ad</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1620,12 +1644,12 @@
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>災害復旧</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Windows の Azure 共有ディスクは、ASCS + SCS コンポーネントと特定の高可用性シナリオに使用できます。フェールオーバー クラスターは、SAP アプリケーション層コンポーネントと DBMS 層に対して個別に設定します。現在、Azure では、SAP アプリケーション レイヤー コンポーネントと DBMS レイヤーを 1 つのフェールオーバー クラスターに結合する高可用性アーキテクチャはサポートされていません。</t>
+          <t>Site Recovery を使用して、アプリケーション サーバーを DR サイトにレプリケートします。Site Recovery は、セントラル サービス クラスター VM を DR サイトにレプリケートする場合にも役立ちます。DR を呼び出すときは、DR サイトで Linux Pacemaker クラスターを再構成する必要があります (たとえば、VIP または SBD の置き換え、corosync.conf の実行など)。</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1640,21 +1664,17 @@
         </is>
       </c>
       <c r="G20" s="21" t="n"/>
-      <c r="H20" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-guide-wsfc-shared-disk</t>
-        </is>
-      </c>
+      <c r="H20" s="15" t="n"/>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>1f737179-8e7f-4e1a-a30c-e5a649a3092b</t>
+          <t>0258ed30-fe42-434f-87b9-58f91f908e0a</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1675,7 +1695,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーション レイヤー コンポーネント (ASCS) と DBMS レイヤーのほとんどのフェールオーバー クラスターでは、フェールオーバー クラスターの仮想 IP アドレスが必要です。 Azure Load Balancer は、他のすべてのケースで仮想 IP アドレスを処理する必要があります。設計原則の 1 つは、クラスター構成ごとに 1 つのロード バランサーを使用することです。ロード バランサーの Standard バージョン (Standard Load Balancer SKU) を使用することをお勧めします。</t>
+          <t>単一障害点に対する SAP ソフトウェアの可用性を検討します。これには、SAP NetWeaver や SAP S/4HANA アーキテクチャ、SAP ABAP、ASCS + SCS で使用される DBMS などのアプリケーション内の単一障害点が含まれます。また、SAP Web ディスパッチャなどの他のツールも必要です。</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1692,19 +1712,19 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-standard-load-balancer-outbound-connections</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/2-explore-high-availability-disaster-recovery-support-azure-for-sap-workloads?source=recommendations</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
+          <t>8300cb30-766b-4084-b126-0dd8fb1269a1</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1725,7 +1745,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>ロードバランサーでフローティング IP が有効になっていることを確認します</t>
+          <t>SAP および SAP データベースの場合は、自動フェールオーバー クラスターの実装を検討してください。Windows では、Windows Server フェールオーバー クラスタリングがフェールオーバーをサポートします。Linux では、Linux Pacemaker や、SIOS Protection Suite や Veritas InfoScale などのサードパーティツールがフェイルオーバーをサポートしています。</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1742,19 +1762,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-ha-ports-overview?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-supported-configurations</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
+          <t>56402f11-ccbe-42c3-a2f6-c6f6f38ab579</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1775,7 +1795,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>高可用性インフラストラクチャをデプロイする前に、選択したリージョンに応じて、Azure 可用性セットと可用性ゾーンのどちらを使用してデプロイするかを決定します。</t>
+          <t>Azure では、プライマリ VM とセカンダリ VM が DBMS データのストレージを共有するアーキテクチャはサポートされていません。DBMSレイヤーの場合、一般的なアーキテクチャパターンは、プライマリおよびセカンダリVMが使用するストレージスタックとは異なるストレージスタックを使用して、データベースを同時にレプリケートすることです。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1792,19 +1812,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/disaster-recovery-sap-guide?tabs=windows</t>
         </is>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/?source=recommendationshttps%3A%2F%2Flearn.microsoft.com%2Fja-jp%2Ftraining%2Fpaths%2Fensure-business-continuity-implement-disaster-recovery%2F%3Fsource%3Drecommendations</t>
         </is>
       </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>c47cc4f3-f105-452c-845e-9b307b3856c1</t>
+          <t>afae6bec-2671-49ae-bc69-140b8ec8d320</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1825,7 +1845,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>SAP コンポーネント (セントラル サービス、アプリケーション サーバー、データベース) のアプリケーションのインフラストラクチャ SLA を満たす場合は、すべてのコンポーネントに対して同じ高可用性オプション (VM、可用性セット、可用性ゾーン) を選択する必要があります。</t>
+          <t>DBMS データとトランザクション/REDO ログ ファイルは、Azure でサポートされているブロック ストレージまたは Azure NetApp Files に格納されます。Azure Files または Azure Premium Files は、SAP ワークロードでの DBMS データや再実行ログ ファイルのストレージとしてはサポートされていません。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1842,15 +1862,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/dbms-guide-general</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-databases/2-explore-database-support-azure-for-sap-workloads</t>
+        </is>
+      </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>844f69c3-07e5-4ec1-bff7-4be27bcf5fea</t>
+          <t>ac614e95-6767-4bc3-b8a4-9953533da6ba</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1871,7 +1895,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>同じ可用性セット内に異なるロールのサーバーを混在させないでください。セントラル サービス VM、データベース VM、アプリケーション VM を独自の可用性セットに保持する</t>
+          <t>Windows の Azure 共有ディスクは、ASCS + SCS コンポーネントと特定の高可用性シナリオに使用できます。フェールオーバー クラスターは、SAP アプリケーション層コンポーネントと DBMS 層に対して個別に設定します。現在、Azure では、SAP アプリケーション レイヤー コンポーネントと DBMS レイヤーを 1 つのフェールオーバー クラスターに結合する高可用性アーキテクチャはサポートされていません。</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1888,19 +1912,19 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-guide-wsfc-shared-disk</t>
         </is>
       </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
+          <t>1f737179-8e7f-4e1a-a30c-e5a649a3092b</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1921,13 +1945,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>近接通信配置グループを使用しない限り、Azure 可用性ゾーン内に Azure 可用性セットをデプロイすることはできません。</t>
+          <t>SAP アプリケーション レイヤー コンポーネント (ASCS) と DBMS レイヤーのほとんどのフェールオーバー クラスターでは、フェールオーバー クラスターの仮想 IP アドレスが必要です。 Azure Load Balancer は、他のすべてのケースで仮想 IP アドレスを処理する必要があります。設計原則の 1 つは、クラスター構成ごとに 1 つのロード バランサーを使用することです。ロード バランサーの Standard バージョン (Standard Load Balancer SKU) を使用することをお勧めします。</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1938,19 +1962,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-standard-load-balancer-outbound-connections</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>f2201000-d045-40a6-a79a-d7cdc01b4d86</t>
+          <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1971,7 +1995,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>可用性セットを作成するときは、使用可能な障害ドメインと更新ドメインの最大数を使用します。たとえば、1 つの可用性セットに 2 つ以上の VM をデプロイする場合は、Azure の計画メンテナンスに加えて、潜在的な物理ハードウェア障害、ネットワークの停止、または停電の影響を制限するために、最大数の障害ドメイン (3 つ) と十分な更新ドメインを使用します。障害ドメインの既定の数は 2 であり、後でオンラインで変更することはできません。</t>
+          <t>ロードバランサーでフローティング IP が有効になっていることを確認します</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1988,19 +2012,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-ha-ports-overview?source=recommendations</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>9674e7c7-7796-4181-8920-09f4429543ba</t>
+          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2021,7 +2045,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>可用性セットのデプロイで Azure 近接通信配置グループを使用する場合は、3 つの SAP コンポーネント (セントラル サービス、アプリケーション サーバー、データベース) をすべて同じ近接通信配置グループに含める必要があります。</t>
+          <t>高可用性インフラストラクチャをデプロイする前に、選択したリージョンに応じて、Azure 可用性セットと可用性ゾーンのどちらを使用してデプロイするかを決定します。</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2038,14 +2062,19 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>ae4ecb95-b70f-428f-8b9a-4c5b7e3478a2</t>
+          <t>c47cc4f3-f105-452c-845e-9b307b3856c1</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2066,7 +2095,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>SAP SID ごとに 1 つの近接配置グループを使用します。グループは、Availability Zones や Azure リージョンにまたがっていません</t>
+          <t>SAP コンポーネント (セントラル サービス、アプリケーション サーバー、データベース) のアプリケーションのインフラストラクチャ SLA を満たす場合は、すべてのコンポーネントに対して同じ高可用性オプション (VM、可用性セット、可用性ゾーン) を選択する必要があります。</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2083,14 +2112,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
+          <t>844f69c3-07e5-4ec1-bff7-4be27bcf5fea</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2101,23 +2130,23 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>正しい VM SKU とゾーンのクォータ要求を行う</t>
+          <t>同じ可用性セット内に異なるロールのサーバーを混在させないでください。セントラル サービス VM、データベース VM、アプリケーション VM を独自の可用性セットに保持する</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2126,12 +2155,21 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="n"/>
+      <c r="H30" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2142,23 +2180,23 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
+          <t>近接通信配置グループを使用しない限り、Azure 可用性ゾーン内に Azure 可用性セットをデプロイすることはできません。</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2169,19 +2207,19 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>f2201000-d045-40a6-a79a-d7cdc01b4d86</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2192,23 +2230,23 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>クラウド コネクタを介して SAP クラウド アプリケーションからオンプレミス (IaaS を含む) に ID を転送するための原則の伝達を適用する</t>
+          <t>可用性セットを作成するときは、使用可能な障害ドメインと更新ドメインの最大数を使用します。たとえば、1 つの可用性セットに 2 つ以上の VM をデプロイする場合は、Azure の計画メンテナンスに加えて、潜在的な物理ハードウェア障害、ネットワークの停止、または停電の影響を制限するために、最大数の障害ドメイン (3 つ) と十分な更新ドメインを使用します。障害ドメインの既定の数は 2 であり、後でオンラインで変更することはできません。</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2219,19 +2257,19 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
         </is>
       </c>
       <c r="I32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>9674e7c7-7796-4181-8920-09f4429543ba</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2242,23 +2280,23 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>SAML を使用して Azure AD で SAP Analytics Cloud、SAP Cloud Platform、Business by Design、SAP Qualtrics、SAP C4C などの SAP SaaS アプリケーションに SSO を実装します。</t>
+          <t>可用性セットのデプロイで Azure 近接通信配置グループを使用する場合は、3 つの SAP コンポーネント (セントラル サービス、アプリケーション サーバー、データベース) をすべて同じ近接通信配置グループに含める必要があります。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2269,7 +2307,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2277,7 +2315,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>ae4ecb95-b70f-428f-8b9a-4c5b7e3478a2</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2288,23 +2326,23 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>SAML を使用して、SAP Fiori や SAP Web GUI などの SAP NetWeaver ベースの Web アプリケーションに SSO を実装します。</t>
+          <t>SAP SID ごとに 1 つの近接配置グループを使用します。グループは、Availability Zones や Azure リージョンにまたがっていません</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2315,19 +2353,15 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
-      <c r="I34" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+        </is>
+      </c>
+      <c r="I34" s="15" t="n"/>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2338,23 +2372,23 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>SAML を使用して、SAP Fiori や SAP Web GUI などの SAP NetWeaver ベースの Web アプリケーションに SSO を実装します。</t>
+          <t>オペレーティング システムに応じて、次のいずれかのサービスを使用して SAP セントラル サービス クラスターを実行します。</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2363,17 +2397,21 @@
         </is>
       </c>
       <c r="G35" s="21" t="n"/>
-      <c r="H35" s="15" t="n"/>
+      <c r="H35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
+        </is>
+      </c>
       <c r="I35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>bca3b10e-0ff5-4aec-ac16-4c4bd1a1c13f</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2384,17 +2422,17 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>SAP NetWeaver SSO またはパートナーソリューションを使用して、SAP GUI への SSO を実装できます。</t>
+          <t>現在、Azure では、同じ Linux Pacemaker クラスターでの ASCS と DB HA の組み合わせはサポートされていません。それらを個々のクラスターに分離します。ただし、最大 5 つの複数のセントラル サービス クラスターを 1 つの VM のペアに結合できます。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2411,19 +2449,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-suse-multi-sid</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>ed46b937-913e-4018-9c62-8393ab037e53</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2434,17 +2472,17 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI および Web ブラウザー アクセスの SSO については、構成とメンテナンスが容易なため、SNC – Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーション メカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
+          <t>両方の VM を高可用性ペアの可用性セットまたは可用性ゾーンにデプロイします。これらの VM は、同じサイズで、同じストレージ構成を持つ必要があります。</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2459,17 +2497,17 @@
         </is>
       </c>
       <c r="G37" s="21" t="n"/>
-      <c r="H37" s="15" t="n"/>
-      <c r="I37" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
-        </is>
-      </c>
+      <c r="H37" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
+        </is>
+      </c>
+      <c r="I37" s="15" t="n"/>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>f656e745-0cfb-453e-8008-0528fa21c933</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2480,17 +2518,17 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI および Web ブラウザー アクセスの SSO については、構成とメンテナンスが容易なため、SNC – Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーション メカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
+          <t>Azure では、Red Hat Enterprise Linux (RHEL) で実行されている同じ高可用性クラスターへの SAP HANA インスタンスと ASCS/SCS インスタンスと ERS インスタンスのインストールと構成がサポートされています。</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2507,15 +2545,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-with-hana-ascs-ers-dialog-instance</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>7f684ebc-95da-425e-b329-e782dbed050f</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2526,23 +2568,23 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>OAuth for SAP NetWeaver を使用して SSO を実装し、サードパーティまたはカスタムアプリケーションが SAP NetWeaver OData サービスにアクセスできるようにします。</t>
+          <t>Premium マネージド SSD ですべての運用システムを実行し、Azure NetApp Files または Ultra Disk Storage を使用します。少なくとも、OS ディスクは Premium レベルにすることで、パフォーマンスの向上と最高の SLA を実現できます。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2553,15 +2595,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
-        </is>
-      </c>
-      <c r="I39" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>07991f7d-6598-4d90-9431-45c62605d3a5</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2572,23 +2618,23 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>SAP HANAへのSSOの実装</t>
+          <t>SAP HANA on Azure は、SAP によって認定された種類のストレージでのみ実行する必要があります。該当する場合は、特定のボリュームを特定のディスク構成で実行する必要があることに注意してください。これらの構成には、書き込みアクセラレータの有効化と Premium Storage の使用が含まれます。また、ストレージ上で稼働するファイル システムが、マシン上で稼働する DBMS と互換性があることを確認する必要もあります。</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2599,15 +2645,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-operations-storage</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1?source=recommendations</t>
+        </is>
+      </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>73cdaecc-7d74-48d8-a040-88416eebc98c</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2618,23 +2668,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Azure AD は、RISE でホストされている SAP システムの ID プロバイダーであると考えてください。詳細については、「サービスと Azure AD の統合」を参照してください。</t>
+          <t>SAP ワークロードに使用するストレージの種類に応じて、高可用性を構成することを検討してください。Azure で使用できる一部のストレージ サービスは Azure Site Recovery でサポートされていないため、高可用性の構成が異なる場合があります。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2645,15 +2695,19 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/disaster-recovery-overview-guide#storage</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-disaster-recovery-for-sap-workloads-azure/2-explore-disaster-recovery-sap-workloads</t>
+        </is>
+      </c>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>51904867-a70e-4fa0-b4ff-3e6292846d7c</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2664,23 +2718,23 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>SAP にアクセスするアプリケーションでは、プリンシパル伝搬を使用して SSO を確立することができます。</t>
+          <t>さまざまなネイティブ Azure ストレージ サービス (Azure Files、Azure NetApp Files、Azure Shared Disk など) は、リージョンによっては利用できない場合があります。そのため、フェールオーバー後に DR リージョンで同様の SAP 設定を行うには、それぞれのストレージ サービスが DR サイトで提供されていることを確認します。</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2691,7 +2745,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://azure.microsoft.com/ja-jp/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2699,7 +2753,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>1ac2d928-c9b7-42c6-ba18-23b1aea78693</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2710,17 +2764,17 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>SAP Identity Authentication Service (IAS) を必要とする SAP BTP サービスまたは SaaS ソリューションを使用している場合は、SAP Cloud Identity Authentication Services と Azure AD の間に SSO を実装して、それらの SAP サービスにアクセスすることを検討してください。この統合により、SAP IAS はプロキシ ID プロバイダーとして機能し、認証要求を中央ユーザー ストアおよび ID プロバイダーとして Azure AD に転送できます。</t>
+          <t>正しい VM SKU とゾーンのクォータ要求を行う</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2735,17 +2789,13 @@
         </is>
       </c>
       <c r="G43" s="21" t="n"/>
-      <c r="H43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
-        </is>
-      </c>
+      <c r="H43" s="15" t="n"/>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2756,17 +2806,17 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>コストの最適化</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>SAP BTP への SSO の実装</t>
+          <t>SAP システムのスタート/ストップを自動化してコストを管理します。</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2783,7 +2833,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/optimize-your-azure-costs-by-automating-sap-system-start-stop/ba-p/2120675</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2791,7 +2841,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>925d1f8c-01f3-4a67-948e-aabf0a1fad60</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2812,13 +2862,13 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>SAP SuccessFactors を使用している場合は、Azure AD の自動ユーザー プロビジョニングの使用を検討してください。この統合により、SAP SuccessFactors に新しい従業員を追加するときに、Azure AD でユーザー アカウントを自動的に作成できます。 必要に応じて、Microsoft 365 または Azure AD でサポートされているその他の SaaS アプリケーションでユーザー アカウントを作成できます。 SAP SuccessFactors へのメール アドレスの書き戻しを使用します。</t>
+          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2829,14 +2879,19 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2847,17 +2902,17 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>既存の管理グループ ポリシーを SAP サブスクリプションに適用する</t>
+          <t>クラウド コネクタを介して SAP クラウド アプリケーションからオンプレミス (IaaS を含む) に ID を転送するための原則の伝達を適用する</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2874,19 +2929,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2897,23 +2952,23 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>緊密に結合されたアプリケーションを同じSAPサブスクリプションに統合し、ルーティングと管理の複雑さを回避</t>
+          <t>SAML を使用して Azure AD で SAP Analytics Cloud、SAP Cloud Platform、Business by Design、SAP Qualtrics、SAP C4C などの SAP SaaS アプリケーションに SSO を実装します。</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2924,19 +2979,15 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I47" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+        </is>
+      </c>
+      <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2947,23 +2998,23 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプションをスケール ユニットとして活用し、リソースをスケーリングし、環境ごとにサブスクリプションをデプロイすることを検討してください。サンドボックス、非製品、製品</t>
+          <t>SAML を使用して、SAP Fiori や SAP Web GUI などの SAP NetWeaver ベースの Web アプリケーションに SSO を実装します。</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2974,19 +3025,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2997,23 +3048,23 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプションのプロビジョニングの一環としてクォータを確実に増やす (例: サブスクリプション内で使用可能な VM コアの合計数)</t>
+          <t>SAML を使用して、SAP Fiori や SAP Web GUI などの SAP NetWeaver ベースの Web アプリケーションに SSO を実装します。</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3022,21 +3073,17 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
-        </is>
-      </c>
+      <c r="H49" s="15" t="n"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3047,23 +3094,23 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>クォータ API は、Azure サービスのクォータを表示および管理するために使用できる REST API です。必要に応じて使用を検討してください。</t>
+          <t>SAP NetWeaver SSO またはパートナーソリューションを使用して、SAP GUI への SSO を実装できます。</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3074,15 +3121,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I50" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I50" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3093,23 +3144,23 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>可用性ゾーンにデプロイする場合は、クォータが承認されたら、VM のゾーン デプロイが使用可能であることを確認します。必要なサブスクリプション、VM シリーズ、CPU の数、可用性ゾーンを含むサポート リクエストを送信します。</t>
+          <t>SAP GUI および Web ブラウザアクセスの SSO には、設定とメンテナンスが容易なため、SNC/Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーションメカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3118,17 +3169,17 @@
         </is>
       </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="n"/>
+      <c r="H51" s="15" t="n"/>
+      <c r="I51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+        </is>
+      </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3139,23 +3190,23 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>必要なサービスと機能が、選択した展開リージョン内で利用可能であることを確認します。ANF、ゾーンなど</t>
+          <t>SAP GUI および Web ブラウザアクセスの SSO には、設定とメンテナンスが容易なため、SNC/Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーションメカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3166,19 +3217,15 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3189,17 +3236,17 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>コストの分類とリソースのグループ化 (BillTo、部門 (または部署)、環境 (運用、ステージ、開発)、層 (Web 層、アプリケーション層)、アプリケーション所有者、プロジェクト名) に Azure リソース タグを活用します</t>
+          <t>OAuth for SAP NetWeaver を使用して SSO を実装し、サードパーティまたはカスタムアプリケーションが SAP NetWeaver OData サービスにアクセスできるようにします。</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3216,19 +3263,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3239,23 +3281,23 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>BCDR (英語)</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup サービスを使用して HANA データベースを保護するのに役立ちます。</t>
+          <t>SAP HANAへのSSOの実装</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3266,19 +3308,15 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
-        </is>
-      </c>
-      <c r="I54" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+        </is>
+      </c>
+      <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3289,17 +3327,17 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>BCDR (英語)</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>HANA、Oracle、または DB2 データベースに Azure NetApp Files をデプロイする場合は、Azure アプリケーション整合性スナップショット ツール (AzAcSnap) を使用して、アプリケーション整合性スナップショットを作成します。AzAcSnap は Oracle データベースもサポートしています。個々の VM ではなく、中央の VM で AzAcSnap を使用することを検討してください。</t>
+          <t>Azure AD は、RISE でホストされている SAP システムの ID プロバイダーであると考えてください。詳細については、「サービスと Azure AD の統合」を参照してください。</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3316,14 +3354,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3334,23 +3372,23 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>オペレーティングシステムと SAP システムの間でタイムゾーンが一致していることを確認します。</t>
+          <t>SAP にアクセスするアプリケーションでは、プリンシパル伝搬を使用して SSO を確立することができます。</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3361,14 +3399,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3379,17 +3417,17 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>異なるアプリケーション サービスを同じクラスターにグループ化しないでください。たとえば、DRBDとセントラルサービスクラスタを同じクラスタに組み合わせないでください。ただし、同じ Pacemaker クラスターを使用して、約 5 つの異なるセントラル サービス (マルチ SID クラスター) を管理できます。</t>
+          <t>SAP Identity Authentication Service (IAS) を必要とする SAP BTP サービスまたは SaaS ソリューションを使用している場合は、SAP Cloud Identity Authentication Services と Azure AD の間に SSO を実装して、それらの SAP サービスにアクセスすることを検討してください。この統合により、SAP IAS はプロキシ ID プロバイダーとして機能し、認証要求を中央ユーザー ストアおよび ID プロバイダーとして Azure AD に転送できます。</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3406,19 +3444,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3429,23 +3462,23 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>スヌーズ モデルで開発/テスト システムを実行して、Azure の実行コストを節約および最適化することを検討してください。</t>
+          <t>SAP BTP への SSO の実装</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3456,14 +3489,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3474,17 +3507,17 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>お客様の SAP 資産を管理することでお客様と提携する場合は、Azure Lighthouse をご検討ください。Azure Lighthouse を使用すると、マネージド サービス プロバイダーは Azure ネイティブ ID サービスを使用して、顧客の環境に対する認証を行うことができます。顧客はいつでもアクセスを取り消し、サービスプロバイダーの行動を監査できるため、制御を顧客の手に委ねることができます。</t>
+          <t>SAP SuccessFactors を使用している場合は、Azure AD の自動ユーザー プロビジョニングの使用を検討してください。この統合により、SAP SuccessFactors に新しい従業員を追加するときに、Azure AD でユーザー アカウントを自動的に作成できます。 必要に応じて、Microsoft 365 または Azure AD でサポートされているその他の SaaS アプリケーションでユーザー アカウントを作成できます。 SAP SuccessFactors へのメール アドレスの書き戻しを使用します。</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3501,14 +3534,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3519,17 +3552,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Azure Update Manager を使用して、1 つまたは複数の VM で利用可能な更新プログラムの状態を確認し、定期的な修正プログラムの適用をスケジュールすることを検討します。</t>
+          <t>既存の管理グループ ポリシーを SAP サブスクリプションに適用する</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3546,19 +3579,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3569,23 +3602,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>SAP Landscape Management (LaMa) を使用して SAP Basis の運用を最適化および管理します。Azure 用の SAP LaMa コネクタを使用して、SAP システムの再配置、コピー、複製、更新を行います。</t>
+          <t>緊密に結合されたアプリケーションを同じSAPサブスクリプションに統合し、ルーティングと管理の複雑さを回避</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3596,19 +3629,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3619,23 +3652,23 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor for SAP solutions を使用して、Azure 上の SAP ワークロード (SAP HANA、高可用性 SUSE クラスター、SQL システム) を監視します。Azure Monitor for SAP solutions を SAP Solution Manager で補完することを検討してください。</t>
+          <t>サブスクリプションをスケール ユニットとして活用し、リソースをスケーリングし、環境ごとにサブスクリプションをデプロイすることを検討してください。サンドボックス、非製品、製品</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3646,19 +3679,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3669,17 +3702,17 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>SAP の VM 拡張機能チェックを実行します。VM Extension for SAP では、仮想マシン (VM) の割り当てられたマネージド ID を使用して、VM の監視および構成データにアクセスします。このチェックにより、SAP アプリケーションのすべてのパフォーマンス メトリックが、基になる Azure Extension for SAP からのものであることが確認されます。</t>
+          <t>サブスクリプションのプロビジョニングの一環としてクォータを確実に増やす (例: サブスクリプション内で使用可能な VM コアの合計数)</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3696,19 +3729,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3719,23 +3752,23 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
+          <t>クォータ API は、Azure サービスのクォータを表示および管理するために使用できる REST API です。必要に応じて使用を検討してください。</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3746,19 +3779,15 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3769,23 +3798,23 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Azure Network Watcher の接続モニターを使用して、SAP データベースとアプリケーション サーバーの待機時間メトリックを監視します。または、Azure Monitor を使用してネットワーク待機時間の測定値を収集して表示します。</t>
+          <t>可用性ゾーンにデプロイする場合は、クォータが承認されたら、VM のゾーン デプロイが使用可能であることを確認します。必要なサブスクリプション、VM シリーズ、CPU の数、可用性ゾーンを含むサポート リクエストを送信します。</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3796,19 +3825,15 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="inlineStr">
-        <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3819,17 +3844,17 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery の監視を使用して、SAP アプリケーション サーバーのディザスター リカバリー サービスの正常性を維持します。</t>
+          <t>必要なサービスと機能が、選択した展開リージョン内で利用可能であることを確認します。ANF、ゾーンなど</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3846,19 +3871,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3869,17 +3894,17 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>プロビジョニングされた Azure インフラストラクチャで SAP HANA の品質チェックを実行して、プロビジョニングされた VM が SAP HANA on Azure のベスト プラクティスに準拠していることを確認します。</t>
+          <t>コストの分類とリソースのグループ化 (BillTo、部門 (または部署)、環境 (運用、ステージ、開発)、層 (Web 層、アプリケーション層)、アプリケーション所有者、プロジェクト名) に Azure リソース タグを活用します</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3896,15 +3921,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3920,12 +3949,12 @@
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Azure サブスクリプションごとに、ゾーン デプロイの前に Azure 可用性ゾーンで待機時間テストを実行して、SAP on Azure のデプロイ用に待機時間の短いゾーンを選択します。</t>
+          <t>Azure Backup サービスを使用して HANA データベースを保護するのに役立ちます。</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3942,19 +3971,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3970,12 +3999,12 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>回復性レポートを実行して、プロビジョニングされた Azure インフラストラクチャ (コンピューティング、データベース、ネットワーク、ストレージ、Site Recovery) 全体の構成が、Cloud Adaption Framework for Azure によって定義された構成に準拠していることを確認します。</t>
+          <t>HANA、Oracle、または DB2 データベースに Azure NetApp Files をデプロイする場合は、Azure アプリケーション整合性スナップショット ツール (AzAcSnap) を使用して、アプリケーション整合性スナップショットを作成します。AzAcSnap は Oracle データベースもサポートしています。個々の VM ではなく、中央の VM で AzAcSnap を使用することを検討してください。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3992,19 +4021,15 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4020,18 +4045,18 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>SAP 用 Microsoft Sentinel ソリューションを使用して脅威保護を実装します。このソリューションを使用して、SAPシステムを監視し、ビジネスロジック層とアプリケーション層全体で高度な脅威を検出します。</t>
+          <t>オペレーティングシステムと SAP システムの間でタイムゾーンが一致していることを確認します。</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4042,19 +4067,15 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4070,12 +4091,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Azure のタグ付けを利用して、リソースを論理的にグループ化して追跡し、デプロイを自動化し、最も重要なこととして、発生したコストを可視化できます。</t>
+          <t>異なるアプリケーション サービスを同じクラスターにグループ化しないでください。たとえば、DRBDとセントラルサービスクラスタを同じクラスタに組み合わせないでください。ただし、同じ Pacemaker クラスターを使用して、約 5 つの異なるセントラル サービス (マルチ SID クラスター) を管理できます。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4092,19 +4113,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4120,12 +4141,12 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>待機時間の影響を受けやすいアプリケーションには、VM 間の待機時間の監視を使用します。</t>
+          <t>スヌーズ モデルで開発/テスト システムを実行して、Azure の実行コストを節約および最適化することを検討してください。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -4142,7 +4163,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4150,7 +4171,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4166,12 +4187,12 @@
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery の監視を使用して、SAP アプリケーション サーバーのディザスター リカバリー サービスの正常性を維持します。</t>
+          <t>お客様の SAP 資産を管理することでお客様と提携する場合は、Azure Lighthouse をご検討ください。Azure Lighthouse を使用すると、マネージド サービス プロバイダーは Azure ネイティブ ID サービスを使用して、顧客の環境に対する認証を行うことができます。顧客はいつでもアクセスを取り消し、サービスプロバイダーの行動を監査できるため、制御を顧客の手に委ねることができます。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4188,19 +4209,15 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="n"/>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4216,12 +4233,12 @@
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>すべてのデータベース・ファイル・システムおよび実行可能プログラムをウイルス対策スキャンから除外します。これらを含めると、パフォーマンスの問題が発生する可能性があります。除外リストの規範的な詳細については、データベースベンダーに確認してください。たとえば、&lt;sid&gt;ウイルス対策スキャンから/oracle//sapdataを除外することをお薦めします。</t>
+          <t>Azure Update Manager を使用して、1 つまたは複数の VM で利用可能な更新プログラムの状態を確認し、定期的な修正プログラムの適用をスケジュールすることを検討します。</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4238,15 +4255,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4262,12 +4283,12 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>移行後に、HANA以外のデータベースの完全なデータベース統計を収集することを検討してください。たとえば、SAP ノート 1020260 - Oracle 統計の配信を実装します。</t>
+          <t>SAP Landscape Management (LaMa) を使用して SAP Basis の運用を最適化および管理します。Azure 用の SAP LaMa コネクタを使用して、SAP システムの再配置、コピー、複製、更新を行います。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4284,15 +4305,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4308,12 +4333,12 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>SAP on Azure を使用するすべての Oracle デプロイには、Oracle Automatic Storage Management (ASM) の使用を検討してください。</t>
+          <t>Azure Monitor for SAP solutions を使用して、Azure 上の SAP ワークロード (SAP HANA、高可用性 SUSE クラスター、SQL システム) を監視します。Azure Monitor for SAP solutions を SAP Solution Manager で補完することを検討してください。</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4330,19 +4355,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4358,18 +4383,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Oracle を実行している SAP on Azure の場合、SQL スクリプトのコレクションは、パフォーマンスの問題の診断に役立ちます。 自動ワークロード・リポジトリ(AWR)レポートには、Oracleシステムの問題を診断するための貴重な情報が含まれています。AWRレポートは、複数のセッションで実行し、ピーク時間を選択して、分析を広範囲にカバーすることをお薦めします。</t>
+          <t>SAP の VM 拡張機能チェックを実行します。VM Extension for SAP では、仮想マシン (VM) の割り当てられたマネージド ID を使用して、VM の監視および構成データにアクセスします。このチェックにより、SAP アプリケーションのすべてのパフォーマンス メトリックが、基になる Azure Extension for SAP からのものであることが確認されます。</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4380,19 +4405,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4403,17 +4428,17 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>HTTP/S アプリを安全に配信するには、Application Gateway v2 を使用し、WAF の保護とポリシーが有効になっていることを確認します。</t>
+          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4430,19 +4455,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4453,17 +4478,17 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>DNSの</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Azure への移行中に仮想マシンの DNS または仮想名が変更されない場合、バックグラウンド DNS と仮想名によって SAP ランドスケープ内の多くのシステム インターフェイスが接続され、お客様は、開発者が時間の経過と共に定義するインターフェイスに気付くことがあります。移行後に仮想名または DNS 名が変更されると、さまざまなシステム間で接続の問題が発生するため、このような問題を防ぐために DNS エイリアスを保持することをお勧めします。</t>
+          <t>Azure Network Watcher の接続モニターを使用して、SAP データベースとアプリケーション サーバーの待機時間メトリックを監視します。または、Azure Monitor を使用してネットワーク待機時間の測定値を収集して表示します。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4480,19 +4505,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4503,23 +4528,23 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>DNSの</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>異なる DNS ゾーンを使用して、各環境 (サンドボックス、開発、運用前、運用) を互いに区別します。例外は、独自の VNet を使用する SAP デプロイの場合です。ここでは、プライベート DNS ゾーンは必要ない場合があります。</t>
+          <t>Azure Site Recovery の監視を使用して、SAP アプリケーション サーバーのディザスター リカバリー サービスの正常性を維持します。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4530,19 +4555,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4553,17 +4578,17 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>ローカルとグローバルの VNet ピアリングは接続を提供し、複数の Azure リージョンにまたがる SAP デプロイのランディング ゾーン間の接続を確保するための推奨されるアプローチです</t>
+          <t>プロビジョニングされた Azure インフラストラクチャで SAP HANA の品質チェックを実行して、プロビジョニングされた VM が SAP HANA on Azure のベスト プラクティスに準拠していることを確認します。</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4580,19 +4605,15 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4603,17 +4624,17 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーションと SAP データベース サーバー間の NVA のデプロイはサポートされていません</t>
+          <t>Azure サブスクリプションごとに、ゾーン デプロイの前に Azure 可用性ゾーンで待機時間テストを実行して、SAP on Azure のデプロイ用に待機時間の短いゾーンを選択します。</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4630,19 +4651,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4653,17 +4674,17 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
+          <t>回復性レポートを実行して、プロビジョニングされた Azure インフラストラクチャ (コンピューティング、データベース、ネットワーク、ストレージ、Site Recovery) 全体の構成が、Cloud Adaption Framework for Azure によって定義された構成に準拠していることを確認します。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4680,19 +4701,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4703,17 +4724,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>パートナーの NVA が使用されている場合にのみ、リージョン間でネットワーク仮想アプライアンス (NVA) をデプロイすることを検討してください。ネイティブ NVA が存在する場合、リージョン間または VNet 間の NVA は必要ありません。パートナーのネットワーク テクノロジと NVA をデプロイする場合は、ベンダーのガイダンスに従って、Azure ネットワークと競合する構成を確認します。</t>
+          <t>SAP 用 Microsoft Sentinel ソリューションを使用して脅威保護を実装します。このソリューションを使用して、SAPシステムを監視し、ビジネスロジック層とアプリケーション層全体で高度な脅威を検出します。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4730,19 +4751,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4753,17 +4774,17 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN は、仮想 WAN ベースのトポロジのスポーク VNet 間の接続を管理し (ユーザー定義ルーティング (UDR) または NVA を設定する必要はありません)、同じ仮想ハブ内の VNet 間トラフィックの最大ネットワーク スループットは 50 ギガビット/秒です。必要に応じて、SAP ランディング ゾーンは VNet ピアリングを使用して他のランディング ゾーンに接続し、この帯域幅の制限を克服できます。</t>
+          <t>Azure のタグ付けを利用して、リソースを論理的にグループ化して追跡し、デプロイを自動化し、最も重要なこととして、発生したコストを可視化できます。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4780,19 +4801,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4803,23 +4824,23 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>SAP ワークロードを実行している VM へのパブリック I.P 割り当てはお勧めしません。</t>
+          <t>待機時間の影響を受けやすいアプリケーションには、VM 間の待機時間の監視を使用します。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4830,19 +4851,15 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4853,23 +4870,23 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>ASR の設定時に DR 側で I.P アドレスを予約することを検討してください</t>
+          <t>Azure Site Recovery の監視を使用して、SAP アプリケーション サーバーのディザスター リカバリー サービスの正常性を維持します。</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4880,19 +4897,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4903,23 +4920,23 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>すべてのデータベース・ファイル・システムおよび実行可能プログラムをウイルス対策スキャンから除外します。これらを含めると、パフォーマンスの問題が発生する可能性があります。除外リストの規範的な詳細については、データベースベンダーに確認してください。たとえば、&lt;sid&gt;ウイルス対策スキャンから/oracle//sapdataを除外することをお薦めします。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4930,19 +4947,15 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I88" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4953,23 +4966,23 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Azure では 1 つの VNet に複数の委任されたサブネットを作成できますが、Azure NetApp Files の VNet に存在できる委任されたサブネットは 1 つだけです。Azure NetApp Files に複数の委任されたサブネットを使用すると、新しいボリュームを作成しようとしても失敗します。</t>
+          <t>移行後に、HANA以外のデータベースの完全なデータベース統計を収集することを検討してください。たとえば、SAP ノート 1020260 - Oracle 統計の配信を実装します。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4980,19 +4993,15 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5003,17 +5012,17 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
+          <t>SAP on Azure を使用するすべての Oracle デプロイには、Oracle Automatic Storage Management (ASM) の使用を検討してください。</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5030,19 +5039,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5053,17 +5062,17 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway、SAP Web Dispatcher、およびその他のサードパーティ サービスの比較に示すように、Application Gateway が SAP Web アプリのリバース プロキシとして機能する場合、Application Gateway と Web Application Firewall には制限があります。</t>
+          <t>Oracle を実行している SAP on Azure の場合、SQL スクリプトのコレクションは、パフォーマンスの問題の診断に役立ちます。 自動ワークロード・リポジトリ(AWR)レポートには、Oracleシステムの問題を診断するための貴重な情報が含まれています。AWRレポートは、複数のセッションで実行し、ピーク時間を選択して、分析を広範囲にカバーすることをお薦めします。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5080,19 +5089,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5108,12 +5117,12 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
+          <t>HTTP/S アプリを安全に配信するには、Application Gateway v2 を使用し、WAF の保護とポリシーが有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5130,19 +5139,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5158,12 +5167,12 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>DNSの</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と Application Gateway を使用して HTTP/S アプリケーションを保護する場合は、Azure Front Door の Web アプリケーション ファイアウォール ポリシーを利用します。Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
+          <t>Azure への移行中に仮想マシンの DNS または仮想名が変更されない場合、バックグラウンド DNS と仮想名によって SAP ランドスケープ内の多くのシステム インターフェイスが接続され、お客様は、開発者が時間の経過と共に定義するインターフェイスに気付くことがあります。移行後に仮想名または DNS 名が変更されると、さまざまなシステム間で接続の問題が発生するため、このような問題を防ぐために DNS エイリアスを保持することをお勧めします。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5180,19 +5189,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5208,12 +5217,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>DNSの</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Web アプリケーション ファイアウォールを使用して、インターネットに公開されているトラフィックをスキャンします。別のオプションとして、ロード バランサーや、Application Gateway やサードパーティ ソリューションなどのファイアウォール機能が組み込まれているリソースと共に使用することもできます。</t>
+          <t>異なる DNS ゾーンを使用して、各環境 (サンドボックス、開発、運用前、運用) を互いに区別します。例外は、独自の VNet を使用する SAP デプロイの場合です。ここでは、プライベート DNS ゾーンは必要ない場合があります。</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5230,19 +5239,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5258,12 +5267,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
+          <t>ローカルとグローバルの VNet ピアリングは接続を提供し、複数の Azure リージョンにまたがる SAP デプロイのランディング ゾーン間の接続を確保するための推奨されるアプローチです</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5280,19 +5289,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5308,18 +5317,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>データ漏えいを防ぐには、Azure Private Link を使用して、Azure Blob Storage、Azure Files、Azure Data Lake Storage Gen2、Azure Data Factory などのサービスとしてのプラットフォーム リソースに安全にアクセスします。Azure プライベート エンドポイントは、VNet と Azure Storage、Azure Backup などのサービス間のトラフィックをセキュリティで保護するのにも役立ちます。VNet とプライベート エンドポイント対応サービス間のトラフィックは、Microsoft グローバル ネットワークを経由するため、パブリック インターネットへの公開は防止されます。</t>
+          <t>SAP アプリケーションと SAP データベース サーバー間の NVA のデプロイはサポートされていません</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5330,19 +5339,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5358,18 +5367,18 @@
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーションと DBMS レイヤーで使用される VM で Azure 高速ネットワークが有効になっていることを確認します。</t>
+          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5380,19 +5389,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5408,12 +5417,12 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer の内部デプロイが Direct Server Return (DSR) を使用するように設定されていることを確認します。この設定により、DBMS レイヤーの高可用性構成に内部ロード バランサー構成が使用されている場合の待機時間が短縮されます。</t>
+          <t>パートナーの NVA が使用されている場合にのみ、リージョン間でネットワーク仮想アプライアンス (NVA) をデプロイすることを検討してください。ネイティブ NVA が存在する場合、リージョン間または VNet 間の NVA は必要ありません。パートナーのネットワーク テクノロジと NVA をデプロイする場合は、ベンダーのガイダンスに従って、Azure ネットワークと競合する構成を確認します。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5430,19 +5439,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5458,12 +5467,12 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション セキュリティ グループ (ASG) と NSG 規則を使用して、SAP アプリケーション層と DBMS 層の間にネットワーク セキュリティのアクセス制御リストを定義できます。ASG は、仮想マシンをグループ化してセキュリティの管理に役立てます。</t>
+          <t>Virtual WAN は、仮想 WAN ベースのトポロジのスポーク VNet 間の接続を管理し (ユーザー定義ルーティング (UDR) または NVA を設定する必要はありません)、同じ仮想ハブ内の VNet 間トラフィックの最大ネットワーク スループットは 50 ギガビット/秒です。必要に応じて、SAP ランディング ゾーンは VNet ピアリングを使用して他のランディング ゾーンに接続し、この帯域幅の制限を克服できます。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5480,19 +5489,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5508,12 +5517,12 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>ピアリングされていない異なる Azure VNet への SAP アプリケーション レイヤーと SAP DBMS の配置はサポートされていません。</t>
+          <t>SAP ワークロードを実行している VM へのパブリック I.P 割り当てはお勧めしません。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5530,19 +5539,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,18 +5567,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーションで最適なネットワーク待機時間を実現するには、Azure 近接通信配置グループの使用を検討してください。</t>
+          <t>ASR の設定時に DR 側で I.P アドレスを予約することを検討してください</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5580,19 +5589,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5608,12 +5617,12 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスと Azure の間で分割された SAP アプリケーション サーバー レイヤーと DBMS レイヤーを実行することは、まったくサポートされていません。どちらのレイヤーも、オンプレミスまたは Azure に完全に存在する必要があります。</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5630,19 +5639,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5658,18 +5667,18 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>SAP システムのデータベース管理システム (DBMS) レイヤーとアプリケーション レイヤーを異なる VNet でホストし、それらを VNet ピアリングに接続することは、レイヤー間の過剰なネットワーク トラフィックによって生成される可能性があるため、お勧めしません。Azure 仮想ネットワーク内のサブネットを使用して、SAP アプリケーション レイヤーと DBMS レイヤーを分離することをお勧めします。</t>
+          <t>Azure では 1 つの VNet に複数の委任されたサブネットを作成できますが、Azure NetApp Files の VNet に存在できる委任されたサブネットは 1 つだけです。Azure NetApp Files に複数の委任されたサブネットを使用すると、新しいボリュームを作成しようとしても失敗します。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5680,19 +5689,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5708,18 +5717,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Linux ゲスト・オペレーティング・システムで Load Balancer を使用する場合は、Linux ネットワーク・パラメーター net.ipv4.tcp_timestamps が 0 に設定されていることを確認します。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5730,19 +5739,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5758,12 +5767,12 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>SAP RISE/ECS デプロイの場合、仮想ピアリングは、お客様の既存の Azure 環境との接続を確立するための推奨される方法です。SAP vnet と顧客 VNet の両方がネットワーク セキュリティ グループ (NSG) で保護され、vnet ピアリングを介した SAP ポートとデータベース ポートでの通信が可能になります</t>
+          <t>Application Gateway、SAP Web Dispatcher、およびその他のサードパーティ サービスの比較に示すように、Application Gateway が SAP Web アプリのリバース プロキシとして機能する場合、Application Gateway と Web Application Firewall には制限があります。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5780,15 +5789,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5799,17 +5812,17 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Azure、オンプレミス、またはその他のクラウド環境で Windows VM と Linux VM を実行している場合は、Azure Automation の更新管理センターを使用して、セキュリティ パッチを含むオペレーティング システムの更新プログラムを管理できます。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5826,19 +5839,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5849,17 +5862,17 @@
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>SAP は、SAP システムを保護するために即時のアクションを必要とする非常に重要なセキュリティ パッチまたはホット フィックスをリリースしているため、SAP セキュリティ OSS ノートを定期的に確認してください。</t>
+          <t>Azure Front Door と Application Gateway を使用して HTTP/S アプリケーションを保護する場合は、Azure Front Door の Web アプリケーション ファイアウォール ポリシーを利用します。Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5876,19 +5889,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5899,23 +5912,23 @@
     <row r="108" ht="16.5" customHeight="1">
       <c r="A108" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>SQL Server 上の SAP システムではアカウントを使用しないため、SQL Server 上の SAP システム管理者アカウントを無効にすることができます。元のシステム管理者アカウントを無効にする前に、システム管理者権限を持つ別のユーザーがサーバーにアクセスできることを確認してください。</t>
+          <t>Web アプリケーション ファイアウォールを使用して、インターネットに公開されているトラフィックをスキャンします。別のオプションとして、ロード バランサーや、Application Gateway やサードパーティ ソリューションなどのファイアウォール機能が組み込まれているリソースと共に使用することもできます。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5926,15 +5939,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5945,23 +5962,23 @@
     <row r="109" ht="16.5" customHeight="1">
       <c r="A109" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>xp_cmdshellを無効にします。SQL Server 機能xp_cmdshell、SQL Server 内部オペレーティング システムのコマンド シェルを有効にします。これは、セキュリティ監査における潜在的なリスクです。</t>
+          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5972,19 +5989,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5995,23 +6012,23 @@
     <row r="110" ht="16.5" customHeight="1">
       <c r="A110" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Azrue での SAP HANA データベース サーバーの暗号化では、SAP HANA ネイティブ暗号化テクノロジが使用されます。さらに、Azure で SQL Server を使用している場合は、Transparent Data Encryption (TDE) を使用してデータとログ ファイルを保護し、バックアップも暗号化されるようにします。</t>
+          <t>データ漏えいを防ぐには、Azure Private Link を使用して、Azure Blob Storage、Azure Files、Azure Data Lake Storage Gen2、Azure Data Factory などのサービスとしてのプラットフォーム リソースに安全にアクセスします。Azure プライベート エンドポイントは、VNet と Azure Storage、Azure Backup などのサービス間のトラフィックをセキュリティで保護するのにも役立ちます。VNet とプライベート エンドポイント対応サービス間のトラフィックは、Microsoft グローバル ネットワークを経由するため、パブリック インターネットへの公開は防止されます。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6022,19 +6039,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6045,23 +6062,23 @@
     <row r="111" ht="16.5" customHeight="1">
       <c r="A111" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage の暗号化は、すべての Azure Resource Manager とクラシック ストレージ アカウントに対して有効になっており、無効にすることはできません。データは既定で暗号化されるため、Azure Storage 暗号化を使用するためにコードやアプリケーションを変更する必要はありません。</t>
+          <t>SAP アプリケーションと DBMS レイヤーで使用される VM で Azure 高速ネットワークが有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6072,19 +6089,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6095,23 +6112,23 @@
     <row r="112" ht="16.5" customHeight="1">
       <c r="A112" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>Azure Load Balancer の内部デプロイが Direct Server Return (DSR) を使用するように設定されていることを確認します。この設定により、DBMS レイヤーの高可用性構成に内部ロード バランサー構成が使用されている場合の待機時間が短縮されます。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6122,19 +6139,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6145,17 +6162,17 @@
     <row r="113" ht="16.5" customHeight="1">
       <c r="A113" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>デプロイが成功したら、Azure リソースを LOCK して、承認されていない変更から保護することをお勧めします。また、カスタマイズされた Azure ポリシー (Custome ロール) を使用して、サブスクリプションごとに LOCK の制約とルールを適用することもできます。</t>
+          <t>アプリケーション セキュリティ グループ (ASG) と NSG 規則を使用して、SAP アプリケーション層と DBMS 層の間にネットワーク セキュリティのアクセス制御リストを定義できます。ASG は、仮想マシンをグループ化してセキュリティの管理に役立てます。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6172,19 +6189,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6195,23 +6212,23 @@
     <row r="114" ht="16.5" customHeight="1">
       <c r="A114" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+          <t>ピアリングされていない異なる Azure VNet への SAP アプリケーション レイヤーと SAP DBMS の配置はサポートされていません。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6222,19 +6239,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6245,23 +6262,23 @@
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>既存の要件、規制、コンプライアンス制御 (内部/外部) に基づいて、必要な Azure ポリシーと Azure RBAC ロールを決定します</t>
+          <t>SAP アプリケーションで最適なネットワーク待機時間を実現するには、Azure 近接通信配置グループの使用を検討してください。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6272,19 +6289,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6295,17 +6312,17 @@
     <row r="116" ht="16.5" customHeight="1">
       <c r="A116" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>SAP 環境でMicrosoft Defender for Endpointを有効にする場合は、すべてのサーバーを対象とするのではなく、DBMS サーバー上のデータとログ ファイルを除外することをお勧めします。ターゲット ファイルを除外する場合は、DBMS ベンダーの推奨事項に従ってください。</t>
+          <t>オンプレミスと Azure の間で分割された SAP アプリケーション サーバー レイヤーと DBMS レイヤーを実行することは、まったくサポートされていません。どちらのレイヤーも、オンプレミスまたは Azure に完全に存在する必要があります。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6322,19 +6339,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6345,17 +6362,17 @@
     <row r="117" ht="16.5" customHeight="1">
       <c r="A117" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud の Just-In-Time アクセス権を持つ SAP 管理者カスタム ロールを委任します。</t>
+          <t>SAP システムのデータベース管理システム (DBMS) レイヤーとアプリケーション レイヤーを異なる VNet でホストし、それらを VNet ピアリングに接続することは、レイヤー間の過剰なネットワーク トラフィックによって生成される可能性があるため、お勧めしません。Azure 仮想ネットワーク内のサブネットを使用して、SAP アプリケーション レイヤーと DBMS レイヤーを分離することをお勧めします。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6372,19 +6389,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6395,23 +6412,23 @@
     <row r="118" ht="16.5" customHeight="1">
       <c r="A118" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>サードパーティのセキュリティ製品を DIAG (SAP GUI)、RFC、および SPNEGO for HTTPS のセキュアネットワーク通信 (SNC) と統合することにより、転送中のデータを暗号化します。</t>
+          <t>Linux ゲスト・オペレーティング・システムで Load Balancer を使用する場合は、Linux ネットワーク・パラメーター net.ipv4.tcp_timestamps が 0 に設定されていることを確認します。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6422,19 +6439,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6445,17 +6462,17 @@
     <row r="119" ht="16.5" customHeight="1">
       <c r="A119" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>SAP RISE/ECS デプロイの場合、仮想ピアリングは、お客様の既存の Azure 環境との接続を確立するための推奨される方法です。SAP vnet と顧客 VNet の両方がネットワーク セキュリティ グループ (NSG) で保護され、vnet ピアリングを介した SAP ポートとデータベース ポートでの通信が可能になります</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6472,19 +6489,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6500,18 +6512,18 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
+          <t>Azure、オンプレミス、またはその他のクラウド環境で Windows VM と Linux VM を実行している場合は、Azure Automation の更新管理センターを使用して、セキュリティ パッチを含むオペレーティング システムの更新プログラムを管理できます。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6522,19 +6534,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6550,18 +6562,18 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>HANA 以外の Windows オペレーティング システムと Windows 以外のオペレーティング システムのディスク暗号化キーとシークレットを制御および管理するには、Azure Key Vault を使用します。SAP HANA は Azure Key Vault ではサポートされていないため、SAP ABAP キーや SSH キーなどの代替方法を使用する必要があります。</t>
+          <t>SAP は、SAP システムを保護するために即時のアクションを必要とする非常に重要なセキュリティ パッチまたはホット フィックスをリリースしているため、SAP セキュリティ OSS ノートを定期的に確認してください。</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6572,19 +6584,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6600,18 +6612,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>SQL Server 上の SAP システムではアカウントを使用しないため、SQL Server 上の SAP システム管理者アカウントを無効にすることができます。元のシステム管理者アカウントを無効にする前に、システム管理者権限を持つ別のユーザーがサーバーにアクセスできることを確認してください。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6622,7 +6634,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6630,7 +6642,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6646,12 +6658,12 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します</t>
+          <t>xp_cmdshellを無効にします。SQL Server 機能xp_cmdshell、SQL Server 内部オペレーティング システムのコマンド シェルを有効にします。これは、セキュリティ監査における潜在的なリスクです。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6668,19 +6680,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6696,12 +6708,12 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
+          <t>Azure 上の SAP HANA データベース サーバーの暗号化では、SAP HANA ネイティブ暗号化テクノロジが使用されます。さらに、Azure で SQL Server を使用している場合は、Transparent Data Encryption (TDE) を使用してデータとログ ファイルを保護し、バックアップも暗号化されるようにします。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6718,19 +6730,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6746,18 +6758,18 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Azure で Microsoft マルウェア対策ソフトウェアを使用して、悪意のあるファイル、アドウェア、その他の脅威から仮想マシンを保護することを検討してください。</t>
+          <t>Azure Storage の暗号化は、すべての Azure Resource Manager とクラシック ストレージ アカウントに対して有効になっており、無効にすることはできません。データは既定で暗号化されるため、Azure Storage 暗号化を使用するためにコードやアプリケーションを変更する必要はありません。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6768,19 +6780,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6796,18 +6808,18 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>さらに強力な保護を行うには、Microsoft Defender for Endpointの使用を検討してください。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6818,19 +6830,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6846,18 +6858,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワーク ピアリングによってスポーク ネットワークに接続されているハブ仮想ネットワークを介してすべてのトラフィックを渡すことで、SAP アプリケーションとデータベース サーバーをインターネットまたはオンプレミス ネットワークから分離します。ピアリングされた仮想ネットワークにより、SAP on Azure ソリューションがパブリック インターネットから分離されることが保証されます。</t>
+          <t>デプロイが成功したら、Azure リソースを LOCK して、承認されていない変更から保護することをお勧めします。また、カスタマイズされた Azure ポリシー (Custome ロール) を使用して、サブスクリプションごとに LOCK の制約とルールを適用することもできます。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6868,19 +6880,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6896,18 +6908,18 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>SAP Fiori などのインターネットに接続するアプリケーションの場合は、セキュリティレベルを維持しながら、アプリケーション要件ごとに負荷を分散してください。レイヤー 7 セキュリティについては、Azure Marketplace で入手できるサードパーティの Web アプリケーション ファイアウォール (WAF) を使用できます。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6918,19 +6930,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6946,18 +6958,18 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor for SAP solutions でセキュリティで保護された通信を有効にするには、ルート証明書またはサーバー証明書のいずれかを使用することを選択できます。ルート証明書を使用することを強くお勧めします。</t>
+          <t>既存の要件、規制、コンプライアンス制御 (内部/外部) に基づいて、必要な Azure ポリシーと Azure RBAC ロールを決定します</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6968,19 +6980,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6991,23 +7003,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Oracle、SQL、HANAのディスク構成</t>
+          <t>SAP 環境でMicrosoft Defender for Endpointを有効にする場合は、すべてのサーバーを対象とするのではなく、DBMS サーバー上のデータとログ ファイルを除外することをお勧めします。ターゲット ファイルを除外する場合は、DBMS ベンダーの推奨事項に従ってください。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7016,12 +7028,21 @@
         </is>
       </c>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="n"/>
+      <c r="H130" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7030,208 +7051,645 @@
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="n"/>
-      <c r="B131" s="21" t="n"/>
-      <c r="C131" s="21" t="n"/>
+      <c r="A131" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B131" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C131" s="21" t="inlineStr">
+        <is>
+          <t>Microsoft Defender for Cloud の Just-In-Time アクセス権を持つ SAP 管理者カスタム ロールを委任します。</t>
+        </is>
+      </c>
       <c r="D131" s="21" t="n"/>
-      <c r="E131" s="21" t="n"/>
+      <c r="E131" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="n"/>
+      <c r="H131" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="n"/>
+      <c r="L131" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
       <c r="P131" s="25" t="n"/>
     </row>
     <row r="132" ht="16.5" customHeight="1">
-      <c r="A132" s="21" t="n"/>
-      <c r="B132" s="21" t="n"/>
-      <c r="C132" s="21" t="n"/>
+      <c r="A132" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B132" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C132" s="21" t="inlineStr">
+        <is>
+          <t>サードパーティのセキュリティ製品を DIAG (SAP GUI)、RFC、および SPNEGO for HTTPS のセキュアネットワーク通信 (SNC) と統合することにより、転送中のデータを暗号化します。</t>
+        </is>
+      </c>
       <c r="D132" s="21" t="n"/>
-      <c r="E132" s="21" t="n"/>
+      <c r="E132" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="n"/>
+      <c r="H132" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
-      <c r="L132" s="25" t="n"/>
+      <c r="L132" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M132" s="25" t="n"/>
       <c r="N132" s="25" t="n"/>
       <c r="O132" s="25" t="n"/>
       <c r="P132" s="25" t="n"/>
     </row>
     <row r="133" ht="16.5" customHeight="1">
-      <c r="A133" s="21" t="n"/>
-      <c r="B133" s="21" t="n"/>
-      <c r="C133" s="21" t="n"/>
+      <c r="A133" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B133" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C133" s="21" t="inlineStr">
+        <is>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+        </is>
+      </c>
       <c r="D133" s="21" t="n"/>
-      <c r="E133" s="21" t="n"/>
+      <c r="E133" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G133" s="21" t="n"/>
-      <c r="H133" s="15" t="n"/>
+      <c r="H133" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
-      <c r="L133" s="25" t="n"/>
+      <c r="L133" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M133" s="25" t="n"/>
       <c r="N133" s="25" t="n"/>
       <c r="O133" s="25" t="n"/>
       <c r="P133" s="25" t="n"/>
     </row>
     <row r="134" ht="16.5" customHeight="1">
-      <c r="A134" s="21" t="n"/>
-      <c r="B134" s="21" t="n"/>
-      <c r="C134" s="21" t="n"/>
+      <c r="A134" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B134" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C134" s="21" t="inlineStr">
+        <is>
+          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
+        </is>
+      </c>
       <c r="D134" s="21" t="n"/>
-      <c r="E134" s="21" t="n"/>
+      <c r="E134" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G134" s="21" t="n"/>
-      <c r="H134" s="15" t="n"/>
+      <c r="H134" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
-      <c r="L134" s="25" t="n"/>
+      <c r="L134" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M134" s="25" t="n"/>
       <c r="N134" s="25" t="n"/>
       <c r="O134" s="25" t="n"/>
       <c r="P134" s="25" t="n"/>
     </row>
     <row r="135" ht="16.5" customHeight="1">
-      <c r="A135" s="21" t="n"/>
-      <c r="B135" s="21" t="n"/>
-      <c r="C135" s="21" t="n"/>
+      <c r="A135" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B135" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C135" s="21" t="inlineStr">
+        <is>
+          <t>HANA 以外の Windows オペレーティング システムと Windows 以外のオペレーティング システムのディスク暗号化キーとシークレットを制御および管理するには、Azure Key Vault を使用します。SAP HANA は Azure Key Vault ではサポートされていないため、SAP ABAP キーや SSH キーなどの代替方法を使用する必要があります。</t>
+        </is>
+      </c>
       <c r="D135" s="21" t="n"/>
-      <c r="E135" s="21" t="n"/>
+      <c r="E135" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G135" s="21" t="n"/>
-      <c r="H135" s="15" t="n"/>
+      <c r="H135" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
-      <c r="L135" s="25" t="n"/>
+      <c r="L135" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M135" s="25" t="n"/>
       <c r="N135" s="25" t="n"/>
       <c r="O135" s="25" t="n"/>
       <c r="P135" s="25" t="n"/>
     </row>
     <row r="136" ht="16.5" customHeight="1">
-      <c r="A136" s="21" t="n"/>
-      <c r="B136" s="21" t="n"/>
-      <c r="C136" s="21" t="n"/>
+      <c r="A136" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B136" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C136" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D136" s="21" t="n"/>
-      <c r="E136" s="21" t="n"/>
+      <c r="E136" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G136" s="21" t="n"/>
-      <c r="H136" s="15" t="n"/>
+      <c r="H136" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
-      <c r="L136" s="25" t="n"/>
+      <c r="L136" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M136" s="25" t="n"/>
       <c r="N136" s="25" t="n"/>
       <c r="O136" s="25" t="n"/>
       <c r="P136" s="25" t="n"/>
     </row>
     <row r="137" ht="16.5" customHeight="1">
-      <c r="A137" s="21" t="n"/>
-      <c r="B137" s="21" t="n"/>
-      <c r="C137" s="21" t="n"/>
+      <c r="A137" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B137" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C137" s="21" t="inlineStr">
+        <is>
+          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します</t>
+        </is>
+      </c>
       <c r="D137" s="21" t="n"/>
-      <c r="E137" s="21" t="n"/>
+      <c r="E137" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G137" s="21" t="n"/>
-      <c r="H137" s="15" t="n"/>
+      <c r="H137" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
-      <c r="L137" s="25" t="n"/>
+      <c r="L137" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M137" s="25" t="n"/>
       <c r="N137" s="25" t="n"/>
       <c r="O137" s="25" t="n"/>
       <c r="P137" s="25" t="n"/>
     </row>
     <row r="138" ht="16.5" customHeight="1">
-      <c r="A138" s="21" t="n"/>
-      <c r="B138" s="21" t="n"/>
-      <c r="C138" s="21" t="n"/>
+      <c r="A138" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B138" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C138" s="21" t="inlineStr">
+        <is>
+          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
+        </is>
+      </c>
       <c r="D138" s="21" t="n"/>
-      <c r="E138" s="21" t="n"/>
+      <c r="E138" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G138" s="21" t="n"/>
-      <c r="H138" s="15" t="n"/>
+      <c r="H138" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
-      <c r="L138" s="25" t="n"/>
+      <c r="L138" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M138" s="25" t="n"/>
       <c r="N138" s="25" t="n"/>
       <c r="O138" s="25" t="n"/>
       <c r="P138" s="25" t="n"/>
     </row>
     <row r="139" ht="16.5" customHeight="1">
-      <c r="A139" s="21" t="n"/>
-      <c r="B139" s="21" t="n"/>
-      <c r="C139" s="21" t="n"/>
+      <c r="A139" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B139" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C139" s="21" t="inlineStr">
+        <is>
+          <t>Azure で Microsoft マルウェア対策ソフトウェアを使用して、悪意のあるファイル、アドウェア、その他の脅威から仮想マシンを保護することを検討してください。</t>
+        </is>
+      </c>
       <c r="D139" s="21" t="n"/>
-      <c r="E139" s="21" t="n"/>
+      <c r="E139" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G139" s="21" t="n"/>
-      <c r="H139" s="15" t="n"/>
+      <c r="H139" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
-      <c r="L139" s="25" t="n"/>
+      <c r="L139" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M139" s="25" t="n"/>
       <c r="N139" s="25" t="n"/>
       <c r="O139" s="25" t="n"/>
       <c r="P139" s="25" t="n"/>
     </row>
     <row r="140" ht="16.5" customHeight="1">
-      <c r="A140" s="21" t="n"/>
-      <c r="B140" s="21" t="n"/>
-      <c r="C140" s="21" t="n"/>
+      <c r="A140" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B140" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C140" s="21" t="inlineStr">
+        <is>
+          <t>さらに強力な保護を行うには、Microsoft Defender for Endpointの使用を検討してください。</t>
+        </is>
+      </c>
       <c r="D140" s="21" t="n"/>
-      <c r="E140" s="21" t="n"/>
+      <c r="E140" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G140" s="21" t="n"/>
-      <c r="H140" s="15" t="n"/>
+      <c r="H140" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
-      <c r="L140" s="25" t="n"/>
+      <c r="L140" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M140" s="25" t="n"/>
       <c r="N140" s="25" t="n"/>
       <c r="O140" s="25" t="n"/>
       <c r="P140" s="25" t="n"/>
     </row>
     <row r="141" ht="16.5" customHeight="1">
-      <c r="A141" s="21" t="n"/>
-      <c r="B141" s="21" t="n"/>
-      <c r="C141" s="21" t="n"/>
+      <c r="A141" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B141" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C141" s="21" t="inlineStr">
+        <is>
+          <t>仮想ネットワーク ピアリングによってスポーク ネットワークに接続されているハブ仮想ネットワークを介してすべてのトラフィックを渡すことで、SAP アプリケーションとデータベース サーバーをインターネットまたはオンプレミス ネットワークから分離します。ピアリングされた仮想ネットワークにより、SAP on Azure ソリューションがパブリック インターネットから分離されることが保証されます。</t>
+        </is>
+      </c>
       <c r="D141" s="21" t="n"/>
-      <c r="E141" s="21" t="n"/>
+      <c r="E141" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G141" s="21" t="n"/>
-      <c r="H141" s="15" t="n"/>
+      <c r="H141" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
-      <c r="L141" s="25" t="n"/>
+      <c r="L141" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M141" s="25" t="n"/>
       <c r="N141" s="25" t="n"/>
       <c r="O141" s="25" t="n"/>
       <c r="P141" s="25" t="n"/>
     </row>
     <row r="142" ht="16.5" customHeight="1">
-      <c r="A142" s="21" t="n"/>
-      <c r="B142" s="21" t="n"/>
-      <c r="C142" s="21" t="n"/>
+      <c r="A142" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B142" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C142" s="21" t="inlineStr">
+        <is>
+          <t>SAP Fiori などのインターネットに接続するアプリケーションの場合は、セキュリティレベルを維持しながら、アプリケーション要件ごとに負荷を分散してください。レイヤー 7 セキュリティについては、Azure Marketplace で入手できるサードパーティの Web アプリケーション ファイアウォール (WAF) を使用できます。</t>
+        </is>
+      </c>
       <c r="D142" s="21" t="n"/>
-      <c r="E142" s="21" t="n"/>
+      <c r="E142" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G142" s="21" t="n"/>
-      <c r="H142" s="15" t="n"/>
+      <c r="H142" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
-      <c r="L142" s="25" t="n"/>
+      <c r="L142" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M142" s="25" t="n"/>
       <c r="N142" s="25" t="n"/>
       <c r="O142" s="25" t="n"/>
       <c r="P142" s="25" t="n"/>
     </row>
     <row r="143" ht="16.5" customHeight="1">
-      <c r="A143" s="21" t="n"/>
-      <c r="B143" s="21" t="n"/>
-      <c r="C143" s="21" t="n"/>
+      <c r="A143" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B143" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C143" s="21" t="inlineStr">
+        <is>
+          <t>Azure Monitor for SAP solutions でセキュリティで保護された通信を有効にするには、ルート証明書またはサーバー証明書のいずれかを使用することを選択できます。ルート証明書を使用することを強くお勧めします。</t>
+        </is>
+      </c>
       <c r="D143" s="21" t="n"/>
-      <c r="E143" s="21" t="n"/>
+      <c r="E143" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G143" s="21" t="n"/>
-      <c r="H143" s="15" t="n"/>
+      <c r="H143" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
-      <c r="L143" s="25" t="n"/>
+      <c r="L143" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M143" s="25" t="n"/>
       <c r="N143" s="25" t="n"/>
       <c r="O143" s="25" t="n"/>
@@ -9718,7 +10176,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F131" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ja.xlsx
@@ -1712,7 +1712,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
@@ -2852,23 +2852,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>コストの最適化</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
+          <t>SAP HANA で Azure Premium Storage を使用する場合は、Azure Standard SSD ストレージを使用して、コスト意識の高いストレージ ソリューションを選択できます。ただし、Standard SSD または Standard HDD Azure Storage を選択すると、個々の VM の SLA に影響することに注意してください。また、非運用環境など、I/O スループットが低く待機時間が短いシステムでは、下位のシリーズ VM を使用できます。</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2879,19 +2879,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>71dc00cd-4392-4262-8949-20c05e6c0333</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2902,23 +2897,23 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>コストの最適化</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>クラウド コネクタを介して SAP クラウド アプリケーションからオンプレミス (IaaS を含む) に ID を転送するための原則の伝達を適用する</t>
+          <t>低コストの代替構成 (多目的) として、非運用環境の HANA データベース サーバー VM に低パフォーマンスの SKU を選択できます。ただし、E シリーズなどの一部の VM の種類は、HANA 認定 (SAP HANA Hardware Directory) されていないか、ストレージ待機時間を 1 ミリ秒未満にできないことに注意することが重要です。</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2929,19 +2924,15 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>9877f353-2591-4e8b-8381-e9043fed1010</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2962,13 +2953,13 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>SAML を使用して Azure AD で SAP Analytics Cloud、SAP Cloud Platform、Business by Design、SAP Qualtrics、SAP C4C などの SAP SaaS アプリケーションに SSO を実装します。</t>
+          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2979,15 +2970,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I47" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3008,7 +3003,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>SAML を使用して、SAP Fiori や SAP Web GUI などの SAP NetWeaver ベースの Web アプリケーションに SSO を実装します。</t>
+          <t>クラウド コネクタを介して SAP クラウド アプリケーションからオンプレミス (IaaS を含む) に ID を転送するための原則の伝達を適用する</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3025,19 +3020,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3058,7 +3053,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>SAML を使用して、SAP Fiori や SAP Web GUI などの SAP NetWeaver ベースの Web アプリケーションに SSO を実装します。</t>
+          <t>SAML を使用して Azure AD で SAP Analytics Cloud、SAP Cloud Platform、Business by Design、SAP Qualtrics、SAP C4C などの SAP SaaS アプリケーションに SSO を実装します。</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3073,17 +3068,16 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3104,7 +3098,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>SAP NetWeaver SSO またはパートナーソリューションを使用して、SAP GUI への SSO を実装できます。</t>
+          <t>SAML を使用して、SAP Fiori や SAP Web GUI などの SAP NetWeaver ベースの Web アプリケーションに SSO を実装します。</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3133,7 +3127,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3154,7 +3148,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI および Web ブラウザアクセスの SSO には、設定とメンテナンスが容易なため、SNC/Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーションメカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
+          <t>SAML を使用して、SAP Fiori や SAP Web GUI などの SAP NetWeaver ベースの Web アプリケーションに SSO を実装します。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3172,14 +3166,14 @@
       <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3200,7 +3194,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI および Web ブラウザアクセスの SSO には、設定とメンテナンスが容易なため、SNC/Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーションメカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
+          <t>SAP NetWeaver SSO またはパートナーソリューションを使用して、SAP GUI への SSO を実装できます。</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3217,15 +3211,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3246,7 +3244,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>OAuth for SAP NetWeaver を使用して SSO を実装し、サードパーティまたはカスタムアプリケーションが SAP NetWeaver OData サービスにアクセスできるようにします。</t>
+          <t>SAP GUI および Web ブラウザアクセスの SSO には、設定とメンテナンスが容易なため、SNC/Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーションメカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3261,16 +3259,17 @@
         </is>
       </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+      <c r="H53" s="15" t="n"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3291,7 +3290,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>SAP HANAへのSSOの実装</t>
+          <t>SAP GUI および Web ブラウザアクセスの SSO には、設定とメンテナンスが容易なため、SNC/Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーションメカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3308,7 +3307,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3316,7 +3315,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3337,7 +3336,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Azure AD は、RISE でホストされている SAP システムの ID プロバイダーであると考えてください。詳細については、「サービスと Azure AD の統合」を参照してください。</t>
+          <t>OAuth for SAP NetWeaver を使用して SSO を実装し、サードパーティまたはカスタムアプリケーションが SAP NetWeaver OData サービスにアクセスできるようにします。</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3354,14 +3353,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3382,7 +3381,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>SAP にアクセスするアプリケーションでは、プリンシパル伝搬を使用して SSO を確立することができます。</t>
+          <t>SAP HANAへのSSOの実装</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3399,14 +3398,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3427,7 +3426,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>SAP Identity Authentication Service (IAS) を必要とする SAP BTP サービスまたは SaaS ソリューションを使用している場合は、SAP Cloud Identity Authentication Services と Azure AD の間に SSO を実装して、それらの SAP サービスにアクセスすることを検討してください。この統合により、SAP IAS はプロキシ ID プロバイダーとして機能し、認証要求を中央ユーザー ストアおよび ID プロバイダーとして Azure AD に転送できます。</t>
+          <t>Azure AD は、RISE でホストされている SAP システムの ID プロバイダーであると考えてください。詳細については、「サービスと Azure AD の統合」を参照してください。</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3444,14 +3443,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3472,7 +3471,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>SAP BTP への SSO の実装</t>
+          <t>SAP にアクセスするアプリケーションでは、プリンシパル伝搬を使用して SSO を確立することができます。</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3489,14 +3488,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3517,7 +3516,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>SAP SuccessFactors を使用している場合は、Azure AD の自動ユーザー プロビジョニングの使用を検討してください。この統合により、SAP SuccessFactors に新しい従業員を追加するときに、Azure AD でユーザー アカウントを自動的に作成できます。 必要に応じて、Microsoft 365 または Azure AD でサポートされているその他の SaaS アプリケーションでユーザー アカウントを作成できます。 SAP SuccessFactors へのメール アドレスの書き戻しを使用します。</t>
+          <t>SAP Identity Authentication Service (IAS) を必要とする SAP BTP サービスまたは SaaS ソリューションを使用している場合は、SAP Cloud Identity Authentication Services と Azure AD の間に SSO を実装して、それらの SAP サービスにアクセスすることを検討してください。この統合により、SAP IAS はプロキシ ID プロバイダーとして機能し、認証要求を中央ユーザー ストアおよび ID プロバイダーとして Azure AD に転送できます。</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3534,14 +3533,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3552,17 +3551,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>既存の管理グループ ポリシーを SAP サブスクリプションに適用する</t>
+          <t>SAP BTP への SSO の実装</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3579,19 +3578,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3602,23 +3596,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>緊密に結合されたアプリケーションを同じSAPサブスクリプションに統合し、ルーティングと管理の複雑さを回避</t>
+          <t>SAP SuccessFactors を使用している場合は、Azure AD の自動ユーザー プロビジョニングの使用を検討してください。この統合により、SAP SuccessFactors に新しい従業員を追加するときに、Azure AD でユーザー アカウントを自動的に作成できます。 必要に応じて、Microsoft 365 または Azure AD でサポートされているその他の SaaS アプリケーションでユーザー アカウントを作成できます。 SAP SuccessFactors へのメール アドレスの書き戻しを使用します。</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3629,19 +3623,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3662,13 +3651,13 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプションをスケール ユニットとして活用し、リソースをスケーリングし、環境ごとにサブスクリプションをデプロイすることを検討してください。サンドボックス、非製品、製品</t>
+          <t>既存の管理グループ ポリシーを SAP サブスクリプションに適用する</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3679,19 +3668,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3712,7 +3701,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプションのプロビジョニングの一環としてクォータを確実に増やす (例: サブスクリプション内で使用可能な VM コアの合計数)</t>
+          <t>緊密に結合されたアプリケーションを同じSAPサブスクリプションに統合し、ルーティングと管理の複雑さを回避</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3729,19 +3718,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3762,13 +3751,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>クォータ API は、Azure サービスのクォータを表示および管理するために使用できる REST API です。必要に応じて使用を検討してください。</t>
+          <t>サブスクリプションをスケール ユニットとして活用し、リソースをスケーリングし、環境ごとにサブスクリプションをデプロイすることを検討してください。サンドボックス、非製品、製品</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3779,15 +3768,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3808,7 +3801,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>可用性ゾーンにデプロイする場合は、クォータが承認されたら、VM のゾーン デプロイが使用可能であることを確認します。必要なサブスクリプション、VM シリーズ、CPU の数、可用性ゾーンを含むサポート リクエストを送信します。</t>
+          <t>サブスクリプションのプロビジョニングの一環としてクォータを確実に増やす (例: サブスクリプション内で使用可能な VM コアの合計数)</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3825,15 +3818,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3854,13 +3851,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>必要なサービスと機能が、選択した展開リージョン内で利用可能であることを確認します。ANF、ゾーンなど</t>
+          <t>クォータ API は、Azure サービスのクォータを表示および管理するために使用できる REST API です。必要に応じて使用を検討してください。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3871,19 +3868,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3904,13 +3896,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>コストの分類とリソースのグループ化 (BillTo、部門 (または部署)、環境 (運用、ステージ、開発)、層 (Web 層、アプリケーション層)、アプリケーション所有者、プロジェクト名) に Azure リソース タグを活用します</t>
+          <t>可用性ゾーンにデプロイする場合は、クォータが承認されたら、VM のゾーン デプロイが使用可能であることを確認します。必要なサブスクリプション、VM シリーズ、CPU の数、可用性ゾーンを含むサポート リクエストを送信します。</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3921,19 +3913,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3944,17 +3932,17 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>BCDR (英語)</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup サービスを使用して HANA データベースを保護するのに役立ちます。</t>
+          <t>必要なサービスと機能が、選択した展開リージョン内で利用可能であることを確認します。ANF、ゾーンなど</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3971,19 +3959,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3994,17 +3982,17 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>BCDR (英語)</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>HANA、Oracle、または DB2 データベースに Azure NetApp Files をデプロイする場合は、Azure アプリケーション整合性スナップショット ツール (AzAcSnap) を使用して、アプリケーション整合性スナップショットを作成します。AzAcSnap は Oracle データベースもサポートしています。個々の VM ではなく、中央の VM で AzAcSnap を使用することを検討してください。</t>
+          <t>コストの分類とリソースのグループ化 (BillTo、部門 (または部署)、環境 (運用、ステージ、開発)、層 (Web 層、アプリケーション層)、アプリケーション所有者、プロジェクト名) に Azure リソース タグを活用します</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4021,15 +4009,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4045,12 +4037,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>オペレーティングシステムと SAP システムの間でタイムゾーンが一致していることを確認します。</t>
+          <t>Azure Backup サービスを使用して HANA データベースを保護するのに役立ちます。</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4067,15 +4059,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4091,12 +4087,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>異なるアプリケーション サービスを同じクラスターにグループ化しないでください。たとえば、DRBDとセントラルサービスクラスタを同じクラスタに組み合わせないでください。ただし、同じ Pacemaker クラスターを使用して、約 5 つの異なるセントラル サービス (マルチ SID クラスター) を管理できます。</t>
+          <t>HANA、Oracle、または DB2 データベースに Azure NetApp Files をデプロイする場合は、Azure アプリケーション整合性スナップショット ツール (AzAcSnap) を使用して、アプリケーション整合性スナップショットを作成します。AzAcSnap は Oracle データベースもサポートしています。個々の VM ではなく、中央の VM で AzAcSnap を使用することを検討してください。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4113,19 +4109,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4146,13 +4138,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>スヌーズ モデルで開発/テスト システムを実行して、Azure の実行コストを節約および最適化することを検討してください。</t>
+          <t>オペレーティングシステムと SAP システムの間でタイムゾーンが一致していることを確認します。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4163,7 +4155,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4171,7 +4163,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4192,7 +4184,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>お客様の SAP 資産を管理することでお客様と提携する場合は、Azure Lighthouse をご検討ください。Azure Lighthouse を使用すると、マネージド サービス プロバイダーは Azure ネイティブ ID サービスを使用して、顧客の環境に対する認証を行うことができます。顧客はいつでもアクセスを取り消し、サービスプロバイダーの行動を監査できるため、制御を顧客の手に委ねることができます。</t>
+          <t>異なるアプリケーション サービスを同じクラスターにグループ化しないでください。たとえば、DRBDとセントラルサービスクラスタを同じクラスタに組み合わせないでください。ただし、同じ Pacemaker クラスターを使用して、約 5 つの異なるセントラル サービス (マルチ SID クラスター) を管理できます。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4209,15 +4201,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4238,13 +4234,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Azure Update Manager を使用して、1 つまたは複数の VM で利用可能な更新プログラムの状態を確認し、定期的な修正プログラムの適用をスケジュールすることを検討します。</t>
+          <t>スヌーズ モデルで開発/テスト システムを実行して、Azure の実行コストを節約および最適化することを検討してください。</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4255,19 +4251,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4288,13 +4280,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>SAP Landscape Management (LaMa) を使用して SAP Basis の運用を最適化および管理します。Azure 用の SAP LaMa コネクタを使用して、SAP システムの再配置、コピー、複製、更新を行います。</t>
+          <t>お客様の SAP 資産を管理することでお客様と提携する場合は、Azure Lighthouse をご検討ください。Azure Lighthouse を使用すると、マネージド サービス プロバイダーは Azure ネイティブ ID サービスを使用して、顧客の環境に対する認証を行うことができます。顧客はいつでもアクセスを取り消し、サービスプロバイダーの行動を監査できるため、制御を顧客の手に委ねることができます。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4305,19 +4297,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,12 +4321,12 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor for SAP solutions を使用して、Azure 上の SAP ワークロード (SAP HANA、高可用性 SUSE クラスター、SQL システム) を監視します。Azure Monitor for SAP solutions を SAP Solution Manager で補完することを検討してください。</t>
+          <t>Azure Update Manager を使用して、1 つまたは複数の VM で利用可能な更新プログラムの状態を確認し、定期的な修正プログラムの適用をスケジュールすることを検討します。</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4355,19 +4343,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4383,18 +4371,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>SAP の VM 拡張機能チェックを実行します。VM Extension for SAP では、仮想マシン (VM) の割り当てられたマネージド ID を使用して、VM の監視および構成データにアクセスします。このチェックにより、SAP アプリケーションのすべてのパフォーマンス メトリックが、基になる Azure Extension for SAP からのものであることが確認されます。</t>
+          <t>SAP Landscape Management (LaMa) を使用して SAP Basis の運用を最適化および管理します。Azure 用の SAP LaMa コネクタを使用して、SAP システムの再配置、コピー、複製、更新を行います。</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4405,19 +4393,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4438,7 +4426,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
+          <t>Azure Monitor for SAP solutions を使用して、Azure 上の SAP ワークロード (SAP HANA、高可用性 SUSE クラスター、SQL システム) を監視します。Azure Monitor for SAP solutions を SAP Solution Manager で補完することを検討してください。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4455,19 +4443,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4488,13 +4476,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Azure Network Watcher の接続モニターを使用して、SAP データベースとアプリケーション サーバーの待機時間メトリックを監視します。または、Azure Monitor を使用してネットワーク待機時間の測定値を収集して表示します。</t>
+          <t>SAP の VM 拡張機能チェックを実行します。VM Extension for SAP では、仮想マシン (VM) の割り当てられたマネージド ID を使用して、VM の監視および構成データにアクセスします。このチェックにより、SAP アプリケーションのすべてのパフォーマンス メトリックが、基になる Azure Extension for SAP からのものであることが確認されます。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4505,19 +4493,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4538,13 +4526,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery の監視を使用して、SAP アプリケーション サーバーのディザスター リカバリー サービスの正常性を維持します。</t>
+          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4555,19 +4543,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4588,7 +4576,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>プロビジョニングされた Azure インフラストラクチャで SAP HANA の品質チェックを実行して、プロビジョニングされた VM が SAP HANA on Azure のベスト プラクティスに準拠していることを確認します。</t>
+          <t>Azure Network Watcher の接続モニターを使用して、SAP データベースとアプリケーション サーバーの待機時間メトリックを監視します。または、Azure Monitor を使用してネットワーク待機時間の測定値を収集して表示します。</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4605,15 +4593,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4634,7 +4626,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Azure サブスクリプションごとに、ゾーン デプロイの前に Azure 可用性ゾーンで待機時間テストを実行して、SAP on Azure のデプロイ用に待機時間の短いゾーンを選択します。</t>
+          <t>Azure Site Recovery の監視を使用して、SAP アプリケーション サーバーのディザスター リカバリー サービスの正常性を維持します。</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4651,19 +4643,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4684,7 +4676,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>回復性レポートを実行して、プロビジョニングされた Azure インフラストラクチャ (コンピューティング、データベース、ネットワーク、ストレージ、Site Recovery) 全体の構成が、Cloud Adaption Framework for Azure によって定義された構成に準拠していることを確認します。</t>
+          <t>プロビジョニングされた Azure インフラストラクチャで SAP HANA の品質チェックを実行して、プロビジョニングされた VM が SAP HANA on Azure のベスト プラクティスに準拠していることを確認します。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4701,19 +4693,15 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4734,13 +4722,13 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>SAP 用 Microsoft Sentinel ソリューションを使用して脅威保護を実装します。このソリューションを使用して、SAPシステムを監視し、ビジネスロジック層とアプリケーション層全体で高度な脅威を検出します。</t>
+          <t>Azure サブスクリプションごとに、ゾーン デプロイの前に Azure 可用性ゾーンで待機時間テストを実行して、SAP on Azure のデプロイ用に待機時間の短いゾーンを選択します。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4751,19 +4739,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4784,7 +4772,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Azure のタグ付けを利用して、リソースを論理的にグループ化して追跡し、デプロイを自動化し、最も重要なこととして、発生したコストを可視化できます。</t>
+          <t>回復性レポートを実行して、プロビジョニングされた Azure インフラストラクチャ (コンピューティング、データベース、ネットワーク、ストレージ、Site Recovery) 全体の構成が、Cloud Adaption Framework for Azure によって定義された構成に準拠していることを確認します。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4801,19 +4789,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4829,18 +4817,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>待機時間の影響を受けやすいアプリケーションには、VM 間の待機時間の監視を使用します。</t>
+          <t>SAP 用 Microsoft Sentinel ソリューションを使用して脅威保護を実装します。このソリューションを使用して、SAPシステムを監視し、ビジネスロジック層とアプリケーション層全体で高度な脅威を検出します。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4851,15 +4839,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4875,12 +4867,12 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery の監視を使用して、SAP アプリケーション サーバーのディザスター リカバリー サービスの正常性を維持します。</t>
+          <t>Azure のタグ付けを利用して、リソースを論理的にグループ化して追跡し、デプロイを自動化し、最も重要なこととして、発生したコストを可視化できます。</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4897,19 +4889,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4930,13 +4922,13 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>すべてのデータベース・ファイル・システムおよび実行可能プログラムをウイルス対策スキャンから除外します。これらを含めると、パフォーマンスの問題が発生する可能性があります。除外リストの規範的な詳細については、データベースベンダーに確認してください。たとえば、&lt;sid&gt;ウイルス対策スキャンから/oracle//sapdataを除外することをお薦めします。</t>
+          <t>待機時間の影響を受けやすいアプリケーションには、VM 間の待機時間の監視を使用します。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4947,7 +4939,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -4955,7 +4947,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4976,13 +4968,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>移行後に、HANA以外のデータベースの完全なデータベース統計を収集することを検討してください。たとえば、SAP ノート 1020260 - Oracle 統計の配信を実装します。</t>
+          <t>Azure Site Recovery の監視を使用して、SAP アプリケーション サーバーのディザスター リカバリー サービスの正常性を維持します。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4993,15 +4985,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5022,7 +5018,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>SAP on Azure を使用するすべての Oracle デプロイには、Oracle Automatic Storage Management (ASM) の使用を検討してください。</t>
+          <t>すべてのデータベース・ファイル・システムおよび実行可能プログラムをウイルス対策スキャンから除外します。これらを含めると、パフォーマンスの問題が発生する可能性があります。除外リストの規範的な詳細については、データベースベンダーに確認してください。たとえば、&lt;sid&gt;ウイルス対策スキャンから/oracle//sapdataを除外することをお薦めします。</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5039,19 +5035,15 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5072,13 +5064,13 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Oracle を実行している SAP on Azure の場合、SQL スクリプトのコレクションは、パフォーマンスの問題の診断に役立ちます。 自動ワークロード・リポジトリ(AWR)レポートには、Oracleシステムの問題を診断するための貴重な情報が含まれています。AWRレポートは、複数のセッションで実行し、ピーク時間を選択して、分析を広範囲にカバーすることをお薦めします。</t>
+          <t>移行後に、HANA以外のデータベースの完全なデータベース統計を収集することを検討してください。たとえば、SAP ノート 1020260 - Oracle 統計の配信を実装します。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5089,19 +5081,15 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5112,17 +5100,17 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>HTTP/S アプリを安全に配信するには、Application Gateway v2 を使用し、WAF の保護とポリシーが有効になっていることを確認します。</t>
+          <t>SAP on Azure を使用するすべての Oracle デプロイには、Oracle Automatic Storage Management (ASM) の使用を検討してください。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5139,19 +5127,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5162,17 +5150,17 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>DNSの</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Azure への移行中に仮想マシンの DNS または仮想名が変更されない場合、バックグラウンド DNS と仮想名によって SAP ランドスケープ内の多くのシステム インターフェイスが接続され、お客様は、開発者が時間の経過と共に定義するインターフェイスに気付くことがあります。移行後に仮想名または DNS 名が変更されると、さまざまなシステム間で接続の問題が発生するため、このような問題を防ぐために DNS エイリアスを保持することをお勧めします。</t>
+          <t>Oracle を実行している SAP on Azure の場合、SQL スクリプトのコレクションは、パフォーマンスの問題の診断に役立ちます。 自動ワークロード・リポジトリ(AWR)レポートには、Oracleシステムの問題を診断するための貴重な情報が含まれています。AWRレポートは、複数のセッションで実行し、ピーク時間を選択して、分析を広範囲にカバーすることをお薦めします。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5189,19 +5177,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5217,12 +5205,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>DNSの</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>異なる DNS ゾーンを使用して、各環境 (サンドボックス、開発、運用前、運用) を互いに区別します。例外は、独自の VNet を使用する SAP デプロイの場合です。ここでは、プライベート DNS ゾーンは必要ない場合があります。</t>
+          <t>HTTP/S アプリを安全に配信するには、Application Gateway v2 を使用し、WAF の保護とポリシーが有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5239,19 +5227,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5267,12 +5255,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>DNSの</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>ローカルとグローバルの VNet ピアリングは接続を提供し、複数の Azure リージョンにまたがる SAP デプロイのランディング ゾーン間の接続を確保するための推奨されるアプローチです</t>
+          <t>Azure への移行中に仮想マシンの DNS または仮想名が変更されない場合、バックグラウンド DNS と仮想名によって SAP ランドスケープ内の多くのシステム インターフェイスが接続され、お客様は、開発者が時間の経過と共に定義するインターフェイスに気付くことがあります。移行後に仮想名または DNS 名が変更されると、さまざまなシステム間で接続の問題が発生するため、このような問題を防ぐために DNS エイリアスを保持することをお勧めします。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5289,19 +5277,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5317,18 +5305,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>DNSの</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーションと SAP データベース サーバー間の NVA のデプロイはサポートされていません</t>
+          <t>異なる DNS ゾーンを使用して、各環境 (サンドボックス、開発、運用前、運用) を互いに区別します。例外は、独自の VNet を使用する SAP デプロイの場合です。ここでは、プライベート DNS ゾーンは必要ない場合があります。</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5339,19 +5327,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5372,7 +5360,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
+          <t>ローカルとグローバルの VNet ピアリングは接続を提供し、複数の Azure リージョンにまたがる SAP デプロイのランディング ゾーン間の接続を確保するための推奨されるアプローチです</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5389,19 +5377,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5422,13 +5410,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>パートナーの NVA が使用されている場合にのみ、リージョン間でネットワーク仮想アプライアンス (NVA) をデプロイすることを検討してください。ネイティブ NVA が存在する場合、リージョン間または VNet 間の NVA は必要ありません。パートナーのネットワーク テクノロジと NVA をデプロイする場合は、ベンダーのガイダンスに従って、Azure ネットワークと競合する構成を確認します。</t>
+          <t>SAP アプリケーションと SAP データベース サーバー間の NVA のデプロイはサポートされていません</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5439,19 +5427,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5472,7 +5460,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN は、仮想 WAN ベースのトポロジのスポーク VNet 間の接続を管理し (ユーザー定義ルーティング (UDR) または NVA を設定する必要はありません)、同じ仮想ハブ内の VNet 間トラフィックの最大ネットワーク スループットは 50 ギガビット/秒です。必要に応じて、SAP ランディング ゾーンは VNet ピアリングを使用して他のランディング ゾーンに接続し、この帯域幅の制限を克服できます。</t>
+          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5489,19 +5477,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5517,18 +5505,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>SAP ワークロードを実行している VM へのパブリック I.P 割り当てはお勧めしません。</t>
+          <t>パートナーの NVA が使用されている場合にのみ、リージョン間でネットワーク仮想アプライアンス (NVA) をデプロイすることを検討してください。ネイティブ NVA が存在する場合、リージョン間または VNet 間の NVA は必要ありません。パートナーのネットワーク テクノロジと NVA をデプロイする場合は、ベンダーのガイダンスに従って、Azure ネットワークと競合する構成を確認します。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5539,19 +5527,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5567,18 +5555,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>ASR の設定時に DR 側で I.P アドレスを予約することを検討してください</t>
+          <t>Virtual WAN は、仮想 WAN ベースのトポロジのスポーク VNet 間の接続を管理し (ユーザー定義ルーティング (UDR) または NVA を設定する必要はありません)、同じ仮想ハブ内の VNet 間トラフィックの最大ネットワーク スループットは 50 ギガビット/秒です。必要に応じて、SAP ランディング ゾーンは VNet ピアリングを使用して他のランディング ゾーンに接続し、この帯域幅の制限を克服できます。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5589,19 +5577,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5622,7 +5610,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>SAP ワークロードを実行している VM へのパブリック I.P 割り当てはお勧めしません。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5651,7 +5639,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5672,13 +5660,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Azure では 1 つの VNet に複数の委任されたサブネットを作成できますが、Azure NetApp Files の VNet に存在できる委任されたサブネットは 1 つだけです。Azure NetApp Files に複数の委任されたサブネットを使用すると、新しいボリュームを作成しようとしても失敗します。</t>
+          <t>ASR の設定時に DR 側で I.P アドレスを予約することを検討してください</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5689,19 +5677,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5717,18 +5705,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5739,19 +5727,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5767,12 +5755,12 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway、SAP Web Dispatcher、およびその他のサードパーティ サービスの比較に示すように、Application Gateway が SAP Web アプリのリバース プロキシとして機能する場合、Application Gateway と Web Application Firewall には制限があります。</t>
+          <t>Azure では 1 つの VNet に複数の委任されたサブネットを作成できますが、Azure NetApp Files の VNet に存在できる委任されたサブネットは 1 つだけです。Azure NetApp Files に複数の委任されたサブネットを使用すると、新しいボリュームを作成しようとしても失敗します。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5789,19 +5777,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5822,7 +5810,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5839,19 +5827,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5872,7 +5860,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と Application Gateway を使用して HTTP/S アプリケーションを保護する場合は、Azure Front Door の Web アプリケーション ファイアウォール ポリシーを利用します。Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
+          <t>Application Gateway、SAP Web Dispatcher、およびその他のサードパーティ サービスの比較に示すように、Application Gateway が SAP Web アプリのリバース プロキシとして機能する場合、Application Gateway と Web Application Firewall には制限があります。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5889,19 +5877,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5922,7 +5910,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Web アプリケーション ファイアウォールを使用して、インターネットに公開されているトラフィックをスキャンします。別のオプションとして、ロード バランサーや、Application Gateway やサードパーティ ソリューションなどのファイアウォール機能が組み込まれているリソースと共に使用することもできます。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5944,14 +5932,14 @@
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5972,7 +5960,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
+          <t>Azure Front Door と Application Gateway を使用して HTTP/S アプリケーションを保護する場合は、Azure Front Door の Web アプリケーション ファイアウォール ポリシーを利用します。Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5989,19 +5977,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6022,7 +6010,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>データ漏えいを防ぐには、Azure Private Link を使用して、Azure Blob Storage、Azure Files、Azure Data Lake Storage Gen2、Azure Data Factory などのサービスとしてのプラットフォーム リソースに安全にアクセスします。Azure プライベート エンドポイントは、VNet と Azure Storage、Azure Backup などのサービス間のトラフィックをセキュリティで保護するのにも役立ちます。VNet とプライベート エンドポイント対応サービス間のトラフィックは、Microsoft グローバル ネットワークを経由するため、パブリック インターネットへの公開は防止されます。</t>
+          <t>Web アプリケーション ファイアウォールを使用して、インターネットに公開されているトラフィックをスキャンします。別のオプションとして、ロード バランサーや、Application Gateway やサードパーティ ソリューションなどのファイアウォール機能が組み込まれているリソースと共に使用することもできます。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6039,19 +6027,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6067,18 +6055,18 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーションと DBMS レイヤーで使用される VM で Azure 高速ネットワークが有効になっていることを確認します。</t>
+          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6089,19 +6077,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6117,12 +6105,12 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer の内部デプロイが Direct Server Return (DSR) を使用するように設定されていることを確認します。この設定により、DBMS レイヤーの高可用性構成に内部ロード バランサー構成が使用されている場合の待機時間が短縮されます。</t>
+          <t>データ漏えいを防ぐには、Azure Private Link を使用して、Azure Blob Storage、Azure Files、Azure Data Lake Storage Gen2、Azure Data Factory などのサービスとしてのプラットフォーム リソースに安全にアクセスします。Azure プライベート エンドポイントは、VNet と Azure Storage、Azure Backup などのサービス間のトラフィックをセキュリティで保護するのにも役立ちます。VNet とプライベート エンドポイント対応サービス間のトラフィックは、Microsoft グローバル ネットワークを経由するため、パブリック インターネットへの公開は防止されます。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6139,19 +6127,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6172,13 +6160,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション セキュリティ グループ (ASG) と NSG 規則を使用して、SAP アプリケーション層と DBMS 層の間にネットワーク セキュリティのアクセス制御リストを定義できます。ASG は、仮想マシンをグループ化してセキュリティの管理に役立てます。</t>
+          <t>SAP アプリケーションと DBMS レイヤーで使用される VM で Azure 高速ネットワークが有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6189,19 +6177,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6222,13 +6210,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>ピアリングされていない異なる Azure VNet への SAP アプリケーション レイヤーと SAP DBMS の配置はサポートされていません。</t>
+          <t>Azure Load Balancer の内部デプロイが Direct Server Return (DSR) を使用するように設定されていることを確認します。この設定により、DBMS レイヤーの高可用性構成に内部ロード バランサー構成が使用されている場合の待機時間が短縮されます。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6239,19 +6227,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6272,7 +6260,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーションで最適なネットワーク待機時間を実現するには、Azure 近接通信配置グループの使用を検討してください。</t>
+          <t>アプリケーション セキュリティ グループ (ASG) と NSG 規則を使用して、SAP アプリケーション層と DBMS 層の間にネットワーク セキュリティのアクセス制御リストを定義できます。ASG は、仮想マシンをグループ化してセキュリティの管理に役立てます。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6289,19 +6277,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6322,7 +6310,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスと Azure の間で分割された SAP アプリケーション サーバー レイヤーと DBMS レイヤーを実行することは、まったくサポートされていません。どちらのレイヤーも、オンプレミスまたは Azure に完全に存在する必要があります。</t>
+          <t>ピアリングされていない異なる Azure VNet への SAP アプリケーション レイヤーと SAP DBMS の配置はサポートされていません。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6351,7 +6339,7 @@
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6372,13 +6360,13 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>SAP システムのデータベース管理システム (DBMS) レイヤーとアプリケーション レイヤーを異なる VNet でホストし、それらを VNet ピアリングに接続することは、レイヤー間の過剰なネットワーク トラフィックによって生成される可能性があるため、お勧めしません。Azure 仮想ネットワーク内のサブネットを使用して、SAP アプリケーション レイヤーと DBMS レイヤーを分離することをお勧めします。</t>
+          <t>SAP アプリケーションで最適なネットワーク待機時間を実現するには、Azure 近接通信配置グループの使用を検討してください。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6389,19 +6377,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6422,7 +6410,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Linux ゲスト・オペレーティング・システムで Load Balancer を使用する場合は、Linux ネットワーク・パラメーター net.ipv4.tcp_timestamps が 0 に設定されていることを確認します。</t>
+          <t>オンプレミスと Azure の間で分割された SAP アプリケーション サーバー レイヤーと DBMS レイヤーを実行することは、まったくサポートされていません。どちらのレイヤーも、オンプレミスまたは Azure に完全に存在する必要があります。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6439,19 +6427,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6472,13 +6460,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>SAP RISE/ECS デプロイの場合、仮想ピアリングは、お客様の既存の Azure 環境との接続を確立するための推奨される方法です。SAP vnet と顧客 VNet の両方がネットワーク セキュリティ グループ (NSG) で保護され、vnet ピアリングを介した SAP ポートとデータベース ポートでの通信が可能になります</t>
+          <t>SAP システムのデータベース管理システム (DBMS) レイヤーとアプリケーション レイヤーを異なる VNet でホストし、それらを VNet ピアリングに接続することは、レイヤー間の過剰なネットワーク トラフィックによって生成される可能性があるため、お勧めしません。Azure 仮想ネットワーク内のサブネットを使用して、SAP アプリケーション レイヤーと DBMS レイヤーを分離することをお勧めします。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6489,14 +6477,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6507,23 +6500,23 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Azure、オンプレミス、またはその他のクラウド環境で Windows VM と Linux VM を実行している場合は、Azure Automation の更新管理センターを使用して、セキュリティ パッチを含むオペレーティング システムの更新プログラムを管理できます。</t>
+          <t>Linux ゲスト・オペレーティング・システムで Load Balancer を使用する場合は、Linux ネットワーク・パラメーター net.ipv4.tcp_timestamps が 0 に設定されていることを確認します。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6534,19 +6527,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6557,17 +6550,17 @@
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>SAP は、SAP システムを保護するために即時のアクションを必要とする非常に重要なセキュリティ パッチまたはホット フィックスをリリースしているため、SAP セキュリティ OSS ノートを定期的に確認してください。</t>
+          <t>SAP RISE/ECS デプロイの場合、仮想ピアリングは、お客様の既存の Azure 環境との接続を確立するための推奨される方法です。SAP vnet と顧客 VNet の両方がネットワーク セキュリティ グループ (NSG) で保護され、vnet ピアリングを介した SAP ポートとデータベース ポートでの通信が可能になります</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6584,19 +6577,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6607,23 +6596,23 @@
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーショナル・エクセレンス</t>
         </is>
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>SQL Server 上の SAP システムではアカウントを使用しないため、SQL Server 上の SAP システム管理者アカウントを無効にすることができます。元のシステム管理者アカウントを無効にする前に、システム管理者権限を持つ別のユーザーがサーバーにアクセスできることを確認してください。</t>
+          <t>Azure VM の SAP HANA データベースのバックアップを確認します。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6634,7 +6623,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6642,7 +6631,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>ff5136bd-dcf1-4d2b-ae52-39333efdf45a</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6653,23 +6642,23 @@
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーショナル・エクセレンス</t>
         </is>
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>xp_cmdshellを無効にします。SQL Server 機能xp_cmdshell、SQL Server 内部オペレーティング システムのコマンド シェルを有効にします。これは、セキュリティ監査における潜在的なリスクです。</t>
+          <t>Site Recovery の組み込み監視 (SAP で使用されている場合) を確認します。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6680,19 +6669,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>cafde29d-a0af-4bcd-87c0-0f299d63f0e8</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6703,17 +6688,17 @@
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーショナル・エクセレンス</t>
         </is>
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Azure 上の SAP HANA データベース サーバーの暗号化では、SAP HANA ネイティブ暗号化テクノロジが使用されます。さらに、Azure で SQL Server を使用している場合は、Transparent Data Encryption (TDE) を使用してデータとログ ファイルを保護し、バックアップも暗号化されるようにします。</t>
+          <t>SAP HANA システム ランドスケープの監視に関するガイダンスを確認します。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6730,19 +6715,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
+          <t>https://help.sap.com/docs/SAP_HANA_PLATFORM/c4d7c773af4a4e5dbebb6548d6e2d4f4/e3111d2ebb5710149510cc120646bf3f.html?locale=en-US</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>82d7b8de-d3f1-44a0-830b-38e200e82acf</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6753,17 +6734,17 @@
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーショナル・エクセレンス</t>
         </is>
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage の暗号化は、すべての Azure Resource Manager とクラシック ストレージ アカウントに対して有効になっており、無効にすることはできません。データは既定で暗号化されるため、Azure Storage 暗号化を使用するためにコードやアプリケーションを変更する必要はありません。</t>
+          <t>Azure Linux VM のバックアップ戦略で Oracle Database を確認します。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6780,19 +6761,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/oracle-database-backup-strategies</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>c823873a-2bec-4c2a-b684-a1ce8ae80efd</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6803,23 +6780,23 @@
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーショナル・エクセレンス</t>
         </is>
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>SQL Server 2016 での Azure Blob Storage の使用を確認します。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6830,19 +6807,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/sql/relational-databases/tutorial-use-azure-blob-storage-service-with-sql-server-2016?view=sql-server-ver16</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>2943b6d8-1d31-4e19-ade7-78e6b26d1962</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6853,17 +6825,17 @@
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーショナル・エクセレンス</t>
         </is>
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>デプロイが成功したら、Azure リソースを LOCK して、承認されていない変更から保護することをお勧めします。また、カスタマイズされた Azure ポリシー (Custome ロール) を使用して、サブスクリプションごとに LOCK の制約とルールを適用することもできます。</t>
+          <t>Azure VM の自動バックアップ v2 の使用を確認します。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6880,19 +6852,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-sql/virtual-machines/windows/automated-backup?view=azuresql</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>b82e650f-676d-417d-994d-fc33ca54ec14</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6903,23 +6870,23 @@
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーショナル・エクセレンス</t>
         </is>
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+          <t>Premium ディスク使用時の M シリーズの書き込みアクセラレータの有効化 (V1)</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6928,21 +6895,12 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H128" s="15" t="n"/>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>347c2dcc-e6eb-4b04-80c5-628b171aa62d</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6953,23 +6911,23 @@
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>既存の要件、規制、コンプライアンス制御 (内部/外部) に基づいて、必要な Azure ポリシーと Azure RBAC ロールを決定します</t>
+          <t>可用性ゾーンの待機時間をテストします。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6980,19 +6938,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>b96512cf-996f-4b17-b9b8-6b16db1a2a94</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7003,23 +6956,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>SAP 環境でMicrosoft Defender for Endpointを有効にする場合は、すべてのサーバーを対象とするのではなく、DBMS サーバー上のデータとログ ファイルを除外することをお勧めします。ターゲット ファイルを除外する場合は、DBMS ベンダーの推奨事項に従ってください。</t>
+          <t>すべての SAP コンポーネントに対して SAP EarlyWatch Alert を有効化します。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7030,19 +6983,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://support.sap.com/en/offerings-programs/support-services/earlywatch-alert.html</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/techops/3362700736.html</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>9fd7ffd4-da11-49f6-a374-8d03e94c511d</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7053,23 +7006,23 @@
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud の Just-In-Time アクセス権を持つ SAP 管理者カスタム ロールを委任します。</t>
+          <t>SAP ABAPMeter report /SSA/CAT を使用して、SAP アプリケーション サーバーからデータベース サーバー間の待機時間を確認します。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7080,19 +7033,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/sap-on-azure-general-update-march-2019/ba-p/377456</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://me.sap.com/notes/0002879613</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b9b140cf-413a-483d-aad2-8802c4e3c017</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7103,23 +7056,23 @@
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>サードパーティのセキュリティ製品を DIAG (SAP GUI)、RFC、および SPNEGO for HTTPS のセキュアネットワーク通信 (SNC) と統合することにより、転送中のデータを暗号化します。</t>
+          <t>CCMS を使用した SQL Server のパフォーマンス監視を確認します。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7128,21 +7081,12 @@
         </is>
       </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
-        </is>
-      </c>
+      <c r="H132" s="15" t="n"/>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>62fbf0f8-51db-49e1-a961-bb5df7a35f80</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7153,17 +7097,17 @@
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>SAP アプリケーション レイヤー VM と DBMS VM 間のネットワーク待機時間をテストします (NIPING)。</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7180,19 +7124,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+          <t>https://me.sap.com/notes/500235</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1100926/E</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>35709da7-fc7d-4efe-bb20-2e91547b7390</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7203,23 +7147,23 @@
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
+          <t>SAP HANA Studio アラートを確認します。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7230,19 +7174,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/en-us/azure/sap/large-instances/hana-monitor-troubleshoot</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>9e9bb4c8-e934-4e4b-a13c-6f7c7c38eb43</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7253,23 +7192,23 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>HANA 以外の Windows オペレーティング システムと Windows 以外のオペレーティング システムのディスク暗号化キーとシークレットを制御および管理するには、Azure Key Vault を使用します。SAP HANA は Azure Key Vault ではサポートされていないため、SAP ABAP キーや SSH キーなどの代替方法を使用する必要があります。</t>
+          <t>HANA_Configuration_Minichecks を使用して SAP HANA ヘルスチェックを実行します。</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7280,19 +7219,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1969700</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>f1a92ab5-9509-4b57-86ff-b0ade361b694</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7308,12 +7242,12 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Azure、オンプレミス、またはその他のクラウド環境で Windows VM と Linux VM を実行している場合は、Azure Automation の更新管理センターを使用して、セキュリティ パッチを含むオペレーティング システムの更新プログラムを管理できます。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7330,14 +7264,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7353,18 +7292,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します</t>
+          <t>SAP は、SAP システムを保護するために即時のアクションを必要とする非常に重要なセキュリティ パッチまたはホット フィックスをリリースしているため、SAP セキュリティ OSS ノートを定期的に確認してください。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7375,19 +7314,19 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7403,18 +7342,18 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
+          <t>SQL Server 上の SAP システムではアカウントを使用しないため、SQL Server 上の SAP システム管理者アカウントを無効にすることができます。元のシステム管理者アカウントを無効にする前に、システム管理者権限を持つ別のユーザーがサーバーにアクセスできることを確認してください。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7425,19 +7364,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7453,18 +7387,18 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Azure で Microsoft マルウェア対策ソフトウェアを使用して、悪意のあるファイル、アドウェア、その他の脅威から仮想マシンを保護することを検討してください。</t>
+          <t>xp_cmdshellを無効にします。SQL Server 機能xp_cmdshell、SQL Server 内部オペレーティング システムのコマンド シェルを有効にします。これは、セキュリティ監査における潜在的なリスクです。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7475,19 +7409,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7503,18 +7437,18 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>さらに強力な保護を行うには、Microsoft Defender for Endpointの使用を検討してください。</t>
+          <t>Azure 上の SAP HANA データベース サーバーの暗号化では、SAP HANA ネイティブ暗号化テクノロジが使用されます。さらに、Azure で SQL Server を使用している場合は、Transparent Data Encryption (TDE) を使用してデータとログ ファイルを保護し、バックアップも暗号化されるようにします。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7525,19 +7459,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7553,18 +7487,18 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワーク ピアリングによってスポーク ネットワークに接続されているハブ仮想ネットワークを介してすべてのトラフィックを渡すことで、SAP アプリケーションとデータベース サーバーをインターネットまたはオンプレミス ネットワークから分離します。ピアリングされた仮想ネットワークにより、SAP on Azure ソリューションがパブリック インターネットから分離されることが保証されます。</t>
+          <t>Azure Storage の暗号化は、すべての Azure Resource Manager とクラシック ストレージ アカウントに対して有効になっており、無効にすることはできません。データは既定で暗号化されるため、Azure Storage 暗号化を使用するためにコードやアプリケーションを変更する必要はありません。</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7575,19 +7509,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7603,18 +7537,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>SAP Fiori などのインターネットに接続するアプリケーションの場合は、セキュリティレベルを維持しながら、アプリケーション要件ごとに負荷を分散してください。レイヤー 7 セキュリティについては、Azure Marketplace で入手できるサードパーティの Web アプリケーション ファイアウォール (WAF) を使用できます。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7625,19 +7559,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7653,12 +7587,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor for SAP solutions でセキュリティで保護された通信を有効にするには、ルート証明書またはサーバー証明書のいずれかを使用することを選択できます。ルート証明書を使用することを強くお勧めします。</t>
+          <t>デプロイが成功したら、Azure リソースを LOCK して、承認されていない変更から保護することをお勧めします。また、カスタマイズされた Azure ポリシー (Custome ロール) を使用して、サブスクリプションごとに LOCK の制約とルールを適用することもできます。</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7675,19 +7609,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7696,256 +7630,795 @@
       <c r="P143" s="25" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="21" t="n"/>
-      <c r="B144" s="21" t="n"/>
-      <c r="C144" s="21" t="n"/>
+      <c r="A144" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B144" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C144" s="21" t="inlineStr">
+        <is>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+        </is>
+      </c>
       <c r="D144" s="21" t="n"/>
-      <c r="E144" s="21" t="n"/>
+      <c r="E144" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G144" s="21" t="n"/>
-      <c r="H144" s="15" t="n"/>
+      <c r="H144" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
-      <c r="L144" s="25" t="n"/>
+      <c r="L144" s="25" t="inlineStr">
+        <is>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+        </is>
+      </c>
       <c r="M144" s="25" t="n"/>
       <c r="N144" s="25" t="n"/>
       <c r="O144" s="25" t="n"/>
       <c r="P144" s="25" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1">
-      <c r="A145" s="21" t="n"/>
-      <c r="B145" s="21" t="n"/>
-      <c r="C145" s="21" t="n"/>
+      <c r="A145" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B145" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C145" s="21" t="inlineStr">
+        <is>
+          <t>既存の要件、規制、コンプライアンス制御 (内部/外部) に基づいて、必要な Azure ポリシーと Azure RBAC ロールを決定します</t>
+        </is>
+      </c>
       <c r="D145" s="21" t="n"/>
-      <c r="E145" s="21" t="n"/>
+      <c r="E145" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G145" s="21" t="n"/>
-      <c r="H145" s="15" t="n"/>
+      <c r="H145" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
-      <c r="L145" s="25" t="n"/>
+      <c r="L145" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M145" s="25" t="n"/>
       <c r="N145" s="25" t="n"/>
       <c r="O145" s="25" t="n"/>
       <c r="P145" s="25" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1">
-      <c r="A146" s="21" t="n"/>
-      <c r="B146" s="21" t="n"/>
-      <c r="C146" s="21" t="n"/>
+      <c r="A146" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B146" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C146" s="21" t="inlineStr">
+        <is>
+          <t>SAP 環境でMicrosoft Defender for Endpointを有効にする場合は、すべてのサーバーを対象とするのではなく、DBMS サーバー上のデータとログ ファイルを除外することをお勧めします。ターゲット ファイルを除外する場合は、DBMS ベンダーの推奨事項に従ってください。</t>
+        </is>
+      </c>
       <c r="D146" s="21" t="n"/>
-      <c r="E146" s="21" t="n"/>
+      <c r="E146" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G146" s="21" t="n"/>
-      <c r="H146" s="15" t="n"/>
+      <c r="H146" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
-      <c r="L146" s="25" t="n"/>
+      <c r="L146" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M146" s="25" t="n"/>
       <c r="N146" s="25" t="n"/>
       <c r="O146" s="25" t="n"/>
       <c r="P146" s="25" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
-      <c r="A147" s="21" t="n"/>
-      <c r="B147" s="21" t="n"/>
-      <c r="C147" s="21" t="n"/>
+      <c r="A147" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B147" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C147" s="21" t="inlineStr">
+        <is>
+          <t>Microsoft Defender for Cloud の Just-In-Time アクセス権を持つ SAP 管理者カスタム ロールを委任します。</t>
+        </is>
+      </c>
       <c r="D147" s="21" t="n"/>
-      <c r="E147" s="21" t="n"/>
+      <c r="E147" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G147" s="21" t="n"/>
-      <c r="H147" s="15" t="n"/>
+      <c r="H147" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
-      <c r="L147" s="25" t="n"/>
+      <c r="L147" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M147" s="25" t="n"/>
       <c r="N147" s="25" t="n"/>
       <c r="O147" s="25" t="n"/>
       <c r="P147" s="25" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
-      <c r="A148" s="21" t="n"/>
-      <c r="B148" s="21" t="n"/>
-      <c r="C148" s="21" t="n"/>
+      <c r="A148" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B148" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C148" s="21" t="inlineStr">
+        <is>
+          <t>サードパーティのセキュリティ製品を DIAG (SAP GUI)、RFC、および SPNEGO for HTTPS のセキュアネットワーク通信 (SNC) と統合することにより、転送中のデータを暗号化します。</t>
+        </is>
+      </c>
       <c r="D148" s="21" t="n"/>
-      <c r="E148" s="21" t="n"/>
+      <c r="E148" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G148" s="21" t="n"/>
-      <c r="H148" s="15" t="n"/>
+      <c r="H148" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
-      <c r="L148" s="25" t="n"/>
+      <c r="L148" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M148" s="25" t="n"/>
       <c r="N148" s="25" t="n"/>
       <c r="O148" s="25" t="n"/>
       <c r="P148" s="25" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="21" t="n"/>
-      <c r="B149" s="21" t="n"/>
-      <c r="C149" s="21" t="n"/>
+      <c r="A149" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B149" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C149" s="21" t="inlineStr">
+        <is>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+        </is>
+      </c>
       <c r="D149" s="21" t="n"/>
-      <c r="E149" s="21" t="n"/>
+      <c r="E149" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G149" s="21" t="n"/>
-      <c r="H149" s="15" t="n"/>
+      <c r="H149" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
-      <c r="L149" s="25" t="n"/>
+      <c r="L149" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M149" s="25" t="n"/>
       <c r="N149" s="25" t="n"/>
       <c r="O149" s="25" t="n"/>
       <c r="P149" s="25" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="21" t="n"/>
-      <c r="B150" s="21" t="n"/>
-      <c r="C150" s="21" t="n"/>
+      <c r="A150" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B150" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C150" s="21" t="inlineStr">
+        <is>
+          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
+        </is>
+      </c>
       <c r="D150" s="21" t="n"/>
-      <c r="E150" s="21" t="n"/>
+      <c r="E150" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G150" s="21" t="n"/>
-      <c r="H150" s="15" t="n"/>
+      <c r="H150" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
-      <c r="L150" s="25" t="n"/>
+      <c r="L150" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M150" s="25" t="n"/>
       <c r="N150" s="25" t="n"/>
       <c r="O150" s="25" t="n"/>
       <c r="P150" s="25" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1">
-      <c r="A151" s="21" t="n"/>
-      <c r="B151" s="21" t="n"/>
-      <c r="C151" s="21" t="n"/>
+      <c r="A151" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B151" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C151" s="21" t="inlineStr">
+        <is>
+          <t>HANA 以外の Windows オペレーティング システムと Windows 以外のオペレーティング システムのディスク暗号化キーとシークレットを制御および管理するには、Azure Key Vault を使用します。SAP HANA は Azure Key Vault ではサポートされていないため、SAP ABAP キーや SSH キーなどの代替方法を使用する必要があります。</t>
+        </is>
+      </c>
       <c r="D151" s="21" t="n"/>
-      <c r="E151" s="21" t="n"/>
+      <c r="E151" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G151" s="21" t="n"/>
-      <c r="H151" s="15" t="n"/>
+      <c r="H151" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
-      <c r="L151" s="25" t="n"/>
+      <c r="L151" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M151" s="25" t="n"/>
       <c r="N151" s="25" t="n"/>
       <c r="O151" s="25" t="n"/>
       <c r="P151" s="25" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1">
-      <c r="A152" s="21" t="n"/>
-      <c r="B152" s="21" t="n"/>
-      <c r="C152" s="21" t="n"/>
+      <c r="A152" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B152" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C152" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D152" s="21" t="n"/>
-      <c r="E152" s="21" t="n"/>
+      <c r="E152" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
-      <c r="L152" s="25" t="n"/>
+      <c r="L152" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M152" s="25" t="n"/>
       <c r="N152" s="25" t="n"/>
       <c r="O152" s="25" t="n"/>
       <c r="P152" s="25" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1">
-      <c r="A153" s="21" t="n"/>
-      <c r="B153" s="21" t="n"/>
-      <c r="C153" s="21" t="n"/>
+      <c r="A153" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B153" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C153" s="21" t="inlineStr">
+        <is>
+          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します</t>
+        </is>
+      </c>
       <c r="D153" s="21" t="n"/>
-      <c r="E153" s="21" t="n"/>
+      <c r="E153" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
-      <c r="L153" s="25" t="n"/>
+      <c r="L153" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M153" s="25" t="n"/>
       <c r="N153" s="25" t="n"/>
       <c r="O153" s="25" t="n"/>
       <c r="P153" s="25" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1">
-      <c r="A154" s="21" t="n"/>
-      <c r="B154" s="21" t="n"/>
-      <c r="C154" s="21" t="n"/>
+      <c r="A154" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B154" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C154" s="21" t="inlineStr">
+        <is>
+          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
+        </is>
+      </c>
       <c r="D154" s="21" t="n"/>
-      <c r="E154" s="21" t="n"/>
+      <c r="E154" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="n"/>
+      <c r="H154" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
-      <c r="L154" s="25" t="n"/>
+      <c r="L154" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M154" s="25" t="n"/>
       <c r="N154" s="25" t="n"/>
       <c r="O154" s="25" t="n"/>
       <c r="P154" s="25" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1">
-      <c r="A155" s="21" t="n"/>
-      <c r="B155" s="21" t="n"/>
-      <c r="C155" s="21" t="n"/>
+      <c r="A155" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B155" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C155" s="21" t="inlineStr">
+        <is>
+          <t>Azure で Microsoft マルウェア対策ソフトウェアを使用して、悪意のあるファイル、アドウェア、その他の脅威から仮想マシンを保護することを検討してください。</t>
+        </is>
+      </c>
       <c r="D155" s="21" t="n"/>
-      <c r="E155" s="21" t="n"/>
+      <c r="E155" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="15" t="n"/>
+      <c r="H155" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
-      <c r="L155" s="25" t="n"/>
+      <c r="L155" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M155" s="25" t="n"/>
       <c r="N155" s="25" t="n"/>
       <c r="O155" s="25" t="n"/>
       <c r="P155" s="25" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1">
-      <c r="A156" s="21" t="n"/>
-      <c r="B156" s="21" t="n"/>
-      <c r="C156" s="21" t="n"/>
+      <c r="A156" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B156" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C156" s="21" t="inlineStr">
+        <is>
+          <t>さらに強力な保護を行うには、Microsoft Defender for Endpointの使用を検討してください。</t>
+        </is>
+      </c>
       <c r="D156" s="21" t="n"/>
-      <c r="E156" s="21" t="n"/>
+      <c r="E156" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
-      <c r="L156" s="25" t="n"/>
+      <c r="L156" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M156" s="25" t="n"/>
       <c r="N156" s="25" t="n"/>
       <c r="O156" s="25" t="n"/>
       <c r="P156" s="25" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1">
-      <c r="A157" s="21" t="n"/>
-      <c r="B157" s="21" t="n"/>
-      <c r="C157" s="21" t="n"/>
+      <c r="A157" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B157" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C157" s="21" t="inlineStr">
+        <is>
+          <t>仮想ネットワーク ピアリングによってスポーク ネットワークに接続されているハブ仮想ネットワークを介してすべてのトラフィックを渡すことで、SAP アプリケーションとデータベース サーバーをインターネットまたはオンプレミス ネットワークから分離します。ピアリングされた仮想ネットワークにより、SAP on Azure ソリューションがパブリック インターネットから分離されることが保証されます。</t>
+        </is>
+      </c>
       <c r="D157" s="21" t="n"/>
-      <c r="E157" s="21" t="n"/>
+      <c r="E157" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G157" s="21" t="n"/>
-      <c r="H157" s="15" t="n"/>
+      <c r="H157" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
-      <c r="L157" s="25" t="n"/>
+      <c r="L157" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M157" s="25" t="n"/>
       <c r="N157" s="25" t="n"/>
       <c r="O157" s="25" t="n"/>
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="n"/>
-      <c r="B158" s="21" t="n"/>
-      <c r="C158" s="21" t="n"/>
+      <c r="A158" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B158" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C158" s="21" t="inlineStr">
+        <is>
+          <t>SAP Fiori などのインターネットに接続するアプリケーションの場合は、セキュリティレベルを維持しながら、アプリケーション要件ごとに負荷を分散してください。レイヤー 7 セキュリティについては、Azure Marketplace で入手できるサードパーティの Web アプリケーション ファイアウォール (WAF) を使用できます。</t>
+        </is>
+      </c>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="n"/>
+      <c r="E158" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="n"/>
+      <c r="H158" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="n"/>
+      <c r="L158" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
       <c r="P158" s="25" t="n"/>
     </row>
     <row r="159" ht="16.5" customHeight="1">
-      <c r="A159" s="21" t="n"/>
-      <c r="B159" s="21" t="n"/>
-      <c r="C159" s="21" t="n"/>
+      <c r="A159" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B159" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C159" s="21" t="inlineStr">
+        <is>
+          <t>Azure Monitor for SAP solutions でセキュリティで保護された通信を有効にするには、ルート証明書またはサーバー証明書のいずれかを使用することを選択できます。ルート証明書を使用することを強くお勧めします。</t>
+        </is>
+      </c>
       <c r="D159" s="21" t="n"/>
-      <c r="E159" s="21" t="n"/>
+      <c r="E159" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G159" s="21" t="n"/>
-      <c r="H159" s="15" t="n"/>
+      <c r="H159" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
-      <c r="L159" s="25" t="n"/>
+      <c r="L159" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M159" s="25" t="n"/>
       <c r="N159" s="25" t="n"/>
       <c r="O159" s="25" t="n"/>
@@ -10176,7 +10649,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F160" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ja.xlsx
@@ -1712,7 +1712,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
@@ -2852,23 +2852,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>コストの最適化</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
+          <t>SAP HANA で Azure Premium Storage を使用する場合は、Azure Standard SSD ストレージを使用して、コスト意識の高いストレージ ソリューションを選択できます。ただし、Standard SSD または Standard HDD Azure Storage を選択すると、個々の VM の SLA に影響することに注意してください。また、非運用環境など、I/O スループットが低く待機時間が短いシステムでは、下位のシリーズ VM を使用できます。</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2879,19 +2879,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>71dc00cd-4392-4262-8949-20c05e6c0333</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2902,23 +2897,23 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>コストの最適化</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>クラウド コネクタを介して SAP クラウド アプリケーションからオンプレミス (IaaS を含む) に ID を転送するための原則の伝達を適用する</t>
+          <t>低コストの代替構成 (多目的) として、非運用環境の HANA データベース サーバー VM に低パフォーマンスの SKU を選択できます。ただし、E シリーズなどの一部の VM の種類は、HANA 認定 (SAP HANA Hardware Directory) されていないか、ストレージ待機時間を 1 ミリ秒未満にできないことに注意することが重要です。</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2929,19 +2924,15 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>9877f353-2591-4e8b-8381-e9043fed1010</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2962,13 +2953,13 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>SAML を使用して Azure AD で SAP Analytics Cloud、SAP Cloud Platform、Business by Design、SAP Qualtrics、SAP C4C などの SAP SaaS アプリケーションに SSO を実装します。</t>
+          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2979,15 +2970,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I47" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3008,7 +3003,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>SAML を使用して、SAP Fiori や SAP Web GUI などの SAP NetWeaver ベースの Web アプリケーションに SSO を実装します。</t>
+          <t>Cloud Connector を介して SAP クラウド アプリケーションからオンプレミス (IaaS を含む) に ID を転送するためのプリンシパル伝達を適用する</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3025,19 +3020,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3058,7 +3053,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>SAML を使用して、SAP Fiori や SAP Web GUI などの SAP NetWeaver ベースの Web アプリケーションに SSO を実装します。</t>
+          <t>SAML を使用して Azure AD で SAP Analytics Cloud、SAP Cloud Platform、Business by Design、SAP Qualtrics、SAP C4C などの SAP SaaS アプリケーションに SSO を実装します。</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3073,17 +3068,16 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3104,7 +3098,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>SAP NetWeaver SSO またはパートナーソリューションを使用して、SAP GUI への SSO を実装できます。</t>
+          <t>SAML を使用して、SAP Fiori や SAP Web GUI などの SAP NetWeaver ベースの Web アプリケーションに SSO を実装します。</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3133,7 +3127,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3154,7 +3148,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI および Web ブラウザアクセスの SSO には、設定とメンテナンスが容易なため、SNC/Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーションメカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
+          <t>SAML を使用して、SAP Fiori や SAP Web GUI などの SAP NetWeaver ベースの Web アプリケーションに SSO を実装します。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3172,14 +3166,14 @@
       <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3200,7 +3194,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI および Web ブラウザアクセスの SSO には、設定とメンテナンスが容易なため、SNC/Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーションメカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
+          <t>SAP NetWeaver SSO またはパートナーソリューションを使用して、SAP GUI への SSO を実装できます。</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3217,15 +3211,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3246,7 +3244,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>OAuth for SAP NetWeaver を使用して SSO を実装し、サードパーティまたはカスタムアプリケーションが SAP NetWeaver OData サービスにアクセスできるようにします。</t>
+          <t>SAP GUI および Web ブラウザアクセスの SSO には、設定とメンテナンスが容易なため、SNC/Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーションメカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3261,16 +3259,17 @@
         </is>
       </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+      <c r="H53" s="15" t="n"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3291,7 +3290,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>SAP HANAへのSSOの実装</t>
+          <t>SAP GUI および Web ブラウザアクセスの SSO には、設定とメンテナンスが容易なため、SNC/Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーションメカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3308,7 +3307,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3316,7 +3315,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3337,7 +3336,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Azure AD は、RISE でホストされている SAP システムの ID プロバイダーであると考えてください。詳細については、「サービスと Azure AD の統合」を参照してください。</t>
+          <t>OAuth for SAP NetWeaver を使用して SSO を実装し、サードパーティまたはカスタムアプリケーションが SAP NetWeaver OData サービスにアクセスできるようにします。</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3354,14 +3353,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3382,7 +3381,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>SAP にアクセスするアプリケーションでは、プリンシパル伝搬を使用して SSO を確立することができます。</t>
+          <t>SAP HANAへのSSOの実装</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3399,14 +3398,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3427,7 +3426,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>SAP Identity Authentication Service (IAS) を必要とする SAP BTP サービスまたは SaaS ソリューションを使用している場合は、SAP Cloud Identity Authentication Services と Azure AD の間に SSO を実装して、それらの SAP サービスにアクセスすることを検討してください。この統合により、SAP IAS はプロキシ ID プロバイダーとして機能し、認証要求を中央ユーザー ストアおよび ID プロバイダーとして Azure AD に転送できます。</t>
+          <t>Azure AD は、RISE でホストされている SAP システムの ID プロバイダーであると考えてください。詳細については、「サービスと Azure AD の統合」を参照してください。</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3444,14 +3443,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3472,7 +3471,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>SAP BTP への SSO の実装</t>
+          <t>SAP にアクセスするアプリケーションでは、プリンシパル伝搬を使用して SSO を確立することができます。</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3489,14 +3488,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3517,7 +3516,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>SAP SuccessFactors を使用している場合は、Azure AD の自動ユーザー プロビジョニングの使用を検討してください。この統合により、SAP SuccessFactors に新しい従業員を追加するときに、Azure AD でユーザー アカウントを自動的に作成できます。 必要に応じて、Microsoft 365 または Azure AD でサポートされているその他の SaaS アプリケーションでユーザー アカウントを作成できます。 SAP SuccessFactors へのメール アドレスの書き戻しを使用します。</t>
+          <t>SAP Identity Authentication Service (IAS) を必要とする SAP BTP サービスまたは SaaS ソリューションを使用している場合は、SAP Cloud Identity Authentication Services と Azure AD の間に SSO を実装して、それらの SAP サービスにアクセスすることを検討してください。この統合により、SAP IAS はプロキシ ID プロバイダーとして機能し、認証要求を中央ユーザー ストアおよび ID プロバイダーとして Azure AD に転送できます。</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3534,14 +3533,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3552,17 +3551,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>既存の管理グループ ポリシーを SAP サブスクリプションに適用する</t>
+          <t>SAP BTP への SSO の実装</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3579,19 +3578,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3602,23 +3596,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>緊密に結合されたアプリケーションを同じSAPサブスクリプションに統合し、ルーティングと管理の複雑さを回避</t>
+          <t>SAP SuccessFactors を使用している場合は、Azure AD の自動ユーザー プロビジョニングの使用を検討してください。この統合により、SAP SuccessFactors に新しい従業員を追加するときに、Azure AD でユーザー アカウントを自動的に作成できます。 必要に応じて、Microsoft 365 または Azure AD でサポートされているその他の SaaS アプリケーションでユーザー アカウントを作成できます。 SAP SuccessFactors へのメール アドレスの書き戻しを使用します。</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3629,19 +3623,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3662,13 +3651,13 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプションをスケール ユニットとして活用し、リソースをスケーリングし、環境ごとにサブスクリプションをデプロイすることを検討してください。サンドボックス、非製品、製品</t>
+          <t>既存の管理グループ ポリシーを SAP サブスクリプションに適用する</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3679,19 +3668,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3712,7 +3701,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプションのプロビジョニングの一環としてクォータを確実に増やす (例: サブスクリプション内で使用可能な VM コアの合計数)</t>
+          <t>緊密に結合されたアプリケーションを同じSAPサブスクリプションに統合し、ルーティングと管理の複雑さを回避</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3729,19 +3718,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3762,13 +3751,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>クォータ API は、Azure サービスのクォータを表示および管理するために使用できる REST API です。必要に応じて使用を検討してください。</t>
+          <t>サブスクリプションをスケール ユニットとして活用し、リソースをスケーリングし、環境ごとにサブスクリプションをデプロイすることを検討してください。サンドボックス、非製品、製品</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3779,15 +3768,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3808,7 +3801,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>可用性ゾーンにデプロイする場合は、クォータが承認されたら、VM のゾーン デプロイが使用可能であることを確認します。必要なサブスクリプション、VM シリーズ、CPU の数、可用性ゾーンを含むサポート リクエストを送信します。</t>
+          <t>サブスクリプションのプロビジョニングの一環としてクォータを確実に増やす (例: サブスクリプション内で使用可能な VM コアの合計数)</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3825,15 +3818,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3854,13 +3851,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>必要なサービスと機能が、選択した展開リージョン内で利用可能であることを確認します。ANF、ゾーンなど</t>
+          <t>クォータ API は、Azure サービスのクォータを表示および管理するために使用できる REST API です。必要に応じて使用を検討してください。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3871,19 +3868,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3904,13 +3896,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>コストの分類とリソースのグループ化 (BillTo、部門 (または部署)、環境 (運用、ステージ、開発)、層 (Web 層、アプリケーション層)、アプリケーション所有者、プロジェクト名) に Azure リソース タグを活用します</t>
+          <t>可用性ゾーンにデプロイする場合は、クォータが承認されたら、VM のゾーン デプロイが使用可能であることを確認します。必要なサブスクリプション、VM シリーズ、CPU の数、可用性ゾーンを含むサポート リクエストを送信します。</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3921,19 +3913,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3944,17 +3932,17 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>BCDR (英語)</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup サービスを使用して HANA データベースを保護するのに役立ちます。</t>
+          <t>必要なサービスと機能が、選択した展開リージョン内で利用可能であることを確認します。ANF、ゾーンなど</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3971,19 +3959,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3994,17 +3982,17 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>BCDR (英語)</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>HANA、Oracle、または DB2 データベースに Azure NetApp Files をデプロイする場合は、Azure アプリケーション整合性スナップショット ツール (AzAcSnap) を使用して、アプリケーション整合性スナップショットを作成します。AzAcSnap は Oracle データベースもサポートしています。個々の VM ではなく、中央の VM で AzAcSnap を使用することを検討してください。</t>
+          <t>コストの分類とリソースのグループ化 (BillTo、部門 (または部署)、環境 (運用、ステージ、開発)、層 (Web 層、アプリケーション層)、アプリケーション所有者、プロジェクト名) に Azure リソース タグを活用します</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4021,15 +4009,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4045,12 +4037,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>オペレーティングシステムと SAP システムの間でタイムゾーンが一致していることを確認します。</t>
+          <t>Azure Backup サービスを使用して HANA データベースを保護するのに役立ちます。</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4067,15 +4059,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4091,12 +4087,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>異なるアプリケーション サービスを同じクラスターにグループ化しないでください。たとえば、DRBDとセントラルサービスクラスタを同じクラスタに組み合わせないでください。ただし、同じ Pacemaker クラスターを使用して、約 5 つの異なるセントラル サービス (マルチ SID クラスター) を管理できます。</t>
+          <t>HANA、Oracle、または DB2 データベースに Azure NetApp Files をデプロイする場合は、Azure アプリケーション整合性スナップショット ツール (AzAcSnap) を使用して、アプリケーション整合性スナップショットを作成します。AzAcSnap は Oracle データベースもサポートしています。個々の VM ではなく、中央の VM で AzAcSnap を使用することを検討してください。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4113,19 +4109,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4146,13 +4138,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>スヌーズ モデルで開発/テスト システムを実行して、Azure の実行コストを節約および最適化することを検討してください。</t>
+          <t>オペレーティングシステムと SAP システムの間でタイムゾーンが一致していることを確認します。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4163,7 +4155,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4171,7 +4163,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4192,7 +4184,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>お客様の SAP 資産を管理することでお客様と提携する場合は、Azure Lighthouse をご検討ください。Azure Lighthouse を使用すると、マネージド サービス プロバイダーは Azure ネイティブ ID サービスを使用して、顧客の環境に対する認証を行うことができます。顧客はいつでもアクセスを取り消し、サービスプロバイダーの行動を監査できるため、制御を顧客の手に委ねることができます。</t>
+          <t>異なるアプリケーション サービスを同じクラスターにグループ化しないでください。たとえば、DRBDとセントラルサービスクラスタを同じクラスタに組み合わせないでください。ただし、同じ Pacemaker クラスターを使用して、約 5 つの異なるセントラル サービス (マルチ SID クラスター) を管理できます。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4209,15 +4201,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4238,13 +4234,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Azure Update Manager を使用して、1 つまたは複数の VM で利用可能な更新プログラムの状態を確認し、定期的な修正プログラムの適用をスケジュールすることを検討します。</t>
+          <t>スヌーズ モデルで開発/テスト システムを実行して、Azure の実行コストを節約および最適化することを検討してください。</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4255,19 +4251,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4288,13 +4280,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>SAP Landscape Management (LaMa) を使用して SAP Basis の運用を最適化および管理します。Azure 用の SAP LaMa コネクタを使用して、SAP システムの再配置、コピー、複製、更新を行います。</t>
+          <t>お客様の SAP 資産を管理することでお客様と提携する場合は、Azure Lighthouse をご検討ください。Azure Lighthouse を使用すると、マネージド サービス プロバイダーは Azure ネイティブ ID サービスを使用して、顧客の環境に対する認証を行うことができます。顧客はいつでもアクセスを取り消し、サービスプロバイダーの行動を監査できるため、制御を顧客の手に委ねることができます。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4305,19 +4297,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,12 +4321,12 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor for SAP solutions を使用して、Azure 上の SAP ワークロード (SAP HANA、高可用性 SUSE クラスター、SQL システム) を監視します。Azure Monitor for SAP solutions を SAP Solution Manager で補完することを検討してください。</t>
+          <t>Azure Update Manager を使用して、1 つまたは複数の VM で利用可能な更新プログラムの状態を確認し、定期的な修正プログラムの適用をスケジュールすることを検討します。</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4355,19 +4343,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4383,18 +4371,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>SAP の VM 拡張機能チェックを実行します。VM Extension for SAP では、仮想マシン (VM) の割り当てられたマネージド ID を使用して、VM の監視および構成データにアクセスします。このチェックにより、SAP アプリケーションのすべてのパフォーマンス メトリックが、基になる Azure Extension for SAP からのものであることが確認されます。</t>
+          <t>SAP Landscape Management (LaMa) を使用して SAP Basis の運用を最適化および管理します。Azure 用の SAP LaMa コネクタを使用して、SAP システムの再配置、コピー、複製、更新を行います。</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4405,19 +4393,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4438,7 +4426,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
+          <t>Azure Monitor for SAP solutions を使用して、Azure 上の SAP ワークロード (SAP HANA、高可用性 SUSE クラスター、SQL システム) を監視します。Azure Monitor for SAP solutions を SAP Solution Manager で補完することを検討してください。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4455,19 +4443,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4488,13 +4476,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Azure Network Watcher の接続モニターを使用して、SAP データベースとアプリケーション サーバーの待機時間メトリックを監視します。または、Azure Monitor を使用してネットワーク待機時間の測定値を収集して表示します。</t>
+          <t>SAP の VM 拡張機能チェックを実行します。VM Extension for SAP では、仮想マシン (VM) の割り当てられたマネージド ID を使用して、VM の監視および構成データにアクセスします。このチェックにより、SAP アプリケーションのすべてのパフォーマンス メトリックが、基になる Azure Extension for SAP からのものであることが確認されます。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4505,19 +4493,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4538,13 +4526,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery の監視を使用して、SAP アプリケーション サーバーのディザスター リカバリー サービスの正常性を維持します。</t>
+          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4555,19 +4543,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4588,7 +4576,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>プロビジョニングされた Azure インフラストラクチャで SAP HANA の品質チェックを実行して、プロビジョニングされた VM が SAP HANA on Azure のベスト プラクティスに準拠していることを確認します。</t>
+          <t>Azure Network Watcher の接続モニターを使用して、SAP データベースとアプリケーション サーバーの待機時間メトリックを監視します。または、Azure Monitor を使用してネットワーク待機時間の測定値を収集して表示します。</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4605,15 +4593,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4634,13 +4626,13 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Azure サブスクリプションごとに、ゾーン デプロイの前に Azure 可用性ゾーンで待機時間テストを実行して、SAP on Azure のデプロイ用に待機時間の短いゾーンを選択します。</t>
+          <t>プロビジョニングされた Azure インフラストラクチャで SAP HANA の品質チェックを実行して、プロビジョニングされた VM が SAP HANA on Azure のベスト プラクティスに準拠していることを確認します。</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4651,19 +4643,15 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="inlineStr">
-        <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4684,13 +4672,13 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>回復性レポートを実行して、プロビジョニングされた Azure インフラストラクチャ (コンピューティング、データベース、ネットワーク、ストレージ、Site Recovery) 全体の構成が、Cloud Adaption Framework for Azure によって定義された構成に準拠していることを確認します。</t>
+          <t>Azure サブスクリプションごとに、ゾーン デプロイの前に Azure 可用性ゾーンで待機時間テストを実行して、SAP on Azure のデプロイ用に待機時間の短いゾーンを選択します。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4701,19 +4689,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4734,7 +4722,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>SAP 用 Microsoft Sentinel ソリューションを使用して脅威保護を実装します。このソリューションを使用して、SAPシステムを監視し、ビジネスロジック層とアプリケーション層全体で高度な脅威を検出します。</t>
+          <t>回復性レポートを実行して、プロビジョニングされた Azure インフラストラクチャ (コンピューティング、データベース、ネットワーク、ストレージ、Site Recovery) 全体の構成が、Cloud Adaption Framework for Azure によって定義された構成に準拠していることを確認します。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4751,19 +4739,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4784,7 +4772,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Azure のタグ付けを利用して、リソースを論理的にグループ化して追跡し、デプロイを自動化し、最も重要なこととして、発生したコストを可視化できます。</t>
+          <t>SAP 用 Microsoft Sentinel ソリューションを使用して脅威保護を実装します。このソリューションを使用して、SAPシステムを監視し、ビジネスロジック層とアプリケーション層全体で高度な脅威を検出します。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4801,19 +4789,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4829,18 +4817,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>待機時間の影響を受けやすいアプリケーションには、VM 間の待機時間の監視を使用します。</t>
+          <t>Azure のタグ付けを利用して、リソースを論理的にグループ化して追跡し、デプロイを自動化し、最も重要なこととして、発生したコストを可視化できます。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4851,15 +4839,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4880,13 +4872,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery の監視を使用して、SAP アプリケーション サーバーのディザスター リカバリー サービスの正常性を維持します。</t>
+          <t>待機時間の影響を受けやすいアプリケーションには、VM 間の待機時間の監視を使用します。</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4897,19 +4889,15 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4930,7 +4918,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>すべてのデータベース・ファイル・システムおよび実行可能プログラムをウイルス対策スキャンから除外します。これらを含めると、パフォーマンスの問題が発生する可能性があります。除外リストの規範的な詳細については、データベースベンダーに確認してください。たとえば、&lt;sid&gt;ウイルス対策スキャンから/oracle//sapdataを除外することをお薦めします。</t>
+          <t>Azure Site Recovery の監視を使用して、SAP アプリケーション サーバーのディザスター リカバリー サービスの正常性を維持します。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4947,15 +4935,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I88" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+        </is>
+      </c>
+      <c r="I88" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4976,13 +4968,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>移行後に、HANA以外のデータベースの完全なデータベース統計を収集することを検討してください。たとえば、SAP ノート 1020260 - Oracle 統計の配信を実装します。</t>
+          <t>すべてのデータベース・ファイル・システムおよび実行可能プログラムをウイルス対策スキャンから除外します。これらを含めると、パフォーマンスの問題が発生する可能性があります。除外リストの規範的な詳細については、データベースベンダーに確認してください。たとえば、&lt;sid&gt;ウイルス対策スキャンから/oracle//sapdataを除外することをお薦めします。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4993,7 +4985,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="I89" s="15" t="n"/>
@@ -5001,7 +4993,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5022,13 +5014,13 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>SAP on Azure を使用するすべての Oracle デプロイには、Oracle Automatic Storage Management (ASM) の使用を検討してください。</t>
+          <t>移行後に、HANA以外のデータベースの完全なデータベース統計を収集することを検討してください。たとえば、SAP ノート 1020260 - Oracle 統計の配信を実装します。</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5039,19 +5031,15 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5072,7 +5060,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Oracle を実行している SAP on Azure の場合、SQL スクリプトのコレクションは、パフォーマンスの問題の診断に役立ちます。 自動ワークロード・リポジトリ(AWR)レポートには、Oracleシステムの問題を診断するための貴重な情報が含まれています。AWRレポートは、複数のセッションで実行し、ピーク時間を選択して、分析を広範囲にカバーすることをお薦めします。</t>
+          <t>SAP on Azure を使用するすべての Oracle デプロイには、Oracle Automatic Storage Management (ASM) の使用を検討してください。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5089,19 +5077,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5112,17 +5100,17 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>HTTP/S アプリを安全に配信するには、Application Gateway v2 を使用し、WAF の保護とポリシーが有効になっていることを確認します。</t>
+          <t>Oracle を実行している SAP on Azure の場合、SQL スクリプトのコレクションは、パフォーマンスの問題の診断に役立ちます。 自動ワークロード・リポジトリ(AWR)レポートには、Oracleシステムの問題を診断するための貴重な情報が含まれています。AWRレポートは、複数のセッションで実行し、ピーク時間を選択して、分析を広範囲にカバーすることをお薦めします。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5139,19 +5127,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5162,23 +5150,23 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>DNSの</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Azure への移行中に仮想マシンの DNS または仮想名が変更されない場合、バックグラウンド DNS と仮想名によって SAP ランドスケープ内の多くのシステム インターフェイスが接続され、お客様は、開発者が時間の経過と共に定義するインターフェイスに気付くことがあります。移行後に仮想名または DNS 名が変更されると、さまざまなシステム間で接続の問題が発生するため、このような問題を防ぐために DNS エイリアスを保持することをお勧めします。</t>
+          <t>Azure Site Recovery の監視を使用して、SAP アプリケーション サーバーのディザスター リカバリー サービスの正常性を維持します。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5189,19 +5177,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5217,12 +5205,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>DNSの</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>異なる DNS ゾーンを使用して、各環境 (サンドボックス、開発、運用前、運用) を互いに区別します。例外は、独自の VNet を使用する SAP デプロイの場合です。ここでは、プライベート DNS ゾーンは必要ない場合があります。</t>
+          <t>HTTP/S アプリを安全に配信するには、Application Gateway v2 を使用し、WAF の保護とポリシーが有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5239,19 +5227,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5267,12 +5255,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>DNSの</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>ローカルとグローバルの VNet ピアリングは接続を提供し、複数の Azure リージョンにまたがる SAP デプロイのランディング ゾーン間の接続を確保するための推奨されるアプローチです</t>
+          <t>Azure への移行中に仮想マシンの DNS または仮想名が変更されない場合、バックグラウンド DNS と仮想名によって SAP ランドスケープ内の多くのシステム インターフェイスが接続され、お客様は、開発者が時間の経過と共に定義するインターフェイスに気付くことがあります。移行後に仮想名または DNS 名が変更されると、さまざまなシステム間で接続の問題が発生するため、このような問題を防ぐために DNS エイリアスを保持することをお勧めします。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5289,19 +5277,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5317,18 +5305,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>DNSの</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーションと SAP データベース サーバー間の NVA のデプロイはサポートされていません</t>
+          <t>異なる DNS ゾーンを使用して、各環境 (サンドボックス、開発、運用前、運用) を互いに区別します。例外は、独自の VNet を使用する SAP デプロイの場合です。ここでは、プライベート DNS ゾーンは必要ない場合があります。</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5339,19 +5327,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5372,7 +5360,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
+          <t>ローカルとグローバルの VNet ピアリングは接続を提供し、複数の Azure リージョンにまたがる SAP デプロイのランディング ゾーン間の接続を確保するための推奨されるアプローチです</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5389,19 +5377,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5422,13 +5410,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>パートナーの NVA が使用されている場合にのみ、リージョン間でネットワーク仮想アプライアンス (NVA) をデプロイすることを検討してください。ネイティブ NVA が存在する場合、リージョン間または VNet 間の NVA は必要ありません。パートナーのネットワーク テクノロジと NVA をデプロイする場合は、ベンダーのガイダンスに従って、Azure ネットワークと競合する構成を確認します。</t>
+          <t>SAP アプリケーションと SAP データベース サーバー間の NVA のデプロイはサポートされていません</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5439,19 +5427,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5472,7 +5460,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN は、仮想 WAN ベースのトポロジのスポーク VNet 間の接続を管理し (ユーザー定義ルーティング (UDR) または NVA を設定する必要はありません)、同じ仮想ハブ内の VNet 間トラフィックの最大ネットワーク スループットは 50 ギガビット/秒です。必要に応じて、SAP ランディング ゾーンは VNet ピアリングを使用して他のランディング ゾーンに接続し、この帯域幅の制限を克服できます。</t>
+          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5489,19 +5477,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5517,18 +5505,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>SAP ワークロードを実行している VM へのパブリック I.P 割り当てはお勧めしません。</t>
+          <t>パートナーの NVA が使用されている場合にのみ、リージョン間でネットワーク仮想アプライアンス (NVA) をデプロイすることを検討してください。ネイティブ NVA が存在する場合、リージョン間または VNet 間の NVA は必要ありません。パートナーのネットワーク テクノロジと NVA をデプロイする場合は、ベンダーのガイダンスに従って、Azure ネットワークと競合する構成を確認します。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5539,19 +5527,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5567,18 +5555,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>ASR の設定時に DR 側で I.P アドレスを予約することを検討してください</t>
+          <t>Virtual WAN は、仮想 WAN ベースのトポロジのスポーク VNet 間の接続を管理し (ユーザー定義ルーティング (UDR) または NVA を設定する必要はありません)、同じ仮想ハブ内の VNet 間トラフィックの最大ネットワーク スループットは 50 ギガビット/秒です。必要に応じて、SAP ランディング ゾーンは VNet ピアリングを使用して他のランディング ゾーンに接続し、この帯域幅の制限を克服できます。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5589,19 +5577,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5622,7 +5610,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>SAP ワークロードを実行している VM へのパブリック IP の割り当てはお勧めしません。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5651,7 +5639,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5672,13 +5660,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Azure では 1 つの VNet に複数の委任されたサブネットを作成できますが、Azure NetApp Files の VNet に存在できる委任されたサブネットは 1 つだけです。Azure NetApp Files に複数の委任されたサブネットを使用すると、新しいボリュームを作成しようとしても失敗します。</t>
+          <t>ASRの設定時にDR側でIPアドレスを予約することを検討してください</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5689,19 +5677,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5717,18 +5705,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5739,19 +5727,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5767,12 +5755,12 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway、SAP Web Dispatcher、およびその他のサードパーティ サービスの比較に示すように、Application Gateway が SAP Web アプリのリバース プロキシとして機能する場合、Application Gateway と Web Application Firewall には制限があります。</t>
+          <t>Azure では 1 つの VNet に複数の委任されたサブネットを作成できますが、Azure NetApp Files の VNet に存在できる委任されたサブネットは 1 つだけです。Azure NetApp Files に複数の委任されたサブネットを使用すると、新しいボリュームを作成しようとしても失敗します。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5789,19 +5777,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5822,7 +5810,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5839,19 +5827,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5872,7 +5860,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と Application Gateway を使用して HTTP/S アプリケーションを保護する場合は、Azure Front Door の Web アプリケーション ファイアウォール ポリシーを利用します。Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
+          <t>Application Gateway、SAP Web Dispatcher、およびその他のサードパーティ サービスの比較に示すように、Application Gateway が SAP Web アプリのリバース プロキシとして機能する場合、Application Gateway と Web Application Firewall には制限があります。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5889,19 +5877,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5922,7 +5910,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Web アプリケーション ファイアウォールを使用して、インターネットに公開されているトラフィックをスキャンします。別のオプションとして、ロード バランサーや、Application Gateway やサードパーティ ソリューションなどのファイアウォール機能が組み込まれているリソースと共に使用することもできます。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5944,14 +5932,14 @@
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5972,7 +5960,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
+          <t>Azure Front Door と Application Gateway を使用して HTTP/S アプリケーションを保護する場合は、Azure Front Door の Web アプリケーション ファイアウォール ポリシーを利用します。Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5989,19 +5977,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6022,7 +6010,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>データ漏えいを防ぐには、Azure Private Link を使用して、Azure Blob Storage、Azure Files、Azure Data Lake Storage Gen2、Azure Data Factory などのサービスとしてのプラットフォーム リソースに安全にアクセスします。Azure プライベート エンドポイントは、VNet と Azure Storage、Azure Backup などのサービス間のトラフィックをセキュリティで保護するのにも役立ちます。VNet とプライベート エンドポイント対応サービス間のトラフィックは、Microsoft グローバル ネットワークを経由するため、パブリック インターネットへの公開は防止されます。</t>
+          <t>Web アプリケーション ファイアウォールを使用して、インターネットに公開されているトラフィックをスキャンします。別のオプションとして、ロード バランサーや、Application Gateway やサードパーティ ソリューションなどのファイアウォール機能が組み込まれているリソースと共に使用することもできます。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6039,19 +6027,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6067,18 +6055,18 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーションと DBMS レイヤーで使用される VM で Azure 高速ネットワークが有効になっていることを確認します。</t>
+          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6089,19 +6077,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6117,12 +6105,12 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer の内部デプロイが Direct Server Return (DSR) を使用するように設定されていることを確認します。この設定により、DBMS レイヤーの高可用性構成に内部ロード バランサー構成が使用されている場合の待機時間が短縮されます。</t>
+          <t>データ漏えいを防ぐには、Azure Private Link を使用して、Azure Blob Storage、Azure Files、Azure Data Lake Storage Gen2、Azure Data Factory などのサービスとしてのプラットフォーム リソースに安全にアクセスします。Azure プライベート エンドポイントは、VNet と Azure Storage、Azure Backup などのサービス間のトラフィックをセキュリティで保護するのにも役立ちます。VNet とプライベート エンドポイント対応サービス間のトラフィックは、Microsoft グローバル ネットワークを経由するため、パブリック インターネットへの公開は防止されます。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6139,19 +6127,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6172,13 +6160,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション セキュリティ グループ (ASG) と NSG 規則を使用して、SAP アプリケーション層と DBMS 層の間にネットワーク セキュリティのアクセス制御リストを定義できます。ASG は、仮想マシンをグループ化してセキュリティの管理に役立てます。</t>
+          <t>SAP アプリケーションと DBMS レイヤーで使用される VM で Azure 高速ネットワークが有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6189,19 +6177,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6222,13 +6210,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>ピアリングされていない異なる Azure VNet への SAP アプリケーション レイヤーと SAP DBMS の配置はサポートされていません。</t>
+          <t>Azure Load Balancer の内部デプロイが Direct Server Return (DSR) を使用するように設定されていることを確認します。この設定により、DBMS レイヤーの高可用性構成に内部ロード バランサー構成が使用されている場合の待機時間が短縮されます。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6239,19 +6227,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6272,7 +6260,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーションで最適なネットワーク待機時間を実現するには、Azure 近接通信配置グループの使用を検討してください。</t>
+          <t>アプリケーション セキュリティ グループ (ASG) と NSG 規則を使用して、SAP アプリケーション層と DBMS 層の間にネットワーク セキュリティのアクセス制御リストを定義できます。ASG は、仮想マシンをグループ化してセキュリティの管理に役立てます。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6289,19 +6277,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6322,7 +6310,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスと Azure の間で分割された SAP アプリケーション サーバー レイヤーと DBMS レイヤーを実行することは、まったくサポートされていません。どちらのレイヤーも、オンプレミスまたは Azure に完全に存在する必要があります。</t>
+          <t>ピアリングされていない異なる Azure VNet への SAP アプリケーション レイヤーと SAP DBMS の配置はサポートされていません。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6351,7 +6339,7 @@
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6372,13 +6360,13 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>SAP システムのデータベース管理システム (DBMS) レイヤーとアプリケーション レイヤーを異なる VNet でホストし、それらを VNet ピアリングに接続することは、レイヤー間の過剰なネットワーク トラフィックによって生成される可能性があるため、お勧めしません。Azure 仮想ネットワーク内のサブネットを使用して、SAP アプリケーション レイヤーと DBMS レイヤーを分離することをお勧めします。</t>
+          <t>SAP アプリケーションで最適なネットワーク待機時間を実現するには、Azure 近接通信配置グループの使用を検討してください。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6389,19 +6377,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6422,7 +6410,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Linux ゲスト・オペレーティング・システムで Load Balancer を使用する場合は、Linux ネットワーク・パラメーター net.ipv4.tcp_timestamps が 0 に設定されていることを確認します。</t>
+          <t>オンプレミスと Azure の間で分割された SAP アプリケーション サーバー レイヤーと DBMS レイヤーを実行することは、まったくサポートされていません。どちらのレイヤーも、オンプレミスまたは Azure に完全に存在する必要があります。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6439,19 +6427,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6472,13 +6460,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>SAP RISE/ECS デプロイの場合、仮想ピアリングは、お客様の既存の Azure 環境との接続を確立するための推奨される方法です。SAP vnet と顧客 VNet の両方がネットワーク セキュリティ グループ (NSG) で保護され、vnet ピアリングを介した SAP ポートとデータベース ポートでの通信が可能になります</t>
+          <t>SAP システムのデータベース管理システム (DBMS) レイヤーとアプリケーション レイヤーを異なる VNet でホストし、それらを VNet ピアリングに接続することは、レイヤー間の過剰なネットワーク トラフィックによって生成される可能性があるため、お勧めしません。Azure 仮想ネットワーク内のサブネットを使用して、SAP アプリケーション レイヤーと DBMS レイヤーを分離することをお勧めします。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6489,14 +6477,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6507,23 +6500,23 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Azure、オンプレミス、またはその他のクラウド環境で Windows VM と Linux VM を実行している場合は、Azure Automation の更新管理センターを使用して、セキュリティ パッチを含むオペレーティング システムの更新プログラムを管理できます。</t>
+          <t>Linux ゲスト・オペレーティング・システムで Load Balancer を使用する場合は、Linux ネットワーク・パラメーター net.ipv4.tcp_timestamps が 0 に設定されていることを確認します。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6534,19 +6527,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6557,17 +6550,17 @@
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>SAP は、SAP システムを保護するために即時のアクションを必要とする非常に重要なセキュリティ パッチまたはホット フィックスをリリースしているため、SAP セキュリティ OSS ノートを定期的に確認してください。</t>
+          <t>SAP RISE/ECS デプロイの場合、仮想ピアリングは、お客様の既存の Azure 環境との接続を確立するための推奨される方法です。SAP vnet と顧客 VNet の両方がネットワーク セキュリティ グループ (NSG) で保護され、vnet ピアリングを介した SAP ポートとデータベース ポートでの通信が可能になります</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6584,19 +6577,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6607,23 +6596,23 @@
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーショナル・エクセレンス</t>
         </is>
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>SQL Server 上の SAP システムではアカウントを使用しないため、SQL Server 上の SAP システム管理者アカウントを無効にすることができます。元のシステム管理者アカウントを無効にする前に、システム管理者権限を持つ別のユーザーがサーバーにアクセスできることを確認してください。</t>
+          <t>Azure VM の SAP HANA データベースのバックアップを確認します。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6634,7 +6623,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6642,7 +6631,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>ff5136bd-dcf1-4d2b-ae52-39333efdf45a</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6653,23 +6642,23 @@
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーショナル・エクセレンス</t>
         </is>
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>xp_cmdshellを無効にします。SQL Server 機能xp_cmdshell、SQL Server 内部オペレーティング システムのコマンド シェルを有効にします。これは、セキュリティ監査における潜在的なリスクです。</t>
+          <t>Site Recovery の組み込み監視 (SAP で使用されている場合) を確認します。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6680,19 +6669,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>cafde29d-a0af-4bcd-87c0-0f299d63f0e8</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6703,17 +6688,17 @@
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーショナル・エクセレンス</t>
         </is>
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Azure 上の SAP HANA データベース サーバーの暗号化では、SAP HANA ネイティブ暗号化テクノロジが使用されます。さらに、Azure で SQL Server を使用している場合は、Transparent Data Encryption (TDE) を使用してデータとログ ファイルを保護し、バックアップも暗号化されるようにします。</t>
+          <t>SAP HANA システム ランドスケープの監視に関するガイダンスを確認します。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6730,19 +6715,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
+          <t>https://help.sap.com/docs/SAP_HANA_PLATFORM/c4d7c773af4a4e5dbebb6548d6e2d4f4/e3111d2ebb5710149510cc120646bf3f.html?locale=en-US</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>82d7b8de-d3f1-44a0-830b-38e200e82acf</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6753,17 +6734,17 @@
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーショナル・エクセレンス</t>
         </is>
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage の暗号化は、すべての Azure Resource Manager とクラシック ストレージ アカウントに対して有効になっており、無効にすることはできません。データは既定で暗号化されるため、Azure Storage 暗号化を使用するためにコードやアプリケーションを変更する必要はありません。</t>
+          <t>Azure Linux VM のバックアップ戦略で Oracle Database を確認します。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6780,19 +6761,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/oracle-database-backup-strategies</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>c823873a-2bec-4c2a-b684-a1ce8ae80efd</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6803,23 +6780,23 @@
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーショナル・エクセレンス</t>
         </is>
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>SQL Server 2016 での Azure Blob Storage の使用を確認します。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6830,19 +6807,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/sql/relational-databases/tutorial-use-azure-blob-storage-service-with-sql-server-2016?view=sql-server-ver16</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>2943b6d8-1d31-4e19-ade7-78e6b26d1962</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6853,17 +6825,17 @@
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーショナル・エクセレンス</t>
         </is>
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>デプロイが成功したら、Azure リソースを LOCK して、承認されていない変更から保護することをお勧めします。また、カスタマイズされた Azure ポリシー (Custome ロール) を使用して、サブスクリプションごとに LOCK の制約とルールを適用することもできます。</t>
+          <t>Azure VM の自動バックアップ v2 の使用を確認します。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6880,19 +6852,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-sql/virtual-machines/windows/automated-backup?view=azuresql</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>b82e650f-676d-417d-994d-fc33ca54ec14</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6903,23 +6870,23 @@
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーショナル・エクセレンス</t>
         </is>
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+          <t>Premium ディスク使用時の M シリーズの書き込みアクセラレータの有効化 (V1)</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6928,21 +6895,12 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H128" s="15" t="n"/>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>347c2dcc-e6eb-4b04-80c5-628b171aa62d</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6953,23 +6911,23 @@
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>既存の要件、規制、コンプライアンス制御 (内部/外部) に基づいて、必要な Azure ポリシーと Azure RBAC ロールを決定します</t>
+          <t>可用性ゾーンの待機時間をテストします。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6980,19 +6938,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>b96512cf-996f-4b17-b9b8-6b16db1a2a94</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7003,23 +6956,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>SAP 環境でMicrosoft Defender for Endpointを有効にする場合は、すべてのサーバーを対象とするのではなく、DBMS サーバー上のデータとログ ファイルを除外することをお勧めします。ターゲット ファイルを除外する場合は、DBMS ベンダーの推奨事項に従ってください。</t>
+          <t>すべての SAP コンポーネントに対して SAP EarlyWatch Alert を有効化します。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7030,19 +6983,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://support.sap.com/en/offerings-programs/support-services/earlywatch-alert.html</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/techops/3362700736.html</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>9fd7ffd4-da11-49f6-a374-8d03e94c511d</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7053,23 +7006,23 @@
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud の Just-In-Time アクセス権を持つ SAP 管理者カスタム ロールを委任します。</t>
+          <t>SAP ABAPMeter report /SSA/CAT を使用して、SAP アプリケーション サーバーからデータベース サーバー間の待機時間を確認します。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7080,19 +7033,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/sap-on-azure-general-update-march-2019/ba-p/377456</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://me.sap.com/notes/0002879613</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b9b140cf-413a-483d-aad2-8802c4e3c017</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7103,23 +7056,23 @@
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>サードパーティのセキュリティ製品を DIAG (SAP GUI)、RFC、および SPNEGO for HTTPS のセキュアネットワーク通信 (SNC) と統合することにより、転送中のデータを暗号化します。</t>
+          <t>CCMS を使用した SQL Server のパフォーマンス監視を確認します。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7128,21 +7081,12 @@
         </is>
       </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
-        </is>
-      </c>
+      <c r="H132" s="15" t="n"/>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>62fbf0f8-51db-49e1-a961-bb5df7a35f80</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7153,17 +7097,17 @@
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>SAP アプリケーション レイヤー VM と DBMS VM 間のネットワーク待機時間をテストします (NIPING)。</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7180,19 +7124,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+          <t>https://me.sap.com/notes/500235</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1100926/E</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>35709da7-fc7d-4efe-bb20-2e91547b7390</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7203,23 +7147,23 @@
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
+          <t>SAP HANA Studio アラートを確認します。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7230,19 +7174,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/en-us/azure/sap/large-instances/hana-monitor-troubleshoot</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>9e9bb4c8-e934-4e4b-a13c-6f7c7c38eb43</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7253,23 +7192,23 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>HANA 以外の Windows オペレーティング システムと Windows 以外のオペレーティング システムのディスク暗号化キーとシークレットを制御および管理するには、Azure Key Vault を使用します。SAP HANA は Azure Key Vault ではサポートされていないため、SAP ABAP キーや SSH キーなどの代替方法を使用する必要があります。</t>
+          <t>HANA_Configuration_Minichecks を使用して SAP HANA ヘルスチェックを実行します。</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7280,19 +7219,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1969700</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>f1a92ab5-9509-4b57-86ff-b0ade361b694</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7308,12 +7242,12 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Azure、オンプレミス、またはその他のクラウド環境で Windows VM と Linux VM を実行している場合は、Azure Automation の更新管理センターを使用して、セキュリティ パッチを含むオペレーティング システムの更新プログラムを管理できます。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7330,14 +7264,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7353,18 +7292,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します</t>
+          <t>SAP は、SAP システムを保護するために即時のアクションを必要とする非常に重要なセキュリティ パッチまたはホット フィックスをリリースしているため、SAP セキュリティ OSS ノートを定期的に確認してください。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7375,19 +7314,19 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7403,18 +7342,18 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
+          <t>SQL Server 上の SAP システムではアカウントを使用しないため、SQL Server 上の SAP システム管理者アカウントを無効にすることができます。元のシステム管理者アカウントを無効にする前に、システム管理者権限を持つ別のユーザーがサーバーにアクセスできることを確認してください。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7425,19 +7364,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7453,18 +7387,18 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Azure で Microsoft マルウェア対策ソフトウェアを使用して、悪意のあるファイル、アドウェア、その他の脅威から仮想マシンを保護することを検討してください。</t>
+          <t>xp_cmdshellを無効にします。SQL Server 機能xp_cmdshell、SQL Server 内部オペレーティング システムのコマンド シェルを有効にします。これは、セキュリティ監査における潜在的なリスクです。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7475,19 +7409,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7503,18 +7437,18 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>さらに強力な保護を行うには、Microsoft Defender for Endpointの使用を検討してください。</t>
+          <t>Azure 上の SAP HANA データベース サーバーの暗号化では、SAP HANA ネイティブ暗号化テクノロジが使用されます。さらに、Azure で SQL Server を使用している場合は、Transparent Data Encryption (TDE) を使用してデータとログ ファイルを保護し、バックアップも暗号化されるようにします。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7525,19 +7459,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7553,18 +7487,18 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワーク ピアリングによってスポーク ネットワークに接続されているハブ仮想ネットワークを介してすべてのトラフィックを渡すことで、SAP アプリケーションとデータベース サーバーをインターネットまたはオンプレミス ネットワークから分離します。ピアリングされた仮想ネットワークにより、SAP on Azure ソリューションがパブリック インターネットから分離されることが保証されます。</t>
+          <t>Azure Storage の暗号化は、すべての Azure Resource Manager とクラシック ストレージ アカウントに対して有効になっており、無効にすることはできません。データは既定で暗号化されるため、Azure Storage 暗号化を使用するためにコードやアプリケーションを変更する必要はありません。</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7575,19 +7509,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7603,18 +7537,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>SAP Fiori などのインターネットに接続するアプリケーションの場合は、セキュリティレベルを維持しながら、アプリケーション要件ごとに負荷を分散してください。レイヤー 7 セキュリティについては、Azure Marketplace で入手できるサードパーティの Web アプリケーション ファイアウォール (WAF) を使用できます。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7625,19 +7559,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7653,12 +7587,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor for SAP solutions でセキュリティで保護された通信を有効にするには、ルート証明書またはサーバー証明書のいずれかを使用することを選択できます。ルート証明書を使用することを強くお勧めします。</t>
+          <t>デプロイが成功したら、Azure リソースを LOCK して、承認されていない変更から保護することをお勧めします。また、カスタマイズされた Azure ポリシー (Custome ロール) を使用して、サブスクリプションごとに LOCK の制約とルールを適用することもできます。</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7675,19 +7609,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7696,256 +7630,795 @@
       <c r="P143" s="25" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="21" t="n"/>
-      <c r="B144" s="21" t="n"/>
-      <c r="C144" s="21" t="n"/>
+      <c r="A144" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B144" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C144" s="21" t="inlineStr">
+        <is>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+        </is>
+      </c>
       <c r="D144" s="21" t="n"/>
-      <c r="E144" s="21" t="n"/>
+      <c r="E144" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G144" s="21" t="n"/>
-      <c r="H144" s="15" t="n"/>
+      <c r="H144" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
-      <c r="L144" s="25" t="n"/>
+      <c r="L144" s="25" t="inlineStr">
+        <is>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+        </is>
+      </c>
       <c r="M144" s="25" t="n"/>
       <c r="N144" s="25" t="n"/>
       <c r="O144" s="25" t="n"/>
       <c r="P144" s="25" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1">
-      <c r="A145" s="21" t="n"/>
-      <c r="B145" s="21" t="n"/>
-      <c r="C145" s="21" t="n"/>
+      <c r="A145" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B145" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C145" s="21" t="inlineStr">
+        <is>
+          <t>既存の要件、規制、コンプライアンス制御 (内部/外部) に基づいて、必要な Azure ポリシーと Azure RBAC ロールを決定します</t>
+        </is>
+      </c>
       <c r="D145" s="21" t="n"/>
-      <c r="E145" s="21" t="n"/>
+      <c r="E145" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G145" s="21" t="n"/>
-      <c r="H145" s="15" t="n"/>
+      <c r="H145" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
-      <c r="L145" s="25" t="n"/>
+      <c r="L145" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M145" s="25" t="n"/>
       <c r="N145" s="25" t="n"/>
       <c r="O145" s="25" t="n"/>
       <c r="P145" s="25" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1">
-      <c r="A146" s="21" t="n"/>
-      <c r="B146" s="21" t="n"/>
-      <c r="C146" s="21" t="n"/>
+      <c r="A146" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B146" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C146" s="21" t="inlineStr">
+        <is>
+          <t>SAP 環境でMicrosoft Defender for Endpointを有効にする場合は、すべてのサーバーを対象とするのではなく、DBMS サーバー上のデータとログ ファイルを除外することをお勧めします。ターゲット ファイルを除外する場合は、DBMS ベンダーの推奨事項に従ってください。</t>
+        </is>
+      </c>
       <c r="D146" s="21" t="n"/>
-      <c r="E146" s="21" t="n"/>
+      <c r="E146" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G146" s="21" t="n"/>
-      <c r="H146" s="15" t="n"/>
+      <c r="H146" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
-      <c r="L146" s="25" t="n"/>
+      <c r="L146" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M146" s="25" t="n"/>
       <c r="N146" s="25" t="n"/>
       <c r="O146" s="25" t="n"/>
       <c r="P146" s="25" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
-      <c r="A147" s="21" t="n"/>
-      <c r="B147" s="21" t="n"/>
-      <c r="C147" s="21" t="n"/>
+      <c r="A147" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B147" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C147" s="21" t="inlineStr">
+        <is>
+          <t>Microsoft Defender for Cloud の Just-In-Time アクセス権を持つ SAP 管理者カスタム ロールを委任します。</t>
+        </is>
+      </c>
       <c r="D147" s="21" t="n"/>
-      <c r="E147" s="21" t="n"/>
+      <c r="E147" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G147" s="21" t="n"/>
-      <c r="H147" s="15" t="n"/>
+      <c r="H147" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
-      <c r="L147" s="25" t="n"/>
+      <c r="L147" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M147" s="25" t="n"/>
       <c r="N147" s="25" t="n"/>
       <c r="O147" s="25" t="n"/>
       <c r="P147" s="25" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
-      <c r="A148" s="21" t="n"/>
-      <c r="B148" s="21" t="n"/>
-      <c r="C148" s="21" t="n"/>
+      <c r="A148" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B148" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C148" s="21" t="inlineStr">
+        <is>
+          <t>サードパーティのセキュリティ製品を DIAG (SAP GUI)、RFC、および SPNEGO for HTTPS のセキュアネットワーク通信 (SNC) と統合することにより、転送中のデータを暗号化します。</t>
+        </is>
+      </c>
       <c r="D148" s="21" t="n"/>
-      <c r="E148" s="21" t="n"/>
+      <c r="E148" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G148" s="21" t="n"/>
-      <c r="H148" s="15" t="n"/>
+      <c r="H148" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
-      <c r="L148" s="25" t="n"/>
+      <c r="L148" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M148" s="25" t="n"/>
       <c r="N148" s="25" t="n"/>
       <c r="O148" s="25" t="n"/>
       <c r="P148" s="25" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="21" t="n"/>
-      <c r="B149" s="21" t="n"/>
-      <c r="C149" s="21" t="n"/>
+      <c r="A149" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B149" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C149" s="21" t="inlineStr">
+        <is>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+        </is>
+      </c>
       <c r="D149" s="21" t="n"/>
-      <c r="E149" s="21" t="n"/>
+      <c r="E149" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G149" s="21" t="n"/>
-      <c r="H149" s="15" t="n"/>
+      <c r="H149" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
-      <c r="L149" s="25" t="n"/>
+      <c r="L149" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M149" s="25" t="n"/>
       <c r="N149" s="25" t="n"/>
       <c r="O149" s="25" t="n"/>
       <c r="P149" s="25" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="21" t="n"/>
-      <c r="B150" s="21" t="n"/>
-      <c r="C150" s="21" t="n"/>
+      <c r="A150" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B150" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C150" s="21" t="inlineStr">
+        <is>
+          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
+        </is>
+      </c>
       <c r="D150" s="21" t="n"/>
-      <c r="E150" s="21" t="n"/>
+      <c r="E150" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G150" s="21" t="n"/>
-      <c r="H150" s="15" t="n"/>
+      <c r="H150" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
-      <c r="L150" s="25" t="n"/>
+      <c r="L150" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M150" s="25" t="n"/>
       <c r="N150" s="25" t="n"/>
       <c r="O150" s="25" t="n"/>
       <c r="P150" s="25" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1">
-      <c r="A151" s="21" t="n"/>
-      <c r="B151" s="21" t="n"/>
-      <c r="C151" s="21" t="n"/>
+      <c r="A151" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B151" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C151" s="21" t="inlineStr">
+        <is>
+          <t>HANA 以外の Windows オペレーティング システムと Windows 以外のオペレーティング システムのディスク暗号化キーとシークレットを制御および管理するには、Azure Key Vault を使用します。SAP HANA は Azure Key Vault ではサポートされていないため、SAP ABAP キーや SSH キーなどの代替方法を使用する必要があります。</t>
+        </is>
+      </c>
       <c r="D151" s="21" t="n"/>
-      <c r="E151" s="21" t="n"/>
+      <c r="E151" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G151" s="21" t="n"/>
-      <c r="H151" s="15" t="n"/>
+      <c r="H151" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
-      <c r="L151" s="25" t="n"/>
+      <c r="L151" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M151" s="25" t="n"/>
       <c r="N151" s="25" t="n"/>
       <c r="O151" s="25" t="n"/>
       <c r="P151" s="25" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1">
-      <c r="A152" s="21" t="n"/>
-      <c r="B152" s="21" t="n"/>
-      <c r="C152" s="21" t="n"/>
+      <c r="A152" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B152" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C152" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D152" s="21" t="n"/>
-      <c r="E152" s="21" t="n"/>
+      <c r="E152" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
-      <c r="L152" s="25" t="n"/>
+      <c r="L152" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M152" s="25" t="n"/>
       <c r="N152" s="25" t="n"/>
       <c r="O152" s="25" t="n"/>
       <c r="P152" s="25" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1">
-      <c r="A153" s="21" t="n"/>
-      <c r="B153" s="21" t="n"/>
-      <c r="C153" s="21" t="n"/>
+      <c r="A153" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B153" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C153" s="21" t="inlineStr">
+        <is>
+          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します</t>
+        </is>
+      </c>
       <c r="D153" s="21" t="n"/>
-      <c r="E153" s="21" t="n"/>
+      <c r="E153" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
-      <c r="L153" s="25" t="n"/>
+      <c r="L153" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M153" s="25" t="n"/>
       <c r="N153" s="25" t="n"/>
       <c r="O153" s="25" t="n"/>
       <c r="P153" s="25" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1">
-      <c r="A154" s="21" t="n"/>
-      <c r="B154" s="21" t="n"/>
-      <c r="C154" s="21" t="n"/>
+      <c r="A154" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B154" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C154" s="21" t="inlineStr">
+        <is>
+          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
+        </is>
+      </c>
       <c r="D154" s="21" t="n"/>
-      <c r="E154" s="21" t="n"/>
+      <c r="E154" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="n"/>
+      <c r="H154" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
-      <c r="L154" s="25" t="n"/>
+      <c r="L154" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M154" s="25" t="n"/>
       <c r="N154" s="25" t="n"/>
       <c r="O154" s="25" t="n"/>
       <c r="P154" s="25" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1">
-      <c r="A155" s="21" t="n"/>
-      <c r="B155" s="21" t="n"/>
-      <c r="C155" s="21" t="n"/>
+      <c r="A155" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B155" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C155" s="21" t="inlineStr">
+        <is>
+          <t>Azure で Microsoft マルウェア対策ソフトウェアを使用して、悪意のあるファイル、アドウェア、その他の脅威から仮想マシンを保護することを検討してください。</t>
+        </is>
+      </c>
       <c r="D155" s="21" t="n"/>
-      <c r="E155" s="21" t="n"/>
+      <c r="E155" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="15" t="n"/>
+      <c r="H155" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
-      <c r="L155" s="25" t="n"/>
+      <c r="L155" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M155" s="25" t="n"/>
       <c r="N155" s="25" t="n"/>
       <c r="O155" s="25" t="n"/>
       <c r="P155" s="25" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1">
-      <c r="A156" s="21" t="n"/>
-      <c r="B156" s="21" t="n"/>
-      <c r="C156" s="21" t="n"/>
+      <c r="A156" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B156" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C156" s="21" t="inlineStr">
+        <is>
+          <t>さらに強力な保護を行うには、Microsoft Defender for Endpointの使用を検討してください。</t>
+        </is>
+      </c>
       <c r="D156" s="21" t="n"/>
-      <c r="E156" s="21" t="n"/>
+      <c r="E156" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
-      <c r="L156" s="25" t="n"/>
+      <c r="L156" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M156" s="25" t="n"/>
       <c r="N156" s="25" t="n"/>
       <c r="O156" s="25" t="n"/>
       <c r="P156" s="25" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1">
-      <c r="A157" s="21" t="n"/>
-      <c r="B157" s="21" t="n"/>
-      <c r="C157" s="21" t="n"/>
+      <c r="A157" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B157" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C157" s="21" t="inlineStr">
+        <is>
+          <t>仮想ネットワーク ピアリングによってスポーク ネットワークに接続されているハブ仮想ネットワークを介してすべてのトラフィックを渡すことで、SAP アプリケーションとデータベース サーバーをインターネットまたはオンプレミス ネットワークから分離します。ピアリングされた仮想ネットワークにより、SAP on Azure ソリューションがパブリック インターネットから分離されることが保証されます。</t>
+        </is>
+      </c>
       <c r="D157" s="21" t="n"/>
-      <c r="E157" s="21" t="n"/>
+      <c r="E157" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G157" s="21" t="n"/>
-      <c r="H157" s="15" t="n"/>
+      <c r="H157" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
-      <c r="L157" s="25" t="n"/>
+      <c r="L157" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M157" s="25" t="n"/>
       <c r="N157" s="25" t="n"/>
       <c r="O157" s="25" t="n"/>
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="n"/>
-      <c r="B158" s="21" t="n"/>
-      <c r="C158" s="21" t="n"/>
+      <c r="A158" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B158" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C158" s="21" t="inlineStr">
+        <is>
+          <t>SAP Fiori などのインターネットに接続するアプリケーションの場合は、セキュリティレベルを維持しながら、アプリケーション要件ごとに負荷を分散してください。レイヤー 7 セキュリティについては、Azure Marketplace で入手できるサードパーティの Web アプリケーション ファイアウォール (WAF) を使用できます。</t>
+        </is>
+      </c>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="n"/>
+      <c r="E158" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="n"/>
+      <c r="H158" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="n"/>
+      <c r="L158" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
       <c r="P158" s="25" t="n"/>
     </row>
     <row r="159" ht="16.5" customHeight="1">
-      <c r="A159" s="21" t="n"/>
-      <c r="B159" s="21" t="n"/>
-      <c r="C159" s="21" t="n"/>
+      <c r="A159" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B159" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C159" s="21" t="inlineStr">
+        <is>
+          <t>Azure Monitor for SAP solutions でセキュリティで保護された通信を有効にするには、ルート証明書またはサーバー証明書のいずれかを使用することを選択できます。ルート証明書を使用することを強くお勧めします。</t>
+        </is>
+      </c>
       <c r="D159" s="21" t="n"/>
-      <c r="E159" s="21" t="n"/>
+      <c r="E159" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G159" s="21" t="n"/>
-      <c r="H159" s="15" t="n"/>
+      <c r="H159" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
-      <c r="L159" s="25" t="n"/>
+      <c r="L159" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M159" s="25" t="n"/>
       <c r="N159" s="25" t="n"/>
       <c r="O159" s="25" t="n"/>
@@ -10176,7 +10649,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F160" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ja.xlsx
@@ -1712,7 +1712,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>コストの最適化</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>正しい VM SKU とゾーンのクォータ要求を行う</t>
+          <t>SAP システムのスタート/ストップを自動化してコストを管理します。</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2789,13 +2789,17 @@
         </is>
       </c>
       <c r="G43" s="21" t="n"/>
-      <c r="H43" s="15" t="n"/>
+      <c r="H43" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/optimize-your-azure-costs-by-automating-sap-system-start-stop/ba-p/2120675</t>
+        </is>
+      </c>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>925d1f8c-01f3-4a67-948e-aabf0a1fad60</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2816,13 +2820,13 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>SAP システムのスタート/ストップを自動化してコストを管理します。</t>
+          <t>SAP HANA で Azure Premium Storage を使用する場合は、Azure Standard SSD ストレージを使用して、コスト意識の高いストレージ ソリューションを選択できます。ただし、Standard SSD または Standard HDD Azure Storage を選択すると、個々の VM の SLA に影響することに注意してください。また、非運用環境など、I/O スループットが低く待機時間が短いシステムでは、下位のシリーズ VM を使用できます。</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2833,7 +2837,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/optimize-your-azure-costs-by-automating-sap-system-start-stop/ba-p/2120675</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2841,7 +2845,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>925d1f8c-01f3-4a67-948e-aabf0a1fad60</t>
+          <t>71dc00cd-4392-4262-8949-20c05e6c0333</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2852,23 +2856,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>コストの最適化</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
+          <t>低コストの代替構成 (多目的) として、非運用環境の HANA データベース サーバー VM に低パフォーマンスの SKU を選択できます。ただし、E シリーズなどの一部の VM の種類は、HANA 認定 (SAP HANA Hardware Directory) されていないか、ストレージ待機時間を 1 ミリ秒未満にできないことに注意することが重要です。</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2879,19 +2883,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>9877f353-2591-4e8b-8381-e9043fed1010</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2912,13 +2911,13 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>クラウド コネクタを介して SAP クラウド アプリケーションからオンプレミス (IaaS を含む) に ID を転送するための原則の伝達を適用する</t>
+          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2929,19 +2928,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
         </is>
       </c>
       <c r="I46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2962,7 +2961,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>SAML を使用して Azure AD で SAP Analytics Cloud、SAP Cloud Platform、Business by Design、SAP Qualtrics、SAP C4C などの SAP SaaS アプリケーションに SSO を実装します。</t>
+          <t>Cloud Connector を介して SAP クラウド アプリケーションからオンプレミス (IaaS を含む) に ID を転送するためのプリンシパル伝達を適用する</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2982,12 +2981,16 @@
           <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
-      <c r="I47" s="15" t="n"/>
+      <c r="I47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+        </is>
+      </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3008,7 +3011,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>SAML を使用して、SAP Fiori や SAP Web GUI などの SAP NetWeaver ベースの Web アプリケーションに SSO を実装します。</t>
+          <t>SAML を使用して Azure AD で SAP Analytics Cloud、SAP Cloud Platform、Business by Design、SAP Qualtrics、SAP C4C などの SAP SaaS アプリケーションに SSO を実装します。</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3025,19 +3028,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3073,17 +3071,21 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3104,7 +3106,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>SAP NetWeaver SSO またはパートナーソリューションを使用して、SAP GUI への SSO を実装できます。</t>
+          <t>SAML を使用して、SAP Fiori や SAP Web GUI などの SAP NetWeaver ベースの Web アプリケーションに SSO を実装します。</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3119,21 +3121,17 @@
         </is>
       </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
+      <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3154,7 +3152,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI および Web ブラウザアクセスの SSO には、設定とメンテナンスが容易なため、SNC/Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーションメカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
+          <t>SAP NetWeaver SSO またはパートナーソリューションを使用して、SAP GUI への SSO を実装できます。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3169,17 +3167,21 @@
         </is>
       </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="n"/>
+      <c r="H51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
       <c r="I51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3215,17 +3217,17 @@
         </is>
       </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="inlineStr">
-        <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+      <c r="H52" s="15" t="n"/>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3246,7 +3248,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>OAuth for SAP NetWeaver を使用して SSO を実装し、サードパーティまたはカスタムアプリケーションが SAP NetWeaver OData サービスにアクセスできるようにします。</t>
+          <t>SAP GUI および Web ブラウザアクセスの SSO には、設定とメンテナンスが容易なため、SNC/Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーションメカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3263,14 +3265,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3291,7 +3293,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>SAP HANAへのSSOの実装</t>
+          <t>OAuth for SAP NetWeaver を使用して SSO を実装し、サードパーティまたはカスタムアプリケーションが SAP NetWeaver OData サービスにアクセスできるようにします。</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3308,7 +3310,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3316,7 +3318,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3337,7 +3339,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Azure AD は、RISE でホストされている SAP システムの ID プロバイダーであると考えてください。詳細については、「サービスと Azure AD の統合」を参照してください。</t>
+          <t>SAP HANAへのSSOの実装</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3354,14 +3356,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3382,7 +3384,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>SAP にアクセスするアプリケーションでは、プリンシパル伝搬を使用して SSO を確立することができます。</t>
+          <t>Azure AD は、RISE でホストされている SAP システムの ID プロバイダーであると考えてください。詳細については、「サービスと Azure AD の統合」を参照してください。</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3399,14 +3401,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3427,7 +3429,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>SAP Identity Authentication Service (IAS) を必要とする SAP BTP サービスまたは SaaS ソリューションを使用している場合は、SAP Cloud Identity Authentication Services と Azure AD の間に SSO を実装して、それらの SAP サービスにアクセスすることを検討してください。この統合により、SAP IAS はプロキシ ID プロバイダーとして機能し、認証要求を中央ユーザー ストアおよび ID プロバイダーとして Azure AD に転送できます。</t>
+          <t>SAP にアクセスするアプリケーションでは、プリンシパル伝搬を使用して SSO を確立することができます。</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3444,14 +3446,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3472,7 +3474,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>SAP BTP への SSO の実装</t>
+          <t>SAP Identity Authentication Service (IAS) を必要とする SAP BTP サービスまたは SaaS ソリューションを使用している場合は、SAP Cloud Identity Authentication Services と Azure AD の間に SSO を実装して、それらの SAP サービスにアクセスすることを検討してください。この統合により、SAP IAS はプロキシ ID プロバイダーとして機能し、認証要求を中央ユーザー ストアおよび ID プロバイダーとして Azure AD に転送できます。</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3489,14 +3491,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3517,7 +3519,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>SAP SuccessFactors を使用している場合は、Azure AD の自動ユーザー プロビジョニングの使用を検討してください。この統合により、SAP SuccessFactors に新しい従業員を追加するときに、Azure AD でユーザー アカウントを自動的に作成できます。 必要に応じて、Microsoft 365 または Azure AD でサポートされているその他の SaaS アプリケーションでユーザー アカウントを作成できます。 SAP SuccessFactors へのメール アドレスの書き戻しを使用します。</t>
+          <t>SAP BTP への SSO の実装</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3534,14 +3536,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3552,17 +3554,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>既存の管理グループ ポリシーを SAP サブスクリプションに適用する</t>
+          <t>SAP SuccessFactors を使用している場合は、Azure AD の自動ユーザー プロビジョニングの使用を検討してください。この統合により、SAP SuccessFactors に新しい従業員を追加するときに、Azure AD でユーザー アカウントを自動的に作成できます。 必要に応じて、Microsoft 365 または Azure AD でサポートされているその他の SaaS アプリケーションでユーザー アカウントを作成できます。 SAP SuccessFactors へのメール アドレスの書き戻しを使用します。</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3579,19 +3581,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3612,13 +3609,13 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>緊密に結合されたアプリケーションを同じSAPサブスクリプションに統合し、ルーティングと管理の複雑さを回避</t>
+          <t>既存の管理グループ ポリシーを SAP サブスクリプションに適用する</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3629,19 +3626,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3662,7 +3659,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプションをスケール ユニットとして活用し、リソースをスケーリングし、環境ごとにサブスクリプションをデプロイすることを検討してください。サンドボックス、非製品、製品</t>
+          <t>緊密に結合されたアプリケーションを同じSAPサブスクリプションに統合し、ルーティングと管理の複雑さを回避</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3684,14 +3681,14 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3712,7 +3709,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプションのプロビジョニングの一環としてクォータを確実に増やす (例: サブスクリプション内で使用可能な VM コアの合計数)</t>
+          <t>サブスクリプションをスケール ユニットとして活用し、リソースをスケーリングし、環境ごとにサブスクリプションをデプロイすることを検討してください。サンドボックス、非製品、製品</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3729,19 +3726,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3762,13 +3759,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>クォータ API は、Azure サービスのクォータを表示および管理するために使用できる REST API です。必要に応じて使用を検討してください。</t>
+          <t>サブスクリプションのプロビジョニングの一環としてクォータを確実に増やす (例: サブスクリプション内で使用可能な VM コアの合計数)</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3779,15 +3776,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3808,13 +3809,13 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>可用性ゾーンにデプロイする場合は、クォータが承認されたら、VM のゾーン デプロイが使用可能であることを確認します。必要なサブスクリプション、VM シリーズ、CPU の数、可用性ゾーンを含むサポート リクエストを送信します。</t>
+          <t>クォータ API は、Azure サービスのクォータを表示および管理するために使用できる REST API です。必要に応じて使用を検討してください。</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3825,7 +3826,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
         </is>
       </c>
       <c r="I65" s="15" t="n"/>
@@ -3833,7 +3834,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3854,7 +3855,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>必要なサービスと機能が、選択した展開リージョン内で利用可能であることを確認します。ANF、ゾーンなど</t>
+          <t>可用性ゾーンにデプロイする場合は、クォータが承認されたら、VM のゾーン デプロイが使用可能であることを確認します。必要なサブスクリプション、VM シリーズ、CPU の数、可用性ゾーンを含むサポート リクエストを送信します。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3871,19 +3872,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3904,13 +3900,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>コストの分類とリソースのグループ化 (BillTo、部門 (または部署)、環境 (運用、ステージ、開発)、層 (Web 層、アプリケーション層)、アプリケーション所有者、プロジェクト名) に Azure リソース タグを活用します</t>
+          <t>必要なサービスと機能が、選択した展開リージョン内で利用可能であることを確認します。ANF、ゾーンなど</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3921,19 +3917,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3944,23 +3940,23 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>BCDR (英語)</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup サービスを使用して HANA データベースを保護するのに役立ちます。</t>
+          <t>コストの分類とリソースのグループ化 (BillTo、部門 (または部署)、環境 (運用、ステージ、開発)、層 (Web 層、アプリケーション層)、アプリケーション所有者、プロジェクト名) に Azure リソース タグを活用します</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3971,19 +3967,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4004,13 +4000,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>HANA、Oracle、または DB2 データベースに Azure NetApp Files をデプロイする場合は、Azure アプリケーション整合性スナップショット ツール (AzAcSnap) を使用して、アプリケーション整合性スナップショットを作成します。AzAcSnap は Oracle データベースもサポートしています。個々の VM ではなく、中央の VM で AzAcSnap を使用することを検討してください。</t>
+          <t>Azure Backup サービスを使用して HANA データベースを保護するのに役立ちます。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4021,15 +4017,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4045,18 +4045,18 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>オペレーティングシステムと SAP システムの間でタイムゾーンが一致していることを確認します。</t>
+          <t>HANA、Oracle、または DB2 データベースに Azure NetApp Files をデプロイする場合は、Azure アプリケーション整合性スナップショット ツール (AzAcSnap) を使用して、アプリケーション整合性スナップショットを作成します。AzAcSnap は Oracle データベースもサポートしています。個々の VM ではなく、中央の VM で AzAcSnap を使用することを検討してください。</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4067,7 +4067,7 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
         </is>
       </c>
       <c r="I70" s="15" t="n"/>
@@ -4075,7 +4075,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4096,13 +4096,13 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>異なるアプリケーション サービスを同じクラスターにグループ化しないでください。たとえば、DRBDとセントラルサービスクラスタを同じクラスタに組み合わせないでください。ただし、同じ Pacemaker クラスターを使用して、約 5 つの異なるセントラル サービス (マルチ SID クラスター) を管理できます。</t>
+          <t>オペレーティングシステムと SAP システムの間でタイムゾーンが一致していることを確認します。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4113,19 +4113,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4146,13 +4142,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>スヌーズ モデルで開発/テスト システムを実行して、Azure の実行コストを節約および最適化することを検討してください。</t>
+          <t>異なるアプリケーション サービスを同じクラスターにグループ化しないでください。たとえば、DRBDとセントラルサービスクラスタを同じクラスタに組み合わせないでください。ただし、同じ Pacemaker クラスターを使用して、約 5 つの異なるセントラル サービス (マルチ SID クラスター) を管理できます。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4163,15 +4159,19 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
-        </is>
-      </c>
-      <c r="I72" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4192,13 +4192,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>お客様の SAP 資産を管理することでお客様と提携する場合は、Azure Lighthouse をご検討ください。Azure Lighthouse を使用すると、マネージド サービス プロバイダーは Azure ネイティブ ID サービスを使用して、顧客の環境に対する認証を行うことができます。顧客はいつでもアクセスを取り消し、サービスプロバイダーの行動を監査できるため、制御を顧客の手に委ねることができます。</t>
+          <t>スヌーズ モデルで開発/テスト システムを実行して、Azure の実行コストを節約および最適化することを検討してください。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4209,7 +4209,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4217,7 +4217,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Azure Update Manager を使用して、1 つまたは複数の VM で利用可能な更新プログラムの状態を確認し、定期的な修正プログラムの適用をスケジュールすることを検討します。</t>
+          <t>お客様の SAP 資産を管理することでお客様と提携する場合は、Azure Lighthouse をご検討ください。Azure Lighthouse を使用すると、マネージド サービス プロバイダーは Azure ネイティブ ID サービスを使用して、顧客の環境に対する認証を行うことができます。顧客はいつでもアクセスを取り消し、サービスプロバイダーの行動を監査できるため、制御を顧客の手に委ねることができます。</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4255,19 +4255,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4288,13 +4284,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>SAP Landscape Management (LaMa) を使用して SAP Basis の運用を最適化および管理します。Azure 用の SAP LaMa コネクタを使用して、SAP システムの再配置、コピー、複製、更新を行います。</t>
+          <t>Azure Update Manager を使用して、1 つまたは複数の VM で利用可能な更新プログラムの状態を確認し、定期的な修正プログラムの適用をスケジュールすることを検討します。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4305,19 +4301,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,18 +4329,18 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor for SAP solutions を使用して、Azure 上の SAP ワークロード (SAP HANA、高可用性 SUSE クラスター、SQL システム) を監視します。Azure Monitor for SAP solutions を SAP Solution Manager で補完することを検討してください。</t>
+          <t>SAP Landscape Management (LaMa) を使用して SAP Basis の運用を最適化および管理します。Azure 用の SAP LaMa コネクタを使用して、SAP システムの再配置、コピー、複製、更新を行います。</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4355,19 +4351,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4388,13 +4384,13 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>SAP の VM 拡張機能チェックを実行します。VM Extension for SAP では、仮想マシン (VM) の割り当てられたマネージド ID を使用して、VM の監視および構成データにアクセスします。このチェックにより、SAP アプリケーションのすべてのパフォーマンス メトリックが、基になる Azure Extension for SAP からのものであることが確認されます。</t>
+          <t>Azure Monitor for SAP solutions を使用して、Azure 上の SAP ワークロード (SAP HANA、高可用性 SUSE クラスター、SQL システム) を監視します。Azure Monitor for SAP solutions を SAP Solution Manager で補完することを検討してください。</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4405,19 +4401,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4438,13 +4434,13 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
+          <t>SAP の VM 拡張機能チェックを実行します。VM Extension for SAP では、仮想マシン (VM) の割り当てられたマネージド ID を使用して、VM の監視および構成データにアクセスします。このチェックにより、SAP アプリケーションのすべてのパフォーマンス メトリックが、基になる Azure Extension for SAP からのものであることが確認されます。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4455,19 +4451,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4488,7 +4484,7 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Azure Network Watcher の接続モニターを使用して、SAP データベースとアプリケーション サーバーの待機時間メトリックを監視します。または、Azure Monitor を使用してネットワーク待機時間の測定値を収集して表示します。</t>
+          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4505,19 +4501,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4538,13 +4534,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery の監視を使用して、SAP アプリケーション サーバーのディザスター リカバリー サービスの正常性を維持します。</t>
+          <t>Azure Network Watcher の接続モニターを使用して、SAP データベースとアプリケーション サーバーの待機時間メトリックを監視します。または、Azure Monitor を使用してネットワーク待機時間の測定値を収集して表示します。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4555,19 +4551,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -5112,23 +5108,23 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>HTTP/S アプリを安全に配信するには、Application Gateway v2 を使用し、WAF の保護とポリシーが有効になっていることを確認します。</t>
+          <t>Azure Site Recovery の監視を使用して、SAP アプリケーション サーバーのディザスター リカバリー サービスの正常性を維持します。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5139,19 +5135,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5167,12 +5163,12 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>DNSの</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Azure への移行中に仮想マシンの DNS または仮想名が変更されない場合、バックグラウンド DNS と仮想名によって SAP ランドスケープ内の多くのシステム インターフェイスが接続され、お客様は、開発者が時間の経過と共に定義するインターフェイスに気付くことがあります。移行後に仮想名または DNS 名が変更されると、さまざまなシステム間で接続の問題が発生するため、このような問題を防ぐために DNS エイリアスを保持することをお勧めします。</t>
+          <t>HTTP/S アプリを安全に配信するには、Application Gateway v2 を使用し、WAF の保護とポリシーが有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5189,19 +5185,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5222,7 +5218,7 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>異なる DNS ゾーンを使用して、各環境 (サンドボックス、開発、運用前、運用) を互いに区別します。例外は、独自の VNet を使用する SAP デプロイの場合です。ここでは、プライベート DNS ゾーンは必要ない場合があります。</t>
+          <t>Azure への移行中に仮想マシンの DNS または仮想名が変更されない場合、バックグラウンド DNS と仮想名によって SAP ランドスケープ内の多くのシステム インターフェイスが接続され、お客様は、開発者が時間の経過と共に定義するインターフェイスに気付くことがあります。移行後に仮想名または DNS 名が変更されると、さまざまなシステム間で接続の問題が発生するため、このような問題を防ぐために DNS エイリアスを保持することをお勧めします。</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5251,7 +5247,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5267,12 +5263,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>DNSの</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>ローカルとグローバルの VNet ピアリングは接続を提供し、複数の Azure リージョンにまたがる SAP デプロイのランディング ゾーン間の接続を確保するための推奨されるアプローチです</t>
+          <t>異なる DNS ゾーンを使用して、各環境 (サンドボックス、開発、運用前、運用) を互いに区別します。例外は、独自の VNet を使用する SAP デプロイの場合です。ここでは、プライベート DNS ゾーンは必要ない場合があります。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5289,19 +5285,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5322,13 +5318,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーションと SAP データベース サーバー間の NVA のデプロイはサポートされていません</t>
+          <t>ローカルとグローバルの VNet ピアリングは接続を提供し、複数の Azure リージョンにまたがる SAP デプロイのランディング ゾーン間の接続を確保するための推奨されるアプローチです</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5339,19 +5335,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5372,13 +5368,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
+          <t>SAP アプリケーションと SAP データベース サーバー間の NVA のデプロイはサポートされていません</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5389,19 +5385,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5422,7 +5418,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>パートナーの NVA が使用されている場合にのみ、リージョン間でネットワーク仮想アプライアンス (NVA) をデプロイすることを検討してください。ネイティブ NVA が存在する場合、リージョン間または VNet 間の NVA は必要ありません。パートナーのネットワーク テクノロジと NVA をデプロイする場合は、ベンダーのガイダンスに従って、Azure ネットワークと競合する構成を確認します。</t>
+          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5439,19 +5435,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5472,7 +5468,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN は、仮想 WAN ベースのトポロジのスポーク VNet 間の接続を管理し (ユーザー定義ルーティング (UDR) または NVA を設定する必要はありません)、同じ仮想ハブ内の VNet 間トラフィックの最大ネットワーク スループットは 50 ギガビット/秒です。必要に応じて、SAP ランディング ゾーンは VNet ピアリングを使用して他のランディング ゾーンに接続し、この帯域幅の制限を克服できます。</t>
+          <t>パートナーの NVA が使用されている場合にのみ、リージョン間でネットワーク仮想アプライアンス (NVA) をデプロイすることを検討してください。ネイティブ NVA が存在する場合、リージョン間または VNet 間の NVA は必要ありません。パートナーのネットワーク テクノロジと NVA をデプロイする場合は、ベンダーのガイダンスに従って、Azure ネットワークと競合する構成を確認します。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5489,19 +5485,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5517,18 +5513,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>SAP ワークロードを実行している VM へのパブリック I.P 割り当てはお勧めしません。</t>
+          <t>Virtual WAN は、仮想 WAN ベースのトポロジのスポーク VNet 間の接続を管理し (ユーザー定義ルーティング (UDR) または NVA を設定する必要はありません)、同じ仮想ハブ内の VNet 間トラフィックの最大ネットワーク スループットは 50 ギガビット/秒です。必要に応じて、SAP ランディング ゾーンは VNet ピアリングを使用して他のランディング ゾーンに接続し、この帯域幅の制限を克服できます。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5539,19 +5535,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5572,7 +5568,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>ASR の設定時に DR 側で I.P アドレスを予約することを検討してください</t>
+          <t>SAP ワークロードを実行している VM へのパブリック IP の割り当てはお勧めしません。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5589,19 +5585,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5622,7 +5618,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>ASRの設定時にDR側でIPアドレスを予約することを検討してください</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5639,19 +5635,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5672,13 +5668,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Azure では 1 つの VNet に複数の委任されたサブネットを作成できますが、Azure NetApp Files の VNet に存在できる委任されたサブネットは 1 つだけです。Azure NetApp Files に複数の委任されたサブネットを使用すると、新しいボリュームを作成しようとしても失敗します。</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5689,19 +5685,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5717,12 +5713,12 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
+          <t>Azure では 1 つの VNet に複数の委任されたサブネットを作成できますが、Azure NetApp Files の VNet に存在できる委任されたサブネットは 1 つだけです。Azure NetApp Files に複数の委任されたサブネットを使用すると、新しいボリュームを作成しようとしても失敗します。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5739,19 +5735,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5772,7 +5768,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway、SAP Web Dispatcher、およびその他のサードパーティ サービスの比較に示すように、Application Gateway が SAP Web アプリのリバース プロキシとして機能する場合、Application Gateway と Web Application Firewall には制限があります。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5789,19 +5785,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5822,7 +5818,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
+          <t>Application Gateway、SAP Web Dispatcher、およびその他のサードパーティ サービスの比較に示すように、Application Gateway が SAP Web アプリのリバース プロキシとして機能する場合、Application Gateway と Web Application Firewall には制限があります。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5839,19 +5835,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5872,7 +5868,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と Application Gateway を使用して HTTP/S アプリケーションを保護する場合は、Azure Front Door の Web アプリケーション ファイアウォール ポリシーを利用します。Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5889,19 +5885,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5922,7 +5918,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Web アプリケーション ファイアウォールを使用して、インターネットに公開されているトラフィックをスキャンします。別のオプションとして、ロード バランサーや、Application Gateway やサードパーティ ソリューションなどのファイアウォール機能が組み込まれているリソースと共に使用することもできます。</t>
+          <t>Azure Front Door と Application Gateway を使用して HTTP/S アプリケーションを保護する場合は、Azure Front Door の Web アプリケーション ファイアウォール ポリシーを利用します。Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5939,7 +5935,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
@@ -5951,7 +5947,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5972,7 +5968,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
+          <t>Web アプリケーション ファイアウォールを使用して、インターネットに公開されているトラフィックをスキャンします。別のオプションとして、ロード バランサーや、Application Gateway やサードパーティ ソリューションなどのファイアウォール機能が組み込まれているリソースと共に使用することもできます。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5989,19 +5985,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6022,7 +6018,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>データ漏えいを防ぐには、Azure Private Link を使用して、Azure Blob Storage、Azure Files、Azure Data Lake Storage Gen2、Azure Data Factory などのサービスとしてのプラットフォーム リソースに安全にアクセスします。Azure プライベート エンドポイントは、VNet と Azure Storage、Azure Backup などのサービス間のトラフィックをセキュリティで保護するのにも役立ちます。VNet とプライベート エンドポイント対応サービス間のトラフィックは、Microsoft グローバル ネットワークを経由するため、パブリック インターネットへの公開は防止されます。</t>
+          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6039,19 +6035,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6067,18 +6063,18 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーションと DBMS レイヤーで使用される VM で Azure 高速ネットワークが有効になっていることを確認します。</t>
+          <t>データ漏えいを防ぐには、Azure Private Link を使用して、Azure Blob Storage、Azure Files、Azure Data Lake Storage Gen2、Azure Data Factory などのサービスとしてのプラットフォーム リソースに安全にアクセスします。Azure プライベート エンドポイントは、VNet と Azure Storage、Azure Backup などのサービス間のトラフィックをセキュリティで保護するのにも役立ちます。VNet とプライベート エンドポイント対応サービス間のトラフィックは、Microsoft グローバル ネットワークを経由するため、パブリック インターネットへの公開は防止されます。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6089,19 +6085,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6122,13 +6118,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer の内部デプロイが Direct Server Return (DSR) を使用するように設定されていることを確認します。この設定により、DBMS レイヤーの高可用性構成に内部ロード バランサー構成が使用されている場合の待機時間が短縮されます。</t>
+          <t>SAP アプリケーションと DBMS レイヤーで使用される VM で Azure 高速ネットワークが有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6139,19 +6135,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6172,7 +6168,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション セキュリティ グループ (ASG) と NSG 規則を使用して、SAP アプリケーション層と DBMS 層の間にネットワーク セキュリティのアクセス制御リストを定義できます。ASG は、仮想マシンをグループ化してセキュリティの管理に役立てます。</t>
+          <t>Azure Load Balancer の内部デプロイが Direct Server Return (DSR) を使用するように設定されていることを確認します。この設定により、DBMS レイヤーの高可用性構成に内部ロード バランサー構成が使用されている場合の待機時間が短縮されます。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6189,19 +6185,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6222,13 +6218,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>ピアリングされていない異なる Azure VNet への SAP アプリケーション レイヤーと SAP DBMS の配置はサポートされていません。</t>
+          <t>アプリケーション セキュリティ グループ (ASG) と NSG 規則を使用して、SAP アプリケーション層と DBMS 層の間にネットワーク セキュリティのアクセス制御リストを定義できます。ASG は、仮想マシンをグループ化してセキュリティの管理に役立てます。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6239,19 +6235,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6272,13 +6268,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーションで最適なネットワーク待機時間を実現するには、Azure 近接通信配置グループの使用を検討してください。</t>
+          <t>ピアリングされていない異なる Azure VNet への SAP アプリケーション レイヤーと SAP DBMS の配置はサポートされていません。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6289,19 +6285,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6322,13 +6318,13 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスと Azure の間で分割された SAP アプリケーション サーバー レイヤーと DBMS レイヤーを実行することは、まったくサポートされていません。どちらのレイヤーも、オンプレミスまたは Azure に完全に存在する必要があります。</t>
+          <t>SAP アプリケーションで最適なネットワーク待機時間を実現するには、Azure 近接通信配置グループの使用を検討してください。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6339,19 +6335,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6372,7 +6368,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>SAP システムのデータベース管理システム (DBMS) レイヤーとアプリケーション レイヤーを異なる VNet でホストし、それらを VNet ピアリングに接続することは、レイヤー間の過剰なネットワーク トラフィックによって生成される可能性があるため、お勧めしません。Azure 仮想ネットワーク内のサブネットを使用して、SAP アプリケーション レイヤーと DBMS レイヤーを分離することをお勧めします。</t>
+          <t>オンプレミスと Azure の間で分割された SAP アプリケーション サーバー レイヤーと DBMS レイヤーを実行することは、まったくサポートされていません。どちらのレイヤーも、オンプレミスまたは Azure に完全に存在する必要があります。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6401,7 +6397,7 @@
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6422,7 +6418,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Linux ゲスト・オペレーティング・システムで Load Balancer を使用する場合は、Linux ネットワーク・パラメーター net.ipv4.tcp_timestamps が 0 に設定されていることを確認します。</t>
+          <t>SAP システムのデータベース管理システム (DBMS) レイヤーとアプリケーション レイヤーを異なる VNet でホストし、それらを VNet ピアリングに接続することは、レイヤー間の過剰なネットワーク トラフィックによって生成される可能性があるため、お勧めしません。Azure 仮想ネットワーク内のサブネットを使用して、SAP アプリケーション レイヤーと DBMS レイヤーを分離することをお勧めします。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6439,19 +6435,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6472,13 +6468,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>SAP RISE/ECS デプロイの場合、仮想ピアリングは、お客様の既存の Azure 環境との接続を確立するための推奨される方法です。SAP vnet と顧客 VNet の両方がネットワーク セキュリティ グループ (NSG) で保護され、vnet ピアリングを介した SAP ポートとデータベース ポートでの通信が可能になります</t>
+          <t>Linux ゲスト・オペレーティング・システムで Load Balancer を使用する場合は、Linux ネットワーク・パラメーター net.ipv4.tcp_timestamps が 0 に設定されていることを確認します。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6489,14 +6485,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6507,17 +6508,17 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Azure、オンプレミス、またはその他のクラウド環境で Windows VM と Linux VM を実行している場合は、Azure Automation の更新管理センターを使用して、セキュリティ パッチを含むオペレーティング システムの更新プログラムを管理できます。</t>
+          <t>SAP RISE/ECS デプロイの場合、仮想ピアリングは、お客様の既存の Azure 環境との接続を確立するための推奨される方法です。SAP vnet と顧客 VNet の両方がネットワーク セキュリティ グループ (NSG) で保護され、vnet ピアリングを介した SAP ポートとデータベース ポートでの通信が可能になります</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6534,19 +6535,15 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6557,23 +6554,23 @@
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーショナル・エクセレンス</t>
         </is>
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>SAP は、SAP システムを保護するために即時のアクションを必要とする非常に重要なセキュリティ パッチまたはホット フィックスをリリースしているため、SAP セキュリティ OSS ノートを定期的に確認してください。</t>
+          <t>Azure VM の SAP HANA データベースのバックアップを確認します。</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6584,19 +6581,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>ff5136bd-dcf1-4d2b-ae52-39333efdf45a</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6607,23 +6600,23 @@
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーショナル・エクセレンス</t>
         </is>
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>SQL Server 上の SAP システムではアカウントを使用しないため、SQL Server 上の SAP システム管理者アカウントを無効にすることができます。元のシステム管理者アカウントを無効にする前に、システム管理者権限を持つ別のユーザーがサーバーにアクセスできることを確認してください。</t>
+          <t>Site Recovery の組み込み監視 (SAP で使用されている場合) を確認します。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6634,7 +6627,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6642,7 +6635,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>cafde29d-a0af-4bcd-87c0-0f299d63f0e8</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6653,17 +6646,17 @@
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーショナル・エクセレンス</t>
         </is>
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>xp_cmdshellを無効にします。SQL Server 機能xp_cmdshell、SQL Server 内部オペレーティング システムのコマンド シェルを有効にします。これは、セキュリティ監査における潜在的なリスクです。</t>
+          <t>SAP HANA システム ランドスケープの監視に関するガイダンスを確認します。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6680,19 +6673,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
-        </is>
-      </c>
+          <t>https://help.sap.com/docs/SAP_HANA_PLATFORM/c4d7c773af4a4e5dbebb6548d6e2d4f4/e3111d2ebb5710149510cc120646bf3f.html?locale=en-US</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>82d7b8de-d3f1-44a0-830b-38e200e82acf</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6703,23 +6692,23 @@
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーショナル・エクセレンス</t>
         </is>
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Azure 上の SAP HANA データベース サーバーの暗号化では、SAP HANA ネイティブ暗号化テクノロジが使用されます。さらに、Azure で SQL Server を使用している場合は、Transparent Data Encryption (TDE) を使用してデータとログ ファイルを保護し、バックアップも暗号化されるようにします。</t>
+          <t>Azure Linux VM のバックアップ戦略で Oracle Database を確認します。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6730,19 +6719,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/oracle-database-backup-strategies</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>c823873a-2bec-4c2a-b684-a1ce8ae80efd</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6753,17 +6738,17 @@
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーショナル・エクセレンス</t>
         </is>
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage の暗号化は、すべての Azure Resource Manager とクラシック ストレージ アカウントに対して有効になっており、無効にすることはできません。データは既定で暗号化されるため、Azure Storage 暗号化を使用するためにコードやアプリケーションを変更する必要はありません。</t>
+          <t>SQL Server 2016 での Azure Blob Storage の使用を確認します。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6780,19 +6765,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/sql/relational-databases/tutorial-use-azure-blob-storage-service-with-sql-server-2016?view=sql-server-ver16</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>2943b6d8-1d31-4e19-ade7-78e6b26d1962</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6803,23 +6784,23 @@
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーショナル・エクセレンス</t>
         </is>
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>Azure VM の自動バックアップ v2 の使用を確認します。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6830,19 +6811,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-sql/virtual-machines/windows/automated-backup?view=azuresql</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>b82e650f-676d-417d-994d-fc33ca54ec14</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6853,23 +6829,23 @@
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーショナル・エクセレンス</t>
         </is>
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>デプロイが成功したら、Azure リソースを LOCK して、承認されていない変更から保護することをお勧めします。また、カスタマイズされた Azure ポリシー (Custome ロール) を使用して、サブスクリプションごとに LOCK の制約とルールを適用することもできます。</t>
+          <t>Premium ディスク使用時の M シリーズの書き込みアクセラレータの有効化 (V1)</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6878,21 +6854,12 @@
         </is>
       </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H127" s="15" t="n"/>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>347c2dcc-e6eb-4b04-80c5-628b171aa62d</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6903,17 +6870,17 @@
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+          <t>可用性ゾーンの待機時間をテストします。</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6930,19 +6897,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>b96512cf-996f-4b17-b9b8-6b16db1a2a94</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6953,23 +6915,23 @@
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>既存の要件、規制、コンプライアンス制御 (内部/外部) に基づいて、必要な Azure ポリシーと Azure RBAC ロールを決定します</t>
+          <t>すべての SAP コンポーネントに対して SAP EarlyWatch Alert を有効化します。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6980,19 +6942,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+          <t>https://support.sap.com/en/offerings-programs/support-services/earlywatch-alert.html</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/techops/3362700736.html</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>9fd7ffd4-da11-49f6-a374-8d03e94c511d</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7003,23 +6965,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>SAP 環境でMicrosoft Defender for Endpointを有効にする場合は、すべてのサーバーを対象とするのではなく、DBMS サーバー上のデータとログ ファイルを除外することをお勧めします。ターゲット ファイルを除外する場合は、DBMS ベンダーの推奨事項に従ってください。</t>
+          <t>SAP ABAPMeter report /SSA/CAT を使用して、SAP アプリケーション サーバーからデータベース サーバー間の待機時間を確認します。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7030,19 +6992,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/sap-on-azure-general-update-march-2019/ba-p/377456</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://me.sap.com/notes/0002879613</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>b9b140cf-413a-483d-aad2-8802c4e3c017</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7053,23 +7015,23 @@
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud の Just-In-Time アクセス権を持つ SAP 管理者カスタム ロールを委任します。</t>
+          <t>CCMS を使用した SQL Server のパフォーマンス監視を確認します。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7078,21 +7040,12 @@
         </is>
       </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>62fbf0f8-51db-49e1-a961-bb5df7a35f80</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7103,23 +7056,23 @@
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>サードパーティのセキュリティ製品を DIAG (SAP GUI)、RFC、および SPNEGO for HTTPS のセキュアネットワーク通信 (SNC) と統合することにより、転送中のデータを暗号化します。</t>
+          <t>SAP アプリケーション レイヤー VM と DBMS VM 間のネットワーク待機時間をテストします (NIPING)。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7130,19 +7083,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://me.sap.com/notes/500235</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+          <t>https://me.sap.com/notes/1100926/E</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>35709da7-fc7d-4efe-bb20-2e91547b7390</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7153,17 +7106,17 @@
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>SAP HANA Studio アラートを確認します。</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7180,19 +7133,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/en-us/azure/sap/large-instances/hana-monitor-troubleshoot</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>9e9bb4c8-e934-4e4b-a13c-6f7c7c38eb43</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7203,23 +7151,23 @@
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
+          <t>HANA_Configuration_Minichecks を使用して SAP HANA ヘルスチェックを実行します。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7230,19 +7178,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1969700</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>f1a92ab5-9509-4b57-86ff-b0ade361b694</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7258,18 +7201,18 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>HANA 以外の Windows オペレーティング システムと Windows 以外のオペレーティング システムのディスク暗号化キーとシークレットを制御および管理するには、Azure Key Vault を使用します。SAP HANA は Azure Key Vault ではサポートされていないため、SAP ABAP キーや SSH キーなどの代替方法を使用する必要があります。</t>
+          <t>Azure、オンプレミス、またはその他のクラウド環境で Windows VM と Linux VM を実行している場合は、Azure Automation の更新管理センターを使用して、セキュリティ パッチを含むオペレーティング システムの更新プログラムを管理できます。</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7280,19 +7223,19 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7308,12 +7251,12 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>SAP は、SAP システムを保護するために即時のアクションを必要とする非常に重要なセキュリティ パッチまたはホット フィックスをリリースしているため、SAP セキュリティ OSS ノートを定期的に確認してください。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7330,14 +7273,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7353,18 +7301,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します</t>
+          <t>SQL Server 上の SAP システムではアカウントを使用しないため、SQL Server 上の SAP システム管理者アカウントを無効にすることができます。元のシステム管理者アカウントを無効にする前に、システム管理者権限を持つ別のユーザーがサーバーにアクセスできることを確認してください。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7375,19 +7323,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7403,12 +7346,12 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
+          <t>xp_cmdshellを無効にします。SQL Server 機能xp_cmdshell、SQL Server 内部オペレーティング システムのコマンド シェルを有効にします。これは、セキュリティ監査における潜在的なリスクです。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7425,19 +7368,19 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7453,18 +7396,18 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Azure で Microsoft マルウェア対策ソフトウェアを使用して、悪意のあるファイル、アドウェア、その他の脅威から仮想マシンを保護することを検討してください。</t>
+          <t>Azure 上の SAP HANA データベース サーバーの暗号化では、SAP HANA ネイティブ暗号化テクノロジが使用されます。さらに、Azure で SQL Server を使用している場合は、Transparent Data Encryption (TDE) を使用してデータとログ ファイルを保護し、バックアップも暗号化されるようにします。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7475,19 +7418,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7503,18 +7446,18 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>さらに強力な保護を行うには、Microsoft Defender for Endpointの使用を検討してください。</t>
+          <t>Azure Storage の暗号化は、すべての Azure Resource Manager とクラシック ストレージ アカウントに対して有効になっており、無効にすることはできません。データは既定で暗号化されるため、Azure Storage 暗号化を使用するためにコードやアプリケーションを変更する必要はありません。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7525,19 +7468,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7553,12 +7496,12 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワーク ピアリングによってスポーク ネットワークに接続されているハブ仮想ネットワークを介してすべてのトラフィックを渡すことで、SAP アプリケーションとデータベース サーバーをインターネットまたはオンプレミス ネットワークから分離します。ピアリングされた仮想ネットワークにより、SAP on Azure ソリューションがパブリック インターネットから分離されることが保証されます。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7575,19 +7518,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7603,18 +7546,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>SAP Fiori などのインターネットに接続するアプリケーションの場合は、セキュリティレベルを維持しながら、アプリケーション要件ごとに負荷を分散してください。レイヤー 7 セキュリティについては、Azure Marketplace で入手できるサードパーティの Web アプリケーション ファイアウォール (WAF) を使用できます。</t>
+          <t>デプロイが成功したら、Azure リソースを LOCK して、承認されていない変更から保護することをお勧めします。また、カスタマイズされた Azure ポリシー (Custome ロール) を使用して、サブスクリプションごとに LOCK の制約とルールを適用することもできます。</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7625,19 +7568,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7653,12 +7596,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor for SAP solutions でセキュリティで保護された通信を有効にするには、ルート証明書またはサーバー証明書のいずれかを使用することを選択できます。ルート証明書を使用することを強くお勧めします。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7675,19 +7618,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7696,240 +7639,745 @@
       <c r="P143" s="25" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="21" t="n"/>
-      <c r="B144" s="21" t="n"/>
-      <c r="C144" s="21" t="n"/>
+      <c r="A144" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B144" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C144" s="21" t="inlineStr">
+        <is>
+          <t>既存の要件、規制、コンプライアンス制御 (内部/外部) に基づいて、必要な Azure ポリシーと Azure RBAC ロールを決定します</t>
+        </is>
+      </c>
       <c r="D144" s="21" t="n"/>
-      <c r="E144" s="21" t="n"/>
+      <c r="E144" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G144" s="21" t="n"/>
-      <c r="H144" s="15" t="n"/>
+      <c r="H144" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
-      <c r="L144" s="25" t="n"/>
+      <c r="L144" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M144" s="25" t="n"/>
       <c r="N144" s="25" t="n"/>
       <c r="O144" s="25" t="n"/>
       <c r="P144" s="25" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1">
-      <c r="A145" s="21" t="n"/>
-      <c r="B145" s="21" t="n"/>
-      <c r="C145" s="21" t="n"/>
+      <c r="A145" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B145" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C145" s="21" t="inlineStr">
+        <is>
+          <t>SAP 環境でMicrosoft Defender for Endpointを有効にする場合は、すべてのサーバーを対象とするのではなく、DBMS サーバー上のデータとログ ファイルを除外することをお勧めします。ターゲット ファイルを除外する場合は、DBMS ベンダーの推奨事項に従ってください。</t>
+        </is>
+      </c>
       <c r="D145" s="21" t="n"/>
-      <c r="E145" s="21" t="n"/>
+      <c r="E145" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G145" s="21" t="n"/>
-      <c r="H145" s="15" t="n"/>
+      <c r="H145" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
-      <c r="L145" s="25" t="n"/>
+      <c r="L145" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M145" s="25" t="n"/>
       <c r="N145" s="25" t="n"/>
       <c r="O145" s="25" t="n"/>
       <c r="P145" s="25" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1">
-      <c r="A146" s="21" t="n"/>
-      <c r="B146" s="21" t="n"/>
-      <c r="C146" s="21" t="n"/>
+      <c r="A146" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B146" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C146" s="21" t="inlineStr">
+        <is>
+          <t>Microsoft Defender for Cloud の Just-In-Time アクセス権を持つ SAP 管理者カスタム ロールを委任します。</t>
+        </is>
+      </c>
       <c r="D146" s="21" t="n"/>
-      <c r="E146" s="21" t="n"/>
+      <c r="E146" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G146" s="21" t="n"/>
-      <c r="H146" s="15" t="n"/>
+      <c r="H146" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
-      <c r="L146" s="25" t="n"/>
+      <c r="L146" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M146" s="25" t="n"/>
       <c r="N146" s="25" t="n"/>
       <c r="O146" s="25" t="n"/>
       <c r="P146" s="25" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
-      <c r="A147" s="21" t="n"/>
-      <c r="B147" s="21" t="n"/>
-      <c r="C147" s="21" t="n"/>
+      <c r="A147" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B147" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C147" s="21" t="inlineStr">
+        <is>
+          <t>サードパーティのセキュリティ製品を DIAG (SAP GUI)、RFC、および SPNEGO for HTTPS のセキュアネットワーク通信 (SNC) と統合することにより、転送中のデータを暗号化します。</t>
+        </is>
+      </c>
       <c r="D147" s="21" t="n"/>
-      <c r="E147" s="21" t="n"/>
+      <c r="E147" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G147" s="21" t="n"/>
-      <c r="H147" s="15" t="n"/>
+      <c r="H147" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
-      <c r="L147" s="25" t="n"/>
+      <c r="L147" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M147" s="25" t="n"/>
       <c r="N147" s="25" t="n"/>
       <c r="O147" s="25" t="n"/>
       <c r="P147" s="25" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
-      <c r="A148" s="21" t="n"/>
-      <c r="B148" s="21" t="n"/>
-      <c r="C148" s="21" t="n"/>
+      <c r="A148" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B148" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C148" s="21" t="inlineStr">
+        <is>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+        </is>
+      </c>
       <c r="D148" s="21" t="n"/>
-      <c r="E148" s="21" t="n"/>
+      <c r="E148" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G148" s="21" t="n"/>
-      <c r="H148" s="15" t="n"/>
+      <c r="H148" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
-      <c r="L148" s="25" t="n"/>
+      <c r="L148" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M148" s="25" t="n"/>
       <c r="N148" s="25" t="n"/>
       <c r="O148" s="25" t="n"/>
       <c r="P148" s="25" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="21" t="n"/>
-      <c r="B149" s="21" t="n"/>
-      <c r="C149" s="21" t="n"/>
+      <c r="A149" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B149" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C149" s="21" t="inlineStr">
+        <is>
+          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
+        </is>
+      </c>
       <c r="D149" s="21" t="n"/>
-      <c r="E149" s="21" t="n"/>
+      <c r="E149" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G149" s="21" t="n"/>
-      <c r="H149" s="15" t="n"/>
+      <c r="H149" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
-      <c r="L149" s="25" t="n"/>
+      <c r="L149" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M149" s="25" t="n"/>
       <c r="N149" s="25" t="n"/>
       <c r="O149" s="25" t="n"/>
       <c r="P149" s="25" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="21" t="n"/>
-      <c r="B150" s="21" t="n"/>
-      <c r="C150" s="21" t="n"/>
+      <c r="A150" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B150" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C150" s="21" t="inlineStr">
+        <is>
+          <t>HANA 以外の Windows オペレーティング システムと Windows 以外のオペレーティング システムのディスク暗号化キーとシークレットを制御および管理するには、Azure Key Vault を使用します。SAP HANA は Azure Key Vault ではサポートされていないため、SAP ABAP キーや SSH キーなどの代替方法を使用する必要があります。</t>
+        </is>
+      </c>
       <c r="D150" s="21" t="n"/>
-      <c r="E150" s="21" t="n"/>
+      <c r="E150" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G150" s="21" t="n"/>
-      <c r="H150" s="15" t="n"/>
+      <c r="H150" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
-      <c r="L150" s="25" t="n"/>
+      <c r="L150" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M150" s="25" t="n"/>
       <c r="N150" s="25" t="n"/>
       <c r="O150" s="25" t="n"/>
       <c r="P150" s="25" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1">
-      <c r="A151" s="21" t="n"/>
-      <c r="B151" s="21" t="n"/>
-      <c r="C151" s="21" t="n"/>
+      <c r="A151" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B151" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C151" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D151" s="21" t="n"/>
-      <c r="E151" s="21" t="n"/>
+      <c r="E151" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G151" s="21" t="n"/>
-      <c r="H151" s="15" t="n"/>
+      <c r="H151" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
-      <c r="L151" s="25" t="n"/>
+      <c r="L151" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M151" s="25" t="n"/>
       <c r="N151" s="25" t="n"/>
       <c r="O151" s="25" t="n"/>
       <c r="P151" s="25" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1">
-      <c r="A152" s="21" t="n"/>
-      <c r="B152" s="21" t="n"/>
-      <c r="C152" s="21" t="n"/>
+      <c r="A152" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B152" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C152" s="21" t="inlineStr">
+        <is>
+          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します</t>
+        </is>
+      </c>
       <c r="D152" s="21" t="n"/>
-      <c r="E152" s="21" t="n"/>
+      <c r="E152" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
-      <c r="L152" s="25" t="n"/>
+      <c r="L152" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M152" s="25" t="n"/>
       <c r="N152" s="25" t="n"/>
       <c r="O152" s="25" t="n"/>
       <c r="P152" s="25" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1">
-      <c r="A153" s="21" t="n"/>
-      <c r="B153" s="21" t="n"/>
-      <c r="C153" s="21" t="n"/>
+      <c r="A153" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B153" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C153" s="21" t="inlineStr">
+        <is>
+          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
+        </is>
+      </c>
       <c r="D153" s="21" t="n"/>
-      <c r="E153" s="21" t="n"/>
+      <c r="E153" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
-      <c r="L153" s="25" t="n"/>
+      <c r="L153" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M153" s="25" t="n"/>
       <c r="N153" s="25" t="n"/>
       <c r="O153" s="25" t="n"/>
       <c r="P153" s="25" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1">
-      <c r="A154" s="21" t="n"/>
-      <c r="B154" s="21" t="n"/>
-      <c r="C154" s="21" t="n"/>
+      <c r="A154" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B154" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C154" s="21" t="inlineStr">
+        <is>
+          <t>Azure で Microsoft マルウェア対策ソフトウェアを使用して、悪意のあるファイル、アドウェア、その他の脅威から仮想マシンを保護することを検討してください。</t>
+        </is>
+      </c>
       <c r="D154" s="21" t="n"/>
-      <c r="E154" s="21" t="n"/>
+      <c r="E154" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="n"/>
+      <c r="H154" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
-      <c r="L154" s="25" t="n"/>
+      <c r="L154" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M154" s="25" t="n"/>
       <c r="N154" s="25" t="n"/>
       <c r="O154" s="25" t="n"/>
       <c r="P154" s="25" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1">
-      <c r="A155" s="21" t="n"/>
-      <c r="B155" s="21" t="n"/>
-      <c r="C155" s="21" t="n"/>
+      <c r="A155" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B155" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C155" s="21" t="inlineStr">
+        <is>
+          <t>さらに強力な保護を行うには、Microsoft Defender for Endpointの使用を検討してください。</t>
+        </is>
+      </c>
       <c r="D155" s="21" t="n"/>
-      <c r="E155" s="21" t="n"/>
+      <c r="E155" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="15" t="n"/>
+      <c r="H155" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
-      <c r="L155" s="25" t="n"/>
+      <c r="L155" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M155" s="25" t="n"/>
       <c r="N155" s="25" t="n"/>
       <c r="O155" s="25" t="n"/>
       <c r="P155" s="25" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1">
-      <c r="A156" s="21" t="n"/>
-      <c r="B156" s="21" t="n"/>
-      <c r="C156" s="21" t="n"/>
+      <c r="A156" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B156" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C156" s="21" t="inlineStr">
+        <is>
+          <t>仮想ネットワーク ピアリングによってスポーク ネットワークに接続されているハブ仮想ネットワークを介してすべてのトラフィックを渡すことで、SAP アプリケーションとデータベース サーバーをインターネットまたはオンプレミス ネットワークから分離します。ピアリングされた仮想ネットワークにより、SAP on Azure ソリューションがパブリック インターネットから分離されることが保証されます。</t>
+        </is>
+      </c>
       <c r="D156" s="21" t="n"/>
-      <c r="E156" s="21" t="n"/>
+      <c r="E156" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
-      <c r="L156" s="25" t="n"/>
+      <c r="L156" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M156" s="25" t="n"/>
       <c r="N156" s="25" t="n"/>
       <c r="O156" s="25" t="n"/>
       <c r="P156" s="25" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1">
-      <c r="A157" s="21" t="n"/>
-      <c r="B157" s="21" t="n"/>
-      <c r="C157" s="21" t="n"/>
+      <c r="A157" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B157" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C157" s="21" t="inlineStr">
+        <is>
+          <t>SAP Fiori などのインターネットに接続するアプリケーションの場合は、セキュリティレベルを維持しながら、アプリケーション要件ごとに負荷を分散してください。レイヤー 7 セキュリティについては、Azure Marketplace で入手できるサードパーティの Web アプリケーション ファイアウォール (WAF) を使用できます。</t>
+        </is>
+      </c>
       <c r="D157" s="21" t="n"/>
-      <c r="E157" s="21" t="n"/>
+      <c r="E157" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G157" s="21" t="n"/>
-      <c r="H157" s="15" t="n"/>
+      <c r="H157" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
-      <c r="L157" s="25" t="n"/>
+      <c r="L157" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M157" s="25" t="n"/>
       <c r="N157" s="25" t="n"/>
       <c r="O157" s="25" t="n"/>
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="n"/>
-      <c r="B158" s="21" t="n"/>
-      <c r="C158" s="21" t="n"/>
+      <c r="A158" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B158" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C158" s="21" t="inlineStr">
+        <is>
+          <t>Azure Monitor for SAP solutions でセキュリティで保護された通信を有効にするには、ルート証明書またはサーバー証明書のいずれかを使用することを選択できます。ルート証明書を使用することを強くお勧めします。</t>
+        </is>
+      </c>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="n"/>
+      <c r="E158" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="n"/>
+      <c r="H158" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="n"/>
+      <c r="L158" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
@@ -10176,7 +10624,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F159" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ja.xlsx
@@ -941,7 +941,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -10728,6 +10728,11 @@
           <t>Use the "Import latest checklist" button to get the latest version of a review checklist</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>このチェックはまだ検討されていません</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>en</t>
@@ -10750,6 +10755,11 @@
           <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>このチェックにはアクションアイテムが関連付けられています</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>ja</t>
@@ -10772,6 +10782,11 @@
           <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>このチェックは検証済みで、これ以上のアクションアイテムは関連付けられていません</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>ko</t>
@@ -10781,12 +10796,17 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>該当なし</t>
+          <t>必要なし</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>管理と監視</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>推奨事項は理解されているが、現在の要件では不要</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -10798,7 +10818,7 @@
     <row r="6">
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>該当なし</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -10808,7 +10828,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Not applicable for current design</t>
+          <t>現在のデザインには適用されません</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">

--- a/spreadsheet/macrofree/sap_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ja.xlsx
@@ -7996,18 +7996,18 @@
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8018,14 +8018,19 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8046,7 +8051,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します</t>
+          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8063,19 +8068,19 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8096,13 +8101,13 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
+          <t>Azure で Microsoft マルウェア対策ソフトウェアを使用して、悪意のあるファイル、アドウェア、その他の脅威から仮想マシンを保護することを検討してください。</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8113,19 +8118,19 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8146,7 +8151,7 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Azure で Microsoft マルウェア対策ソフトウェアを使用して、悪意のあるファイル、アドウェア、その他の脅威から仮想マシンを保護することを検討してください。</t>
+          <t>さらに強力な保護を行うには、Microsoft Defender for Endpointの使用を検討してください。</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8163,19 +8168,19 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8196,13 +8201,13 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>さらに強力な保護を行うには、Microsoft Defender for Endpointの使用を検討してください。</t>
+          <t>仮想ネットワーク ピアリングによってスポーク ネットワークに接続されているハブ仮想ネットワークを介してすべてのトラフィックを渡すことで、SAP アプリケーションとデータベース サーバーをインターネットまたはオンプレミス ネットワークから分離します。ピアリングされた仮想ネットワークにより、SAP on Azure ソリューションがパブリック インターネットから分離されることが保証されます。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8213,19 +8218,19 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8246,13 +8251,13 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワーク ピアリングによってスポーク ネットワークに接続されているハブ仮想ネットワークを介してすべてのトラフィックを渡すことで、SAP アプリケーションとデータベース サーバーをインターネットまたはオンプレミス ネットワークから分離します。ピアリングされた仮想ネットワークにより、SAP on Azure ソリューションがパブリック インターネットから分離されることが保証されます。</t>
+          <t>SAP Fiori などのインターネットに接続するアプリケーションの場合は、セキュリティレベルを維持しながら、アプリケーション要件ごとに負荷を分散してください。レイヤー 7 セキュリティについては、Azure Marketplace で入手できるサードパーティの Web アプリケーション ファイアウォール (WAF) を使用できます。</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8263,19 +8268,19 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8296,13 +8301,13 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>SAP Fiori などのインターネットに接続するアプリケーションの場合は、セキュリティレベルを維持しながら、アプリケーション要件ごとに負荷を分散してください。レイヤー 7 セキュリティについては、Azure Marketplace で入手できるサードパーティの Web アプリケーション ファイアウォール (WAF) を使用できます。</t>
+          <t>Azure Monitor for SAP solutions でセキュリティで保護された通信を有効にするには、ルート証明書またはサーバー証明書のいずれかを使用することを選択できます。ルート証明書を使用することを強くお勧めします。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8313,19 +8318,19 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8334,50 +8339,16 @@
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="inlineStr">
-        <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
-        </is>
-      </c>
-      <c r="B158" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="C158" s="21" t="inlineStr">
-        <is>
-          <t>Azure Monitor for SAP solutions でセキュリティで保護された通信を有効にするには、ルート証明書またはサーバー証明書のいずれかを使用することを選択できます。ルート証明書を使用することを強くお勧めします。</t>
-        </is>
-      </c>
+      <c r="A158" s="21" t="n"/>
+      <c r="B158" s="21" t="n"/>
+      <c r="C158" s="21" t="n"/>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E158" s="21" t="n"/>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H158" s="15" t="n"/>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="inlineStr">
-        <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
-        </is>
-      </c>
+      <c r="L158" s="25" t="n"/>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
@@ -10624,7 +10595,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F159" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F158" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ja.xlsx
@@ -6168,7 +6168,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer の内部デプロイが Direct Server Return (DSR) を使用するように設定されていることを確認します。この設定により、DBMS レイヤーの高可用性構成に内部ロード バランサー構成が使用されている場合の待機時間が短縮されます。</t>
+          <t>Azure Load Balancer の内部デプロイが Direct Server Return (DSR) を使用するように設定されていることを確認します。この設定 (フローティング IP の有効化) により、DBMS レイヤーの高可用性構成に内部ロード バランサー構成が使用されている場合の待機時間が短縮されます。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>

--- a/spreadsheet/macrofree/sap_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ja.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure Center for SAP solutions (ACSS) は、SAP を Azure 上のトップレベルのワークロードにする Azure オファリングです。ACSS は、SAP システムを Azure 上の統合ワークロードとして作成および実行し、イノベーションのためのよりシームレスな基盤を提供するエンドツーエンドのソリューションです。新規と既存の Azure ベースの SAP システムの両方の管理機能を利用できます。</t>
+          <t>Azure Center for SAP solutions (ACSS) は、SAP を Azure 上の最上位のワークロードにする Azure オファリングです。ACSS は、Azure 上の統合ワークロードとして SAP システムを作成および実行し、イノベーションのためのよりシームレスな基盤を提供するエンドツーエンドのソリューションです。新しい Azure ベースの SAP システムと既存の SAP システムの両方の管理機能を利用できます。</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Azure では、Linux と Windows での SAP デプロイの自動化がサポートされています。SAP Deployment Automation Framework は、SAP 環境をデプロイ、インストール、および保守できるオープンソースのオーケストレーション ツールです。</t>
+          <t>Azure では、Linux と Windows での SAP デプロイの自動化がサポートされています。SAP Deployment Automation Framework は、SAP 環境をデプロイ、インストール、保守できるオープンソースのオーケストレーションツールです。</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1159,7 +1159,7 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>運用データベースのポイントインタイム リカバリを、RTOを満たす任意の時点および時間枠で実行します。ポイント・イン・タイム・リカバリには、通常、DBMSレイヤー上またはSAPを介してデータを削除するオペレーター・エラーが含まれます</t>
+          <t>運用データベースのポイントインタイムリカバリを、RTOを満たす任意の時点と時間枠で実行します。ポイントインタイムリカバリには、通常、DBMSレイヤーまたはSAPを介してデータを削除するオペレーターのエラーが含まれます</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1205,17 +1205,17 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>災害復旧</t>
+          <t>ディザスタリカバリ</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>バックアップと復旧の時間をテストして、災害発生後にすべてのシステムを同時に復元するための RTO 要件を満たしていることを確認します。</t>
+          <t>バックアップ時間とリカバリ時間をテストして、災害後にすべてのシステムを同時にリストアするための RTO 要件を満たしていることを確認します。</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1247,17 +1247,17 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>災害復旧</t>
+          <t>ディザスタリカバリ</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>ペアのリージョン間で Standard Storage をレプリケートすることはできますが、Standard Storage を使用してデータベースや仮想ハード ディスクを格納することはできません。バックアップは、使用するペアのリージョン間でのみレプリケートできます。その他のすべてのデータについては、SQL Server Always On や SAP HANA システム レプリケーションなどのネイティブ DBMS 機能を使用してレプリケーションを実行します。SAP アプリケーション層には、Site Recovery、rsync または robocopy、およびその他のサードパーティ ソフトウェアを組み合わせて使用します。</t>
+          <t>ペアになっているリージョン間で標準ストレージをレプリケートすることはできますが、データベースや仮想ハード ディスクの保存に標準ストレージを使用することはできません。バックアップをレプリケートできるのは、使用するペアのリージョン間でのみです。他のすべてのデータについては、SQL Server Always On や SAP HANA システム レプリケーションなどのネイティブ DBMS 機能を使用してレプリケーションを実行します。SAP アプリケーション層には、Site Recovery、rsync または robocopy、およびその他のサードパーティ ソフトウェアを組み合わせて使用します。</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1297,17 +1297,17 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>災害復旧</t>
+          <t>ディザスタリカバリ</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Azure Availability Zones を使用して高可用性を実現する場合は、SAP アプリケーション サーバーとデータベース サーバー間の待機時間を考慮する必要があります。待機時間が長いゾーンでは、SAP アプリケーション サーバーとデータベース サーバーが常に同じゾーンで実行されていることを確認するための運用手順を実施する必要があります。</t>
+          <t>Azure Availability Zones を使用して高可用性を実現する場合は、SAP アプリケーション サーバーとデータベース サーバー間の待機時間を考慮する必要があります。レイテンシーの高いゾーンでは、SAP アプリケーション・サーバーとデータベース・サーバーが常に同じゾーンで実行されていることを確認するための運用手順を整備する必要があります。</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1347,17 +1347,17 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>災害復旧</t>
+          <t>ディザスタリカバリ</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスからプライマリおよびセカンダリの Azure ディザスター リカバリー リージョンへの ExpressRoute 接続を設定します。また、ExpressRoute を使用する代わりに、オンプレミスからプライマリおよびセカンダリの Azure ディザスター リカバリー リージョンへの VPN 接続を設定することも検討してください。</t>
+          <t>オンプレミスからプライマリおよびセカンダリの Azure ディザスター リカバリー リージョンへの ExpressRoute 接続を設定します。また、ExpressRoute を使用する代わりに、オンプレミスからプライマリおよびセカンダリの Azure ディザスター リカバリー リージョンへの VPN 接続を設定することを検討してください。</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1397,17 +1397,17 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>災害復旧</t>
+          <t>ディザスタリカバリ</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>証明書、シークレット、キーなどのキー コンテナーの内容をリージョン間でレプリケートして、DR リージョン内のデータの暗号化を解除できるようにします。</t>
+          <t>証明書、シークレット、キーなどのキー コンテナーの内容をリージョン間でレプリケートして、DR リージョンのデータを復号化できるようにします。</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1443,17 +1443,17 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>災害復旧</t>
+          <t>ディザスタリカバリ</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>プライマリ仮想ネットワークとディザスター リカバリー仮想ネットワークをピアリングします。たとえば、HANA システム レプリケーションの場合、SAP HANA DB 仮想ネットワークは、ディザスター リカバリー サイトの SAP HANA DB 仮想ネットワークにピアリングする必要があります。</t>
+          <t>プライマリ仮想ネットワークとディザスター リカバリー仮想ネットワークをピアリングします。たとえば、HANA システム レプリケーションの場合、SAP HANA DB 仮想ネットワークをディザスター リカバリー サイトの SAP HANA DB 仮想ネットワークにピアリングする必要があります。</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1489,17 +1489,17 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>災害復旧</t>
+          <t>ディザスタリカバリ</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>SAP デプロイに Azure NetApp Files ストレージを使用する場合は、少なくとも、Premium レベルの 2 つのリージョンに 2 つの Azure NetApp Files アカウントを作成します。</t>
+          <t>SAP デプロイに Azure NetApp Files ストレージを使用する場合は、少なくとも Premium レベルの 2 つのリージョンに 2 つの Azure NetApp Files アカウントを作成します。</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1539,17 +1539,17 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>災害復旧</t>
+          <t>ディザスタリカバリ</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>ネイティブのデータベースレプリケーションテクノロジーを使用して、HAペアでデータベースを同期する必要があります。</t>
+          <t>ネイティブ・データベース・レプリケーション・テクノロジーを使用して、HAペアのデータベースを同期する必要があります。</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1589,17 +1589,17 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>災害復旧</t>
+          <t>ディザスタリカバリ</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>プライマリ仮想ネットワーク (VNet) の CIDR は、DR サイトの VNet の CIDR と競合したり重複したりしないようにする必要があります</t>
+          <t>プライマリ仮想ネットワーク (VNet) の CIDR は、DR サイトの VNet の CIDR と競合したり、重複したりしないようにする必要があります</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1639,17 +1639,17 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>災害復旧</t>
+          <t>ディザスタリカバリ</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Site Recovery を使用して、アプリケーション サーバーを DR サイトにレプリケートします。Site Recovery は、セントラル サービス クラスター VM を DR サイトにレプリケートする場合にも役立ちます。DR を呼び出すときは、DR サイトで Linux Pacemaker クラスターを再構成する必要があります (たとえば、VIP または SBD の置き換え、corosync.conf の実行など)。</t>
+          <t>Site Recovery を使用して、アプリケーション サーバーを DR サイトにレプリケートします。Site Recovery は、セントラル サービス クラスター VM を DR サイトにレプリケートするのにも役立ちます。DR を呼び出すときは、DR サイトで Linux Pacemaker クラスターを再構成する必要があります (たとえば、VIP または SBD の置き換え、corosync.conf の実行など)。</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1685,7 +1685,7 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>単一障害点に対する SAP ソフトウェアの可用性を検討します。これには、SAP NetWeaver や SAP S/4HANA アーキテクチャ、SAP ABAP、ASCS + SCS で使用される DBMS などのアプリケーション内の単一障害点が含まれます。また、SAP Web ディスパッチャなどの他のツールも必要です。</t>
+          <t>単一障害点に対する SAP ソフトウェアの可用性を検討します。これには、SAP NetWeaver や SAP S/4HANA アーキテクチャ、SAP ABAP や ASCS + SCS で使用される DBMS などのアプリケーション内の単一障害点が含まれます。また、SAP Web Dispatcher などの他のツールも含みます。</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1735,7 +1735,7 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>SAP および SAP データベースの場合は、自動フェールオーバー クラスターの実装を検討してください。Windows では、Windows Server フェールオーバー クラスタリングがフェールオーバーをサポートします。Linux では、Linux Pacemaker や、SIOS Protection Suite や Veritas InfoScale などのサードパーティツールがフェイルオーバーをサポートしています。</t>
+          <t>SAP および SAP データベースの場合は、自動フェールオーバー クラスターの実装を検討してください。Windows では、Windows Server フェールオーバー クラスタリングはフェールオーバーをサポートします。Linux では、Linux Pacemaker や SIOS Protection Suite や Veritas InfoScale などのサードパーティツールがフェイルオーバーをサポートしています。</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1785,7 +1785,7 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Azure では、プライマリ VM とセカンダリ VM が DBMS データのストレージを共有するアーキテクチャはサポートされていません。DBMSレイヤーの場合、一般的なアーキテクチャパターンは、プライマリおよびセカンダリVMが使用するストレージスタックとは異なるストレージスタックを使用して、データベースを同時にレプリケートすることです。</t>
+          <t>Azure では、プライマリ VM とセカンダリ VM が DBMS データのストレージを共有するアーキテクチャはサポートされていません。DBMS レイヤーの一般的なアーキテクチャ パターンは、プライマリ VM とセカンダリ VM が使用するものとは異なるストレージ スタックを使用して、データベースを同時にレプリケートすることです。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1835,7 +1835,7 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>DBMS データとトランザクション/REDO ログ ファイルは、Azure でサポートされているブロック ストレージまたは Azure NetApp Files に格納されます。Azure Files または Azure Premium Files は、SAP ワークロードでの DBMS データや再実行ログ ファイルのストレージとしてはサポートされていません。</t>
+          <t>DBMS データとトランザクション/再実行ログ ファイルは、Azure でサポートされているブロック ストレージまたは Azure NetApp Files に格納されます。Azure Files または Azure Premium Files は、SAP ワークロードでの DBMS データや再実行ログ ファイルのストレージとしてサポートされていません。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1885,7 +1885,7 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Windows の Azure 共有ディスクは、ASCS + SCS コンポーネントと特定の高可用性シナリオに使用できます。フェールオーバー クラスターは、SAP アプリケーション層コンポーネントと DBMS 層に対して個別に設定します。現在、Azure では、SAP アプリケーション レイヤー コンポーネントと DBMS レイヤーを 1 つのフェールオーバー クラスターに結合する高可用性アーキテクチャはサポートされていません。</t>
+          <t>Windows の Azure 共有ディスクは、ASCS + SCS コンポーネントと特定の高可用性シナリオに使用できます。フェールオーバー クラスターは、SAP アプリケーション レイヤー コンポーネントと DBMS レイヤー用に別々に設定します。Azure では現在、SAP アプリケーション レイヤー コンポーネントと DBMS レイヤーを 1 つのフェールオーバー クラスターに結合する高可用性アーキテクチャはサポートされていません。</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1935,7 +1935,7 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーション レイヤー コンポーネント (ASCS) と DBMS レイヤーのほとんどのフェールオーバー クラスターでは、フェールオーバー クラスターの仮想 IP アドレスが必要です。 Azure Load Balancer は、他のすべてのケースで仮想 IP アドレスを処理する必要があります。設計原則の 1 つは、クラスター構成ごとに 1 つのロード バランサーを使用することです。ロード バランサーの Standard バージョン (Standard Load Balancer SKU) を使用することをお勧めします。</t>
+          <t>SAP アプリケーション レイヤー コンポーネント (ASCS) と DBMS レイヤーのほとんどのフェールオーバー クラスターには、フェールオーバー クラスターの仮想 IP アドレスが必要です。 Azure Load Balancer は、他のすべてのケースで仮想 IP アドレスを処理する必要があります。設計原則の 1 つは、クラスター構成ごとに 1 つのロード バランサーを使用することです。ロード バランサーの Standard バージョン (Standard Load Balancer SKU) を使用することをお勧めします。</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1985,7 +1985,7 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>ロードバランサーでフローティング IP が有効になっていることを確認します</t>
+          <t>フローティング IP がロードバランサーで有効になっていることを確認します</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2035,7 +2035,7 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>同じ可用性セット内に異なるロールのサーバーを混在させないでください。セントラル サービス VM、データベース VM、アプリケーション VM を独自の可用性セットに保持する</t>
+          <t>同じ可用性セットに異なる役割のサーバーを混在させないでください。中央サービス VM、データベース VM、アプリケーション VM を独自の可用性セットに保持します</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2180,7 +2180,7 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>近接通信配置グループを使用しない限り、Azure 可用性ゾーン内に Azure 可用性セットをデプロイすることはできません。</t>
+          <t>近接配置グループを使用しない限り、Azure 可用性ゾーン内に Azure 可用性セットをデプロイすることはできません。</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2230,7 +2230,7 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>可用性セットを作成するときは、使用可能な障害ドメインと更新ドメインの最大数を使用します。たとえば、1 つの可用性セットに 2 つ以上の VM をデプロイする場合は、Azure の計画メンテナンスに加えて、潜在的な物理ハードウェア障害、ネットワークの停止、または停電の影響を制限するために、最大数の障害ドメイン (3 つ) と十分な更新ドメインを使用します。障害ドメインの既定の数は 2 であり、後でオンラインで変更することはできません。</t>
+          <t>可用性セットを作成するときは、使用可能な障害ドメインと更新ドメインの最大数を使用します。たとえば、1 つの可用性セットに 2 つ以上の VM をデプロイする場合は、Azure の計画メンテナンスに加えて、潜在的な物理ハードウェア障害、ネットワーク停止、または電源中断の影響を制限するために、最大数の障害ドメイン (3) と十分な更新ドメインを使用します。障害ドメインのデフォルトの数は 2 で、後でオンラインで変更することはできません。</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2280,7 +2280,7 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>可用性セットのデプロイで Azure 近接通信配置グループを使用する場合は、3 つの SAP コンポーネント (セントラル サービス、アプリケーション サーバー、データベース) をすべて同じ近接通信配置グループに含める必要があります。</t>
+          <t>可用性セットのデプロイで Azure 近接配置グループを使用する場合、3 つの SAP コンポーネント (中央サービス、アプリケーション サーバー、データベース) すべてが同じ近接配置グループに存在する必要があります。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2326,7 +2326,7 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>SAP SID ごとに 1 つの近接配置グループを使用します。グループは、Availability Zones や Azure リージョンにまたがっていません</t>
+          <t>SAP SID ごとに 1 つの近接配置グループを使用します。グループは Availability Zones または Azure リージョンにまたがっていません</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2372,7 +2372,7 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>オペレーティング システムに応じて、次のいずれかのサービスを使用して SAP セントラル サービス クラスターを実行します。</t>
+          <t>次のいずれかのサービスを使用して、オペレーティング システムに応じて SAP セントラル サービス クラスターを実行します。</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2422,7 +2422,7 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>現在、Azure では、同じ Linux Pacemaker クラスターでの ASCS と DB HA の組み合わせはサポートされていません。それらを個々のクラスターに分離します。ただし、最大 5 つの複数のセントラル サービス クラスターを 1 つの VM のペアに結合できます。</t>
+          <t>現在、Azure では、同じ Linux Pacemaker クラスターでの ASCS と DB HA の組み合わせはサポートされていません。それらを個々のクラスターに分割します。ただし、最大 5 つの複数の中央サービス クラスターを 1 つの VM のペアに結合できます。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2472,7 +2472,7 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>両方の VM を高可用性ペアの可用性セットまたは可用性ゾーンにデプロイします。これらの VM は、同じサイズで、同じストレージ構成を持つ必要があります。</t>
+          <t>両方の VM を高可用性ペア、可用性セット、または可用性ゾーンにデプロイします。これらの VM は、同じサイズで、同じストレージ構成である必要があります。</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2518,7 +2518,7 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Azure では、Red Hat Enterprise Linux (RHEL) で実行されている同じ高可用性クラスターへの SAP HANA インスタンスと ASCS/SCS インスタンスと ERS インスタンスのインストールと構成がサポートされています。</t>
+          <t>Azure では、Red Hat Enterprise Linux (RHEL) で実行されている同じ高可用性クラスター上での SAP HANA インスタンスと ASCS/SCS インスタンスと ERS インスタンスのインストールと構成がサポートされています。</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2568,7 +2568,7 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Premium マネージド SSD ですべての運用システムを実行し、Azure NetApp Files または Ultra Disk Storage を使用します。少なくとも、OS ディスクは Premium レベルにすることで、パフォーマンスの向上と最高の SLA を実現できます。</t>
+          <t>すべての運用システムを Premium マネージド SSD で実行し、Azure NetApp Files または Ultra Disk Storage を使用します。少なくとも、OS ディスクは Premium レベルにある必要があるため、パフォーマンスの向上と最高の SLA を実現できます。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2618,7 +2618,7 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>SAP HANA on Azure は、SAP によって認定された種類のストレージでのみ実行する必要があります。該当する場合は、特定のボリュームを特定のディスク構成で実行する必要があることに注意してください。これらの構成には、書き込みアクセラレータの有効化と Premium Storage の使用が含まれます。また、ストレージ上で稼働するファイル システムが、マシン上で稼働する DBMS と互換性があることを確認する必要もあります。</t>
+          <t>Azure で SAP HANA を実行するのは、SAP によって認定されたストレージの種類のみにしてください。特定のボリュームは、該当する場合、特定のディスク構成で実行する必要があることに注意してください。これらの構成には、書き込みアクセラレータの有効化と Premium ストレージの使用が含まれます。また、ストレージ上で実行されるファイルシステムが、マシン上で実行される DBMS と互換性があることを確認する必要があります。</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2668,7 +2668,7 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>SAP ワークロードに使用するストレージの種類に応じて、高可用性を構成することを検討してください。Azure で使用できる一部のストレージ サービスは Azure Site Recovery でサポートされていないため、高可用性の構成が異なる場合があります。</t>
+          <t>SAP ワークロードに使用するストレージのタイプに応じて、高可用性を構成することを検討してください。Azure で使用できる一部のストレージ サービスは Azure Site Recovery でサポートされていないため、高可用性の構成が異なる場合があります。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2718,7 +2718,7 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>事業継続性と災害復旧</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>さまざまなネイティブ Azure ストレージ サービス (Azure Files、Azure NetApp Files、Azure Shared Disk など) は、リージョンによっては利用できない場合があります。そのため、フェールオーバー後に DR リージョンで同様の SAP 設定を行うには、それぞれのストレージ サービスが DR サイトで提供されていることを確認します。</t>
+          <t>さまざまなネイティブ Azure ストレージ サービス (Azure Files、Azure NetApp Files、Azure Shared Disk など) は、すべてのリージョンで使用できるとは限りません。そのため、フェールオーバー後に DR リージョンで同様の SAP を設定するには、それぞれのストレージ サービスが DR サイトで提供されていることを確認します。</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>SAP システムのスタート/ストップを自動化してコストを管理します。</t>
+          <t>SAPシステムのStart-Stopを自動化してコストを管理します。</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>SAP HANA で Azure Premium Storage を使用する場合は、Azure Standard SSD ストレージを使用して、コスト意識の高いストレージ ソリューションを選択できます。ただし、Standard SSD または Standard HDD Azure Storage を選択すると、個々の VM の SLA に影響することに注意してください。また、非運用環境など、I/O スループットが低く待機時間が短いシステムでは、下位のシリーズ VM を使用できます。</t>
+          <t>Azure Premium Storage を SAP HANA と共に使用する場合、Azure Standard SSD ストレージを使用して、コストを意識したストレージ ソリューションを選択できます。ただし、Standard SSD または Standard HDD Azure ストレージを選択すると、個々の VM の SLA に影響することに注意してください。また、非本番環境など、I/O スループットが低く、レイテンシが低いシステムでは、下位シリーズの VM を使用できます。</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>低コストの代替構成 (多目的) として、非運用環境の HANA データベース サーバー VM に低パフォーマンスの SKU を選択できます。ただし、E シリーズなどの一部の VM の種類は、HANA 認定 (SAP HANA Hardware Directory) されていないか、ストレージ待機時間を 1 ミリ秒未満にできないことに注意することが重要です。</t>
+          <t>低コストの代替構成 (多目的) として、非運用 HANA データベース サーバー VM に低パフォーマンスの SKU を選択できます。ただし、E シリーズなどの一部の VM タイプは、HANA 認定 (SAP HANA ハードウェア ディレクトリ) されていないか、1 ミリ秒未満のストレージ待機時間を実現できないことに注意してください。</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2901,7 +2901,7 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>IDとアクセス</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
+          <t>管理グループ、サブスクリプション、リソース グループ、リソースに RBAC モデルを適用する</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2951,7 +2951,7 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>IDとアクセス</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Cloud Connector を介して SAP クラウド アプリケーションからオンプレミス (IaaS を含む) に ID を転送するためのプリンシパル伝達を適用する</t>
+          <t>クラウド コネクタを介して SAP クラウド アプリケーションから SAP オンプレミス (IaaS を含む) に ID を転送するためのプリンシパル伝達の強制</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -3001,7 +3001,7 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>IDとアクセス</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>SAML を使用して Azure AD で SAP Analytics Cloud、SAP Cloud Platform、Business by Design、SAP Qualtrics、SAP C4C などの SAP SaaS アプリケーションに SSO を実装します。</t>
+          <t>SAML を使用して、SAP Analytics Cloud、SAP Cloud Platform、Business by Design、SAP Qualtrics、SAP C4C with Azure AD などの SAP SaaS アプリケーションに SSO を実装します。</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3046,7 +3046,7 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>IDとアクセス</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
@@ -3096,7 +3096,7 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>IDとアクセス</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
@@ -3142,7 +3142,7 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>IDとアクセス</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>SAP NetWeaver SSO またはパートナーソリューションを使用して、SAP GUI への SSO を実装できます。</t>
+          <t>SAP NetWeaver SSO またはパートナソリューションを使用して、SAP GUI への SSO を実装することができます。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3192,7 +3192,7 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>IDとアクセス</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI および Web ブラウザアクセスの SSO には、設定とメンテナンスが容易なため、SNC/Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーションメカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
+          <t>SAP GUIおよびWebブラウザアクセスのSSOには、構成と保守が容易なSNC / Kerberos / SPNEGO(シンプルで保護されたGSSAPIネゴシエーションメカニズム)を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP Secure Login Server を検討してください。</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3238,7 +3238,7 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>IDとアクセス</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI および Web ブラウザアクセスの SSO には、設定とメンテナンスが容易なため、SNC/Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーションメカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
+          <t>SAP GUIおよびWebブラウザアクセスのSSOには、構成と保守が容易なSNC / Kerberos / SPNEGO(シンプルで保護されたGSSAPIネゴシエーションメカニズム)を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP Secure Login Server を検討してください。</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3283,7 +3283,7 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>IDとアクセス</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>OAuth for SAP NetWeaver を使用して SSO を実装し、サードパーティまたはカスタムアプリケーションが SAP NetWeaver OData サービスにアクセスできるようにします。</t>
+          <t>SAP NetWeaver の OAuth を使用して SSO を実装し、サードパーティまたはカスタムアプリケーションが SAP NetWeaver OData サービスにアクセスできるようにします。</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3329,7 +3329,7 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>IDとアクセス</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>SAP HANAへのSSOの実装</t>
+          <t>SAP HANA への SSO の実装</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3374,7 +3374,7 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>IDとアクセス</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Azure AD は、RISE でホストされている SAP システムの ID プロバイダーであると考えてください。詳細については、「サービスと Azure AD の統合」を参照してください。</t>
+          <t>Azure AD は、RISE でホストされている SAP システムの ID プロバイダーと考えてください。詳細については、「サービスと Azure AD の統合」を参照してください。</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3419,7 +3419,7 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>IDとアクセス</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>SAP にアクセスするアプリケーションでは、プリンシパル伝搬を使用して SSO を確立することができます。</t>
+          <t>SAP にアクセスするアプリケーションの場合は、プリンシパル伝搬を使用して SSO を確立することができます。</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3464,7 +3464,7 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>IDとアクセス</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>SAP Identity Authentication Service (IAS) を必要とする SAP BTP サービスまたは SaaS ソリューションを使用している場合は、SAP Cloud Identity Authentication Services と Azure AD の間に SSO を実装して、それらの SAP サービスにアクセスすることを検討してください。この統合により、SAP IAS はプロキシ ID プロバイダーとして機能し、認証要求を中央ユーザー ストアおよび ID プロバイダーとして Azure AD に転送できます。</t>
+          <t>SAP Identity Authentication Service (IAS) を必要とする SAP BTP サービスまたは SaaS ソリューションを使用している場合は、SAP Cloud Identity Authentication サービスと Azure AD の間に SSO を実装して、それらの SAP サービスにアクセスすることを検討してください。この統合により、SAP IAS はプロキシ ID プロバイダーとして機能し、認証要求を中央ユーザー ストアおよび ID プロバイダーとして Azure AD に転送できます。</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3509,7 +3509,7 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>IDとアクセス</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
@@ -3554,7 +3554,7 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>IDとアクセス</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>SAP SuccessFactors を使用している場合は、Azure AD の自動ユーザー プロビジョニングの使用を検討してください。この統合により、SAP SuccessFactors に新しい従業員を追加するときに、Azure AD でユーザー アカウントを自動的に作成できます。 必要に応じて、Microsoft 365 または Azure AD でサポートされているその他の SaaS アプリケーションでユーザー アカウントを作成できます。 SAP SuccessFactors へのメール アドレスの書き戻しを使用します。</t>
+          <t>SAP SuccessFactors を使用している場合は、Azure AD 自動ユーザー プロビジョニングの使用を検討してください。この統合により、新しい従業員を SAP SuccessFactors に追加すると、Azure AD でそのユーザー アカウントを自動的に作成できます。必要に応じて、Microsoft 365 または Azure AD でサポートされている他の SaaS アプリケーションでユーザー アカウントを作成できます。メール アドレスを SAP SuccessFactors に書き戻します。</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3609,10 +3609,14 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>既存の管理グループ ポリシーを SAP サブスクリプションに適用する</t>
-        </is>
-      </c>
-      <c r="D61" s="21" t="n"/>
+          <t>既存の管理グループポリシーをSAPサブスクリプションに適用</t>
+        </is>
+      </c>
+      <c r="D61" s="21" t="inlineStr">
+        <is>
+          <t>管理グループの階層を適度にフラットに保ちます (4 つ以下)。</t>
+        </is>
+      </c>
       <c r="E61" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -3659,7 +3663,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>緊密に結合されたアプリケーションを同じSAPサブスクリプションに統合し、ルーティングと管理の複雑さを回避</t>
+          <t>緊密に結合されたアプリケーションを同じSAPサブスクリプションに統合して、ルーティングと管理の複雑さを回避</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3709,7 +3713,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプションをスケール ユニットとして活用し、リソースをスケーリングし、環境ごとにサブスクリプションをデプロイすることを検討してください。サンドボックス、非製品、製品</t>
+          <t>サブスクリプションをスケールユニットとして活用し、リソースをスケーリングし、環境ごとにサブスクリプションをデプロイすることを検討してください。サンドボックス、非製品、製品</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3759,7 +3763,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプションのプロビジョニングの一環としてクォータを確実に増やす (例: サブスクリプション内で使用可能な VM コアの合計数)</t>
+          <t>サブスクリプションのプロビジョニングの一部としてクォータの増加を確認する (例: サブスクリプション内の使用可能な VM コアの合計)</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3809,7 +3813,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>クォータ API は、Azure サービスのクォータを表示および管理するために使用できる REST API です。必要に応じて使用を検討してください。</t>
+          <t>Quota API は、Azure サービスのクォータを表示および管理するために使用できる REST API です。必要に応じて使用を検討してください。</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3855,7 +3859,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>可用性ゾーンにデプロイする場合は、クォータが承認されたら、VM のゾーン デプロイが使用可能であることを確認します。必要なサブスクリプション、VM シリーズ、CPU の数、可用性ゾーンを含むサポート リクエストを送信します。</t>
+          <t>可用性ゾーンにデプロイする場合は、クォータが承認されたら、VM のゾーン デプロイが使用可能であることを確認してください。サブスクリプション、VM シリーズ、CPU の数、必要な可用性ゾーンを含むサポート リクエストを送信します。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3900,7 +3904,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>必要なサービスと機能が、選択した展開リージョン内で利用可能であることを確認します。ANF、ゾーンなど</t>
+          <t>必要なサービスと機能が、選択したデプロイ リージョン内で使用できることを確認します。ANF、ゾーンなど</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3950,7 +3954,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>コストの分類とリソースのグループ化 (BillTo、部門 (または部署)、環境 (運用、ステージ、開発)、層 (Web 層、アプリケーション層)、アプリケーション所有者、プロジェクト名) に Azure リソース タグを活用します</t>
+          <t>コストの分類とリソースのグループ化に Azure リソース タグを活用します (: BillTo、部門 (または部署)、環境 (運用、ステージ、開発)、階層 (Web 層、アプリケーション層)、アプリケーション所有者、ProjectName)</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3995,12 +3999,12 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>BCDR (英語)</t>
+          <t>BCDRの</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup サービスを使用して HANA データベースを保護するのに役立ちます。</t>
+          <t>Azure Backup サービスを使用して HANA データベースを保護します。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4045,12 +4049,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>BCDR (英語)</t>
+          <t>BCDRの</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>HANA、Oracle、または DB2 データベースに Azure NetApp Files をデプロイする場合は、Azure アプリケーション整合性スナップショット ツール (AzAcSnap) を使用して、アプリケーション整合性スナップショットを作成します。AzAcSnap は Oracle データベースもサポートしています。個々の VM ではなく、中央の VM で AzAcSnap を使用することを検討してください。</t>
+          <t>HANA 、 Oracle 、または DB2 データベースに Azure NetApp Files をデプロイする場合は、 Azure アプリケーション整合性スナップショット ツール (AzAcSnap) を使用して、アプリケーション整合性スナップショットを作成します。AzAcSnap は Oracle データベースもサポートしています。AzAcSnap は、個々の VM ではなく、中央の VM で使用することを検討してください。</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4142,7 +4146,7 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>異なるアプリケーション サービスを同じクラスターにグループ化しないでください。たとえば、DRBDとセントラルサービスクラスタを同じクラスタに組み合わせないでください。ただし、同じ Pacemaker クラスターを使用して、約 5 つの異なるセントラル サービス (マルチ SID クラスター) を管理できます。</t>
+          <t>同じクラスター内で異なるアプリケーション サービスをグループ化しないでください。たとえば、DRBDと中央サービスクラスタを同じクラスタに組み合わせないでください。ただし、同じ Pacemaker クラスターを使用して、約 5 つの異なる中央サービス (マルチ SID クラスター) を管理できます。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -4192,7 +4196,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>スヌーズ モデルで開発/テスト システムを実行して、Azure の実行コストを節約および最適化することを検討してください。</t>
+          <t>Azure の実行コストを節約して最適化するために、スヌーズ モデルで開発/テスト システムを実行することを検討してください。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4238,7 +4242,7 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>お客様の SAP 資産を管理することでお客様と提携する場合は、Azure Lighthouse をご検討ください。Azure Lighthouse を使用すると、マネージド サービス プロバイダーは Azure ネイティブ ID サービスを使用して、顧客の環境に対する認証を行うことができます。顧客はいつでもアクセスを取り消し、サービスプロバイダーの行動を監査できるため、制御を顧客の手に委ねることができます。</t>
+          <t>お客様の SAP 資産を管理することでお客様と提携する場合は、Azure Lighthouse をご検討ください。Azure Lighthouse を使用すると、マネージド サービス プロバイダーは Azure ネイティブ ID サービスを使用して、顧客の環境に対して認証を行うことができます。これにより、顧客はいつでもアクセスを取り消し、サービスプロバイダーの行動を監査できるため、制御が顧客の手に委ねられます。</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4284,7 +4288,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Azure Update Manager を使用して、1 つまたは複数の VM で利用可能な更新プログラムの状態を確認し、定期的な修正プログラムの適用をスケジュールすることを検討します。</t>
+          <t>Azure Update Manager を使用して、1 つまたは複数の VM で利用可能な更新プログラムの状態を確認し、定期的な修正プログラムの適用をスケジュールすることを検討してください。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4334,7 +4338,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>SAP Landscape Management (LaMa) を使用して SAP Basis の運用を最適化および管理します。Azure 用の SAP LaMa コネクタを使用して、SAP システムの再配置、コピー、複製、更新を行います。</t>
+          <t>SAP Landscape Management (LaMa) を使用して、SAP Basis の運用を最適化および管理します。Azure 用の SAP LaMa コネクタを使用して、SAP システムの再配置、コピー、複製、更新を行います。</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4384,7 +4388,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor for SAP solutions を使用して、Azure 上の SAP ワークロード (SAP HANA、高可用性 SUSE クラスター、SQL システム) を監視します。Azure Monitor for SAP solutions を SAP Solution Manager で補完することを検討してください。</t>
+          <t>Azure Monitor for SAP solutions を使用して、Azure 上の SAP ワークロード (SAP HANA、高可用性 SUSE クラスター、SQL システム) を監視します。SAP Solution Manager を使用して Azure Monitor for SAP solutions を補完することを検討してください。</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4434,7 +4438,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>SAP の VM 拡張機能チェックを実行します。VM Extension for SAP では、仮想マシン (VM) の割り当てられたマネージド ID を使用して、VM の監視および構成データにアクセスします。このチェックにより、SAP アプリケーションのすべてのパフォーマンス メトリックが、基になる Azure Extension for SAP からのものであることが確認されます。</t>
+          <t>SAP の VM 拡張機能チェックを実行します。VM Extension for SAP は、仮想マシン (VM) の割り当てられたマネージド ID を使用して、VM の監視データと構成データにアクセスします。このチェックにより、SAP アプリケーションのすべてのパフォーマンス メトリックが、基になる Azure Extension for SAP からのものであることが保証されます。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4484,7 +4488,7 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
+          <t>Azure Policy を使用して、アクセス制御とコンプライアンス レポートを作成します。Azure Policy には、組織全体の設定を適用して、一貫したポリシーの遵守と迅速な違反検出を確保する機能があります。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4584,7 +4588,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>プロビジョニングされた Azure インフラストラクチャで SAP HANA の品質チェックを実行して、プロビジョニングされた VM が SAP HANA on Azure のベスト プラクティスに準拠していることを確認します。</t>
+          <t>プロビジョニングされた Azure インフラストラクチャで SAP HANA の品質チェックを実行し、プロビジョニングされた VM が SAP HANA on Azure のベスト プラクティスに準拠していることを確認します。</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4630,7 +4634,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Azure サブスクリプションごとに、ゾーン デプロイの前に Azure 可用性ゾーンで待機時間テストを実行して、SAP on Azure のデプロイ用に待機時間の短いゾーンを選択します。</t>
+          <t>Azure サブスクリプションごとに、ゾーン デプロイの前に Azure 可用性ゾーンで待機時間テストを実行して、Azure 上の SAP のデプロイに待機時間の短いゾーンを選択します。</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4680,7 +4684,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>回復性レポートを実行して、プロビジョニングされた Azure インフラストラクチャ (コンピューティング、データベース、ネットワーク、ストレージ、Site Recovery) 全体の構成が、Cloud Adaption Framework for Azure によって定義された構成に準拠していることを確認します。</t>
+          <t>回復性レポートを実行して、プロビジョニングされた Azure インフラストラクチャ全体 (コンピューティング、データベース、ネットワーク、ストレージ、Site Recovery) の構成が、Cloud Adaption Framework for Azure で定義された構成に準拠していることを確認します。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4730,7 +4734,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>SAP 用 Microsoft Sentinel ソリューションを使用して脅威保護を実装します。このソリューションを使用して、SAPシステムを監視し、ビジネスロジック層とアプリケーション層全体で高度な脅威を検出します。</t>
+          <t>SAP 用の Microsoft Sentinel ソリューションを使用して脅威保護を実装します。このソリューションを使用して、SAPシステムを監視し、ビジネスロジックとアプリケーションレイヤー全体で高度な脅威を検出します。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4780,7 +4784,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Azure のタグ付けを利用して、リソースを論理的にグループ化して追跡し、デプロイを自動化し、最も重要なこととして、発生したコストを可視化できます。</t>
+          <t>Azure のタグ付けを活用すると、リソースを論理的にグループ化して追跡し、デプロイを自動化し、最も重要なこととして、発生したコストを可視化できます。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4830,7 +4834,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>待機時間の影響を受けやすいアプリケーションには、VM 間の待機時間の監視を使用します。</t>
+          <t>レイテンシの影響を受けやすいアプリケーションには、VM 間のレイテンシ監視を使用します。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4926,7 +4930,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>すべてのデータベース・ファイル・システムおよび実行可能プログラムをウイルス対策スキャンから除外します。これらを含めると、パフォーマンスの問題が発生する可能性があります。除外リストの規範的な詳細については、データベースベンダーに確認してください。たとえば、&lt;sid&gt;ウイルス対策スキャンから/oracle//sapdataを除外することをお薦めします。</t>
+          <t>すべてのデータベース・ファイル・システムと実行可能プログラムをアンチウィルス・スキャンから除外します。それらを含めると、パフォーマンスの問題が発生する可能性があります。除外リストに関する規定の詳細については、データベースベンダーに確認してください。たとえば、Oracle では、&lt;sid&gt;ウイルス対策スキャンから /oracle//sapdata を除外することをお薦めします。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4972,7 +4976,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>移行後に、HANA以外のデータベースの完全なデータベース統計を収集することを検討してください。たとえば、SAP ノート 1020260 - Oracle 統計の配信を実装します。</t>
+          <t>移行後に、HANA 以外のデータベースの完全なデータベース統計を収集することを検討してください。たとえば、SAP ノート 1020260 - Oracle 統計の配信を実装します。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -5018,7 +5022,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>SAP on Azure を使用するすべての Oracle デプロイには、Oracle Automatic Storage Management (ASM) の使用を検討してください。</t>
+          <t>SAP on Azure を使用するすべての Oracle デプロイに Oracle Automatic Storage Management (ASM) を使用することを検討してください。</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5068,7 +5072,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Oracle を実行している SAP on Azure の場合、SQL スクリプトのコレクションは、パフォーマンスの問題の診断に役立ちます。 自動ワークロード・リポジトリ(AWR)レポートには、Oracleシステムの問題を診断するための貴重な情報が含まれています。AWRレポートは、複数のセッションで実行し、ピーク時間を選択して、分析を広範囲にカバーすることをお薦めします。</t>
+          <t>Oracle を実行している SAP on Azure の場合、SQL スクリプトのコレクションはパフォーマンスの問題の診断に役立ちます。 自動ワークロード・リポジトリ(AWR)レポートには、Oracleシステムの問題を診断するための貴重な情報が含まれています。AWR レポートは、複数のセッションで実行し、ピーク時間を選択して、分析の範囲を広く設定することをお勧めします。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5158,12 +5162,12 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
@@ -5208,7 +5212,7 @@
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B94" s="21" t="inlineStr">
@@ -5218,7 +5222,7 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Azure への移行中に仮想マシンの DNS または仮想名が変更されない場合、バックグラウンド DNS と仮想名によって SAP ランドスケープ内の多くのシステム インターフェイスが接続され、お客様は、開発者が時間の経過と共に定義するインターフェイスに気付くことがあります。移行後に仮想名または DNS 名が変更されると、さまざまなシステム間で接続の問題が発生するため、このような問題を防ぐために DNS エイリアスを保持することをお勧めします。</t>
+          <t>Azure への移行中に仮想マシンの DNS または仮想名が変更されない場合、バックグラウンド DNS と仮想名は SAP ランドスケープ内の多くのシステム インターフェイスに接続され、開発者は時間の経過と共に定義するインターフェイスをお客様が認識することがよくあります。移行後に仮想名やDNS名が変更されると、さまざまなシステム間で接続の問題が発生するため、この種の問題を防ぐためにDNSエイリアスを保持することをお勧めします。</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5258,7 +5262,7 @@
     <row r="95" ht="16.5" customHeight="1">
       <c r="A95" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B95" s="21" t="inlineStr">
@@ -5268,7 +5272,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>異なる DNS ゾーンを使用して、各環境 (サンドボックス、開発、運用前、運用) を互いに区別します。例外は、独自の VNet を使用する SAP デプロイの場合です。ここでは、プライベート DNS ゾーンは必要ない場合があります。</t>
+          <t>異なるDNSゾーンを使用して、各環境(サンドボックス、開発、プリプロダクション、およびプロダクション)を相互に区別します。例外は、独自の VNet を持つ SAP デプロイです。ここでは、プライベート DNS ゾーンは必要ないかもしれません。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5308,7 +5312,7 @@
     <row r="96" ht="16.5" customHeight="1">
       <c r="A96" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B96" s="21" t="inlineStr">
@@ -5318,10 +5322,14 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>ローカルとグローバルの VNet ピアリングは接続を提供し、複数の Azure リージョンにまたがる SAP デプロイのランディング ゾーン間の接続を確保するための推奨されるアプローチです</t>
-        </is>
-      </c>
-      <c r="D96" s="21" t="n"/>
+          <t>ローカルおよびグローバル VNet ピアリングは接続を提供し、複数の Azure リージョンにまたがる SAP デプロイのランディング ゾーン間の接続を確保するための推奨されるアプローチです</t>
+        </is>
+      </c>
+      <c r="D96" s="21" t="inlineStr">
+        <is>
+          <t>VNet ピアリングを構成する場合は、 [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用します。</t>
+        </is>
+      </c>
       <c r="E96" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -5358,7 +5366,7 @@
     <row r="97" ht="16.5" customHeight="1">
       <c r="A97" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B97" s="21" t="inlineStr">
@@ -5408,7 +5416,7 @@
     <row r="98" ht="16.5" customHeight="1">
       <c r="A98" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B98" s="21" t="inlineStr">
@@ -5418,7 +5426,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
+          <t>Virtual WAN は、Azure リージョンとオンプレミスの場所間でグローバルなトランジット接続が必要な新しいネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要がなく、SAP on Azure デプロイの標準に従うことができます。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5458,7 +5466,7 @@
     <row r="99" ht="16.5" customHeight="1">
       <c r="A99" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B99" s="21" t="inlineStr">
@@ -5468,7 +5476,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>パートナーの NVA が使用されている場合にのみ、リージョン間でネットワーク仮想アプライアンス (NVA) をデプロイすることを検討してください。ネイティブ NVA が存在する場合、リージョン間または VNet 間の NVA は必要ありません。パートナーのネットワーク テクノロジと NVA をデプロイする場合は、ベンダーのガイダンスに従って、Azure ネットワークと競合する構成を確認します。</t>
+          <t>リージョン間でネットワーク仮想アプライアンス (NVA) をデプロイするのは、パートナーの NVA が使用されている場合にのみ検討してください。ネイティブ NVA が存在する場合、リージョン間または VNet 間の NVA は必要ありません。パートナー ネットワーク テクノロジと NVA をデプロイする場合は、ベンダーのガイダンスに従って、Azure ネットワークと競合する構成を確認します。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5508,7 +5516,7 @@
     <row r="100" ht="16.5" customHeight="1">
       <c r="A100" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B100" s="21" t="inlineStr">
@@ -5518,7 +5526,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN は、仮想 WAN ベースのトポロジのスポーク VNet 間の接続を管理し (ユーザー定義ルーティング (UDR) または NVA を設定する必要はありません)、同じ仮想ハブ内の VNet 間トラフィックの最大ネットワーク スループットは 50 ギガビット/秒です。必要に応じて、SAP ランディング ゾーンは VNet ピアリングを使用して他のランディング ゾーンに接続し、この帯域幅の制限を克服できます。</t>
+          <t>Virtual WAN は、Virtual WAN ベースのトポロジのスポーク VNet 間の接続を管理し (ユーザー定義ルーティング (UDR) や NVA を設定する必要はありません)、同じ仮想ハブ内の VNet 間トラフィックの最大ネットワーク スループットは 50 ギガビット/秒です。必要に応じて、SAP ランディング ゾーンでは VNet ピアリングを使用して他のランディング ゾーンに接続し、この帯域幅の制限を克服できます。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5558,7 +5566,7 @@
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B101" s="21" t="inlineStr">
@@ -5608,7 +5616,7 @@
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B102" s="21" t="inlineStr">
@@ -5618,7 +5626,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>ASRの設定時にDR側でIPアドレスを予約することを検討してください</t>
+          <t>ASR を設定するときは、DR 側で IP アドレスを予約することを検討してください</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5658,7 +5666,7 @@
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B103" s="21" t="inlineStr">
@@ -5708,7 +5716,7 @@
     <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B104" s="21" t="inlineStr">
@@ -5718,7 +5726,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Azure では 1 つの VNet に複数の委任されたサブネットを作成できますが、Azure NetApp Files の VNet に存在できる委任されたサブネットは 1 つだけです。Azure NetApp Files に複数の委任されたサブネットを使用すると、新しいボリュームを作成しようとしても失敗します。</t>
+          <t>Azure では VNet に複数の委任サブネットを作成するのに役立ちますが、Azure NetApp Files の VNet に存在できる委任サブネットは 1 つだけです。Azure NetApp Files に複数の委任されたサブネットを使用すると、新しいボリュームを作成しようとすると失敗します。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5758,7 +5766,7 @@
     <row r="105" ht="16.5" customHeight="1">
       <c r="A105" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B105" s="21" t="inlineStr">
@@ -5768,7 +5776,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルタリング (組織で必要な場合) を管理します</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5808,7 +5816,7 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
@@ -5818,7 +5826,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway、SAP Web Dispatcher、およびその他のサードパーティ サービスの比較に示すように、Application Gateway が SAP Web アプリのリバース プロキシとして機能する場合、Application Gateway と Web Application Firewall には制限があります。</t>
+          <t>Application Gateway、SAP Web Dispatcher、およびその他のサードパーティサービスの比較に示すように、Application Gateway が SAP Web アプリのリバースプロキシとして機能する場合、Application Gateway と Web Application Firewall には制限があります。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5858,7 +5866,7 @@
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B107" s="21" t="inlineStr">
@@ -5868,7 +5876,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバルな保護を提供します。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5908,7 +5916,7 @@
     <row r="108" ht="16.5" customHeight="1">
       <c r="A108" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B108" s="21" t="inlineStr">
@@ -5918,7 +5926,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と Application Gateway を使用して HTTP/S アプリケーションを保護する場合は、Azure Front Door の Web アプリケーション ファイアウォール ポリシーを利用します。Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
+          <t>Azure Front Door と Application Gateway を使用して HTTP/S アプリケーションを保護している場合は、Azure Front Door の Web アプリケーション ファイアウォール ポリシーを利用します。Azure Front Door からのトラフィックのみを受信するように Application Gateway をロックダウンします。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5958,7 +5966,7 @@
     <row r="109" ht="16.5" customHeight="1">
       <c r="A109" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B109" s="21" t="inlineStr">
@@ -5968,7 +5976,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Web アプリケーション ファイアウォールを使用して、インターネットに公開されているトラフィックをスキャンします。別のオプションとして、ロード バランサーや、Application Gateway やサードパーティ ソリューションなどのファイアウォール機能が組み込まれているリソースと共に使用することもできます。</t>
+          <t>Web アプリケーション ファイアウォールを使用して、インターネットに公開されているトラフィックをスキャンします。別のオプションは、ロード バランサーで使用するか、Application Gateway やサードパーティ ソリューションなどのファイアウォール機能が組み込まれているリソースで使用することです。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -6008,7 +6016,7 @@
     <row r="110" ht="16.5" customHeight="1">
       <c r="A110" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B110" s="21" t="inlineStr">
@@ -6018,7 +6026,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
+          <t>Virtual WAN は、Azure リージョンとオンプレミスの場所間でグローバルなトランジット接続が必要な新しいネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要がなく、SAP on Azure デプロイの標準に従うことができます。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6058,7 +6066,7 @@
     <row r="111" ht="16.5" customHeight="1">
       <c r="A111" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B111" s="21" t="inlineStr">
@@ -6068,7 +6076,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>データ漏えいを防ぐには、Azure Private Link を使用して、Azure Blob Storage、Azure Files、Azure Data Lake Storage Gen2、Azure Data Factory などのサービスとしてのプラットフォーム リソースに安全にアクセスします。Azure プライベート エンドポイントは、VNet と Azure Storage、Azure Backup などのサービス間のトラフィックをセキュリティで保護するのにも役立ちます。VNet とプライベート エンドポイント対応サービス間のトラフィックは、Microsoft グローバル ネットワークを経由するため、パブリック インターネットへの公開は防止されます。</t>
+          <t>データ漏えいを防ぐには、Azure Private Link を使用して、Azure Blob Storage、Azure Files、Azure Data Lake Storage Gen2、Azure Data Factory などのサービスとしてのプラットフォーム リソースに安全にアクセスします。Azure プライベート エンドポイントは、VNet と Azure Storage、Azure Backup などのサービス間のトラフィックをセキュリティで保護するのにも役立ちます。VNet とプライベート エンドポイント対応サービス間のトラフィックは、Microsoft グローバル ネットワークを経由するため、パブリック インターネットに公開されるのを防ぎます。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6108,7 +6116,7 @@
     <row r="112" ht="16.5" customHeight="1">
       <c r="A112" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B112" s="21" t="inlineStr">
@@ -6158,7 +6166,7 @@
     <row r="113" ht="16.5" customHeight="1">
       <c r="A113" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B113" s="21" t="inlineStr">
@@ -6168,7 +6176,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer の内部デプロイが Direct Server Return (DSR) を使用するように設定されていることを確認します。この設定 (フローティング IP の有効化) により、DBMS レイヤーの高可用性構成に内部ロード バランサー構成が使用されている場合の待機時間が短縮されます。</t>
+          <t>Azure Load Balancer の内部デプロイが Direct Server Return (DSR) を使用するように設定されていることを確認します。この設定 (フローティング IP の有効化) は、DBMS レイヤーの高可用性構成に内部ロード バランサー構成を使用する場合のレイテンシを短縮します。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6208,7 +6216,7 @@
     <row r="114" ht="16.5" customHeight="1">
       <c r="A114" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B114" s="21" t="inlineStr">
@@ -6218,7 +6226,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション セキュリティ グループ (ASG) と NSG 規則を使用して、SAP アプリケーション層と DBMS 層の間にネットワーク セキュリティのアクセス制御リストを定義できます。ASG は、仮想マシンをグループ化してセキュリティの管理に役立てます。</t>
+          <t>アプリケーション セキュリティ グループ (ASG) ルールと NSG ルールを使用して、SAP アプリケーションと DBMS レイヤー間のネットワーク セキュリティ アクセス制御リストを定義できます。ASG は、セキュリティの管理に役立つ仮想マシンをグループ化します。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6258,7 +6266,7 @@
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B115" s="21" t="inlineStr">
@@ -6268,7 +6276,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>ピアリングされていない異なる Azure VNet への SAP アプリケーション レイヤーと SAP DBMS の配置はサポートされていません。</t>
+          <t>ピアリングされていない異なる Azure VNet に SAP アプリケーション レイヤーと SAP DBMS を配置することはサポートされていません。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6308,7 +6316,7 @@
     <row r="116" ht="16.5" customHeight="1">
       <c r="A116" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B116" s="21" t="inlineStr">
@@ -6318,7 +6326,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーションで最適なネットワーク待機時間を実現するには、Azure 近接通信配置グループの使用を検討してください。</t>
+          <t>SAP アプリケーションでのネットワーク待機時間を最適化するには、Azure 近接通信配置グループの使用を検討してください。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6358,7 +6366,7 @@
     <row r="117" ht="16.5" customHeight="1">
       <c r="A117" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B117" s="21" t="inlineStr">
@@ -6368,7 +6376,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスと Azure の間で分割された SAP アプリケーション サーバー レイヤーと DBMS レイヤーを実行することは、まったくサポートされていません。どちらのレイヤーも、オンプレミスまたは Azure に完全に存在する必要があります。</t>
+          <t>オンプレミスと Azure の間で分割された SAP アプリケーション サーバー レイヤーと DBMS レイヤーの実行はまったくサポートされていません。どちらのレイヤーも、オンプレミスまたは Azure に完全に存在する必要があります。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6408,7 +6416,7 @@
     <row r="118" ht="16.5" customHeight="1">
       <c r="A118" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B118" s="21" t="inlineStr">
@@ -6418,7 +6426,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>SAP システムのデータベース管理システム (DBMS) レイヤーとアプリケーション レイヤーを異なる VNet でホストし、それらを VNet ピアリングに接続することは、レイヤー間の過剰なネットワーク トラフィックによって生成される可能性があるため、お勧めしません。Azure 仮想ネットワーク内のサブネットを使用して、SAP アプリケーション レイヤーと DBMS レイヤーを分離することをお勧めします。</t>
+          <t>データベース管理システム (DBMS) と SAP システムのアプリケーション層を異なる VNet でホストし、それらを VNet ピアリングで接続することは、層間の過剰なネットワーク トラフィックによって大きなコストが発生する可能性があるため、お勧めしません。Azure 仮想ネットワーク内のサブネットを使用して、SAP アプリケーション レイヤーと DBMS レイヤーを分離することをお勧めします。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6458,7 +6466,7 @@
     <row r="119" ht="16.5" customHeight="1">
       <c r="A119" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B119" s="21" t="inlineStr">
@@ -6508,7 +6516,7 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
@@ -6518,7 +6526,7 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>SAP RISE/ECS デプロイの場合、仮想ピアリングは、お客様の既存の Azure 環境との接続を確立するための推奨される方法です。SAP vnet と顧客 VNet の両方がネットワーク セキュリティ グループ (NSG) で保護され、vnet ピアリングを介した SAP ポートとデータベース ポートでの通信が可能になります</t>
+          <t>SAP RISE/ECS デプロイの場合、仮想ピアリングは、お客様の既存の Azure 環境との接続を確立するための推奨される方法です。SAP vnet と顧客 vnet はどちらもネットワーク セキュリティ グループ (NSG) で保護されているため、vnet ピアリングを介して SAP ポートとデータベース ポートで通信できます</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6554,7 +6562,7 @@
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="21" t="inlineStr">
         <is>
-          <t>オペレーショナル・エクセレンス</t>
+          <t>オペレーショナルエクセレンス</t>
         </is>
       </c>
       <c r="B121" s="21" t="inlineStr">
@@ -6600,7 +6608,7 @@
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="21" t="inlineStr">
         <is>
-          <t>オペレーショナル・エクセレンス</t>
+          <t>オペレーショナルエクセレンス</t>
         </is>
       </c>
       <c r="B122" s="21" t="inlineStr">
@@ -6610,7 +6618,7 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Site Recovery の組み込み監視 (SAP で使用されている場合) を確認します。</t>
+          <t>Site Recovery の組み込み監視 (SAP に使用されている場所) を確認します。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
@@ -6646,7 +6654,7 @@
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="21" t="inlineStr">
         <is>
-          <t>オペレーショナル・エクセレンス</t>
+          <t>オペレーショナルエクセレンス</t>
         </is>
       </c>
       <c r="B123" s="21" t="inlineStr">
@@ -6656,7 +6664,7 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>SAP HANA システム ランドスケープの監視に関するガイダンスを確認します。</t>
+          <t>SAP HANA システムランドスケープの監視のガイダンスを確認します。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6692,7 +6700,7 @@
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="21" t="inlineStr">
         <is>
-          <t>オペレーショナル・エクセレンス</t>
+          <t>オペレーショナルエクセレンス</t>
         </is>
       </c>
       <c r="B124" s="21" t="inlineStr">
@@ -6738,7 +6746,7 @@
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="21" t="inlineStr">
         <is>
-          <t>オペレーショナル・エクセレンス</t>
+          <t>オペレーショナルエクセレンス</t>
         </is>
       </c>
       <c r="B125" s="21" t="inlineStr">
@@ -6784,7 +6792,7 @@
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="21" t="inlineStr">
         <is>
-          <t>オペレーショナル・エクセレンス</t>
+          <t>オペレーショナルエクセレンス</t>
         </is>
       </c>
       <c r="B126" s="21" t="inlineStr">
@@ -6829,7 +6837,7 @@
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="21" t="inlineStr">
         <is>
-          <t>オペレーショナル・エクセレンス</t>
+          <t>オペレーショナルエクセレンス</t>
         </is>
       </c>
       <c r="B127" s="21" t="inlineStr">
@@ -6975,7 +6983,7 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>SAP ABAPMeter report /SSA/CAT を使用して、SAP アプリケーション サーバーからデータベース サーバー間の待機時間を確認します。</t>
+          <t>SAP ABAPMeter レポート /SSA/CAT を使用して、SAP アプリケーション サーバーとデータベース サーバー間の待機時間を確認します。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -7025,7 +7033,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>CCMS を使用した SQL Server のパフォーマンス監視を確認します。</t>
+          <t>CCMS を使用した SQL Server パフォーマンス監視を確認します。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7066,7 +7074,7 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>SAP アプリケーション レイヤー VM と DBMS VM 間のネットワーク待機時間をテストします (NIPING)。</t>
+          <t>SAP アプリケーション レイヤー VM と DBMS VM 間のネットワーク遅延をテストします (NIPING)。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7116,7 +7124,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>SAP HANA Studio アラートを確認します。</t>
+          <t>SAP HANA Studio のアラートを確認します。</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7161,7 +7169,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>HANA_Configuration_Minichecks を使用して SAP HANA ヘルスチェックを実行します。</t>
+          <t>HANA_Configuration_Minichecksを使用して SAP HANA ヘルスチェックを実行します。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7256,7 +7264,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>SAP は、SAP システムを保護するために即時のアクションを必要とする非常に重要なセキュリティ パッチまたはホット フィックスをリリースしているため、SAP セキュリティ OSS ノートを定期的に確認してください。</t>
+          <t>SAP は、SAP システムを保護するために即時のアクションが必要な非常に重要なセキュリティパッチ (ホットフィックス) をリリースするため、SAP セキュリティ OSS ノートを定期的に確認してください。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7306,7 +7314,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>SQL Server 上の SAP システムではアカウントを使用しないため、SQL Server 上の SAP システム管理者アカウントを無効にすることができます。元のシステム管理者アカウントを無効にする前に、システム管理者権限を持つ別のユーザーがサーバーにアクセスできることを確認してください。</t>
+          <t>SQL Server 上の SAP システムではアカウントが使用されないため、SQL Server on SQL Server システム管理者アカウントを無効にすることができます。元のシステム管理者アカウントを無効にする前に、システム管理者権限を持つ別のユーザーがサーバーにアクセスできることを確認してください。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7351,7 +7359,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>xp_cmdshellを無効にします。SQL Server 機能xp_cmdshell、SQL Server 内部オペレーティング システムのコマンド シェルを有効にします。これは、セキュリティ監査における潜在的なリスクです。</t>
+          <t>xp_cmdshellを無効にします。SQL Server 機能xp_cmdshellは、SQL Server 内部オペレーティング システム コマンド シェルを有効にします。これは、セキュリティ監査における潜在的なリスクです。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7401,7 +7409,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Azure 上の SAP HANA データベース サーバーの暗号化では、SAP HANA ネイティブ暗号化テクノロジが使用されます。さらに、Azure で SQL Server を使用している場合は、Transparent Data Encryption (TDE) を使用してデータとログ ファイルを保護し、バックアップも暗号化されるようにします。</t>
+          <t>Azure 上の SAP HANA データベース サーバーの暗号化には、SAP HANA ネイティブの暗号化テクノロジが使用されます。さらに、Azure で SQL Server を使用している場合は、Transparent Data Encryption (TDE) を使用してデータとログ ファイルを保護し、バックアップも暗号化されるようにします。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7451,7 +7459,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage の暗号化は、すべての Azure Resource Manager とクラシック ストレージ アカウントに対して有効になっており、無効にすることはできません。データは既定で暗号化されるため、Azure Storage 暗号化を使用するためにコードやアプリケーションを変更する必要はありません。</t>
+          <t>Azure Storage の暗号化は、すべての Azure Resource Manager アカウントとクラシック ストレージ アカウントに対して有効になっており、無効にすることはできません。データは既定で暗号化されるため、Azure Storage の暗号化を使用するためにコードやアプリケーションを変更する必要はありません。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7551,7 +7559,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>デプロイが成功したら、Azure リソースを LOCK して、承認されていない変更から保護することをお勧めします。また、カスタマイズされた Azure ポリシー (Custome ロール) を使用して、サブスクリプションごとに LOCK の制約とルールを適用することもできます。</t>
+          <t>デプロイが成功したら、承認されていない変更から保護するために、Azure リソースをロックすることをお勧めします。また、カスタマイズされた Azure ポリシー (カスタム ロール) を使用して、サブスクリプションごとに LOCK 制約とルールを適用することもできます。</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7651,7 +7659,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>既存の要件、規制、コンプライアンス制御 (内部/外部) に基づいて、必要な Azure ポリシーと Azure RBAC ロールを決定します</t>
+          <t>既存の要件、規制、コンプライアンス制御 (内部/外部) に基づいて - 必要な Azure ポリシーと Azure RBAC ロールを決定します</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7701,7 +7709,7 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>SAP 環境でMicrosoft Defender for Endpointを有効にする場合は、すべてのサーバーを対象とするのではなく、DBMS サーバー上のデータとログ ファイルを除外することをお勧めします。ターゲット ファイルを除外する場合は、DBMS ベンダーの推奨事項に従ってください。</t>
+          <t>SAP 環境でMicrosoft Defender for Endpointを有効にする場合は、すべてのサーバーをターゲットにするのではなく、DBMS サーバー上のデータ ファイルとログ ファイルを除外することをお勧めします。ターゲット ファイルを除外する場合は、DBMS ベンダーの推奨事項に従ってください。</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7801,7 +7809,7 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>サードパーティのセキュリティ製品を DIAG (SAP GUI)、RFC、および SPNEGO for HTTPS のセキュアネットワーク通信 (SNC) と統合することにより、転送中のデータを暗号化します。</t>
+          <t>サードパーティのセキュリティ製品を DIAG (SAP GUI)、RFC、HTTPS の SPNEGO の Secure Network Communications (SNC) と統合することで、転送中のデータを暗号化します。</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7851,7 +7859,7 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>プリンシパル暗号化機能には Microsoft マネージド キーが既定で設定され、必要に応じてカスタマー マネージド キーが使用されます。</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7951,7 +7959,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>HANA 以外の Windows オペレーティング システムと Windows 以外のオペレーティング システムのディスク暗号化キーとシークレットを制御および管理するには、Azure Key Vault を使用します。SAP HANA は Azure Key Vault ではサポートされていないため、SAP ABAP キーや SSH キーなどの代替方法を使用する必要があります。</t>
+          <t>HANA 以外の Windows および Windows 以外のオペレーティング システムのディスク暗号化キーとシークレットを制御および管理するには、Azure Key Vault を使用します。SAP HANA は Azure Key Vault ではサポートされていないため、SAP ABAP キーや SSH キーなどの別の方法を使用する必要があります。</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -8001,7 +8009,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します</t>
+          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、ネットワーク関連の偶発的な変更を回避する</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -8051,7 +8059,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
+          <t>DMZ と NVA を他の SAP 資産から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8151,7 +8159,7 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>さらに強力な保護を行うには、Microsoft Defender for Endpointの使用を検討してください。</t>
+          <t>さらに強力な保護を行うには、Microsoft Defender for Endpoint の使用を検討してください。</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8201,7 +8209,7 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワーク ピアリングによってスポーク ネットワークに接続されているハブ仮想ネットワークを介してすべてのトラフィックを渡すことで、SAP アプリケーションとデータベース サーバーをインターネットまたはオンプレミス ネットワークから分離します。ピアリングされた仮想ネットワークにより、SAP on Azure ソリューションがパブリック インターネットから分離されることが保証されます。</t>
+          <t>仮想ネットワーク ピアリングによってスポーク ネットワークに接続されているハブ仮想ネットワークを介してすべてのトラフィックを通過させることにより、SAP アプリケーション サーバーとデータベース サーバーをインターネットまたはオンプレミス ネットワークから分離します。ピアリングされた仮想ネットワークにより、SAP on Azure ソリューションがパブリック インターネットから分離されることが保証されます。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8251,7 +8259,7 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>SAP Fiori などのインターネットに接続するアプリケーションの場合は、セキュリティレベルを維持しながら、アプリケーション要件ごとに負荷を分散してください。レイヤー 7 セキュリティについては、Azure Marketplace で入手できるサードパーティの Web アプリケーション ファイアウォール (WAF) を使用できます。</t>
+          <t>SAP Fiori のようなインターネットに接続するアプリケーションの場合は、セキュリティレベルを維持しながら、アプリケーション要件ごとに負荷を分散してください。レイヤー 7 セキュリティのために、Azure Marketplace で入手できるサードパーティの Web アプリケーション ファイアウォール (WAF) を使用できます。</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
@@ -8301,7 +8309,7 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor for SAP solutions でセキュリティで保護された通信を有効にするには、ルート証明書またはサーバー証明書のいずれかを使用することを選択できます。ルート証明書を使用することを強くお勧めします。</t>
+          <t>Azure Monitor for SAP solutions でセキュリティで保護された通信を有効にするには、ルート証明書またはサーバー証明書のどちらを使用するかを選択できます。ルート証明書を使用することを強くお勧めします。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -10686,7 +10694,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>IDとアクセス</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -10701,7 +10709,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>このチェックはまだ検討されていません</t>
+          <t>このチェックはまだ見ていません</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -10723,7 +10731,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -10755,7 +10763,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みで、これ以上のアクションアイテムは関連付けられていません</t>
+          <t>このチェックは検証済みであり、これ以上のアクション アイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -10767,7 +10775,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>必要なし</t>
+          <t>必須ではありません</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -10777,7 +10785,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>推奨事項は理解されているが、現在の要件では不要</t>
+          <t>推奨事項は理解されているが、現在の要件では必要ではない</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
